--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/pp12-92-seasons/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5828952C-DDE4-4E48-A763-0BA32A5364C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDAEB17-B5FF-CB45-AF05-384296B86AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="1991-92" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet11" sheetId="15" r:id="rId2"/>
+    <sheet name="1990-91" sheetId="16" r:id="rId1"/>
+    <sheet name="1991-92" sheetId="7" r:id="rId2"/>
     <sheet name="1992-93" sheetId="11" r:id="rId3"/>
     <sheet name="1993-94" sheetId="14" r:id="rId4"/>
     <sheet name="1994-95" sheetId="1" r:id="rId5"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="78">
   <si>
     <t>11+</t>
   </si>
@@ -267,12 +267,21 @@
   <si>
     <t>14*</t>
   </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>McCarrick</t>
+  </si>
+  <si>
+    <t>IMcNab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +294,19 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -307,9 +329,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,6 +647,2921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B1DCE2-83C0-7043-83EC-E3BF8EDF97DC}">
+  <dimension ref="A1:T62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3">
+        <v>7</v>
+      </c>
+      <c r="O2" s="3">
+        <v>10</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>9</v>
+      </c>
+      <c r="S2" s="3">
+        <v>11</v>
+      </c>
+      <c r="T2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4</v>
+      </c>
+      <c r="N3" s="3">
+        <v>7</v>
+      </c>
+      <c r="O3" s="3">
+        <v>10</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>9</v>
+      </c>
+      <c r="S3" s="3">
+        <v>11</v>
+      </c>
+      <c r="T3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4</v>
+      </c>
+      <c r="N4" s="3">
+        <v>7</v>
+      </c>
+      <c r="O4" s="3">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>9</v>
+      </c>
+      <c r="S4" s="3">
+        <v>11</v>
+      </c>
+      <c r="T4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3">
+        <v>7</v>
+      </c>
+      <c r="O5" s="3">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>9</v>
+      </c>
+      <c r="S5" s="3">
+        <v>11</v>
+      </c>
+      <c r="T5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <v>4</v>
+      </c>
+      <c r="N6" s="3">
+        <v>7</v>
+      </c>
+      <c r="O6" s="3">
+        <v>10</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>9</v>
+      </c>
+      <c r="S6" s="3">
+        <v>11</v>
+      </c>
+      <c r="T6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>14</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <v>4</v>
+      </c>
+      <c r="N7" s="3">
+        <v>7</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>9</v>
+      </c>
+      <c r="S7" s="3">
+        <v>11</v>
+      </c>
+      <c r="T7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>7</v>
+      </c>
+      <c r="O8" s="3">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>9</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>14</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>7</v>
+      </c>
+      <c r="O9" s="3">
+        <v>10</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>9</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
+        <v>10</v>
+      </c>
+      <c r="P10" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>9</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>14</v>
+      </c>
+      <c r="K11" s="3">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="3">
+        <v>4</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="3">
+        <v>10</v>
+      </c>
+      <c r="P11" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>9</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>14</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>7</v>
+      </c>
+      <c r="O12" s="3">
+        <v>10</v>
+      </c>
+      <c r="P12" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>11</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>4</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="3">
+        <v>10</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>9</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>11</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>9</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>7</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>9</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <v>7</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3">
+        <v>12</v>
+      </c>
+      <c r="O16" s="3">
+        <v>10</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>9</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>7</v>
+      </c>
+      <c r="K17" s="3">
+        <v>14</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
+        <v>12</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>9</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>11</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
+        <v>7</v>
+      </c>
+      <c r="O18" s="3">
+        <v>10</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>9</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>14</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <v>3</v>
+      </c>
+      <c r="M19" s="3">
+        <v>4</v>
+      </c>
+      <c r="N19" s="3">
+        <v>7</v>
+      </c>
+      <c r="O19" s="3">
+        <v>10</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>9</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
+        <v>7</v>
+      </c>
+      <c r="O20" s="3">
+        <v>10</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>9</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
+        <v>7</v>
+      </c>
+      <c r="O21" s="3">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>9</v>
+      </c>
+      <c r="S21" s="3">
+        <v>11</v>
+      </c>
+      <c r="T21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>14</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
+        <v>12</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
+        <v>7</v>
+      </c>
+      <c r="O22" s="3">
+        <v>10</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3">
+        <v>9</v>
+      </c>
+      <c r="S22" s="3">
+        <v>11</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
+        <v>14</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
+        <v>10</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>9</v>
+      </c>
+      <c r="S23" s="3">
+        <v>11</v>
+      </c>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>14</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
+        <v>10</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>9</v>
+      </c>
+      <c r="S24" s="3">
+        <v>11</v>
+      </c>
+      <c r="T24" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="3">
+        <v>7</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <v>4</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>14</v>
+      </c>
+      <c r="S25" s="3">
+        <v>11</v>
+      </c>
+      <c r="T25" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>9</v>
+      </c>
+      <c r="S26" s="3">
+        <v>11</v>
+      </c>
+      <c r="T26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3">
+        <v>12</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>9</v>
+      </c>
+      <c r="S27" s="3">
+        <v>11</v>
+      </c>
+      <c r="T27" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="3">
+        <v>7</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <v>4</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3">
+        <v>12</v>
+      </c>
+      <c r="P28" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>9</v>
+      </c>
+      <c r="S28" s="3">
+        <v>11</v>
+      </c>
+      <c r="T28" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>7</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
+        <v>12</v>
+      </c>
+      <c r="O29" s="3">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>9</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T29" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <v>8</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3">
+        <v>5</v>
+      </c>
+      <c r="I30" s="3">
+        <v>11</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <v>4</v>
+      </c>
+      <c r="N30" s="3">
+        <v>7</v>
+      </c>
+      <c r="O30" s="3">
+        <v>10</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+      <c r="R30" s="3">
+        <v>9</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <v>8</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5</v>
+      </c>
+      <c r="I31" s="3">
+        <v>4</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="3">
+        <v>10</v>
+      </c>
+      <c r="P31" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>9</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3">
+        <v>7</v>
+      </c>
+      <c r="O32" s="3">
+        <v>10</v>
+      </c>
+      <c r="P32" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3">
+        <v>9</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3">
+        <v>7</v>
+      </c>
+      <c r="O33" s="3">
+        <v>10</v>
+      </c>
+      <c r="P33" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3">
+        <v>9</v>
+      </c>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
+        <v>8</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>4</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3">
+        <v>7</v>
+      </c>
+      <c r="O34" s="3">
+        <v>10</v>
+      </c>
+      <c r="P34" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>1</v>
+      </c>
+      <c r="R34" s="3">
+        <v>9</v>
+      </c>
+      <c r="S34" s="3">
+        <v>11</v>
+      </c>
+      <c r="T34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3">
+        <v>7</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="3">
+        <v>14</v>
+      </c>
+      <c r="O35" s="3">
+        <v>10</v>
+      </c>
+      <c r="P35" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1</v>
+      </c>
+      <c r="R35" s="3">
+        <v>9</v>
+      </c>
+      <c r="S35" s="3">
+        <v>11</v>
+      </c>
+      <c r="T35" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
+        <v>5</v>
+      </c>
+      <c r="I36" s="3">
+        <v>4</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3">
+        <v>7</v>
+      </c>
+      <c r="O36" s="3">
+        <v>10</v>
+      </c>
+      <c r="P36" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>1</v>
+      </c>
+      <c r="R36" s="3">
+        <v>9</v>
+      </c>
+      <c r="S36" s="3">
+        <v>11</v>
+      </c>
+      <c r="T36" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
+        <v>12</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>8</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
+        <v>5</v>
+      </c>
+      <c r="I37" s="3">
+        <v>4</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3">
+        <v>14</v>
+      </c>
+      <c r="N37" s="3">
+        <v>7</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>1</v>
+      </c>
+      <c r="R37" s="3">
+        <v>9</v>
+      </c>
+      <c r="S37" s="3">
+        <v>11</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3">
+        <v>4</v>
+      </c>
+      <c r="N38" s="3">
+        <v>14</v>
+      </c>
+      <c r="O38" s="3">
+        <v>10</v>
+      </c>
+      <c r="P38" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>1</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S38" s="3">
+        <v>11</v>
+      </c>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <v>6</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5</v>
+      </c>
+      <c r="I39" s="3">
+        <v>7</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3">
+        <v>4</v>
+      </c>
+      <c r="N39" s="3">
+        <v>14</v>
+      </c>
+      <c r="O39" s="3">
+        <v>10</v>
+      </c>
+      <c r="P39" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39" s="3">
+        <v>9</v>
+      </c>
+      <c r="S39" s="3">
+        <v>11</v>
+      </c>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3">
+        <v>6</v>
+      </c>
+      <c r="F40" s="3">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3">
+        <v>4</v>
+      </c>
+      <c r="N40" s="3">
+        <v>14</v>
+      </c>
+      <c r="O40" s="3">
+        <v>10</v>
+      </c>
+      <c r="P40" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>1</v>
+      </c>
+      <c r="R40" s="3">
+        <v>9</v>
+      </c>
+      <c r="S40" s="3">
+        <v>11</v>
+      </c>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>6</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>12</v>
+      </c>
+      <c r="J41" s="3">
+        <v>14</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
+        <v>10</v>
+      </c>
+      <c r="P41" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>1</v>
+      </c>
+      <c r="R41" s="3">
+        <v>9</v>
+      </c>
+      <c r="S41" s="3">
+        <v>11</v>
+      </c>
+      <c r="T41" s="3"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>12</v>
+      </c>
+      <c r="J42" s="3">
+        <v>14</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
+        <v>10</v>
+      </c>
+      <c r="P42" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1</v>
+      </c>
+      <c r="R42" s="3">
+        <v>9</v>
+      </c>
+      <c r="S42" s="3">
+        <v>11</v>
+      </c>
+      <c r="T42" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>12</v>
+      </c>
+      <c r="J43" s="3">
+        <v>14</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
+        <v>10</v>
+      </c>
+      <c r="P43" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1</v>
+      </c>
+      <c r="R43" s="3">
+        <v>9</v>
+      </c>
+      <c r="S43" s="3">
+        <v>11</v>
+      </c>
+      <c r="T43" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7</v>
+      </c>
+      <c r="J44" s="3">
+        <v>12</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3">
+        <v>10</v>
+      </c>
+      <c r="P44" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3">
+        <v>9</v>
+      </c>
+      <c r="S44" s="3">
+        <v>11</v>
+      </c>
+      <c r="T44" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7</v>
+      </c>
+      <c r="J45" s="3">
+        <v>12</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>14</v>
+      </c>
+      <c r="O45" s="3">
+        <v>10</v>
+      </c>
+      <c r="P45" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3">
+        <v>12</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46" s="3">
+        <v>10</v>
+      </c>
+      <c r="P46" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3">
+        <v>9</v>
+      </c>
+      <c r="S46" s="3">
+        <v>11</v>
+      </c>
+      <c r="T46" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>12</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
+        <v>7</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>1</v>
+      </c>
+      <c r="R47" s="3">
+        <v>9</v>
+      </c>
+      <c r="S47" s="3">
+        <v>11</v>
+      </c>
+      <c r="T47" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3">
+        <v>12</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>14</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
+        <v>10</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S48" s="3">
+        <v>11</v>
+      </c>
+      <c r="T48" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3">
+        <v>7</v>
+      </c>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1</v>
+      </c>
+      <c r="R49" s="3">
+        <v>9</v>
+      </c>
+      <c r="S49" s="3">
+        <v>11</v>
+      </c>
+      <c r="T49" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3">
+        <v>12</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>14</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" s="3">
+        <v>8</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3">
+        <v>4</v>
+      </c>
+      <c r="N50" s="3">
+        <v>7</v>
+      </c>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>1</v>
+      </c>
+      <c r="R50" s="3">
+        <v>9</v>
+      </c>
+      <c r="S50" s="3">
+        <v>11</v>
+      </c>
+      <c r="T50" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3">
+        <v>14</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="3">
+        <v>8</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3">
+        <v>4</v>
+      </c>
+      <c r="N51" s="3">
+        <v>7</v>
+      </c>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>1</v>
+      </c>
+      <c r="R51" s="3">
+        <v>9</v>
+      </c>
+      <c r="S51" s="3">
+        <v>11</v>
+      </c>
+      <c r="T51" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3">
+        <v>12</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>14</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>1</v>
+      </c>
+      <c r="R52" s="3">
+        <v>9</v>
+      </c>
+      <c r="S52" s="3">
+        <v>11</v>
+      </c>
+      <c r="T52" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3">
+        <v>12</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="3">
+        <v>2</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3">
+        <v>10</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3">
+        <v>4</v>
+      </c>
+      <c r="N53" s="3">
+        <v>7</v>
+      </c>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>1</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S53" s="3">
+        <v>11</v>
+      </c>
+      <c r="T53" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3">
+        <v>10</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
+        <v>14</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
+        <v>7</v>
+      </c>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1</v>
+      </c>
+      <c r="R54" s="3">
+        <v>9</v>
+      </c>
+      <c r="S54" s="3">
+        <v>11</v>
+      </c>
+      <c r="T54" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3">
+        <v>2</v>
+      </c>
+      <c r="H55" s="3">
+        <v>5</v>
+      </c>
+      <c r="I55" s="3">
+        <v>8</v>
+      </c>
+      <c r="J55" s="3">
+        <v>12</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3">
+        <v>4</v>
+      </c>
+      <c r="N55" s="3">
+        <v>7</v>
+      </c>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>1</v>
+      </c>
+      <c r="R55" s="3">
+        <v>9</v>
+      </c>
+      <c r="S55" s="3">
+        <v>11</v>
+      </c>
+      <c r="T55" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
+        <v>2</v>
+      </c>
+      <c r="H56" s="3">
+        <v>5</v>
+      </c>
+      <c r="I56" s="3">
+        <v>8</v>
+      </c>
+      <c r="J56" s="3">
+        <v>12</v>
+      </c>
+      <c r="K56" s="3">
+        <v>14</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3">
+        <v>4</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>1</v>
+      </c>
+      <c r="R56" s="3">
+        <v>9</v>
+      </c>
+      <c r="S56" s="3">
+        <v>11</v>
+      </c>
+      <c r="T56" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
+        <v>12</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
+        <v>7</v>
+      </c>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S57" s="3">
+        <v>11</v>
+      </c>
+      <c r="T57" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
+        <v>2</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="3">
+        <v>12</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
+        <v>7</v>
+      </c>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1</v>
+      </c>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3">
+        <v>11</v>
+      </c>
+      <c r="T58" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3">
+        <v>10</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3">
+        <v>14</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3">
+        <v>7</v>
+      </c>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1</v>
+      </c>
+      <c r="R59" s="3">
+        <v>9</v>
+      </c>
+      <c r="S59" s="3">
+        <v>11</v>
+      </c>
+      <c r="T59" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3">
+        <v>2</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3">
+        <v>14</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3">
+        <v>1</v>
+      </c>
+      <c r="R60" s="3">
+        <v>9</v>
+      </c>
+      <c r="S60" s="3">
+        <v>11</v>
+      </c>
+      <c r="T60" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <v>2</v>
+      </c>
+      <c r="H61" s="3">
+        <v>5</v>
+      </c>
+      <c r="I61" s="3">
+        <v>8</v>
+      </c>
+      <c r="J61" s="3">
+        <v>12</v>
+      </c>
+      <c r="K61" s="3">
+        <v>14</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="3">
+        <v>7</v>
+      </c>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3">
+        <v>1</v>
+      </c>
+      <c r="R61" s="3">
+        <v>9</v>
+      </c>
+      <c r="S61" s="3">
+        <v>11</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6</v>
+      </c>
+      <c r="F62" s="3">
+        <v>14</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>12</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3">
+        <v>7</v>
+      </c>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3">
+        <v>1</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S62" s="3">
+        <v>11</v>
+      </c>
+      <c r="T62" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEC80A8-202C-9946-8EBB-EFD49AAE7C1A}">
   <dimension ref="A1:W60"/>
   <sheetViews>
@@ -2974,23 +5913,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BAF2C6-109D-1143-8A73-37780FE37E32}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9AD14E-5C41-B640-841F-A02FBCF76B8F}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:W60"/>
     </sheetView>
   </sheetViews>

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDAEB17-B5FF-CB45-AF05-384296B86AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CED7C6-862D-C042-B7A5-4E96C88FF34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="1990-91" sheetId="16" r:id="rId1"/>
     <sheet name="1991-92" sheetId="7" r:id="rId2"/>
     <sheet name="1992-93" sheetId="11" r:id="rId3"/>
-    <sheet name="1993-94" sheetId="14" r:id="rId4"/>
-    <sheet name="1994-95" sheetId="1" r:id="rId5"/>
-    <sheet name="1995-96" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId4"/>
+    <sheet name="1993-94" sheetId="14" r:id="rId5"/>
+    <sheet name="1994-95" sheetId="1" r:id="rId6"/>
+    <sheet name="1995-96" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="84">
   <si>
     <t>11+</t>
   </si>
@@ -276,6 +277,24 @@
   <si>
     <t>IMcNab</t>
   </si>
+  <si>
+    <t>Bauress</t>
+  </si>
+  <si>
+    <t>Fairclough</t>
+  </si>
+  <si>
+    <t>Pike</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>11'</t>
+  </si>
+  <si>
+    <t>4•</t>
+  </si>
 </sst>
 </file>
 
@@ -329,11 +348,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5917,7 +5939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9AD14E-5C41-B640-841F-A02FBCF76B8F}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:W60"/>
     </sheetView>
   </sheetViews>
@@ -8224,6 +8246,4017 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0C9159-3439-D04D-A570-3940686A82F2}">
+  <dimension ref="A1:T66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="4">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="4">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="4">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="4">
+        <v>11</v>
+      </c>
+      <c r="T2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="4">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="4">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="4">
+        <v>11</v>
+      </c>
+      <c r="T3" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="4">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="4">
+        <v>11</v>
+      </c>
+      <c r="T4" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="4">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="4">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="4">
+        <v>11</v>
+      </c>
+      <c r="T5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="4">
+        <v>9</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="4">
+        <v>7</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="4">
+        <v>11</v>
+      </c>
+      <c r="T6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="4">
+        <v>9</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="4">
+        <v>11</v>
+      </c>
+      <c r="T7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="4">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="4">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="4">
+        <v>11</v>
+      </c>
+      <c r="T8" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="4">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="4">
+        <v>10</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="4">
+        <v>12</v>
+      </c>
+      <c r="S9" s="4">
+        <v>11</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="4">
+        <v>7</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="4">
+        <v>11</v>
+      </c>
+      <c r="T10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="4">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="4">
+        <v>12</v>
+      </c>
+      <c r="S11" s="4">
+        <v>11</v>
+      </c>
+      <c r="T11" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="4">
+        <v>7</v>
+      </c>
+      <c r="N12" s="4">
+        <v>10</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="4">
+        <v>11</v>
+      </c>
+      <c r="T12" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="4">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>10</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" s="4">
+        <v>14</v>
+      </c>
+      <c r="S13" s="4">
+        <v>11</v>
+      </c>
+      <c r="T13" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="4">
+        <v>9</v>
+      </c>
+      <c r="J14" s="4">
+        <v>4</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="4">
+        <v>7</v>
+      </c>
+      <c r="N14" s="4">
+        <v>10</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="4">
+        <v>11</v>
+      </c>
+      <c r="T14" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="4">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="4">
+        <v>7</v>
+      </c>
+      <c r="N15" s="4">
+        <v>10</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" s="4">
+        <v>11</v>
+      </c>
+      <c r="T15" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="4">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="4">
+        <v>7</v>
+      </c>
+      <c r="N16" s="4">
+        <v>10</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R16" s="4">
+        <v>14</v>
+      </c>
+      <c r="S16" s="4">
+        <v>11</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="4">
+        <v>7</v>
+      </c>
+      <c r="N17" s="4">
+        <v>10</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R17" s="4">
+        <v>14</v>
+      </c>
+      <c r="S17" s="4">
+        <v>11</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9</v>
+      </c>
+      <c r="J18" s="4">
+        <v>14</v>
+      </c>
+      <c r="K18" s="4">
+        <v>3</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="4">
+        <v>10</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R18" s="4">
+        <v>6</v>
+      </c>
+      <c r="S18" s="4">
+        <v>11</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="4">
+        <v>9</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="4">
+        <v>7</v>
+      </c>
+      <c r="N19" s="4">
+        <v>10</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S19" s="4">
+        <v>11</v>
+      </c>
+      <c r="T19" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="4">
+        <v>9</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="4">
+        <v>7</v>
+      </c>
+      <c r="N20" s="4">
+        <v>10</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R20" s="4">
+        <v>14</v>
+      </c>
+      <c r="S20" s="4">
+        <v>11</v>
+      </c>
+      <c r="T20" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="4">
+        <v>7</v>
+      </c>
+      <c r="N21" s="4">
+        <v>10</v>
+      </c>
+      <c r="O21" s="4">
+        <v>11</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" s="4">
+        <v>9</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="4">
+        <v>12</v>
+      </c>
+      <c r="J22" s="4">
+        <v>8</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="4">
+        <v>10</v>
+      </c>
+      <c r="O22" s="4">
+        <v>11</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R22" s="4">
+        <v>9</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="4">
+        <v>12</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="4">
+        <v>7</v>
+      </c>
+      <c r="N23" s="4">
+        <v>10</v>
+      </c>
+      <c r="O23" s="4">
+        <v>11</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R23" s="4">
+        <v>9</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T23" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="4">
+        <v>14</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="4">
+        <v>10</v>
+      </c>
+      <c r="O24" s="4">
+        <v>11</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>3</v>
+      </c>
+      <c r="R24" s="4">
+        <v>9</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T24" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="4">
+        <v>14</v>
+      </c>
+      <c r="J25" s="4">
+        <v>12</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4">
+        <v>10</v>
+      </c>
+      <c r="O25" s="4">
+        <v>11</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>3</v>
+      </c>
+      <c r="R25" s="4">
+        <v>9</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T25" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="4">
+        <v>7</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="4">
+        <v>10</v>
+      </c>
+      <c r="O26" s="4">
+        <v>12</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>3</v>
+      </c>
+      <c r="R26" s="4">
+        <v>9</v>
+      </c>
+      <c r="S26" s="4">
+        <v>11</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="4">
+        <v>10</v>
+      </c>
+      <c r="O27" s="4">
+        <v>11</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>3</v>
+      </c>
+      <c r="R27" s="4">
+        <v>9</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T27" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="4">
+        <v>14</v>
+      </c>
+      <c r="I28" s="4">
+        <v>9</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="4">
+        <v>10</v>
+      </c>
+      <c r="O28" s="4">
+        <v>11</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>3</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T28" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="4">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="4">
+        <v>7</v>
+      </c>
+      <c r="J29" s="4">
+        <v>4</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" s="4">
+        <v>10</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R29" s="4">
+        <v>9</v>
+      </c>
+      <c r="S29" s="4">
+        <v>11</v>
+      </c>
+      <c r="T29" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="4">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="4">
+        <v>7</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30" s="4">
+        <v>10</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="4">
+        <v>9</v>
+      </c>
+      <c r="S30" s="4">
+        <v>11</v>
+      </c>
+      <c r="T30" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="4">
+        <v>12</v>
+      </c>
+      <c r="J31" s="4">
+        <v>4</v>
+      </c>
+      <c r="K31" s="4">
+        <v>3</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N31" s="4">
+        <v>10</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R31" s="4">
+        <v>9</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T31" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="4">
+        <v>12</v>
+      </c>
+      <c r="J32" s="4">
+        <v>4</v>
+      </c>
+      <c r="K32" s="4">
+        <v>3</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N32" s="4">
+        <v>10</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R32" s="4">
+        <v>9</v>
+      </c>
+      <c r="S32" s="4">
+        <v>11</v>
+      </c>
+      <c r="T32" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="4">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="4">
+        <v>9</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" s="4">
+        <v>3</v>
+      </c>
+      <c r="L33" s="4">
+        <v>4</v>
+      </c>
+      <c r="M33" s="4">
+        <v>7</v>
+      </c>
+      <c r="N33" s="4">
+        <v>10</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R33" s="4">
+        <v>12</v>
+      </c>
+      <c r="S33" s="4">
+        <v>11</v>
+      </c>
+      <c r="T33" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="4">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="4">
+        <v>9</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="4">
+        <v>3</v>
+      </c>
+      <c r="L34" s="4">
+        <v>4</v>
+      </c>
+      <c r="M34" s="4">
+        <v>7</v>
+      </c>
+      <c r="N34" s="4">
+        <v>10</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S34" s="4">
+        <v>11</v>
+      </c>
+      <c r="T34" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="4">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="4">
+        <v>3</v>
+      </c>
+      <c r="L35" s="4">
+        <v>4</v>
+      </c>
+      <c r="M35" s="4">
+        <v>7</v>
+      </c>
+      <c r="N35" s="4">
+        <v>10</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" s="4">
+        <v>12</v>
+      </c>
+      <c r="S35" s="4">
+        <v>11</v>
+      </c>
+      <c r="T35" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" s="4">
+        <v>3</v>
+      </c>
+      <c r="L36" s="4">
+        <v>4</v>
+      </c>
+      <c r="M36" s="4">
+        <v>7</v>
+      </c>
+      <c r="N36" s="4">
+        <v>10</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R36" s="4">
+        <v>12</v>
+      </c>
+      <c r="S36" s="4">
+        <v>11</v>
+      </c>
+      <c r="T36" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="4">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4">
+        <v>5</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="4">
+        <v>3</v>
+      </c>
+      <c r="L37" s="4">
+        <v>4</v>
+      </c>
+      <c r="M37" s="4">
+        <v>7</v>
+      </c>
+      <c r="N37" s="4">
+        <v>10</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R37" s="4">
+        <v>9</v>
+      </c>
+      <c r="S37" s="4">
+        <v>11</v>
+      </c>
+      <c r="T37" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="4">
+        <v>14</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="4">
+        <v>3</v>
+      </c>
+      <c r="L38" s="4">
+        <v>4</v>
+      </c>
+      <c r="M38" s="4">
+        <v>7</v>
+      </c>
+      <c r="N38" s="4">
+        <v>10</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R38" s="4">
+        <v>9</v>
+      </c>
+      <c r="S38" s="4">
+        <v>11</v>
+      </c>
+      <c r="T38" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>5</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="4">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4</v>
+      </c>
+      <c r="M39" s="4">
+        <v>7</v>
+      </c>
+      <c r="N39" s="4">
+        <v>10</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R39" s="4">
+        <v>9</v>
+      </c>
+      <c r="S39" s="4">
+        <v>11</v>
+      </c>
+      <c r="T39" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="4">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4">
+        <v>5</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="4">
+        <v>14</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="4">
+        <v>3</v>
+      </c>
+      <c r="L40" s="4">
+        <v>4</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N40" s="4">
+        <v>10</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R40" s="4">
+        <v>9</v>
+      </c>
+      <c r="S40" s="4">
+        <v>11</v>
+      </c>
+      <c r="T40" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="4">
+        <v>8</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4">
+        <v>5</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="4">
+        <v>7</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="4">
+        <v>3</v>
+      </c>
+      <c r="L41" s="4">
+        <v>4</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N41" s="4">
+        <v>10</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R41" s="4">
+        <v>9</v>
+      </c>
+      <c r="S41" s="4">
+        <v>11</v>
+      </c>
+      <c r="T41" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="4">
+        <v>8</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="4">
+        <v>7</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="4">
+        <v>3</v>
+      </c>
+      <c r="L42" s="4">
+        <v>4</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N42" s="4">
+        <v>10</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R42" s="4">
+        <v>9</v>
+      </c>
+      <c r="S42" s="4">
+        <v>11</v>
+      </c>
+      <c r="T42" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="4">
+        <v>8</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="4">
+        <v>5</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" s="4">
+        <v>7</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="4">
+        <v>3</v>
+      </c>
+      <c r="L43" s="4">
+        <v>4</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N43" s="4">
+        <v>10</v>
+      </c>
+      <c r="O43" s="4">
+        <v>2</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R43" s="4">
+        <v>9</v>
+      </c>
+      <c r="S43" s="4">
+        <v>11</v>
+      </c>
+      <c r="T43" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="4">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="4">
+        <v>5</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I44" s="4">
+        <v>7</v>
+      </c>
+      <c r="J44" s="4">
+        <v>14</v>
+      </c>
+      <c r="K44" s="4">
+        <v>3</v>
+      </c>
+      <c r="L44" s="4">
+        <v>4</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N44" s="4">
+        <v>10</v>
+      </c>
+      <c r="O44" s="4">
+        <v>2</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R44" s="4">
+        <v>9</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="4">
+        <v>8</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4">
+        <v>5</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="4">
+        <v>7</v>
+      </c>
+      <c r="J45" s="4">
+        <v>14</v>
+      </c>
+      <c r="K45" s="4">
+        <v>3</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R45" s="4">
+        <v>9</v>
+      </c>
+      <c r="S45" s="4">
+        <v>11</v>
+      </c>
+      <c r="T45" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="4">
+        <v>8</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4">
+        <v>5</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="4">
+        <v>7</v>
+      </c>
+      <c r="J46" s="4">
+        <v>12</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N46" s="4">
+        <v>10</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R46" s="4">
+        <v>9</v>
+      </c>
+      <c r="S46" s="4">
+        <v>11</v>
+      </c>
+      <c r="T46" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="4">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4">
+        <v>5</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="4">
+        <v>7</v>
+      </c>
+      <c r="J47" s="4">
+        <v>12</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N47" s="4">
+        <v>10</v>
+      </c>
+      <c r="O47" s="4">
+        <v>3</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R47" s="4">
+        <v>9</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T47" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4">
+        <v>5</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="4">
+        <v>7</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L48" s="4">
+        <v>4</v>
+      </c>
+      <c r="M48" s="4">
+        <v>14</v>
+      </c>
+      <c r="N48" s="4">
+        <v>10</v>
+      </c>
+      <c r="O48" s="4">
+        <v>3</v>
+      </c>
+      <c r="P48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R48" s="4">
+        <v>9</v>
+      </c>
+      <c r="S48" s="4">
+        <v>11</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="4">
+        <v>6</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4">
+        <v>5</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" s="4">
+        <v>7</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L49" s="4">
+        <v>4</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N49" s="4">
+        <v>10</v>
+      </c>
+      <c r="O49" s="4">
+        <v>3</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R49" s="4">
+        <v>9</v>
+      </c>
+      <c r="S49" s="4">
+        <v>11</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="4">
+        <v>6</v>
+      </c>
+      <c r="E50" s="4">
+        <v>8</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4">
+        <v>5</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" s="4">
+        <v>7</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50" s="4">
+        <v>4</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N50" s="4">
+        <v>10</v>
+      </c>
+      <c r="O50" s="4">
+        <v>3</v>
+      </c>
+      <c r="P50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R50" s="4">
+        <v>9</v>
+      </c>
+      <c r="S50" s="4">
+        <v>11</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="4">
+        <v>8</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51" s="4">
+        <v>7</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L51" s="4">
+        <v>4</v>
+      </c>
+      <c r="M51" s="4">
+        <v>14</v>
+      </c>
+      <c r="N51" s="4">
+        <v>10</v>
+      </c>
+      <c r="O51" s="4">
+        <v>3</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R51" s="4">
+        <v>9</v>
+      </c>
+      <c r="S51" s="4">
+        <v>11</v>
+      </c>
+      <c r="T51" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="4">
+        <v>8</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4">
+        <v>5</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L52" s="4">
+        <v>4</v>
+      </c>
+      <c r="M52" s="4">
+        <v>14</v>
+      </c>
+      <c r="N52" s="4">
+        <v>10</v>
+      </c>
+      <c r="O52" s="4">
+        <v>3</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R52" s="4">
+        <v>9</v>
+      </c>
+      <c r="S52" s="4">
+        <v>11</v>
+      </c>
+      <c r="T52" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="4">
+        <v>8</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L53" s="4">
+        <v>4</v>
+      </c>
+      <c r="M53" s="4">
+        <v>7</v>
+      </c>
+      <c r="N53" s="4">
+        <v>10</v>
+      </c>
+      <c r="O53" s="4">
+        <v>3</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R53" s="4">
+        <v>9</v>
+      </c>
+      <c r="S53" s="4">
+        <v>11</v>
+      </c>
+      <c r="T53" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="4">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4">
+        <v>14</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="4">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4">
+        <v>5</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L54" s="4">
+        <v>4</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="4">
+        <v>10</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R54" s="4">
+        <v>9</v>
+      </c>
+      <c r="S54" s="4">
+        <v>11</v>
+      </c>
+      <c r="T54" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="4">
+        <v>12</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="4">
+        <v>8</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4">
+        <v>5</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L55" s="4">
+        <v>4</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N55" s="4">
+        <v>10</v>
+      </c>
+      <c r="O55" s="4">
+        <v>3</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R55" s="4">
+        <v>9</v>
+      </c>
+      <c r="S55" s="4">
+        <v>11</v>
+      </c>
+      <c r="T55" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="4">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4">
+        <v>5</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="4">
+        <v>7</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L56" s="4">
+        <v>4</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N56" s="4">
+        <v>10</v>
+      </c>
+      <c r="O56" s="4">
+        <v>3</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R56" s="4">
+        <v>9</v>
+      </c>
+      <c r="S56" s="4">
+        <v>11</v>
+      </c>
+      <c r="T56" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="4">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4">
+        <v>5</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" s="4">
+        <v>7</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L57" s="4">
+        <v>4</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N57" s="4">
+        <v>10</v>
+      </c>
+      <c r="O57" s="4">
+        <v>3</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R57" s="4">
+        <v>9</v>
+      </c>
+      <c r="S57" s="4">
+        <v>11</v>
+      </c>
+      <c r="T57" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="4">
+        <v>14</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="4">
+        <v>8</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4">
+        <v>5</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58" s="4">
+        <v>7</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L58" s="4">
+        <v>4</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N58" s="4">
+        <v>10</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R58" s="4">
+        <v>9</v>
+      </c>
+      <c r="S58" s="4">
+        <v>11</v>
+      </c>
+      <c r="T58" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="4">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4">
+        <v>14</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" s="4">
+        <v>7</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L59" s="4">
+        <v>4</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N59" s="4">
+        <v>10</v>
+      </c>
+      <c r="O59" s="4">
+        <v>3</v>
+      </c>
+      <c r="P59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R59" s="4">
+        <v>9</v>
+      </c>
+      <c r="S59" s="4">
+        <v>11</v>
+      </c>
+      <c r="T59" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="4">
+        <v>14</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="4">
+        <v>8</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" s="4">
+        <v>7</v>
+      </c>
+      <c r="J60" s="4">
+        <v>12</v>
+      </c>
+      <c r="K60" s="4">
+        <v>3</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N60" s="4">
+        <v>10</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P60" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R60" s="4">
+        <v>9</v>
+      </c>
+      <c r="S60" s="4">
+        <v>11</v>
+      </c>
+      <c r="T60" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="4">
+        <v>14</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="4">
+        <v>12</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4">
+        <v>5</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61" s="4">
+        <v>8</v>
+      </c>
+      <c r="K61" s="4">
+        <v>3</v>
+      </c>
+      <c r="L61" s="4">
+        <v>4</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N61" s="4">
+        <v>10</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R61" s="4">
+        <v>9</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T61" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>5</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="4">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" s="4">
+        <v>7</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L62" s="4">
+        <v>4</v>
+      </c>
+      <c r="M62" s="4">
+        <v>14</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62" s="4">
+        <v>3</v>
+      </c>
+      <c r="P62" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R62" s="4">
+        <v>9</v>
+      </c>
+      <c r="S62" s="4">
+        <v>11</v>
+      </c>
+      <c r="T62" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="4">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4">
+        <v>5</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63" s="4">
+        <v>7</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L63" s="4">
+        <v>4</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N63" s="4">
+        <v>10</v>
+      </c>
+      <c r="O63" s="4">
+        <v>3</v>
+      </c>
+      <c r="P63" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R63" s="4">
+        <v>9</v>
+      </c>
+      <c r="S63" s="4">
+        <v>11</v>
+      </c>
+      <c r="T63" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="4">
+        <v>8</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4">
+        <v>5</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I64" s="4">
+        <v>7</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L64" s="4">
+        <v>4</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N64" s="4">
+        <v>10</v>
+      </c>
+      <c r="O64" s="4">
+        <v>3</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R64" s="4">
+        <v>9</v>
+      </c>
+      <c r="S64" s="4">
+        <v>11</v>
+      </c>
+      <c r="T64" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4">
+        <v>8</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="4">
+        <v>5</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65" s="4">
+        <v>7</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L65" s="4">
+        <v>4</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N65" s="4">
+        <v>10</v>
+      </c>
+      <c r="O65" s="4">
+        <v>3</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R65" s="4">
+        <v>9</v>
+      </c>
+      <c r="S65" s="4">
+        <v>11</v>
+      </c>
+      <c r="T65" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="4">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4">
+        <v>14</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="4">
+        <v>5</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66" s="4">
+        <v>7</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L66" s="4">
+        <v>4</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N66" s="4">
+        <v>10</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R66" s="4">
+        <v>9</v>
+      </c>
+      <c r="S66" s="4">
+        <v>11</v>
+      </c>
+      <c r="T66" s="4">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B21AD3B-5CFD-9E48-9F5E-34B590DA3414}">
   <dimension ref="A1:X60"/>
   <sheetViews>
@@ -10539,7 +14572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A364B2D-8A97-644E-815B-092AA8749711}">
   <dimension ref="A1:V60"/>
   <sheetViews>
@@ -12894,7 +16927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AACCB4-B063-5940-B7D8-989E5CF6472C}">
   <dimension ref="A1:AC52"/>
   <sheetViews>

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CED7C6-862D-C042-B7A5-4E96C88FF34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DE7333-8E3A-AA40-A486-765B466E7F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="1990-91" sheetId="16" r:id="rId1"/>
-    <sheet name="1991-92" sheetId="7" r:id="rId2"/>
-    <sheet name="1992-93" sheetId="11" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId4"/>
+    <sheet name="1989-90" sheetId="17" r:id="rId1"/>
+    <sheet name="1990-91" sheetId="16" r:id="rId2"/>
+    <sheet name="1991-92" sheetId="7" r:id="rId3"/>
+    <sheet name="1992-93" sheetId="11" r:id="rId4"/>
     <sheet name="1993-94" sheetId="14" r:id="rId5"/>
     <sheet name="1994-95" sheetId="1" r:id="rId6"/>
     <sheet name="1995-96" sheetId="4" r:id="rId7"/>
@@ -669,6 +669,4017 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0C9159-3439-D04D-A570-3940686A82F2}">
+  <dimension ref="A1:T66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="4">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="4">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="4">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="4">
+        <v>11</v>
+      </c>
+      <c r="T2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="4">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="4">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="4">
+        <v>11</v>
+      </c>
+      <c r="T3" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="4">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="4">
+        <v>11</v>
+      </c>
+      <c r="T4" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="4">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="4">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="4">
+        <v>11</v>
+      </c>
+      <c r="T5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="4">
+        <v>9</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="4">
+        <v>7</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="4">
+        <v>11</v>
+      </c>
+      <c r="T6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="4">
+        <v>9</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="4">
+        <v>11</v>
+      </c>
+      <c r="T7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="4">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="4">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="4">
+        <v>11</v>
+      </c>
+      <c r="T8" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="4">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="4">
+        <v>10</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="4">
+        <v>12</v>
+      </c>
+      <c r="S9" s="4">
+        <v>11</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="4">
+        <v>7</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="4">
+        <v>11</v>
+      </c>
+      <c r="T10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="4">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="4">
+        <v>12</v>
+      </c>
+      <c r="S11" s="4">
+        <v>11</v>
+      </c>
+      <c r="T11" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="4">
+        <v>7</v>
+      </c>
+      <c r="N12" s="4">
+        <v>10</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="4">
+        <v>11</v>
+      </c>
+      <c r="T12" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="4">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>10</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" s="4">
+        <v>14</v>
+      </c>
+      <c r="S13" s="4">
+        <v>11</v>
+      </c>
+      <c r="T13" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="4">
+        <v>9</v>
+      </c>
+      <c r="J14" s="4">
+        <v>4</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="4">
+        <v>7</v>
+      </c>
+      <c r="N14" s="4">
+        <v>10</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="4">
+        <v>11</v>
+      </c>
+      <c r="T14" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="4">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="4">
+        <v>7</v>
+      </c>
+      <c r="N15" s="4">
+        <v>10</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" s="4">
+        <v>11</v>
+      </c>
+      <c r="T15" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="4">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="4">
+        <v>7</v>
+      </c>
+      <c r="N16" s="4">
+        <v>10</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R16" s="4">
+        <v>14</v>
+      </c>
+      <c r="S16" s="4">
+        <v>11</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="4">
+        <v>7</v>
+      </c>
+      <c r="N17" s="4">
+        <v>10</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R17" s="4">
+        <v>14</v>
+      </c>
+      <c r="S17" s="4">
+        <v>11</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9</v>
+      </c>
+      <c r="J18" s="4">
+        <v>14</v>
+      </c>
+      <c r="K18" s="4">
+        <v>3</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="4">
+        <v>10</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R18" s="4">
+        <v>6</v>
+      </c>
+      <c r="S18" s="4">
+        <v>11</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="4">
+        <v>9</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="4">
+        <v>7</v>
+      </c>
+      <c r="N19" s="4">
+        <v>10</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S19" s="4">
+        <v>11</v>
+      </c>
+      <c r="T19" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="4">
+        <v>9</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="4">
+        <v>7</v>
+      </c>
+      <c r="N20" s="4">
+        <v>10</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R20" s="4">
+        <v>14</v>
+      </c>
+      <c r="S20" s="4">
+        <v>11</v>
+      </c>
+      <c r="T20" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="4">
+        <v>7</v>
+      </c>
+      <c r="N21" s="4">
+        <v>10</v>
+      </c>
+      <c r="O21" s="4">
+        <v>11</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" s="4">
+        <v>9</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="4">
+        <v>12</v>
+      </c>
+      <c r="J22" s="4">
+        <v>8</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="4">
+        <v>10</v>
+      </c>
+      <c r="O22" s="4">
+        <v>11</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R22" s="4">
+        <v>9</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="4">
+        <v>12</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="4">
+        <v>7</v>
+      </c>
+      <c r="N23" s="4">
+        <v>10</v>
+      </c>
+      <c r="O23" s="4">
+        <v>11</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R23" s="4">
+        <v>9</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T23" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="4">
+        <v>14</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="4">
+        <v>10</v>
+      </c>
+      <c r="O24" s="4">
+        <v>11</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>3</v>
+      </c>
+      <c r="R24" s="4">
+        <v>9</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T24" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="4">
+        <v>14</v>
+      </c>
+      <c r="J25" s="4">
+        <v>12</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4">
+        <v>10</v>
+      </c>
+      <c r="O25" s="4">
+        <v>11</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>3</v>
+      </c>
+      <c r="R25" s="4">
+        <v>9</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T25" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="4">
+        <v>7</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="4">
+        <v>10</v>
+      </c>
+      <c r="O26" s="4">
+        <v>12</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>3</v>
+      </c>
+      <c r="R26" s="4">
+        <v>9</v>
+      </c>
+      <c r="S26" s="4">
+        <v>11</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="4">
+        <v>10</v>
+      </c>
+      <c r="O27" s="4">
+        <v>11</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>3</v>
+      </c>
+      <c r="R27" s="4">
+        <v>9</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T27" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="4">
+        <v>14</v>
+      </c>
+      <c r="I28" s="4">
+        <v>9</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="4">
+        <v>10</v>
+      </c>
+      <c r="O28" s="4">
+        <v>11</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>3</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T28" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="4">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="4">
+        <v>7</v>
+      </c>
+      <c r="J29" s="4">
+        <v>4</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" s="4">
+        <v>10</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R29" s="4">
+        <v>9</v>
+      </c>
+      <c r="S29" s="4">
+        <v>11</v>
+      </c>
+      <c r="T29" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="4">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="4">
+        <v>7</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30" s="4">
+        <v>10</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="4">
+        <v>9</v>
+      </c>
+      <c r="S30" s="4">
+        <v>11</v>
+      </c>
+      <c r="T30" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="4">
+        <v>12</v>
+      </c>
+      <c r="J31" s="4">
+        <v>4</v>
+      </c>
+      <c r="K31" s="4">
+        <v>3</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N31" s="4">
+        <v>10</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R31" s="4">
+        <v>9</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T31" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="4">
+        <v>12</v>
+      </c>
+      <c r="J32" s="4">
+        <v>4</v>
+      </c>
+      <c r="K32" s="4">
+        <v>3</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N32" s="4">
+        <v>10</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R32" s="4">
+        <v>9</v>
+      </c>
+      <c r="S32" s="4">
+        <v>11</v>
+      </c>
+      <c r="T32" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="4">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="4">
+        <v>9</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" s="4">
+        <v>3</v>
+      </c>
+      <c r="L33" s="4">
+        <v>4</v>
+      </c>
+      <c r="M33" s="4">
+        <v>7</v>
+      </c>
+      <c r="N33" s="4">
+        <v>10</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R33" s="4">
+        <v>12</v>
+      </c>
+      <c r="S33" s="4">
+        <v>11</v>
+      </c>
+      <c r="T33" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="4">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="4">
+        <v>9</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="4">
+        <v>3</v>
+      </c>
+      <c r="L34" s="4">
+        <v>4</v>
+      </c>
+      <c r="M34" s="4">
+        <v>7</v>
+      </c>
+      <c r="N34" s="4">
+        <v>10</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S34" s="4">
+        <v>11</v>
+      </c>
+      <c r="T34" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="4">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="4">
+        <v>3</v>
+      </c>
+      <c r="L35" s="4">
+        <v>4</v>
+      </c>
+      <c r="M35" s="4">
+        <v>7</v>
+      </c>
+      <c r="N35" s="4">
+        <v>10</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" s="4">
+        <v>12</v>
+      </c>
+      <c r="S35" s="4">
+        <v>11</v>
+      </c>
+      <c r="T35" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" s="4">
+        <v>3</v>
+      </c>
+      <c r="L36" s="4">
+        <v>4</v>
+      </c>
+      <c r="M36" s="4">
+        <v>7</v>
+      </c>
+      <c r="N36" s="4">
+        <v>10</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R36" s="4">
+        <v>12</v>
+      </c>
+      <c r="S36" s="4">
+        <v>11</v>
+      </c>
+      <c r="T36" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="4">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4">
+        <v>5</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="4">
+        <v>3</v>
+      </c>
+      <c r="L37" s="4">
+        <v>4</v>
+      </c>
+      <c r="M37" s="4">
+        <v>7</v>
+      </c>
+      <c r="N37" s="4">
+        <v>10</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R37" s="4">
+        <v>9</v>
+      </c>
+      <c r="S37" s="4">
+        <v>11</v>
+      </c>
+      <c r="T37" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="4">
+        <v>14</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="4">
+        <v>3</v>
+      </c>
+      <c r="L38" s="4">
+        <v>4</v>
+      </c>
+      <c r="M38" s="4">
+        <v>7</v>
+      </c>
+      <c r="N38" s="4">
+        <v>10</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R38" s="4">
+        <v>9</v>
+      </c>
+      <c r="S38" s="4">
+        <v>11</v>
+      </c>
+      <c r="T38" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>5</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="4">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4</v>
+      </c>
+      <c r="M39" s="4">
+        <v>7</v>
+      </c>
+      <c r="N39" s="4">
+        <v>10</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R39" s="4">
+        <v>9</v>
+      </c>
+      <c r="S39" s="4">
+        <v>11</v>
+      </c>
+      <c r="T39" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="4">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4">
+        <v>5</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="4">
+        <v>14</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="4">
+        <v>3</v>
+      </c>
+      <c r="L40" s="4">
+        <v>4</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N40" s="4">
+        <v>10</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R40" s="4">
+        <v>9</v>
+      </c>
+      <c r="S40" s="4">
+        <v>11</v>
+      </c>
+      <c r="T40" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="4">
+        <v>8</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4">
+        <v>5</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="4">
+        <v>7</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="4">
+        <v>3</v>
+      </c>
+      <c r="L41" s="4">
+        <v>4</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N41" s="4">
+        <v>10</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R41" s="4">
+        <v>9</v>
+      </c>
+      <c r="S41" s="4">
+        <v>11</v>
+      </c>
+      <c r="T41" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="4">
+        <v>8</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="4">
+        <v>7</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="4">
+        <v>3</v>
+      </c>
+      <c r="L42" s="4">
+        <v>4</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N42" s="4">
+        <v>10</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R42" s="4">
+        <v>9</v>
+      </c>
+      <c r="S42" s="4">
+        <v>11</v>
+      </c>
+      <c r="T42" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="4">
+        <v>8</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="4">
+        <v>5</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" s="4">
+        <v>7</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="4">
+        <v>3</v>
+      </c>
+      <c r="L43" s="4">
+        <v>4</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N43" s="4">
+        <v>10</v>
+      </c>
+      <c r="O43" s="4">
+        <v>2</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R43" s="4">
+        <v>9</v>
+      </c>
+      <c r="S43" s="4">
+        <v>11</v>
+      </c>
+      <c r="T43" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="4">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="4">
+        <v>5</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I44" s="4">
+        <v>7</v>
+      </c>
+      <c r="J44" s="4">
+        <v>14</v>
+      </c>
+      <c r="K44" s="4">
+        <v>3</v>
+      </c>
+      <c r="L44" s="4">
+        <v>4</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N44" s="4">
+        <v>10</v>
+      </c>
+      <c r="O44" s="4">
+        <v>2</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R44" s="4">
+        <v>9</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="4">
+        <v>8</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4">
+        <v>5</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="4">
+        <v>7</v>
+      </c>
+      <c r="J45" s="4">
+        <v>14</v>
+      </c>
+      <c r="K45" s="4">
+        <v>3</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R45" s="4">
+        <v>9</v>
+      </c>
+      <c r="S45" s="4">
+        <v>11</v>
+      </c>
+      <c r="T45" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="4">
+        <v>8</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4">
+        <v>5</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="4">
+        <v>7</v>
+      </c>
+      <c r="J46" s="4">
+        <v>12</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N46" s="4">
+        <v>10</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R46" s="4">
+        <v>9</v>
+      </c>
+      <c r="S46" s="4">
+        <v>11</v>
+      </c>
+      <c r="T46" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="4">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4">
+        <v>5</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="4">
+        <v>7</v>
+      </c>
+      <c r="J47" s="4">
+        <v>12</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N47" s="4">
+        <v>10</v>
+      </c>
+      <c r="O47" s="4">
+        <v>3</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R47" s="4">
+        <v>9</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T47" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4">
+        <v>5</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="4">
+        <v>7</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L48" s="4">
+        <v>4</v>
+      </c>
+      <c r="M48" s="4">
+        <v>14</v>
+      </c>
+      <c r="N48" s="4">
+        <v>10</v>
+      </c>
+      <c r="O48" s="4">
+        <v>3</v>
+      </c>
+      <c r="P48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R48" s="4">
+        <v>9</v>
+      </c>
+      <c r="S48" s="4">
+        <v>11</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="4">
+        <v>6</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4">
+        <v>5</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" s="4">
+        <v>7</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L49" s="4">
+        <v>4</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N49" s="4">
+        <v>10</v>
+      </c>
+      <c r="O49" s="4">
+        <v>3</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R49" s="4">
+        <v>9</v>
+      </c>
+      <c r="S49" s="4">
+        <v>11</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="4">
+        <v>6</v>
+      </c>
+      <c r="E50" s="4">
+        <v>8</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4">
+        <v>5</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" s="4">
+        <v>7</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50" s="4">
+        <v>4</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N50" s="4">
+        <v>10</v>
+      </c>
+      <c r="O50" s="4">
+        <v>3</v>
+      </c>
+      <c r="P50" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R50" s="4">
+        <v>9</v>
+      </c>
+      <c r="S50" s="4">
+        <v>11</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="4">
+        <v>8</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51" s="4">
+        <v>7</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L51" s="4">
+        <v>4</v>
+      </c>
+      <c r="M51" s="4">
+        <v>14</v>
+      </c>
+      <c r="N51" s="4">
+        <v>10</v>
+      </c>
+      <c r="O51" s="4">
+        <v>3</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R51" s="4">
+        <v>9</v>
+      </c>
+      <c r="S51" s="4">
+        <v>11</v>
+      </c>
+      <c r="T51" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="4">
+        <v>8</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4">
+        <v>5</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L52" s="4">
+        <v>4</v>
+      </c>
+      <c r="M52" s="4">
+        <v>14</v>
+      </c>
+      <c r="N52" s="4">
+        <v>10</v>
+      </c>
+      <c r="O52" s="4">
+        <v>3</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R52" s="4">
+        <v>9</v>
+      </c>
+      <c r="S52" s="4">
+        <v>11</v>
+      </c>
+      <c r="T52" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="4">
+        <v>8</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L53" s="4">
+        <v>4</v>
+      </c>
+      <c r="M53" s="4">
+        <v>7</v>
+      </c>
+      <c r="N53" s="4">
+        <v>10</v>
+      </c>
+      <c r="O53" s="4">
+        <v>3</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R53" s="4">
+        <v>9</v>
+      </c>
+      <c r="S53" s="4">
+        <v>11</v>
+      </c>
+      <c r="T53" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="4">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4">
+        <v>14</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="4">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4">
+        <v>5</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L54" s="4">
+        <v>4</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="4">
+        <v>10</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R54" s="4">
+        <v>9</v>
+      </c>
+      <c r="S54" s="4">
+        <v>11</v>
+      </c>
+      <c r="T54" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="4">
+        <v>12</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="4">
+        <v>8</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4">
+        <v>5</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L55" s="4">
+        <v>4</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N55" s="4">
+        <v>10</v>
+      </c>
+      <c r="O55" s="4">
+        <v>3</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R55" s="4">
+        <v>9</v>
+      </c>
+      <c r="S55" s="4">
+        <v>11</v>
+      </c>
+      <c r="T55" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="4">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4">
+        <v>5</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="4">
+        <v>7</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L56" s="4">
+        <v>4</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N56" s="4">
+        <v>10</v>
+      </c>
+      <c r="O56" s="4">
+        <v>3</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R56" s="4">
+        <v>9</v>
+      </c>
+      <c r="S56" s="4">
+        <v>11</v>
+      </c>
+      <c r="T56" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="4">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4">
+        <v>5</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" s="4">
+        <v>7</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L57" s="4">
+        <v>4</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N57" s="4">
+        <v>10</v>
+      </c>
+      <c r="O57" s="4">
+        <v>3</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R57" s="4">
+        <v>9</v>
+      </c>
+      <c r="S57" s="4">
+        <v>11</v>
+      </c>
+      <c r="T57" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="4">
+        <v>14</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="4">
+        <v>8</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4">
+        <v>5</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58" s="4">
+        <v>7</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L58" s="4">
+        <v>4</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N58" s="4">
+        <v>10</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R58" s="4">
+        <v>9</v>
+      </c>
+      <c r="S58" s="4">
+        <v>11</v>
+      </c>
+      <c r="T58" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="4">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4">
+        <v>14</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" s="4">
+        <v>7</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L59" s="4">
+        <v>4</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N59" s="4">
+        <v>10</v>
+      </c>
+      <c r="O59" s="4">
+        <v>3</v>
+      </c>
+      <c r="P59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R59" s="4">
+        <v>9</v>
+      </c>
+      <c r="S59" s="4">
+        <v>11</v>
+      </c>
+      <c r="T59" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="4">
+        <v>14</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="4">
+        <v>8</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" s="4">
+        <v>7</v>
+      </c>
+      <c r="J60" s="4">
+        <v>12</v>
+      </c>
+      <c r="K60" s="4">
+        <v>3</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N60" s="4">
+        <v>10</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P60" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R60" s="4">
+        <v>9</v>
+      </c>
+      <c r="S60" s="4">
+        <v>11</v>
+      </c>
+      <c r="T60" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="4">
+        <v>14</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="4">
+        <v>12</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4">
+        <v>5</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61" s="4">
+        <v>8</v>
+      </c>
+      <c r="K61" s="4">
+        <v>3</v>
+      </c>
+      <c r="L61" s="4">
+        <v>4</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N61" s="4">
+        <v>10</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R61" s="4">
+        <v>9</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T61" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>5</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="4">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" s="4">
+        <v>7</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L62" s="4">
+        <v>4</v>
+      </c>
+      <c r="M62" s="4">
+        <v>14</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62" s="4">
+        <v>3</v>
+      </c>
+      <c r="P62" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R62" s="4">
+        <v>9</v>
+      </c>
+      <c r="S62" s="4">
+        <v>11</v>
+      </c>
+      <c r="T62" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="4">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4">
+        <v>5</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63" s="4">
+        <v>7</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L63" s="4">
+        <v>4</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N63" s="4">
+        <v>10</v>
+      </c>
+      <c r="O63" s="4">
+        <v>3</v>
+      </c>
+      <c r="P63" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R63" s="4">
+        <v>9</v>
+      </c>
+      <c r="S63" s="4">
+        <v>11</v>
+      </c>
+      <c r="T63" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="4">
+        <v>8</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2</v>
+      </c>
+      <c r="G64" s="4">
+        <v>5</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I64" s="4">
+        <v>7</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L64" s="4">
+        <v>4</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N64" s="4">
+        <v>10</v>
+      </c>
+      <c r="O64" s="4">
+        <v>3</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R64" s="4">
+        <v>9</v>
+      </c>
+      <c r="S64" s="4">
+        <v>11</v>
+      </c>
+      <c r="T64" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4">
+        <v>8</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="4">
+        <v>5</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65" s="4">
+        <v>7</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L65" s="4">
+        <v>4</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N65" s="4">
+        <v>10</v>
+      </c>
+      <c r="O65" s="4">
+        <v>3</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R65" s="4">
+        <v>9</v>
+      </c>
+      <c r="S65" s="4">
+        <v>11</v>
+      </c>
+      <c r="T65" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="4">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4">
+        <v>14</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="4">
+        <v>5</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66" s="4">
+        <v>7</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L66" s="4">
+        <v>4</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N66" s="4">
+        <v>10</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R66" s="4">
+        <v>9</v>
+      </c>
+      <c r="S66" s="4">
+        <v>11</v>
+      </c>
+      <c r="T66" s="4">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B1DCE2-83C0-7043-83EC-E3BF8EDF97DC}">
   <dimension ref="A1:T62"/>
   <sheetViews>
@@ -3583,7 +7594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEC80A8-202C-9946-8EBB-EFD49AAE7C1A}">
   <dimension ref="A1:W60"/>
   <sheetViews>
@@ -5935,7 +9946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9AD14E-5C41-B640-841F-A02FBCF76B8F}">
   <dimension ref="A1:W60"/>
   <sheetViews>
@@ -8237,4017 +12248,6 @@
         <v>5</v>
       </c>
       <c r="W60">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0C9159-3439-D04D-A570-3940686A82F2}">
-  <dimension ref="A1:T66"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="4">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="4">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="4">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="4">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="4">
-        <v>7</v>
-      </c>
-      <c r="N2" s="4">
-        <v>10</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="4">
-        <v>11</v>
-      </c>
-      <c r="T2" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="4">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="4">
-        <v>9</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="4">
-        <v>3</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="4">
-        <v>7</v>
-      </c>
-      <c r="N3" s="4">
-        <v>10</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="4">
-        <v>11</v>
-      </c>
-      <c r="T3" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="4">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="4">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="4">
-        <v>7</v>
-      </c>
-      <c r="N4" s="4">
-        <v>10</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S4" s="4">
-        <v>11</v>
-      </c>
-      <c r="T4" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="4">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="4">
-        <v>9</v>
-      </c>
-      <c r="J5" s="4">
-        <v>14</v>
-      </c>
-      <c r="K5" s="4">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="4">
-        <v>10</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S5" s="4">
-        <v>11</v>
-      </c>
-      <c r="T5" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="4">
-        <v>9</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="4">
-        <v>3</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="4">
-        <v>7</v>
-      </c>
-      <c r="N6" s="4">
-        <v>10</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S6" s="4">
-        <v>11</v>
-      </c>
-      <c r="T6" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="4">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="4">
-        <v>9</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="4">
-        <v>3</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="4">
-        <v>10</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" s="4">
-        <v>11</v>
-      </c>
-      <c r="T7" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="4">
-        <v>9</v>
-      </c>
-      <c r="J8" s="4">
-        <v>14</v>
-      </c>
-      <c r="K8" s="4">
-        <v>3</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="4">
-        <v>7</v>
-      </c>
-      <c r="N8" s="4">
-        <v>10</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" s="4">
-        <v>11</v>
-      </c>
-      <c r="T8" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="4">
-        <v>9</v>
-      </c>
-      <c r="J9" s="4">
-        <v>4</v>
-      </c>
-      <c r="K9" s="4">
-        <v>3</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="4">
-        <v>10</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" s="4">
-        <v>12</v>
-      </c>
-      <c r="S9" s="4">
-        <v>11</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="4">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>5</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="4">
-        <v>9</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="4">
-        <v>3</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="4">
-        <v>7</v>
-      </c>
-      <c r="N10" s="4">
-        <v>10</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="4">
-        <v>11</v>
-      </c>
-      <c r="T10" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="4">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="4">
-        <v>9</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="4">
-        <v>3</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="4">
-        <v>10</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" s="4">
-        <v>12</v>
-      </c>
-      <c r="S11" s="4">
-        <v>11</v>
-      </c>
-      <c r="T11" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="4">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="4">
-        <v>9</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="4">
-        <v>3</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="4">
-        <v>7</v>
-      </c>
-      <c r="N12" s="4">
-        <v>10</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S12" s="4">
-        <v>11</v>
-      </c>
-      <c r="T12" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="4">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="4">
-        <v>9</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="4">
-        <v>3</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="4">
-        <v>10</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R13" s="4">
-        <v>14</v>
-      </c>
-      <c r="S13" s="4">
-        <v>11</v>
-      </c>
-      <c r="T13" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="4">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="4">
-        <v>9</v>
-      </c>
-      <c r="J14" s="4">
-        <v>4</v>
-      </c>
-      <c r="K14" s="4">
-        <v>3</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="4">
-        <v>7</v>
-      </c>
-      <c r="N14" s="4">
-        <v>10</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S14" s="4">
-        <v>11</v>
-      </c>
-      <c r="T14" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="4">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="4">
-        <v>9</v>
-      </c>
-      <c r="J15" s="4">
-        <v>4</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="4">
-        <v>7</v>
-      </c>
-      <c r="N15" s="4">
-        <v>10</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S15" s="4">
-        <v>11</v>
-      </c>
-      <c r="T15" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="4">
-        <v>8</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="G16" s="4">
-        <v>5</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="4">
-        <v>9</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="4">
-        <v>3</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="4">
-        <v>7</v>
-      </c>
-      <c r="N16" s="4">
-        <v>10</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R16" s="4">
-        <v>14</v>
-      </c>
-      <c r="S16" s="4">
-        <v>11</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="4">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>5</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="4">
-        <v>3</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="4">
-        <v>7</v>
-      </c>
-      <c r="N17" s="4">
-        <v>10</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R17" s="4">
-        <v>14</v>
-      </c>
-      <c r="S17" s="4">
-        <v>11</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="4">
-        <v>8</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>5</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="4">
-        <v>9</v>
-      </c>
-      <c r="J18" s="4">
-        <v>14</v>
-      </c>
-      <c r="K18" s="4">
-        <v>3</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="4">
-        <v>10</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R18" s="4">
-        <v>6</v>
-      </c>
-      <c r="S18" s="4">
-        <v>11</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="4">
-        <v>8</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>5</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="4">
-        <v>9</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="4">
-        <v>3</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="4">
-        <v>7</v>
-      </c>
-      <c r="N19" s="4">
-        <v>10</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S19" s="4">
-        <v>11</v>
-      </c>
-      <c r="T19" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="4">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="4">
-        <v>9</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="4">
-        <v>7</v>
-      </c>
-      <c r="N20" s="4">
-        <v>10</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R20" s="4">
-        <v>14</v>
-      </c>
-      <c r="S20" s="4">
-        <v>11</v>
-      </c>
-      <c r="T20" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="4">
-        <v>6</v>
-      </c>
-      <c r="E21" s="4">
-        <v>8</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>5</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="4">
-        <v>3</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M21" s="4">
-        <v>7</v>
-      </c>
-      <c r="N21" s="4">
-        <v>10</v>
-      </c>
-      <c r="O21" s="4">
-        <v>11</v>
-      </c>
-      <c r="P21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R21" s="4">
-        <v>9</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2</v>
-      </c>
-      <c r="G22" s="4">
-        <v>5</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="4">
-        <v>12</v>
-      </c>
-      <c r="J22" s="4">
-        <v>8</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="4">
-        <v>10</v>
-      </c>
-      <c r="O22" s="4">
-        <v>11</v>
-      </c>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R22" s="4">
-        <v>9</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4">
-        <v>5</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="4">
-        <v>12</v>
-      </c>
-      <c r="K23" s="4">
-        <v>3</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23" s="4">
-        <v>7</v>
-      </c>
-      <c r="N23" s="4">
-        <v>10</v>
-      </c>
-      <c r="O23" s="4">
-        <v>11</v>
-      </c>
-      <c r="P23" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R23" s="4">
-        <v>9</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T23" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="4">
-        <v>8</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2</v>
-      </c>
-      <c r="G24" s="4">
-        <v>5</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="4">
-        <v>14</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="4">
-        <v>10</v>
-      </c>
-      <c r="O24" s="4">
-        <v>11</v>
-      </c>
-      <c r="P24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>3</v>
-      </c>
-      <c r="R24" s="4">
-        <v>9</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T24" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="4">
-        <v>8</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>5</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="4">
-        <v>14</v>
-      </c>
-      <c r="J25" s="4">
-        <v>12</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="4">
-        <v>10</v>
-      </c>
-      <c r="O25" s="4">
-        <v>11</v>
-      </c>
-      <c r="P25" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>3</v>
-      </c>
-      <c r="R25" s="4">
-        <v>9</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T25" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="4">
-        <v>14</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="4">
-        <v>8</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2</v>
-      </c>
-      <c r="G26" s="4">
-        <v>5</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="4">
-        <v>7</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" s="4">
-        <v>10</v>
-      </c>
-      <c r="O26" s="4">
-        <v>12</v>
-      </c>
-      <c r="P26" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>3</v>
-      </c>
-      <c r="R26" s="4">
-        <v>9</v>
-      </c>
-      <c r="S26" s="4">
-        <v>11</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4">
-        <v>12</v>
-      </c>
-      <c r="C27" s="4">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="4">
-        <v>8</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4">
-        <v>5</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N27" s="4">
-        <v>10</v>
-      </c>
-      <c r="O27" s="4">
-        <v>11</v>
-      </c>
-      <c r="P27" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>3</v>
-      </c>
-      <c r="R27" s="4">
-        <v>9</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T27" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4">
-        <v>7</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="4">
-        <v>8</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="4">
-        <v>14</v>
-      </c>
-      <c r="I28" s="4">
-        <v>9</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N28" s="4">
-        <v>10</v>
-      </c>
-      <c r="O28" s="4">
-        <v>11</v>
-      </c>
-      <c r="P28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>3</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T28" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="4">
-        <v>14</v>
-      </c>
-      <c r="E29" s="4">
-        <v>8</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="4">
-        <v>5</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" s="4">
-        <v>7</v>
-      </c>
-      <c r="J29" s="4">
-        <v>4</v>
-      </c>
-      <c r="K29" s="4">
-        <v>3</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N29" s="4">
-        <v>10</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R29" s="4">
-        <v>9</v>
-      </c>
-      <c r="S29" s="4">
-        <v>11</v>
-      </c>
-      <c r="T29" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="4">
-        <v>12</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="4">
-        <v>8</v>
-      </c>
-      <c r="F30" s="4">
-        <v>2</v>
-      </c>
-      <c r="G30" s="4">
-        <v>5</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="4">
-        <v>7</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="4">
-        <v>3</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N30" s="4">
-        <v>10</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P30" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R30" s="4">
-        <v>9</v>
-      </c>
-      <c r="S30" s="4">
-        <v>11</v>
-      </c>
-      <c r="T30" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4">
-        <v>7</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2</v>
-      </c>
-      <c r="G31" s="4">
-        <v>5</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I31" s="4">
-        <v>12</v>
-      </c>
-      <c r="J31" s="4">
-        <v>4</v>
-      </c>
-      <c r="K31" s="4">
-        <v>3</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N31" s="4">
-        <v>10</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P31" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R31" s="4">
-        <v>9</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T31" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4">
-        <v>14</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="4">
-        <v>5</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" s="4">
-        <v>12</v>
-      </c>
-      <c r="J32" s="4">
-        <v>4</v>
-      </c>
-      <c r="K32" s="4">
-        <v>3</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N32" s="4">
-        <v>10</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P32" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R32" s="4">
-        <v>9</v>
-      </c>
-      <c r="S32" s="4">
-        <v>11</v>
-      </c>
-      <c r="T32" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="4">
-        <v>8</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="4">
-        <v>9</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K33" s="4">
-        <v>3</v>
-      </c>
-      <c r="L33" s="4">
-        <v>4</v>
-      </c>
-      <c r="M33" s="4">
-        <v>7</v>
-      </c>
-      <c r="N33" s="4">
-        <v>10</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P33" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R33" s="4">
-        <v>12</v>
-      </c>
-      <c r="S33" s="4">
-        <v>11</v>
-      </c>
-      <c r="T33" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="4">
-        <v>8</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4">
-        <v>5</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" s="4">
-        <v>9</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K34" s="4">
-        <v>3</v>
-      </c>
-      <c r="L34" s="4">
-        <v>4</v>
-      </c>
-      <c r="M34" s="4">
-        <v>7</v>
-      </c>
-      <c r="N34" s="4">
-        <v>10</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S34" s="4">
-        <v>11</v>
-      </c>
-      <c r="T34" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="4">
-        <v>8</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2</v>
-      </c>
-      <c r="G35" s="4">
-        <v>5</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="4">
-        <v>3</v>
-      </c>
-      <c r="L35" s="4">
-        <v>4</v>
-      </c>
-      <c r="M35" s="4">
-        <v>7</v>
-      </c>
-      <c r="N35" s="4">
-        <v>10</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P35" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R35" s="4">
-        <v>12</v>
-      </c>
-      <c r="S35" s="4">
-        <v>11</v>
-      </c>
-      <c r="T35" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4">
-        <v>14</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4">
-        <v>5</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K36" s="4">
-        <v>3</v>
-      </c>
-      <c r="L36" s="4">
-        <v>4</v>
-      </c>
-      <c r="M36" s="4">
-        <v>7</v>
-      </c>
-      <c r="N36" s="4">
-        <v>10</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P36" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R36" s="4">
-        <v>12</v>
-      </c>
-      <c r="S36" s="4">
-        <v>11</v>
-      </c>
-      <c r="T36" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="4">
-        <v>8</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2</v>
-      </c>
-      <c r="G37" s="4">
-        <v>5</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37" s="4">
-        <v>3</v>
-      </c>
-      <c r="L37" s="4">
-        <v>4</v>
-      </c>
-      <c r="M37" s="4">
-        <v>7</v>
-      </c>
-      <c r="N37" s="4">
-        <v>10</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P37" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R37" s="4">
-        <v>9</v>
-      </c>
-      <c r="S37" s="4">
-        <v>11</v>
-      </c>
-      <c r="T37" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="4">
-        <v>2</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="4">
-        <v>14</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38" s="4">
-        <v>3</v>
-      </c>
-      <c r="L38" s="4">
-        <v>4</v>
-      </c>
-      <c r="M38" s="4">
-        <v>7</v>
-      </c>
-      <c r="N38" s="4">
-        <v>10</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P38" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R38" s="4">
-        <v>9</v>
-      </c>
-      <c r="S38" s="4">
-        <v>11</v>
-      </c>
-      <c r="T38" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4">
-        <v>12</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="4">
-        <v>2</v>
-      </c>
-      <c r="G39" s="4">
-        <v>5</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39" s="4">
-        <v>3</v>
-      </c>
-      <c r="L39" s="4">
-        <v>4</v>
-      </c>
-      <c r="M39" s="4">
-        <v>7</v>
-      </c>
-      <c r="N39" s="4">
-        <v>10</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P39" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R39" s="4">
-        <v>9</v>
-      </c>
-      <c r="S39" s="4">
-        <v>11</v>
-      </c>
-      <c r="T39" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="4">
-        <v>8</v>
-      </c>
-      <c r="F40" s="4">
-        <v>2</v>
-      </c>
-      <c r="G40" s="4">
-        <v>5</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40" s="4">
-        <v>14</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40" s="4">
-        <v>3</v>
-      </c>
-      <c r="L40" s="4">
-        <v>4</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N40" s="4">
-        <v>10</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R40" s="4">
-        <v>9</v>
-      </c>
-      <c r="S40" s="4">
-        <v>11</v>
-      </c>
-      <c r="T40" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="4">
-        <v>8</v>
-      </c>
-      <c r="F41" s="4">
-        <v>2</v>
-      </c>
-      <c r="G41" s="4">
-        <v>5</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I41" s="4">
-        <v>7</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41" s="4">
-        <v>3</v>
-      </c>
-      <c r="L41" s="4">
-        <v>4</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N41" s="4">
-        <v>10</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P41" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R41" s="4">
-        <v>9</v>
-      </c>
-      <c r="S41" s="4">
-        <v>11</v>
-      </c>
-      <c r="T41" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4">
-        <v>12</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="4">
-        <v>8</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I42" s="4">
-        <v>7</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K42" s="4">
-        <v>3</v>
-      </c>
-      <c r="L42" s="4">
-        <v>4</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N42" s="4">
-        <v>10</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R42" s="4">
-        <v>9</v>
-      </c>
-      <c r="S42" s="4">
-        <v>11</v>
-      </c>
-      <c r="T42" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="4">
-        <v>8</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="4">
-        <v>5</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I43" s="4">
-        <v>7</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K43" s="4">
-        <v>3</v>
-      </c>
-      <c r="L43" s="4">
-        <v>4</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N43" s="4">
-        <v>10</v>
-      </c>
-      <c r="O43" s="4">
-        <v>2</v>
-      </c>
-      <c r="P43" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R43" s="4">
-        <v>9</v>
-      </c>
-      <c r="S43" s="4">
-        <v>11</v>
-      </c>
-      <c r="T43" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="4">
-        <v>8</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="4">
-        <v>5</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I44" s="4">
-        <v>7</v>
-      </c>
-      <c r="J44" s="4">
-        <v>14</v>
-      </c>
-      <c r="K44" s="4">
-        <v>3</v>
-      </c>
-      <c r="L44" s="4">
-        <v>4</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N44" s="4">
-        <v>10</v>
-      </c>
-      <c r="O44" s="4">
-        <v>2</v>
-      </c>
-      <c r="P44" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R44" s="4">
-        <v>9</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T44" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4">
-        <v>4</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="4">
-        <v>8</v>
-      </c>
-      <c r="F45" s="4">
-        <v>2</v>
-      </c>
-      <c r="G45" s="4">
-        <v>5</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I45" s="4">
-        <v>7</v>
-      </c>
-      <c r="J45" s="4">
-        <v>14</v>
-      </c>
-      <c r="K45" s="4">
-        <v>3</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P45" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R45" s="4">
-        <v>9</v>
-      </c>
-      <c r="S45" s="4">
-        <v>11</v>
-      </c>
-      <c r="T45" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4">
-        <v>4</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="4">
-        <v>8</v>
-      </c>
-      <c r="F46" s="4">
-        <v>2</v>
-      </c>
-      <c r="G46" s="4">
-        <v>5</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I46" s="4">
-        <v>7</v>
-      </c>
-      <c r="J46" s="4">
-        <v>12</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N46" s="4">
-        <v>10</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P46" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R46" s="4">
-        <v>9</v>
-      </c>
-      <c r="S46" s="4">
-        <v>11</v>
-      </c>
-      <c r="T46" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4">
-        <v>4</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="4">
-        <v>8</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2</v>
-      </c>
-      <c r="G47" s="4">
-        <v>5</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" s="4">
-        <v>7</v>
-      </c>
-      <c r="J47" s="4">
-        <v>12</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N47" s="4">
-        <v>10</v>
-      </c>
-      <c r="O47" s="4">
-        <v>3</v>
-      </c>
-      <c r="P47" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R47" s="4">
-        <v>9</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="T47" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4">
-        <v>12</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="4">
-        <v>2</v>
-      </c>
-      <c r="G48" s="4">
-        <v>5</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="4">
-        <v>7</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L48" s="4">
-        <v>4</v>
-      </c>
-      <c r="M48" s="4">
-        <v>14</v>
-      </c>
-      <c r="N48" s="4">
-        <v>10</v>
-      </c>
-      <c r="O48" s="4">
-        <v>3</v>
-      </c>
-      <c r="P48" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R48" s="4">
-        <v>9</v>
-      </c>
-      <c r="S48" s="4">
-        <v>11</v>
-      </c>
-      <c r="T48" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4">
-        <v>12</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="4">
-        <v>6</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="4">
-        <v>2</v>
-      </c>
-      <c r="G49" s="4">
-        <v>5</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I49" s="4">
-        <v>7</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L49" s="4">
-        <v>4</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N49" s="4">
-        <v>10</v>
-      </c>
-      <c r="O49" s="4">
-        <v>3</v>
-      </c>
-      <c r="P49" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R49" s="4">
-        <v>9</v>
-      </c>
-      <c r="S49" s="4">
-        <v>11</v>
-      </c>
-      <c r="T49" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="4">
-        <v>6</v>
-      </c>
-      <c r="E50" s="4">
-        <v>8</v>
-      </c>
-      <c r="F50" s="4">
-        <v>2</v>
-      </c>
-      <c r="G50" s="4">
-        <v>5</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I50" s="4">
-        <v>7</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L50" s="4">
-        <v>4</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N50" s="4">
-        <v>10</v>
-      </c>
-      <c r="O50" s="4">
-        <v>3</v>
-      </c>
-      <c r="P50" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R50" s="4">
-        <v>9</v>
-      </c>
-      <c r="S50" s="4">
-        <v>11</v>
-      </c>
-      <c r="T50" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="4">
-        <v>8</v>
-      </c>
-      <c r="F51" s="4">
-        <v>2</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I51" s="4">
-        <v>7</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L51" s="4">
-        <v>4</v>
-      </c>
-      <c r="M51" s="4">
-        <v>14</v>
-      </c>
-      <c r="N51" s="4">
-        <v>10</v>
-      </c>
-      <c r="O51" s="4">
-        <v>3</v>
-      </c>
-      <c r="P51" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R51" s="4">
-        <v>9</v>
-      </c>
-      <c r="S51" s="4">
-        <v>11</v>
-      </c>
-      <c r="T51" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="4">
-        <v>8</v>
-      </c>
-      <c r="F52" s="4">
-        <v>2</v>
-      </c>
-      <c r="G52" s="4">
-        <v>5</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L52" s="4">
-        <v>4</v>
-      </c>
-      <c r="M52" s="4">
-        <v>14</v>
-      </c>
-      <c r="N52" s="4">
-        <v>10</v>
-      </c>
-      <c r="O52" s="4">
-        <v>3</v>
-      </c>
-      <c r="P52" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R52" s="4">
-        <v>9</v>
-      </c>
-      <c r="S52" s="4">
-        <v>11</v>
-      </c>
-      <c r="T52" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="4">
-        <v>8</v>
-      </c>
-      <c r="F53" s="4">
-        <v>2</v>
-      </c>
-      <c r="G53" s="4">
-        <v>5</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L53" s="4">
-        <v>4</v>
-      </c>
-      <c r="M53" s="4">
-        <v>7</v>
-      </c>
-      <c r="N53" s="4">
-        <v>10</v>
-      </c>
-      <c r="O53" s="4">
-        <v>3</v>
-      </c>
-      <c r="P53" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R53" s="4">
-        <v>9</v>
-      </c>
-      <c r="S53" s="4">
-        <v>11</v>
-      </c>
-      <c r="T53" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="4">
-        <v>12</v>
-      </c>
-      <c r="C54" s="4">
-        <v>14</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="4">
-        <v>8</v>
-      </c>
-      <c r="F54" s="4">
-        <v>2</v>
-      </c>
-      <c r="G54" s="4">
-        <v>5</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L54" s="4">
-        <v>4</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="4">
-        <v>10</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P54" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R54" s="4">
-        <v>9</v>
-      </c>
-      <c r="S54" s="4">
-        <v>11</v>
-      </c>
-      <c r="T54" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="4">
-        <v>12</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="4">
-        <v>8</v>
-      </c>
-      <c r="F55" s="4">
-        <v>2</v>
-      </c>
-      <c r="G55" s="4">
-        <v>5</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L55" s="4">
-        <v>4</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N55" s="4">
-        <v>10</v>
-      </c>
-      <c r="O55" s="4">
-        <v>3</v>
-      </c>
-      <c r="P55" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R55" s="4">
-        <v>9</v>
-      </c>
-      <c r="S55" s="4">
-        <v>11</v>
-      </c>
-      <c r="T55" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="4">
-        <v>12</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="4">
-        <v>2</v>
-      </c>
-      <c r="G56" s="4">
-        <v>5</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I56" s="4">
-        <v>7</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L56" s="4">
-        <v>4</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N56" s="4">
-        <v>10</v>
-      </c>
-      <c r="O56" s="4">
-        <v>3</v>
-      </c>
-      <c r="P56" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R56" s="4">
-        <v>9</v>
-      </c>
-      <c r="S56" s="4">
-        <v>11</v>
-      </c>
-      <c r="T56" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="4">
-        <v>8</v>
-      </c>
-      <c r="F57" s="4">
-        <v>2</v>
-      </c>
-      <c r="G57" s="4">
-        <v>5</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I57" s="4">
-        <v>7</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L57" s="4">
-        <v>4</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N57" s="4">
-        <v>10</v>
-      </c>
-      <c r="O57" s="4">
-        <v>3</v>
-      </c>
-      <c r="P57" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R57" s="4">
-        <v>9</v>
-      </c>
-      <c r="S57" s="4">
-        <v>11</v>
-      </c>
-      <c r="T57" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="4">
-        <v>14</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="4">
-        <v>8</v>
-      </c>
-      <c r="F58" s="4">
-        <v>2</v>
-      </c>
-      <c r="G58" s="4">
-        <v>5</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I58" s="4">
-        <v>7</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L58" s="4">
-        <v>4</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N58" s="4">
-        <v>10</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P58" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R58" s="4">
-        <v>9</v>
-      </c>
-      <c r="S58" s="4">
-        <v>11</v>
-      </c>
-      <c r="T58" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="4">
-        <v>12</v>
-      </c>
-      <c r="C59" s="4">
-        <v>14</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="4">
-        <v>2</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I59" s="4">
-        <v>7</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L59" s="4">
-        <v>4</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N59" s="4">
-        <v>10</v>
-      </c>
-      <c r="O59" s="4">
-        <v>3</v>
-      </c>
-      <c r="P59" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R59" s="4">
-        <v>9</v>
-      </c>
-      <c r="S59" s="4">
-        <v>11</v>
-      </c>
-      <c r="T59" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="4">
-        <v>14</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="4">
-        <v>8</v>
-      </c>
-      <c r="F60" s="4">
-        <v>2</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I60" s="4">
-        <v>7</v>
-      </c>
-      <c r="J60" s="4">
-        <v>12</v>
-      </c>
-      <c r="K60" s="4">
-        <v>3</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N60" s="4">
-        <v>10</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P60" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R60" s="4">
-        <v>9</v>
-      </c>
-      <c r="S60" s="4">
-        <v>11</v>
-      </c>
-      <c r="T60" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="4">
-        <v>14</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" s="4">
-        <v>12</v>
-      </c>
-      <c r="F61" s="4">
-        <v>2</v>
-      </c>
-      <c r="G61" s="4">
-        <v>5</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61" s="4">
-        <v>8</v>
-      </c>
-      <c r="K61" s="4">
-        <v>3</v>
-      </c>
-      <c r="L61" s="4">
-        <v>4</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N61" s="4">
-        <v>10</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P61" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R61" s="4">
-        <v>9</v>
-      </c>
-      <c r="S61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T61" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>5</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" s="4">
-        <v>8</v>
-      </c>
-      <c r="F62" s="4">
-        <v>2</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I62" s="4">
-        <v>7</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L62" s="4">
-        <v>4</v>
-      </c>
-      <c r="M62" s="4">
-        <v>14</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O62" s="4">
-        <v>3</v>
-      </c>
-      <c r="P62" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R62" s="4">
-        <v>9</v>
-      </c>
-      <c r="S62" s="4">
-        <v>11</v>
-      </c>
-      <c r="T62" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" s="4">
-        <v>8</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2</v>
-      </c>
-      <c r="G63" s="4">
-        <v>5</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I63" s="4">
-        <v>7</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L63" s="4">
-        <v>4</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N63" s="4">
-        <v>10</v>
-      </c>
-      <c r="O63" s="4">
-        <v>3</v>
-      </c>
-      <c r="P63" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R63" s="4">
-        <v>9</v>
-      </c>
-      <c r="S63" s="4">
-        <v>11</v>
-      </c>
-      <c r="T63" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="4">
-        <v>8</v>
-      </c>
-      <c r="F64" s="4">
-        <v>2</v>
-      </c>
-      <c r="G64" s="4">
-        <v>5</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I64" s="4">
-        <v>7</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L64" s="4">
-        <v>4</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N64" s="4">
-        <v>10</v>
-      </c>
-      <c r="O64" s="4">
-        <v>3</v>
-      </c>
-      <c r="P64" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R64" s="4">
-        <v>9</v>
-      </c>
-      <c r="S64" s="4">
-        <v>11</v>
-      </c>
-      <c r="T64" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="4">
-        <v>2</v>
-      </c>
-      <c r="E65" s="4">
-        <v>8</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" s="4">
-        <v>5</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I65" s="4">
-        <v>7</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L65" s="4">
-        <v>4</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N65" s="4">
-        <v>10</v>
-      </c>
-      <c r="O65" s="4">
-        <v>3</v>
-      </c>
-      <c r="P65" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R65" s="4">
-        <v>9</v>
-      </c>
-      <c r="S65" s="4">
-        <v>11</v>
-      </c>
-      <c r="T65" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="4">
-        <v>12</v>
-      </c>
-      <c r="C66" s="4">
-        <v>14</v>
-      </c>
-      <c r="D66" s="4">
-        <v>2</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" s="4">
-        <v>5</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I66" s="4">
-        <v>7</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L66" s="4">
-        <v>4</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N66" s="4">
-        <v>10</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P66" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R66" s="4">
-        <v>9</v>
-      </c>
-      <c r="S66" s="4">
-        <v>11</v>
-      </c>
-      <c r="T66" s="4">
         <v>6</v>
       </c>
     </row>

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DE7333-8E3A-AA40-A486-765B466E7F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F80A8BD-310D-4E4F-AB24-ECABC3695FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="1989-90" sheetId="17" r:id="rId1"/>
-    <sheet name="1990-91" sheetId="16" r:id="rId2"/>
-    <sheet name="1991-92" sheetId="7" r:id="rId3"/>
-    <sheet name="1992-93" sheetId="11" r:id="rId4"/>
-    <sheet name="1993-94" sheetId="14" r:id="rId5"/>
-    <sheet name="1994-95" sheetId="1" r:id="rId6"/>
-    <sheet name="1995-96" sheetId="4" r:id="rId7"/>
+    <sheet name="1945-46" sheetId="18" r:id="rId1"/>
+    <sheet name="1989-90" sheetId="17" r:id="rId2"/>
+    <sheet name="1990-91" sheetId="16" r:id="rId3"/>
+    <sheet name="1991-92" sheetId="7" r:id="rId4"/>
+    <sheet name="1992-93" sheetId="11" r:id="rId5"/>
+    <sheet name="1993-94" sheetId="14" r:id="rId6"/>
+    <sheet name="1994-95" sheetId="1" r:id="rId7"/>
+    <sheet name="1995-96" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="106">
   <si>
     <t>11+</t>
   </si>
@@ -295,12 +296,78 @@
   <si>
     <t>4•</t>
   </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Ashcroft</t>
+  </si>
+  <si>
+    <t>Atkinson</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Bridges</t>
+  </si>
+  <si>
+    <t>Gould</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Harlock</t>
+  </si>
+  <si>
+    <t>Hodgson L</t>
+  </si>
+  <si>
+    <t>Hornby</t>
+  </si>
+  <si>
+    <t>Jones TB</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>Payne AC</t>
+  </si>
+  <si>
+    <t>Phiipotts</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Richards</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Rosenthal</t>
+  </si>
+  <si>
+    <t>Steele</t>
+  </si>
+  <si>
+    <t>Williamson S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,6 +394,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,6 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,11 +743,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77E507-ADE4-EC47-A9C7-E6FD7EAE7A4E}">
+  <dimension ref="A1:V7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5">
+        <v>5</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+      <c r="T2" s="5">
+        <v>10</v>
+      </c>
+      <c r="U2" s="5">
+        <v>4</v>
+      </c>
+      <c r="V2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
+        <v>11</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5">
+        <v>5</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5">
+        <v>8</v>
+      </c>
+      <c r="U3" s="5">
+        <v>4</v>
+      </c>
+      <c r="V3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5">
+        <v>11</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5">
+        <v>5</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
+        <v>8</v>
+      </c>
+      <c r="U4" s="5">
+        <v>4</v>
+      </c>
+      <c r="V4" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
+        <v>7</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5">
+        <v>5</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5">
+        <v>8</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>11</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
+        <v>8</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5">
+        <v>11</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5">
+        <v>8</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0C9159-3439-D04D-A570-3940686A82F2}">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4679,7 +5112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B1DCE2-83C0-7043-83EC-E3BF8EDF97DC}">
   <dimension ref="A1:T62"/>
   <sheetViews>
@@ -7594,7 +8027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEC80A8-202C-9946-8EBB-EFD49AAE7C1A}">
   <dimension ref="A1:W60"/>
   <sheetViews>
@@ -9946,7 +10379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9AD14E-5C41-B640-841F-A02FBCF76B8F}">
   <dimension ref="A1:W60"/>
   <sheetViews>
@@ -12256,7 +12689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B21AD3B-5CFD-9E48-9F5E-34B590DA3414}">
   <dimension ref="A1:X60"/>
   <sheetViews>
@@ -14572,7 +15005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A364B2D-8A97-644E-815B-092AA8749711}">
   <dimension ref="A1:V60"/>
   <sheetViews>
@@ -16927,7 +17360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AACCB4-B063-5940-B7D8-989E5CF6472C}">
   <dimension ref="A1:AC52"/>
   <sheetViews>

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F80A8BD-310D-4E4F-AB24-ECABC3695FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B117693-010B-2948-91BB-2C75D8D029EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="99">
   <si>
     <t>11+</t>
   </si>
@@ -312,18 +312,6 @@
     <t>Bridges</t>
   </si>
   <si>
-    <t>Gould</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>Harlock</t>
-  </si>
-  <si>
-    <t>Hodgson L</t>
-  </si>
-  <si>
     <t>Hornby</t>
   </si>
   <si>
@@ -336,16 +324,7 @@
     <t>Lloyd</t>
   </si>
   <si>
-    <t>Payne AC</t>
-  </si>
-  <si>
     <t>Phiipotts</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Read</t>
   </si>
   <si>
     <t>Richards</t>
@@ -744,15 +723,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77E507-ADE4-EC47-A9C7-E6FD7EAE7A4E}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -798,29 +777,8 @@
       <c r="O1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>2</v>
       </c>
@@ -832,41 +790,34 @@
       <c r="E2" s="5">
         <v>9</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="F2" s="5">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5">
+        <v>8</v>
+      </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="5">
-        <v>3</v>
-      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L2" s="5">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5">
-        <v>5</v>
-      </c>
-      <c r="S2" s="5">
-        <v>1</v>
-      </c>
-      <c r="T2" s="5">
-        <v>10</v>
-      </c>
-      <c r="U2" s="5">
-        <v>4</v>
-      </c>
-      <c r="V2" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>10</v>
+      </c>
+      <c r="N2" s="5">
+        <v>4</v>
+      </c>
+      <c r="O2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -880,39 +831,32 @@
       <c r="E3" s="5">
         <v>10</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>11</v>
+      </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5">
-        <v>3</v>
-      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5">
-        <v>5</v>
-      </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5">
-        <v>8</v>
-      </c>
-      <c r="U3" s="5">
-        <v>4</v>
-      </c>
-      <c r="V3" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="N3" s="5">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -926,39 +870,32 @@
       <c r="E4" s="5">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>11</v>
+      </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5">
-        <v>3</v>
-      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5"/>
       <c r="K4" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5">
-        <v>5</v>
-      </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5">
-        <v>8</v>
-      </c>
-      <c r="U4" s="5">
-        <v>4</v>
-      </c>
-      <c r="V4" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="N4" s="5">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -972,129 +909,64 @@
       <c r="E5" s="5">
         <v>10</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>11</v>
+      </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
       <c r="J5" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K5" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5">
-        <v>7</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5">
-        <v>5</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5">
-        <v>8</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5">
-        <v>7</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5">
-        <v>2</v>
-      </c>
-      <c r="J6" s="5">
-        <v>3</v>
-      </c>
-      <c r="K6" s="5">
-        <v>11</v>
-      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5">
-        <v>4</v>
-      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5">
-        <v>8</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5">
-        <v>7</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5">
-        <v>3</v>
-      </c>
-      <c r="K7" s="5">
-        <v>11</v>
-      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5">
-        <v>8</v>
-      </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B117693-010B-2948-91BB-2C75D8D029EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01956828-564A-4246-8D20-0748F1C66004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="1945-46" sheetId="18" r:id="rId1"/>
-    <sheet name="1989-90" sheetId="17" r:id="rId2"/>
-    <sheet name="1990-91" sheetId="16" r:id="rId3"/>
-    <sheet name="1991-92" sheetId="7" r:id="rId4"/>
-    <sheet name="1992-93" sheetId="11" r:id="rId5"/>
-    <sheet name="1993-94" sheetId="14" r:id="rId6"/>
-    <sheet name="1994-95" sheetId="1" r:id="rId7"/>
-    <sheet name="1995-96" sheetId="4" r:id="rId8"/>
+    <sheet name="1921-22" sheetId="19" r:id="rId1"/>
+    <sheet name="1945-46" sheetId="18" r:id="rId2"/>
+    <sheet name="1986-87" sheetId="20" r:id="rId3"/>
+    <sheet name="1989-90" sheetId="17" r:id="rId4"/>
+    <sheet name="1990-91" sheetId="16" r:id="rId5"/>
+    <sheet name="1991-92" sheetId="7" r:id="rId6"/>
+    <sheet name="1992-93" sheetId="11" r:id="rId7"/>
+    <sheet name="1993-94" sheetId="14" r:id="rId8"/>
+    <sheet name="1994-95" sheetId="1" r:id="rId9"/>
+    <sheet name="1995-96" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="141">
   <si>
     <t>11+</t>
   </si>
@@ -340,6 +342,132 @@
   </si>
   <si>
     <t>Williamson S</t>
+  </si>
+  <si>
+    <t>Baldwin</t>
+  </si>
+  <si>
+    <t>Bradshaw</t>
+  </si>
+  <si>
+    <t>Bullough</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Cunningham</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Forshaw</t>
+  </si>
+  <si>
+    <t>Fulton</t>
+  </si>
+  <si>
+    <t>﻿﻿Grainger</t>
+  </si>
+  <si>
+    <t>﻿﻿Groves</t>
+  </si>
+  <si>
+    <t>Hayes C</t>
+  </si>
+  <si>
+    <t>Heslop</t>
+  </si>
+  <si>
+    <t>Hilton</t>
+  </si>
+  <si>
+    <t>﻿﻿Hughes</t>
+  </si>
+  <si>
+    <t>﻿﻿Hyam</t>
+  </si>
+  <si>
+    <t>Mercer</t>
+  </si>
+  <si>
+    <t>Milnes</t>
+  </si>
+  <si>
+    <t>Moorhouse</t>
+  </si>
+  <si>
+    <t>Moreton</t>
+  </si>
+  <si>
+    <t>Niven</t>
+  </si>
+  <si>
+    <t>Prentice</t>
+  </si>
+  <si>
+    <t>Rainford</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>Robinson A</t>
+  </si>
+  <si>
+    <t>Stott</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>Sugden</t>
+  </si>
+  <si>
+    <t>Winn</t>
+  </si>
+  <si>
+    <t>Bullock</t>
+  </si>
+  <si>
+    <t>Camden</t>
+  </si>
+  <si>
+    <t>Carmody</t>
+  </si>
+  <si>
+    <t>Dalton</t>
+  </si>
+  <si>
+    <t>Famworth</t>
+  </si>
+  <si>
+    <t>Grierson</t>
+  </si>
+  <si>
+    <t>Hay</t>
+  </si>
+  <si>
+    <t>Horwood</t>
+  </si>
+  <si>
+    <t>McManus</t>
+  </si>
+  <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
+    <t>Thorpe Ad</t>
+  </si>
+  <si>
+    <t>Thorpe Andy</t>
+  </si>
+  <si>
+    <t>Williams G</t>
+  </si>
+  <si>
+    <t>Worthington</t>
   </si>
 </sst>
 </file>
@@ -722,10 +850,3642 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C92DF65-9AD8-C444-B3E1-1CB7EA3A70FC}">
+  <dimension ref="A1:AE41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AE41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>11</v>
+      </c>
+      <c r="Q2">
+        <v>9</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>11</v>
+      </c>
+      <c r="AA5">
+        <v>8</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
+        <v>11</v>
+      </c>
+      <c r="AC6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>11</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>11</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>11</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>11</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
+      <c r="AC10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>11</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>8</v>
+      </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>11</v>
+      </c>
+      <c r="Z12">
+        <v>6</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>11</v>
+      </c>
+      <c r="Z13">
+        <v>6</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="X14">
+        <v>11</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <v>11</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="X16">
+        <v>11</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>11</v>
+      </c>
+      <c r="Z17">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>8</v>
+      </c>
+      <c r="X18">
+        <v>11</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+      <c r="R19">
+        <v>9</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <v>11</v>
+      </c>
+      <c r="Z19">
+        <v>6</v>
+      </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>8</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>11</v>
+      </c>
+      <c r="X20">
+        <v>9</v>
+      </c>
+      <c r="Z20">
+        <v>6</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="R21">
+        <v>9</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="X21">
+        <v>11</v>
+      </c>
+      <c r="Z21">
+        <v>6</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AD21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>9</v>
+      </c>
+      <c r="V22">
+        <v>7</v>
+      </c>
+      <c r="X22">
+        <v>11</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+      <c r="Z22">
+        <v>6</v>
+      </c>
+      <c r="AC22">
+        <v>3</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <v>7</v>
+      </c>
+      <c r="X23">
+        <v>11</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+      <c r="AC23">
+        <v>3</v>
+      </c>
+      <c r="AD23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="V24">
+        <v>7</v>
+      </c>
+      <c r="X24">
+        <v>11</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="U25">
+        <v>11</v>
+      </c>
+      <c r="V25">
+        <v>7</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>6</v>
+      </c>
+      <c r="AE25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>10</v>
+      </c>
+      <c r="Z26">
+        <v>11</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <v>8</v>
+      </c>
+      <c r="V27">
+        <v>7</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Z27">
+        <v>11</v>
+      </c>
+      <c r="AC27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="O28">
+        <v>8</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="V28">
+        <v>7</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>4</v>
+      </c>
+      <c r="Z28">
+        <v>11</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>7</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>10</v>
+      </c>
+      <c r="Z29">
+        <v>11</v>
+      </c>
+      <c r="AC29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="V30">
+        <v>7</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>10</v>
+      </c>
+      <c r="Z30">
+        <v>11</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="V31">
+        <v>7</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>10</v>
+      </c>
+      <c r="Z31">
+        <v>11</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="V32">
+        <v>7</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>11</v>
+      </c>
+      <c r="Y32">
+        <v>10</v>
+      </c>
+      <c r="Z32">
+        <v>6</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>7</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>10</v>
+      </c>
+      <c r="Z33">
+        <v>11</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
+        <v>8</v>
+      </c>
+      <c r="R34">
+        <v>9</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>11</v>
+      </c>
+      <c r="AC34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>8</v>
+      </c>
+      <c r="R35">
+        <v>9</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="V35">
+        <v>7</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>10</v>
+      </c>
+      <c r="Z35">
+        <v>11</v>
+      </c>
+      <c r="AC35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <v>9</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="V36">
+        <v>7</v>
+      </c>
+      <c r="W36">
+        <v>3</v>
+      </c>
+      <c r="Y36">
+        <v>10</v>
+      </c>
+      <c r="Z36">
+        <v>11</v>
+      </c>
+      <c r="AC36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <v>8</v>
+      </c>
+      <c r="R37">
+        <v>9</v>
+      </c>
+      <c r="T37">
+        <v>5</v>
+      </c>
+      <c r="V37">
+        <v>7</v>
+      </c>
+      <c r="W37">
+        <v>3</v>
+      </c>
+      <c r="Y37">
+        <v>10</v>
+      </c>
+      <c r="Z37">
+        <v>11</v>
+      </c>
+      <c r="AC37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="R38">
+        <v>9</v>
+      </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
+      <c r="V38">
+        <v>7</v>
+      </c>
+      <c r="W38">
+        <v>3</v>
+      </c>
+      <c r="Y38">
+        <v>10</v>
+      </c>
+      <c r="Z38">
+        <v>11</v>
+      </c>
+      <c r="AC38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>8</v>
+      </c>
+      <c r="R39">
+        <v>9</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+      <c r="V39">
+        <v>7</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="Y39">
+        <v>10</v>
+      </c>
+      <c r="Z39">
+        <v>11</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="O40">
+        <v>8</v>
+      </c>
+      <c r="R40">
+        <v>9</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>7</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>10</v>
+      </c>
+      <c r="Z40">
+        <v>11</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>9</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="V41">
+        <v>7</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>10</v>
+      </c>
+      <c r="Z41">
+        <v>11</v>
+      </c>
+      <c r="AA41">
+        <v>8</v>
+      </c>
+      <c r="AC41">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AACCB4-B063-5940-B7D8-989E5CF6472C}">
+  <dimension ref="A1:AC52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>14</v>
+      </c>
+      <c r="R2">
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="R4">
+        <v>11</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>14</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9">
+        <v>11</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>15</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <v>11</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>11</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>11</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>11</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>11</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>11</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>11</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20">
+        <v>11</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>11</v>
+      </c>
+      <c r="U21" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>10</v>
+      </c>
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22">
+        <v>14</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>11</v>
+      </c>
+      <c r="S23">
+        <v>14</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>14</v>
+      </c>
+      <c r="R24">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>11</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>14</v>
+      </c>
+      <c r="R27">
+        <v>11</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>14</v>
+      </c>
+      <c r="R28" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="R29">
+        <v>11</v>
+      </c>
+      <c r="S29">
+        <v>12</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>14</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>9</v>
+      </c>
+      <c r="R31">
+        <v>11</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>9</v>
+      </c>
+      <c r="Q32">
+        <v>12</v>
+      </c>
+      <c r="R32" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>18</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>14</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>9</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>11</v>
+      </c>
+      <c r="S33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34">
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>9</v>
+      </c>
+      <c r="P34">
+        <v>13</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34" t="s">
+        <v>19</v>
+      </c>
+      <c r="T34">
+        <v>6</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="W34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="M35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="P36">
+        <v>13</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="P37">
+        <v>13</v>
+      </c>
+      <c r="Q37">
+        <v>12</v>
+      </c>
+      <c r="S37" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="N38">
+        <v>9</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="T38" t="s">
+        <v>45</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>12</v>
+      </c>
+      <c r="N39">
+        <v>9</v>
+      </c>
+      <c r="P39">
+        <v>13</v>
+      </c>
+      <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="R40">
+        <v>9</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="R41" t="s">
+        <v>14</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>5</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>12</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>13</v>
+      </c>
+      <c r="R42" t="s">
+        <v>14</v>
+      </c>
+      <c r="T42">
+        <v>11</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42">
+        <v>5</v>
+      </c>
+      <c r="W42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="R43">
+        <v>9</v>
+      </c>
+      <c r="T43">
+        <v>11</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <v>14</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>10</v>
+      </c>
+      <c r="R44">
+        <v>9</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="R45">
+        <v>9</v>
+      </c>
+      <c r="T45">
+        <v>11</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>13</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>10</v>
+      </c>
+      <c r="R46">
+        <v>9</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="V46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47">
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="P47" t="s">
+        <v>49</v>
+      </c>
+      <c r="R47">
+        <v>9</v>
+      </c>
+      <c r="S47">
+        <v>12</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>11</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>14</v>
+      </c>
+      <c r="P48" t="s">
+        <v>49</v>
+      </c>
+      <c r="R48">
+        <v>13</v>
+      </c>
+      <c r="S48">
+        <v>10</v>
+      </c>
+      <c r="T48" t="s">
+        <v>12</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>13</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <v>14</v>
+      </c>
+      <c r="P49">
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>9</v>
+      </c>
+      <c r="S49">
+        <v>10</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>11</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>13</v>
+      </c>
+      <c r="O50">
+        <v>14</v>
+      </c>
+      <c r="P50">
+        <v>7</v>
+      </c>
+      <c r="R50" t="s">
+        <v>11</v>
+      </c>
+      <c r="S50">
+        <v>10</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>11</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>13</v>
+      </c>
+      <c r="O51">
+        <v>14</v>
+      </c>
+      <c r="P51">
+        <v>7</v>
+      </c>
+      <c r="S51">
+        <v>10</v>
+      </c>
+      <c r="T51" t="s">
+        <v>12</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>12</v>
+      </c>
+      <c r="P52">
+        <v>7</v>
+      </c>
+      <c r="S52">
+        <v>10</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77E507-ADE4-EC47-A9C7-E6FD7EAE7A4E}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -973,7 +4733,2595 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8208EDE1-EAAD-1845-8C60-FCCDCEF65C24}">
+  <dimension ref="A1:W53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5">
+        <v>6</v>
+      </c>
+      <c r="O2" s="5">
+        <v>12</v>
+      </c>
+      <c r="P2" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5">
+        <v>4</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>6</v>
+      </c>
+      <c r="O3" s="5">
+        <v>7</v>
+      </c>
+      <c r="P3" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>3</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5">
+        <v>4</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5">
+        <v>7</v>
+      </c>
+      <c r="P4" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>3</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
+        <v>4</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5</v>
+      </c>
+      <c r="O5" s="5">
+        <v>7</v>
+      </c>
+      <c r="P5" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>2</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5">
+        <v>4</v>
+      </c>
+      <c r="U5" s="5">
+        <v>12</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>9</v>
+      </c>
+      <c r="O6" s="5">
+        <v>7</v>
+      </c>
+      <c r="P6" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>2</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
+        <v>4</v>
+      </c>
+      <c r="U6" s="5">
+        <v>5</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>3</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5">
+        <v>7</v>
+      </c>
+      <c r="P7" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>2</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5">
+        <v>4</v>
+      </c>
+      <c r="U7" s="5">
+        <v>6</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
+        <v>5</v>
+      </c>
+      <c r="O8" s="5">
+        <v>7</v>
+      </c>
+      <c r="P8" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>2</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5">
+        <v>4</v>
+      </c>
+      <c r="U8" s="5">
+        <v>6</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <v>3</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
+        <v>5</v>
+      </c>
+      <c r="O9" s="5">
+        <v>7</v>
+      </c>
+      <c r="P9" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
+        <v>4</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
+        <v>6</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
+        <v>5</v>
+      </c>
+      <c r="O10" s="5">
+        <v>7</v>
+      </c>
+      <c r="P10" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5">
+        <v>4</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5">
+        <v>3</v>
+      </c>
+      <c r="W10" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
+        <v>6</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <v>5</v>
+      </c>
+      <c r="O11" s="5">
+        <v>7</v>
+      </c>
+      <c r="P11" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>2</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
+        <v>4</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5">
+        <v>3</v>
+      </c>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
+        <v>6</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <v>5</v>
+      </c>
+      <c r="O12" s="5">
+        <v>7</v>
+      </c>
+      <c r="P12" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>2</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5">
+        <v>4</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5">
+        <v>3</v>
+      </c>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
+        <v>5</v>
+      </c>
+      <c r="O13" s="5">
+        <v>7</v>
+      </c>
+      <c r="P13" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5">
+        <v>4</v>
+      </c>
+      <c r="V13" s="5">
+        <v>3</v>
+      </c>
+      <c r="W13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <v>3</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>2</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <v>5</v>
+      </c>
+      <c r="O14" s="5">
+        <v>7</v>
+      </c>
+      <c r="P14" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>8</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5">
+        <v>4</v>
+      </c>
+      <c r="V14" s="5">
+        <v>6</v>
+      </c>
+      <c r="W14" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>5</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
+        <v>10</v>
+      </c>
+      <c r="O15" s="5">
+        <v>7</v>
+      </c>
+      <c r="P15" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>2</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
+        <v>4</v>
+      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5">
+        <v>6</v>
+      </c>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>5</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
+        <v>10</v>
+      </c>
+      <c r="O16" s="5">
+        <v>7</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>2</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5">
+        <v>4</v>
+      </c>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5">
+        <v>6</v>
+      </c>
+      <c r="W16" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>5</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5">
+        <v>10</v>
+      </c>
+      <c r="O17" s="5">
+        <v>7</v>
+      </c>
+      <c r="P17" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>2</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
+        <v>4</v>
+      </c>
+      <c r="U17" s="5">
+        <v>12</v>
+      </c>
+      <c r="V17" s="5">
+        <v>6</v>
+      </c>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
+        <v>12</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <v>5</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5">
+        <v>7</v>
+      </c>
+      <c r="P18" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>2</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5">
+        <v>11</v>
+      </c>
+      <c r="T18" s="5">
+        <v>4</v>
+      </c>
+      <c r="U18" s="5">
+        <v>6</v>
+      </c>
+      <c r="V18" s="5">
+        <v>3</v>
+      </c>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
+        <v>3</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5">
+        <v>10</v>
+      </c>
+      <c r="O19" s="5">
+        <v>7</v>
+      </c>
+      <c r="P19" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5">
+        <v>6</v>
+      </c>
+      <c r="T19" s="5">
+        <v>4</v>
+      </c>
+      <c r="U19" s="5">
+        <v>5</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
+        <v>12</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
+        <v>10</v>
+      </c>
+      <c r="O20" s="5">
+        <v>7</v>
+      </c>
+      <c r="P20" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>2</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5">
+        <v>4</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5">
+        <v>3</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
+        <v>12</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="5">
+        <v>7</v>
+      </c>
+      <c r="P21" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>2</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1</v>
+      </c>
+      <c r="S21" s="5">
+        <v>10</v>
+      </c>
+      <c r="T21" s="5">
+        <v>4</v>
+      </c>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>3</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
+        <v>6</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5">
+        <v>12</v>
+      </c>
+      <c r="P22" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>2</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="5">
+        <v>4</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5">
+        <v>3</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
+        <v>5</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5">
+        <v>7</v>
+      </c>
+      <c r="P23" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>2</v>
+      </c>
+      <c r="R23" s="5">
+        <v>1</v>
+      </c>
+      <c r="S23" s="5">
+        <v>12</v>
+      </c>
+      <c r="T23" s="5">
+        <v>4</v>
+      </c>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5">
+        <v>12</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
+        <v>5</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5">
+        <v>7</v>
+      </c>
+      <c r="P24" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>2</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="5">
+        <v>6</v>
+      </c>
+      <c r="V24" s="5">
+        <v>3</v>
+      </c>
+      <c r="W24" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5">
+        <v>6</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5">
+        <v>7</v>
+      </c>
+      <c r="P25" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>2</v>
+      </c>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5">
+        <v>10</v>
+      </c>
+      <c r="T25" s="5">
+        <v>4</v>
+      </c>
+      <c r="U25" s="5">
+        <v>5</v>
+      </c>
+      <c r="V25" s="5">
+        <v>3</v>
+      </c>
+      <c r="W25" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5">
+        <v>6</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5">
+        <v>10</v>
+      </c>
+      <c r="O26" s="5">
+        <v>7</v>
+      </c>
+      <c r="P26" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>2</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5">
+        <v>4</v>
+      </c>
+      <c r="U26" s="5">
+        <v>5</v>
+      </c>
+      <c r="V26" s="5">
+        <v>3</v>
+      </c>
+      <c r="W26" s="5"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5">
+        <v>10</v>
+      </c>
+      <c r="O27" s="5">
+        <v>7</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>2</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5">
+        <v>4</v>
+      </c>
+      <c r="U27" s="5">
+        <v>5</v>
+      </c>
+      <c r="V27" s="5">
+        <v>3</v>
+      </c>
+      <c r="W27" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <v>6</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
+        <v>10</v>
+      </c>
+      <c r="O28" s="5">
+        <v>7</v>
+      </c>
+      <c r="P28" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>2</v>
+      </c>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5">
+        <v>4</v>
+      </c>
+      <c r="U28" s="5">
+        <v>5</v>
+      </c>
+      <c r="V28" s="5">
+        <v>3</v>
+      </c>
+      <c r="W28" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
+        <v>3</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5">
+        <v>9</v>
+      </c>
+      <c r="O29" s="5">
+        <v>7</v>
+      </c>
+      <c r="P29" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>2</v>
+      </c>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5">
+        <v>4</v>
+      </c>
+      <c r="U29" s="5">
+        <v>5</v>
+      </c>
+      <c r="V29" s="5">
+        <v>6</v>
+      </c>
+      <c r="W29" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5">
+        <v>3</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5">
+        <v>4</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
+        <v>9</v>
+      </c>
+      <c r="O30" s="5">
+        <v>7</v>
+      </c>
+      <c r="P30" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>2</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5">
+        <v>5</v>
+      </c>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>11</v>
+      </c>
+      <c r="B31" s="5">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5">
+        <v>3</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5">
+        <v>4</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5">
+        <v>6</v>
+      </c>
+      <c r="O31" s="5">
+        <v>7</v>
+      </c>
+      <c r="P31" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>2</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5">
+        <v>5</v>
+      </c>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>11</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5">
+        <v>3</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5">
+        <v>4</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5">
+        <v>6</v>
+      </c>
+      <c r="O32" s="5">
+        <v>7</v>
+      </c>
+      <c r="P32" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5">
+        <v>5</v>
+      </c>
+      <c r="V32" s="5">
+        <v>8</v>
+      </c>
+      <c r="W32" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>3</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5">
+        <v>5</v>
+      </c>
+      <c r="O33" s="5">
+        <v>7</v>
+      </c>
+      <c r="P33" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5">
+        <v>2</v>
+      </c>
+      <c r="U33" s="5">
+        <v>6</v>
+      </c>
+      <c r="V33" s="5">
+        <v>4</v>
+      </c>
+      <c r="W33" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5">
+        <v>3</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5">
+        <v>7</v>
+      </c>
+      <c r="P34" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>5</v>
+      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5">
+        <v>2</v>
+      </c>
+      <c r="U34" s="5">
+        <v>6</v>
+      </c>
+      <c r="V34" s="5">
+        <v>4</v>
+      </c>
+      <c r="W34" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5">
+        <v>3</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5">
+        <v>11</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5">
+        <v>7</v>
+      </c>
+      <c r="P35" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>5</v>
+      </c>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5">
+        <v>2</v>
+      </c>
+      <c r="U35" s="5">
+        <v>6</v>
+      </c>
+      <c r="V35" s="5">
+        <v>4</v>
+      </c>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5">
+        <v>11</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
+        <v>5</v>
+      </c>
+      <c r="O36" s="5">
+        <v>7</v>
+      </c>
+      <c r="P36" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>2</v>
+      </c>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5">
+        <v>6</v>
+      </c>
+      <c r="V36" s="5">
+        <v>4</v>
+      </c>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5">
+        <v>3</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5">
+        <v>11</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5">
+        <v>5</v>
+      </c>
+      <c r="O37" s="5">
+        <v>7</v>
+      </c>
+      <c r="P37" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>2</v>
+      </c>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5">
+        <v>6</v>
+      </c>
+      <c r="V37" s="5">
+        <v>4</v>
+      </c>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>9</v>
+      </c>
+      <c r="B38" s="5">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5">
+        <v>3</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5">
+        <v>11</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5">
+        <v>7</v>
+      </c>
+      <c r="P38" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>2</v>
+      </c>
+      <c r="R38" s="5">
+        <v>1</v>
+      </c>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5">
+        <v>5</v>
+      </c>
+      <c r="U38" s="5">
+        <v>6</v>
+      </c>
+      <c r="V38" s="5">
+        <v>4</v>
+      </c>
+      <c r="W38" s="5"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5">
+        <v>3</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5">
+        <v>9</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5">
+        <v>7</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>2</v>
+      </c>
+      <c r="R39" s="5">
+        <v>1</v>
+      </c>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5">
+        <v>5</v>
+      </c>
+      <c r="U39" s="5">
+        <v>6</v>
+      </c>
+      <c r="V39" s="5">
+        <v>4</v>
+      </c>
+      <c r="W39" s="5"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>11</v>
+      </c>
+      <c r="B40" s="5">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5">
+        <v>3</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5">
+        <v>9</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>2</v>
+      </c>
+      <c r="R40" s="5">
+        <v>1</v>
+      </c>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5">
+        <v>5</v>
+      </c>
+      <c r="U40" s="5">
+        <v>6</v>
+      </c>
+      <c r="V40" s="5">
+        <v>4</v>
+      </c>
+      <c r="W40" s="5"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>11</v>
+      </c>
+      <c r="B41" s="5">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5">
+        <v>5</v>
+      </c>
+      <c r="O41" s="5">
+        <v>7</v>
+      </c>
+      <c r="P41" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>3</v>
+      </c>
+      <c r="R41" s="5">
+        <v>1</v>
+      </c>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5">
+        <v>2</v>
+      </c>
+      <c r="U41" s="5">
+        <v>6</v>
+      </c>
+      <c r="V41" s="5">
+        <v>4</v>
+      </c>
+      <c r="W41" s="5"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>11</v>
+      </c>
+      <c r="B42" s="5">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5">
+        <v>3</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5">
+        <v>5</v>
+      </c>
+      <c r="O42" s="5">
+        <v>7</v>
+      </c>
+      <c r="P42" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>2</v>
+      </c>
+      <c r="R42" s="5">
+        <v>1</v>
+      </c>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5">
+        <v>12</v>
+      </c>
+      <c r="U42" s="5">
+        <v>6</v>
+      </c>
+      <c r="V42" s="5">
+        <v>4</v>
+      </c>
+      <c r="W42" s="5"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5">
+        <v>3</v>
+      </c>
+      <c r="K43" s="5">
+        <v>9</v>
+      </c>
+      <c r="L43" s="5">
+        <v>11</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5">
+        <v>7</v>
+      </c>
+      <c r="P43" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>2</v>
+      </c>
+      <c r="R43" s="5">
+        <v>4</v>
+      </c>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5">
+        <v>5</v>
+      </c>
+      <c r="U43" s="5">
+        <v>6</v>
+      </c>
+      <c r="V43" s="5">
+        <v>4</v>
+      </c>
+      <c r="W43" s="5"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>12</v>
+      </c>
+      <c r="B44" s="5">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5">
+        <v>3</v>
+      </c>
+      <c r="K44" s="5">
+        <v>9</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5">
+        <v>7</v>
+      </c>
+      <c r="P44" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>2</v>
+      </c>
+      <c r="R44" s="5">
+        <v>1</v>
+      </c>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5">
+        <v>5</v>
+      </c>
+      <c r="U44" s="5">
+        <v>6</v>
+      </c>
+      <c r="V44" s="5">
+        <v>4</v>
+      </c>
+      <c r="W44" s="5"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>11</v>
+      </c>
+      <c r="B45" s="5">
+        <v>8</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5">
+        <v>3</v>
+      </c>
+      <c r="K45" s="5">
+        <v>9</v>
+      </c>
+      <c r="L45" s="5">
+        <v>7</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>2</v>
+      </c>
+      <c r="R45" s="5">
+        <v>1</v>
+      </c>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5">
+        <v>5</v>
+      </c>
+      <c r="U45" s="5">
+        <v>6</v>
+      </c>
+      <c r="V45" s="5">
+        <v>4</v>
+      </c>
+      <c r="W45" s="5"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>11</v>
+      </c>
+      <c r="B46" s="5">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5">
+        <v>3</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5">
+        <v>5</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5">
+        <v>9</v>
+      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>7</v>
+      </c>
+      <c r="R46" s="5">
+        <v>1</v>
+      </c>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5">
+        <v>2</v>
+      </c>
+      <c r="U46" s="5">
+        <v>6</v>
+      </c>
+      <c r="V46" s="5">
+        <v>4</v>
+      </c>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="5">
+        <v>8</v>
+      </c>
+      <c r="C47" s="5">
+        <v>12</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5">
+        <v>3</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5">
+        <v>7</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5">
+        <v>9</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>2</v>
+      </c>
+      <c r="R47" s="5">
+        <v>1</v>
+      </c>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5">
+        <v>5</v>
+      </c>
+      <c r="U47" s="5">
+        <v>6</v>
+      </c>
+      <c r="V47" s="5">
+        <v>4</v>
+      </c>
+      <c r="W47" s="5"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="5">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5">
+        <v>12</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5">
+        <v>3</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5">
+        <v>7</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5">
+        <v>9</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>2</v>
+      </c>
+      <c r="R48" s="5">
+        <v>1</v>
+      </c>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5">
+        <v>5</v>
+      </c>
+      <c r="U48" s="5">
+        <v>6</v>
+      </c>
+      <c r="V48" s="5">
+        <v>4</v>
+      </c>
+      <c r="W48" s="5"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>11</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5">
+        <v>8</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5">
+        <v>3</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5">
+        <v>7</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5">
+        <v>9</v>
+      </c>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>2</v>
+      </c>
+      <c r="R49" s="5">
+        <v>1</v>
+      </c>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5">
+        <v>5</v>
+      </c>
+      <c r="U49" s="5">
+        <v>6</v>
+      </c>
+      <c r="V49" s="5">
+        <v>4</v>
+      </c>
+      <c r="W49" s="5"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>11</v>
+      </c>
+      <c r="B50" s="5">
+        <v>12</v>
+      </c>
+      <c r="C50" s="5">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5">
+        <v>7</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5">
+        <v>9</v>
+      </c>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>2</v>
+      </c>
+      <c r="R50" s="5">
+        <v>1</v>
+      </c>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5">
+        <v>5</v>
+      </c>
+      <c r="U50" s="5">
+        <v>6</v>
+      </c>
+      <c r="V50" s="5">
+        <v>4</v>
+      </c>
+      <c r="W50" s="5"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>11</v>
+      </c>
+      <c r="B51" s="5">
+        <v>7</v>
+      </c>
+      <c r="C51" s="5">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5">
+        <v>12</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5">
+        <v>4</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>2</v>
+      </c>
+      <c r="R51" s="5">
+        <v>1</v>
+      </c>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5">
+        <v>5</v>
+      </c>
+      <c r="U51" s="5">
+        <v>6</v>
+      </c>
+      <c r="V51" s="5">
+        <v>3</v>
+      </c>
+      <c r="W51" s="5"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>11</v>
+      </c>
+      <c r="B52" s="5">
+        <v>7</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5">
+        <v>9</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5">
+        <v>8</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5">
+        <v>4</v>
+      </c>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>2</v>
+      </c>
+      <c r="R52" s="5">
+        <v>1</v>
+      </c>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5">
+        <v>5</v>
+      </c>
+      <c r="U52" s="5">
+        <v>6</v>
+      </c>
+      <c r="V52" s="5">
+        <v>3</v>
+      </c>
+      <c r="W52" s="5"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>11</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5">
+        <v>8</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5">
+        <v>4</v>
+      </c>
+      <c r="O53" s="5">
+        <v>12</v>
+      </c>
+      <c r="P53" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>2</v>
+      </c>
+      <c r="R53" s="5">
+        <v>1</v>
+      </c>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5">
+        <v>5</v>
+      </c>
+      <c r="U53" s="5">
+        <v>6</v>
+      </c>
+      <c r="V53" s="5">
+        <v>3</v>
+      </c>
+      <c r="W53" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0C9159-3439-D04D-A570-3940686A82F2}">
   <dimension ref="A1:T66"/>
   <sheetViews>
@@ -4984,7 +11332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B1DCE2-83C0-7043-83EC-E3BF8EDF97DC}">
   <dimension ref="A1:T62"/>
   <sheetViews>
@@ -7899,7 +14247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEC80A8-202C-9946-8EBB-EFD49AAE7C1A}">
   <dimension ref="A1:W60"/>
   <sheetViews>
@@ -10251,7 +16599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9AD14E-5C41-B640-841F-A02FBCF76B8F}">
   <dimension ref="A1:W60"/>
   <sheetViews>
@@ -12561,7 +18909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B21AD3B-5CFD-9E48-9F5E-34B590DA3414}">
   <dimension ref="A1:X60"/>
   <sheetViews>
@@ -14877,7 +21225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A364B2D-8A97-644E-815B-092AA8749711}">
   <dimension ref="A1:V60"/>
   <sheetViews>
@@ -17230,2126 +23578,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AACCB4-B063-5940-B7D8-989E5CF6472C}">
-  <dimension ref="A1:AC52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-      <c r="Q2">
-        <v>14</v>
-      </c>
-      <c r="R2">
-        <v>11</v>
-      </c>
-      <c r="S2">
-        <v>6</v>
-      </c>
-      <c r="U2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="R3">
-        <v>11</v>
-      </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>12</v>
-      </c>
-      <c r="R4">
-        <v>11</v>
-      </c>
-      <c r="S4">
-        <v>6</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>11</v>
-      </c>
-      <c r="S5">
-        <v>6</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="P6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>9</v>
-      </c>
-      <c r="S6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <v>14</v>
-      </c>
-      <c r="V6">
-        <v>5</v>
-      </c>
-      <c r="W6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>7</v>
-      </c>
-      <c r="R7">
-        <v>11</v>
-      </c>
-      <c r="S7">
-        <v>6</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>5</v>
-      </c>
-      <c r="W7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>12</v>
-      </c>
-      <c r="R8">
-        <v>11</v>
-      </c>
-      <c r="S8" t="s">
-        <v>18</v>
-      </c>
-      <c r="U8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>5</v>
-      </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
-      <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <v>12</v>
-      </c>
-      <c r="P9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9">
-        <v>11</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>5</v>
-      </c>
-      <c r="W9">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>12</v>
-      </c>
-      <c r="R10">
-        <v>11</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>14</v>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="N11">
-        <v>12</v>
-      </c>
-      <c r="R11" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>15</v>
-      </c>
-      <c r="V11">
-        <v>5</v>
-      </c>
-      <c r="W11">
-        <v>3</v>
-      </c>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>11</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>5</v>
-      </c>
-      <c r="W12">
-        <v>3</v>
-      </c>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>6</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>12</v>
-      </c>
-      <c r="R13">
-        <v>11</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13">
-        <v>5</v>
-      </c>
-      <c r="W13">
-        <v>3</v>
-      </c>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>10</v>
-      </c>
-      <c r="R14">
-        <v>11</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>5</v>
-      </c>
-      <c r="W14">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>10</v>
-      </c>
-      <c r="R15">
-        <v>11</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
-      <c r="V15">
-        <v>5</v>
-      </c>
-      <c r="W15">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>6</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>10</v>
-      </c>
-      <c r="R16">
-        <v>11</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>5</v>
-      </c>
-      <c r="W16">
-        <v>3</v>
-      </c>
-      <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>6</v>
-      </c>
-      <c r="M17">
-        <v>4</v>
-      </c>
-      <c r="N17">
-        <v>10</v>
-      </c>
-      <c r="R17">
-        <v>11</v>
-      </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <v>5</v>
-      </c>
-      <c r="W17">
-        <v>3</v>
-      </c>
-      <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>10</v>
-      </c>
-      <c r="R18">
-        <v>11</v>
-      </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-      <c r="V18">
-        <v>5</v>
-      </c>
-      <c r="W18">
-        <v>3</v>
-      </c>
-      <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
-      </c>
-      <c r="M19">
-        <v>4</v>
-      </c>
-      <c r="N19">
-        <v>10</v>
-      </c>
-      <c r="R19">
-        <v>11</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>3</v>
-      </c>
-      <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>16</v>
-      </c>
-      <c r="R20">
-        <v>11</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
-      </c>
-      <c r="V20">
-        <v>5</v>
-      </c>
-      <c r="W20">
-        <v>3</v>
-      </c>
-      <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>14</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="N21">
-        <v>10</v>
-      </c>
-      <c r="R21">
-        <v>11</v>
-      </c>
-      <c r="U21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>4</v>
-      </c>
-      <c r="W21">
-        <v>3</v>
-      </c>
-      <c r="AC21" s="1"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>6</v>
-      </c>
-      <c r="N22">
-        <v>10</v>
-      </c>
-      <c r="R22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T22">
-        <v>14</v>
-      </c>
-      <c r="V22">
-        <v>4</v>
-      </c>
-      <c r="W22">
-        <v>3</v>
-      </c>
-      <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>6</v>
-      </c>
-      <c r="N23">
-        <v>10</v>
-      </c>
-      <c r="R23">
-        <v>11</v>
-      </c>
-      <c r="S23">
-        <v>14</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>4</v>
-      </c>
-      <c r="W23">
-        <v>3</v>
-      </c>
-      <c r="AC23" s="1"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24">
-        <v>10</v>
-      </c>
-      <c r="P24">
-        <v>14</v>
-      </c>
-      <c r="R24">
-        <v>11</v>
-      </c>
-      <c r="S24">
-        <v>12</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>4</v>
-      </c>
-      <c r="W24">
-        <v>3</v>
-      </c>
-      <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>14</v>
-      </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="N25" t="s">
-        <v>16</v>
-      </c>
-      <c r="R25" t="s">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>12</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="V25">
-        <v>4</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
-      </c>
-      <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-      <c r="N26">
-        <v>10</v>
-      </c>
-      <c r="R26">
-        <v>11</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>3</v>
-      </c>
-      <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="J27">
-        <v>6</v>
-      </c>
-      <c r="N27">
-        <v>10</v>
-      </c>
-      <c r="P27">
-        <v>14</v>
-      </c>
-      <c r="R27">
-        <v>11</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <v>3</v>
-      </c>
-      <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="J28">
-        <v>6</v>
-      </c>
-      <c r="N28">
-        <v>10</v>
-      </c>
-      <c r="P28">
-        <v>14</v>
-      </c>
-      <c r="R28" t="s">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="W28">
-        <v>3</v>
-      </c>
-      <c r="AC28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>9</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-      <c r="N29">
-        <v>10</v>
-      </c>
-      <c r="P29">
-        <v>7</v>
-      </c>
-      <c r="R29">
-        <v>11</v>
-      </c>
-      <c r="S29">
-        <v>12</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>3</v>
-      </c>
-      <c r="AC29" s="1"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30">
-        <v>12</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>9</v>
-      </c>
-      <c r="Q30">
-        <v>14</v>
-      </c>
-      <c r="S30">
-        <v>6</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>3</v>
-      </c>
-      <c r="AC30" s="1"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M31">
-        <v>4</v>
-      </c>
-      <c r="N31">
-        <v>9</v>
-      </c>
-      <c r="R31">
-        <v>11</v>
-      </c>
-      <c r="S31">
-        <v>6</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>14</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
-      <c r="N32">
-        <v>9</v>
-      </c>
-      <c r="Q32">
-        <v>12</v>
-      </c>
-      <c r="R32" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" t="s">
-        <v>18</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>12</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="L33">
-        <v>14</v>
-      </c>
-      <c r="M33">
-        <v>4</v>
-      </c>
-      <c r="N33">
-        <v>9</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33">
-        <v>11</v>
-      </c>
-      <c r="S33" t="s">
-        <v>18</v>
-      </c>
-      <c r="U33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>12</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34">
-        <v>14</v>
-      </c>
-      <c r="M34">
-        <v>4</v>
-      </c>
-      <c r="N34">
-        <v>9</v>
-      </c>
-      <c r="P34">
-        <v>13</v>
-      </c>
-      <c r="Q34">
-        <v>7</v>
-      </c>
-      <c r="R34" t="s">
-        <v>19</v>
-      </c>
-      <c r="T34">
-        <v>6</v>
-      </c>
-      <c r="U34">
-        <v>2</v>
-      </c>
-      <c r="W34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>9</v>
-      </c>
-      <c r="C35">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>13</v>
-      </c>
-      <c r="I35">
-        <v>10</v>
-      </c>
-      <c r="J35">
-        <v>6</v>
-      </c>
-      <c r="M35" t="s">
-        <v>45</v>
-      </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-      <c r="U35">
-        <v>2</v>
-      </c>
-      <c r="V35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="I36">
-        <v>10</v>
-      </c>
-      <c r="P36">
-        <v>13</v>
-      </c>
-      <c r="S36">
-        <v>6</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
-      <c r="V36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <v>10</v>
-      </c>
-      <c r="J37">
-        <v>14</v>
-      </c>
-      <c r="P37">
-        <v>13</v>
-      </c>
-      <c r="Q37">
-        <v>12</v>
-      </c>
-      <c r="S37" t="s">
-        <v>13</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>2</v>
-      </c>
-      <c r="V37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-      <c r="H38">
-        <v>13</v>
-      </c>
-      <c r="I38">
-        <v>12</v>
-      </c>
-      <c r="N38">
-        <v>9</v>
-      </c>
-      <c r="R38">
-        <v>10</v>
-      </c>
-      <c r="T38" t="s">
-        <v>45</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="W38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>5</v>
-      </c>
-      <c r="H39">
-        <v>4</v>
-      </c>
-      <c r="I39">
-        <v>12</v>
-      </c>
-      <c r="N39">
-        <v>9</v>
-      </c>
-      <c r="P39">
-        <v>13</v>
-      </c>
-      <c r="R39">
-        <v>10</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>7</v>
-      </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>10</v>
-      </c>
-      <c r="R40">
-        <v>9</v>
-      </c>
-      <c r="T40">
-        <v>4</v>
-      </c>
-      <c r="U40">
-        <v>2</v>
-      </c>
-      <c r="V40">
-        <v>5</v>
-      </c>
-      <c r="W40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>7</v>
-      </c>
-      <c r="E41">
-        <v>6</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>12</v>
-      </c>
-      <c r="N41">
-        <v>10</v>
-      </c>
-      <c r="R41" t="s">
-        <v>14</v>
-      </c>
-      <c r="T41">
-        <v>4</v>
-      </c>
-      <c r="U41">
-        <v>2</v>
-      </c>
-      <c r="V41">
-        <v>5</v>
-      </c>
-      <c r="W41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>7</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>12</v>
-      </c>
-      <c r="M42">
-        <v>4</v>
-      </c>
-      <c r="N42">
-        <v>10</v>
-      </c>
-      <c r="P42">
-        <v>13</v>
-      </c>
-      <c r="R42" t="s">
-        <v>14</v>
-      </c>
-      <c r="T42">
-        <v>11</v>
-      </c>
-      <c r="U42">
-        <v>2</v>
-      </c>
-      <c r="V42">
-        <v>5</v>
-      </c>
-      <c r="W42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>12</v>
-      </c>
-      <c r="D43">
-        <v>7</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>10</v>
-      </c>
-      <c r="M43">
-        <v>4</v>
-      </c>
-      <c r="N43">
-        <v>10</v>
-      </c>
-      <c r="R43">
-        <v>9</v>
-      </c>
-      <c r="T43">
-        <v>11</v>
-      </c>
-      <c r="U43">
-        <v>2</v>
-      </c>
-      <c r="V43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>12</v>
-      </c>
-      <c r="J44">
-        <v>14</v>
-      </c>
-      <c r="M44">
-        <v>4</v>
-      </c>
-      <c r="N44">
-        <v>10</v>
-      </c>
-      <c r="R44">
-        <v>9</v>
-      </c>
-      <c r="T44">
-        <v>3</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
-      <c r="V44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>8</v>
-      </c>
-      <c r="C45">
-        <v>14</v>
-      </c>
-      <c r="D45">
-        <v>7</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45">
-        <v>4</v>
-      </c>
-      <c r="N45">
-        <v>10</v>
-      </c>
-      <c r="R45">
-        <v>9</v>
-      </c>
-      <c r="T45">
-        <v>11</v>
-      </c>
-      <c r="U45">
-        <v>2</v>
-      </c>
-      <c r="V45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46">
-        <v>7</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>13</v>
-      </c>
-      <c r="M46">
-        <v>4</v>
-      </c>
-      <c r="N46">
-        <v>10</v>
-      </c>
-      <c r="R46">
-        <v>9</v>
-      </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
-      <c r="U46">
-        <v>2</v>
-      </c>
-      <c r="V46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>10</v>
-      </c>
-      <c r="E47">
-        <v>6</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47">
-        <v>14</v>
-      </c>
-      <c r="K47">
-        <v>13</v>
-      </c>
-      <c r="M47">
-        <v>4</v>
-      </c>
-      <c r="P47" t="s">
-        <v>49</v>
-      </c>
-      <c r="R47">
-        <v>9</v>
-      </c>
-      <c r="S47">
-        <v>12</v>
-      </c>
-      <c r="T47">
-        <v>3</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>8</v>
-      </c>
-      <c r="D48">
-        <v>9</v>
-      </c>
-      <c r="E48">
-        <v>6</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48">
-        <v>11</v>
-      </c>
-      <c r="M48">
-        <v>4</v>
-      </c>
-      <c r="O48">
-        <v>14</v>
-      </c>
-      <c r="P48" t="s">
-        <v>49</v>
-      </c>
-      <c r="R48">
-        <v>13</v>
-      </c>
-      <c r="S48">
-        <v>10</v>
-      </c>
-      <c r="T48" t="s">
-        <v>12</v>
-      </c>
-      <c r="U48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>5</v>
-      </c>
-      <c r="I49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>13</v>
-      </c>
-      <c r="M49">
-        <v>4</v>
-      </c>
-      <c r="O49">
-        <v>14</v>
-      </c>
-      <c r="P49">
-        <v>7</v>
-      </c>
-      <c r="R49">
-        <v>9</v>
-      </c>
-      <c r="S49">
-        <v>10</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="I50">
-        <v>11</v>
-      </c>
-      <c r="M50">
-        <v>4</v>
-      </c>
-      <c r="N50">
-        <v>13</v>
-      </c>
-      <c r="O50">
-        <v>14</v>
-      </c>
-      <c r="P50">
-        <v>7</v>
-      </c>
-      <c r="R50" t="s">
-        <v>11</v>
-      </c>
-      <c r="S50">
-        <v>10</v>
-      </c>
-      <c r="U50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51">
-        <v>9</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>11</v>
-      </c>
-      <c r="M51">
-        <v>4</v>
-      </c>
-      <c r="N51">
-        <v>13</v>
-      </c>
-      <c r="O51">
-        <v>14</v>
-      </c>
-      <c r="P51">
-        <v>7</v>
-      </c>
-      <c r="S51">
-        <v>10</v>
-      </c>
-      <c r="T51" t="s">
-        <v>12</v>
-      </c>
-      <c r="U51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>9</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>5</v>
-      </c>
-      <c r="I52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M52">
-        <v>4</v>
-      </c>
-      <c r="N52">
-        <v>12</v>
-      </c>
-      <c r="P52">
-        <v>7</v>
-      </c>
-      <c r="S52">
-        <v>10</v>
-      </c>
-      <c r="T52">
-        <v>3</v>
-      </c>
-      <c r="U52">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B73D0F-D17C-824E-9CB9-8598B9B2DA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B6406BB4-08F0-F340-99CD-9148B634CC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30180" windowHeight="28800" activeTab="4" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="1921-22" sheetId="19" r:id="rId1"/>
     <sheet name="1945-46" sheetId="18" r:id="rId2"/>
     <sheet name="1986-87" sheetId="20" r:id="rId3"/>
     <sheet name="1988-89" sheetId="21" r:id="rId4"/>
-    <sheet name="1989-90" sheetId="17" r:id="rId5"/>
-    <sheet name="1990-91" sheetId="16" r:id="rId6"/>
-    <sheet name="1991-92" sheetId="7" r:id="rId7"/>
-    <sheet name="1992-93" sheetId="11" r:id="rId8"/>
-    <sheet name="1993-94" sheetId="14" r:id="rId9"/>
-    <sheet name="1994-95" sheetId="1" r:id="rId10"/>
-    <sheet name="1995-96" sheetId="4" r:id="rId11"/>
+    <sheet name="1987-88.csv" sheetId="22" r:id="rId5"/>
+    <sheet name="1989-90" sheetId="17" r:id="rId6"/>
+    <sheet name="1990-91" sheetId="16" r:id="rId7"/>
+    <sheet name="1991-92" sheetId="7" r:id="rId8"/>
+    <sheet name="1992-93" sheetId="11" r:id="rId9"/>
+    <sheet name="1993-94" sheetId="14" r:id="rId10"/>
+    <sheet name="1994-95" sheetId="1" r:id="rId11"/>
+    <sheet name="1995-96" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="151">
   <si>
     <t>11+</t>
   </si>
@@ -482,6 +483,24 @@
   <si>
     <t>Smith</t>
   </si>
+  <si>
+    <t>Aspinall</t>
+  </si>
+  <si>
+    <t>Chamberlain</t>
+  </si>
+  <si>
+    <t>Craven</t>
+  </si>
+  <si>
+    <t>Gorton</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Thorpe</t>
+  </si>
 </sst>
 </file>
 
@@ -2379,6 +2398,2322 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B21AD3B-5CFD-9E48-9F5E-34B590DA3414}">
+  <dimension ref="A1:X60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:X60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>11</v>
+      </c>
+      <c r="X2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>11</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>12</v>
+      </c>
+      <c r="V4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>11</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6">
+        <v>11</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="P19">
+        <v>14</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>11</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>11</v>
+      </c>
+      <c r="X20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="P21">
+        <v>8</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21">
+        <v>11</v>
+      </c>
+      <c r="X21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>9</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22">
+        <v>11</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>14</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>11</v>
+      </c>
+      <c r="X23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>11</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>9</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>11</v>
+      </c>
+      <c r="X25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <v>11</v>
+      </c>
+      <c r="X26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="R28">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>11</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="O29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29">
+        <v>14</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="V29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <v>7</v>
+      </c>
+      <c r="R31">
+        <v>10</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>9</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+      <c r="W32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <v>14</v>
+      </c>
+      <c r="L33">
+        <v>9</v>
+      </c>
+      <c r="O33">
+        <v>7</v>
+      </c>
+      <c r="R33">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="V33" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <v>9</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="V34" t="s">
+        <v>4</v>
+      </c>
+      <c r="W34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>9</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="N35">
+        <v>14</v>
+      </c>
+      <c r="O35">
+        <v>7</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>9</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>11</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="L37">
+        <v>9</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="R37" t="s">
+        <v>16</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
+      <c r="W37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>12</v>
+      </c>
+      <c r="L38">
+        <v>9</v>
+      </c>
+      <c r="O38">
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <v>14</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>10</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+      <c r="W38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+      <c r="W39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>10</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+      <c r="W40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>9</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="L42">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="Q42">
+        <v>14</v>
+      </c>
+      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="T42">
+        <v>3</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="L43">
+        <v>9</v>
+      </c>
+      <c r="N43">
+        <v>11</v>
+      </c>
+      <c r="O43">
+        <v>12</v>
+      </c>
+      <c r="R43" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+      <c r="W43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="L44" t="s">
+        <v>11</v>
+      </c>
+      <c r="N44">
+        <v>7</v>
+      </c>
+      <c r="O44">
+        <v>12</v>
+      </c>
+      <c r="R44">
+        <v>10</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+      <c r="W44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <v>12</v>
+      </c>
+      <c r="O45">
+        <v>14</v>
+      </c>
+      <c r="R45">
+        <v>10</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>6</v>
+      </c>
+      <c r="W45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="R46">
+        <v>10</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>6</v>
+      </c>
+      <c r="W46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="O47">
+        <v>7</v>
+      </c>
+      <c r="P47">
+        <v>12</v>
+      </c>
+      <c r="R47" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>6</v>
+      </c>
+      <c r="W47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+      <c r="O48">
+        <v>7</v>
+      </c>
+      <c r="Q48">
+        <v>14</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>6</v>
+      </c>
+      <c r="W48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49">
+        <v>7</v>
+      </c>
+      <c r="Q49">
+        <v>14</v>
+      </c>
+      <c r="R49">
+        <v>10</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>6</v>
+      </c>
+      <c r="W49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <v>7</v>
+      </c>
+      <c r="R50">
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>6</v>
+      </c>
+      <c r="W50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>12</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>7</v>
+      </c>
+      <c r="R51">
+        <v>10</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>6</v>
+      </c>
+      <c r="W51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+      <c r="I52">
+        <v>12</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>7</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>6</v>
+      </c>
+      <c r="W52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>9</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="P53">
+        <v>8</v>
+      </c>
+      <c r="R53">
+        <v>10</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <v>6</v>
+      </c>
+      <c r="W53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>7</v>
+      </c>
+      <c r="P54">
+        <v>12</v>
+      </c>
+      <c r="R54">
+        <v>10</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>6</v>
+      </c>
+      <c r="W54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>9</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>7</v>
+      </c>
+      <c r="R55">
+        <v>10</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>3</v>
+      </c>
+      <c r="U55">
+        <v>6</v>
+      </c>
+      <c r="W55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>12</v>
+      </c>
+      <c r="R56">
+        <v>10</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>3</v>
+      </c>
+      <c r="U56">
+        <v>6</v>
+      </c>
+      <c r="W56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>12</v>
+      </c>
+      <c r="Q57">
+        <v>11</v>
+      </c>
+      <c r="R57">
+        <v>10</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>9</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>14</v>
+      </c>
+      <c r="R58">
+        <v>10</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>3</v>
+      </c>
+      <c r="U58">
+        <v>6</v>
+      </c>
+      <c r="W58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>7</v>
+      </c>
+      <c r="P59">
+        <v>14</v>
+      </c>
+      <c r="R59">
+        <v>10</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>6</v>
+      </c>
+      <c r="W59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60">
+        <v>14</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>7</v>
+      </c>
+      <c r="P60">
+        <v>12</v>
+      </c>
+      <c r="R60" t="s">
+        <v>9</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60">
+        <v>6</v>
+      </c>
+      <c r="W60">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A364B2D-8A97-644E-815B-092AA8749711}">
   <dimension ref="A1:V60"/>
   <sheetViews>
@@ -4733,7 +7068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AACCB4-B063-5940-B7D8-989E5CF6472C}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
@@ -9699,7 +12034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B88713-6708-F945-9EF9-BFF9276193B0}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:T61"/>
     </sheetView>
   </sheetViews>
@@ -12469,6 +14804,2696 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0918A408-A8FE-FD46-B853-09BED4383EC7}">
+  <dimension ref="A1:Y53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>10</v>
+      </c>
+      <c r="R2" s="4">
+        <v>9</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4">
+        <v>5</v>
+      </c>
+      <c r="X2" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4">
+        <v>7</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4">
+        <v>12</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>10</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="U3" s="4">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
+        <v>5</v>
+      </c>
+      <c r="X3" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>9</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>10</v>
+      </c>
+      <c r="R4" s="4">
+        <v>7</v>
+      </c>
+      <c r="S4" s="4">
+        <v>12</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <v>5</v>
+      </c>
+      <c r="X4" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>9</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>10</v>
+      </c>
+      <c r="R5" s="4">
+        <v>7</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
+        <v>5</v>
+      </c>
+      <c r="X5" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>9</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
+        <v>10</v>
+      </c>
+      <c r="R6" s="4">
+        <v>7</v>
+      </c>
+      <c r="S6" s="4">
+        <v>11</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <v>5</v>
+      </c>
+      <c r="X6" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>14</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
+        <v>10</v>
+      </c>
+      <c r="R7" s="4">
+        <v>7</v>
+      </c>
+      <c r="S7" s="4">
+        <v>11</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4">
+        <v>5</v>
+      </c>
+      <c r="X7" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4">
+        <v>12</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>9</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4">
+        <v>10</v>
+      </c>
+      <c r="R8" s="4">
+        <v>2</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
+        <v>5</v>
+      </c>
+      <c r="X8" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>9</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>10</v>
+      </c>
+      <c r="R9" s="4">
+        <v>2</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
+        <v>5</v>
+      </c>
+      <c r="X9" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>9</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>10</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
+        <v>5</v>
+      </c>
+      <c r="X10" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <v>4</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>9</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>10</v>
+      </c>
+      <c r="R11" s="4">
+        <v>2</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="U11" s="4">
+        <v>1</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
+        <v>5</v>
+      </c>
+      <c r="X11" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <v>3</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>10</v>
+      </c>
+      <c r="R12" s="4">
+        <v>2</v>
+      </c>
+      <c r="S12" s="4">
+        <v>12</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
+        <v>5</v>
+      </c>
+      <c r="X12" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4">
+        <v>8</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>10</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4">
+        <v>12</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
+        <v>5</v>
+      </c>
+      <c r="X13" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>4</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>10</v>
+      </c>
+      <c r="R14" s="4">
+        <v>2</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="U14" s="4">
+        <v>1</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
+        <v>5</v>
+      </c>
+      <c r="X14" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <v>8</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>10</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="U15" s="4">
+        <v>1</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
+        <v>5</v>
+      </c>
+      <c r="X15" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <v>8</v>
+      </c>
+      <c r="I16" s="4">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>10</v>
+      </c>
+      <c r="R16" s="4">
+        <v>2</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <v>5</v>
+      </c>
+      <c r="X16" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <v>8</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
+        <v>9</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>10</v>
+      </c>
+      <c r="R17" s="4">
+        <v>2</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
+        <v>5</v>
+      </c>
+      <c r="X17" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>4</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
+        <v>3</v>
+      </c>
+      <c r="N18" s="4">
+        <v>9</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>10</v>
+      </c>
+      <c r="R18" s="4">
+        <v>2</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="U18" s="4">
+        <v>1</v>
+      </c>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <v>8</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>4</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4">
+        <v>9</v>
+      </c>
+      <c r="P19" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>10</v>
+      </c>
+      <c r="R19" s="4">
+        <v>2</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>8</v>
+      </c>
+      <c r="I20" s="4">
+        <v>14</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>4</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>10</v>
+      </c>
+      <c r="R20" s="4">
+        <v>2</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>4</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4">
+        <v>9</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4">
+        <v>10</v>
+      </c>
+      <c r="R21" s="4">
+        <v>7</v>
+      </c>
+      <c r="S21" s="4">
+        <v>11</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <v>4</v>
+      </c>
+      <c r="M22" s="4">
+        <v>3</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4">
+        <v>9</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4">
+        <v>10</v>
+      </c>
+      <c r="R22" s="4">
+        <v>7</v>
+      </c>
+      <c r="S22" s="4">
+        <v>11</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <v>8</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <v>4</v>
+      </c>
+      <c r="M23" s="4">
+        <v>3</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4">
+        <v>9</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4">
+        <v>10</v>
+      </c>
+      <c r="R23" s="4">
+        <v>7</v>
+      </c>
+      <c r="S23" s="4">
+        <v>11</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <v>8</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
+        <v>4</v>
+      </c>
+      <c r="M24" s="4">
+        <v>3</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4">
+        <v>9</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4">
+        <v>10</v>
+      </c>
+      <c r="R24" s="4">
+        <v>7</v>
+      </c>
+      <c r="S24" s="4">
+        <v>11</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4">
+        <v>1</v>
+      </c>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <v>8</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
+        <v>4</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4">
+        <v>5</v>
+      </c>
+      <c r="P25" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>10</v>
+      </c>
+      <c r="R25" s="4">
+        <v>7</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4">
+        <v>9</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <v>8</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
+        <v>4</v>
+      </c>
+      <c r="M26" s="4">
+        <v>3</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4">
+        <v>5</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4">
+        <v>10</v>
+      </c>
+      <c r="R26" s="4">
+        <v>7</v>
+      </c>
+      <c r="S26" s="4">
+        <v>11</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4">
+        <v>9</v>
+      </c>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y26" s="4"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <v>8</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
+        <v>4</v>
+      </c>
+      <c r="M27" s="4">
+        <v>3</v>
+      </c>
+      <c r="N27" s="4">
+        <v>10</v>
+      </c>
+      <c r="O27" s="4">
+        <v>5</v>
+      </c>
+      <c r="P27" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4">
+        <v>7</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4">
+        <v>9</v>
+      </c>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
+        <v>8</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
+        <v>4</v>
+      </c>
+      <c r="M28" s="4">
+        <v>3</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="4">
+        <v>5</v>
+      </c>
+      <c r="P28" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4">
+        <v>7</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4">
+        <v>9</v>
+      </c>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y28" s="4"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
+        <v>8</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4">
+        <v>4</v>
+      </c>
+      <c r="M29" s="4">
+        <v>3</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="4">
+        <v>5</v>
+      </c>
+      <c r="P29" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4">
+        <v>7</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4">
+        <v>9</v>
+      </c>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y29" s="4"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <v>8</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="4">
+        <v>3</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4">
+        <v>5</v>
+      </c>
+      <c r="P30" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>10</v>
+      </c>
+      <c r="R30" s="4">
+        <v>7</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4">
+        <v>9</v>
+      </c>
+      <c r="W30" s="4">
+        <v>12</v>
+      </c>
+      <c r="X30" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y30" s="4"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <v>8</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="4">
+        <v>3</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4">
+        <v>5</v>
+      </c>
+      <c r="P31" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>10</v>
+      </c>
+      <c r="R31" s="4">
+        <v>11</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4">
+        <v>9</v>
+      </c>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
+        <v>8</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="4">
+        <v>3</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4">
+        <v>5</v>
+      </c>
+      <c r="P32" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>10</v>
+      </c>
+      <c r="R32" s="4">
+        <v>11</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4">
+        <v>9</v>
+      </c>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
+        <v>8</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4">
+        <v>4</v>
+      </c>
+      <c r="M33" s="4">
+        <v>3</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4">
+        <v>5</v>
+      </c>
+      <c r="P33" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>10</v>
+      </c>
+      <c r="R33" s="4">
+        <v>11</v>
+      </c>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4">
+        <v>9</v>
+      </c>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y33" s="4"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
+        <v>8</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
+        <v>4</v>
+      </c>
+      <c r="M34" s="4">
+        <v>3</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4">
+        <v>5</v>
+      </c>
+      <c r="P34" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>10</v>
+      </c>
+      <c r="R34" s="4">
+        <v>11</v>
+      </c>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4">
+        <v>9</v>
+      </c>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
+        <v>8</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
+        <v>4</v>
+      </c>
+      <c r="M35" s="4">
+        <v>3</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4">
+        <v>5</v>
+      </c>
+      <c r="P35" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>10</v>
+      </c>
+      <c r="R35" s="4">
+        <v>11</v>
+      </c>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4">
+        <v>9</v>
+      </c>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="4"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
+        <v>4</v>
+      </c>
+      <c r="M36" s="4">
+        <v>3</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4">
+        <v>5</v>
+      </c>
+      <c r="P36" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>10</v>
+      </c>
+      <c r="R36" s="4">
+        <v>11</v>
+      </c>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4">
+        <v>9</v>
+      </c>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
+        <v>8</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
+        <v>4</v>
+      </c>
+      <c r="M37" s="4">
+        <v>3</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P37" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>10</v>
+      </c>
+      <c r="R37" s="4">
+        <v>11</v>
+      </c>
+      <c r="S37" s="4">
+        <v>12</v>
+      </c>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4">
+        <v>9</v>
+      </c>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y37" s="4"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
+        <v>8</v>
+      </c>
+      <c r="I38" s="4">
+        <v>2</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
+        <v>4</v>
+      </c>
+      <c r="M38" s="4">
+        <v>3</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4">
+        <v>5</v>
+      </c>
+      <c r="P38" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>10</v>
+      </c>
+      <c r="R38" s="4">
+        <v>11</v>
+      </c>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4">
+        <v>9</v>
+      </c>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y38" s="4"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
+        <v>8</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4">
+        <v>4</v>
+      </c>
+      <c r="M39" s="4">
+        <v>3</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4">
+        <v>5</v>
+      </c>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4">
+        <v>10</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S39" s="4">
+        <v>7</v>
+      </c>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4">
+        <v>9</v>
+      </c>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
+        <v>8</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4">
+        <v>4</v>
+      </c>
+      <c r="M40" s="4">
+        <v>3</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P40" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>10</v>
+      </c>
+      <c r="R40" s="4">
+        <v>11</v>
+      </c>
+      <c r="S40" s="4">
+        <v>12</v>
+      </c>
+      <c r="U40" s="4">
+        <v>1</v>
+      </c>
+      <c r="V40" s="4">
+        <v>9</v>
+      </c>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="4"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
+        <v>8</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2</v>
+      </c>
+      <c r="J41" s="4">
+        <v>14</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="4">
+        <v>3</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>10</v>
+      </c>
+      <c r="R41" s="4">
+        <v>11</v>
+      </c>
+      <c r="S41" s="4">
+        <v>12</v>
+      </c>
+      <c r="U41" s="4">
+        <v>1</v>
+      </c>
+      <c r="V41" s="4">
+        <v>9</v>
+      </c>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="4"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4">
+        <v>8</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
+        <v>4</v>
+      </c>
+      <c r="M42" s="4">
+        <v>3</v>
+      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4">
+        <v>5</v>
+      </c>
+      <c r="P42" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>10</v>
+      </c>
+      <c r="R42" s="4">
+        <v>11</v>
+      </c>
+      <c r="S42" s="4"/>
+      <c r="U42" s="4">
+        <v>1</v>
+      </c>
+      <c r="V42" s="4">
+        <v>9</v>
+      </c>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4">
+        <v>8</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="4">
+        <v>3</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4">
+        <v>5</v>
+      </c>
+      <c r="P43" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>10</v>
+      </c>
+      <c r="R43" s="4">
+        <v>11</v>
+      </c>
+      <c r="S43" s="4"/>
+      <c r="U43" s="4">
+        <v>1</v>
+      </c>
+      <c r="V43" s="4">
+        <v>9</v>
+      </c>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4">
+        <v>8</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
+        <v>4</v>
+      </c>
+      <c r="M44" s="4">
+        <v>3</v>
+      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4">
+        <v>5</v>
+      </c>
+      <c r="P44" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>10</v>
+      </c>
+      <c r="R44" s="4">
+        <v>11</v>
+      </c>
+      <c r="S44" s="4"/>
+      <c r="U44" s="4">
+        <v>1</v>
+      </c>
+      <c r="V44" s="4">
+        <v>9</v>
+      </c>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4">
+        <v>8</v>
+      </c>
+      <c r="I45" s="4">
+        <v>2</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4">
+        <v>4</v>
+      </c>
+      <c r="M45" s="4">
+        <v>3</v>
+      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4">
+        <v>5</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>10</v>
+      </c>
+      <c r="R45" s="4">
+        <v>11</v>
+      </c>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4">
+        <v>1</v>
+      </c>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4">
+        <v>9</v>
+      </c>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4">
+        <v>14</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4">
+        <v>8</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4">
+        <v>2</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="4">
+        <v>3</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>10</v>
+      </c>
+      <c r="R46" s="4">
+        <v>11</v>
+      </c>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4">
+        <v>1</v>
+      </c>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4">
+        <v>9</v>
+      </c>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4">
+        <v>8</v>
+      </c>
+      <c r="I47" s="4">
+        <v>2</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
+        <v>4</v>
+      </c>
+      <c r="M47" s="4">
+        <v>3</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>10</v>
+      </c>
+      <c r="R47" s="4">
+        <v>11</v>
+      </c>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4">
+        <v>1</v>
+      </c>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4">
+        <v>9</v>
+      </c>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4">
+        <v>8</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4">
+        <v>4</v>
+      </c>
+      <c r="M48" s="4">
+        <v>3</v>
+      </c>
+      <c r="O48" s="4">
+        <v>5</v>
+      </c>
+      <c r="P48" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>10</v>
+      </c>
+      <c r="R48" s="4">
+        <v>11</v>
+      </c>
+      <c r="T48" s="4">
+        <v>1</v>
+      </c>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4">
+        <v>9</v>
+      </c>
+      <c r="X48" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y48" s="4"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4">
+        <v>8</v>
+      </c>
+      <c r="I49" s="4">
+        <v>2</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4">
+        <v>4</v>
+      </c>
+      <c r="M49" s="4">
+        <v>3</v>
+      </c>
+      <c r="O49" s="4">
+        <v>5</v>
+      </c>
+      <c r="P49" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>10</v>
+      </c>
+      <c r="R49" s="4">
+        <v>11</v>
+      </c>
+      <c r="T49" s="4">
+        <v>1</v>
+      </c>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4">
+        <v>9</v>
+      </c>
+      <c r="X49" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y49" s="4"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4">
+        <v>14</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="4">
+        <v>2</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4">
+        <v>4</v>
+      </c>
+      <c r="M50" s="4">
+        <v>3</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P50" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>10</v>
+      </c>
+      <c r="R50" s="4">
+        <v>11</v>
+      </c>
+      <c r="S50" s="4">
+        <v>12</v>
+      </c>
+      <c r="T50" s="4">
+        <v>1</v>
+      </c>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4">
+        <v>9</v>
+      </c>
+      <c r="X50" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y50" s="4"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4">
+        <v>8</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4">
+        <v>14</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4">
+        <v>2</v>
+      </c>
+      <c r="J51" s="4">
+        <v>5</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4">
+        <v>4</v>
+      </c>
+      <c r="M51" s="4">
+        <v>3</v>
+      </c>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>10</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S51" s="4">
+        <v>12</v>
+      </c>
+      <c r="T51" s="4">
+        <v>1</v>
+      </c>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4">
+        <v>9</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y51" s="4"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="4">
+        <v>2</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4">
+        <v>4</v>
+      </c>
+      <c r="M52" s="4">
+        <v>3</v>
+      </c>
+      <c r="O52" s="4">
+        <v>5</v>
+      </c>
+      <c r="P52" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>10</v>
+      </c>
+      <c r="R52" s="4">
+        <v>11</v>
+      </c>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4">
+        <v>1</v>
+      </c>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4">
+        <v>9</v>
+      </c>
+      <c r="X52" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y52" s="4"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4">
+        <v>2</v>
+      </c>
+      <c r="J53" s="4">
+        <v>5</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4">
+        <v>4</v>
+      </c>
+      <c r="M53" s="4">
+        <v>3</v>
+      </c>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>10</v>
+      </c>
+      <c r="R53" s="4">
+        <v>11</v>
+      </c>
+      <c r="S53" s="4">
+        <v>12</v>
+      </c>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4">
+        <v>9</v>
+      </c>
+      <c r="X53" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y53" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0C9159-3439-D04D-A570-3940686A82F2}">
   <dimension ref="A1:T66"/>
   <sheetViews>
@@ -16479,7 +21504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B1DCE2-83C0-7043-83EC-E3BF8EDF97DC}">
   <dimension ref="A1:T62"/>
   <sheetViews>
@@ -19394,7 +24419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEC80A8-202C-9946-8EBB-EFD49AAE7C1A}">
   <dimension ref="A1:W60"/>
   <sheetViews>
@@ -21746,7 +26771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9AD14E-5C41-B640-841F-A02FBCF76B8F}">
   <dimension ref="A1:W60"/>
   <sheetViews>
@@ -24054,2320 +29079,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B21AD3B-5CFD-9E48-9F5E-34B590DA3414}">
-  <dimension ref="A1:X60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>9</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="R2">
-        <v>7</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>10</v>
-      </c>
-      <c r="W2">
-        <v>11</v>
-      </c>
-      <c r="X2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>7</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>10</v>
-      </c>
-      <c r="W3">
-        <v>11</v>
-      </c>
-      <c r="X3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>9</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>7</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>12</v>
-      </c>
-      <c r="V4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="W5">
-        <v>11</v>
-      </c>
-      <c r="X5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6">
-        <v>9</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-      <c r="R6">
-        <v>7</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6">
-        <v>11</v>
-      </c>
-      <c r="X6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>14</v>
-      </c>
-      <c r="L7">
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>12</v>
-      </c>
-      <c r="R7">
-        <v>7</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="W7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>9</v>
-      </c>
-      <c r="P8">
-        <v>8</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <v>7</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>12</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="P10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>7</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>12</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>9</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
-      <c r="R11">
-        <v>7</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>9</v>
-      </c>
-      <c r="R12">
-        <v>10</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="W12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>9</v>
-      </c>
-      <c r="R13">
-        <v>10</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="W13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>7</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>9</v>
-      </c>
-      <c r="R14">
-        <v>10</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="W14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
-      <c r="L15">
-        <v>9</v>
-      </c>
-      <c r="M15" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15">
-        <v>10</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="W15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>8</v>
-      </c>
-      <c r="K16">
-        <v>7</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="R16">
-        <v>10</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-      <c r="W16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>10</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="W17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="P18">
-        <v>8</v>
-      </c>
-      <c r="R18">
-        <v>10</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="W18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>7</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>12</v>
-      </c>
-      <c r="P19">
-        <v>14</v>
-      </c>
-      <c r="R19">
-        <v>10</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="W19">
-        <v>11</v>
-      </c>
-      <c r="X19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="P20">
-        <v>8</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-      <c r="R20">
-        <v>10</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
-      <c r="V20">
-        <v>4</v>
-      </c>
-      <c r="W20">
-        <v>11</v>
-      </c>
-      <c r="X20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>7</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="P21">
-        <v>8</v>
-      </c>
-      <c r="R21">
-        <v>10</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>3</v>
-      </c>
-      <c r="V21">
-        <v>5</v>
-      </c>
-      <c r="W21">
-        <v>11</v>
-      </c>
-      <c r="X21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>14</v>
-      </c>
-      <c r="K22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22">
-        <v>9</v>
-      </c>
-      <c r="P22">
-        <v>8</v>
-      </c>
-      <c r="R22">
-        <v>10</v>
-      </c>
-      <c r="T22">
-        <v>3</v>
-      </c>
-      <c r="V22">
-        <v>5</v>
-      </c>
-      <c r="W22">
-        <v>11</v>
-      </c>
-      <c r="X22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>7</v>
-      </c>
-      <c r="L23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23">
-        <v>14</v>
-      </c>
-      <c r="R23">
-        <v>10</v>
-      </c>
-      <c r="T23">
-        <v>3</v>
-      </c>
-      <c r="V23">
-        <v>5</v>
-      </c>
-      <c r="W23">
-        <v>11</v>
-      </c>
-      <c r="X23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24">
-        <v>14</v>
-      </c>
-      <c r="K24">
-        <v>8</v>
-      </c>
-      <c r="O24">
-        <v>7</v>
-      </c>
-      <c r="R24">
-        <v>10</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="V24">
-        <v>5</v>
-      </c>
-      <c r="W24">
-        <v>11</v>
-      </c>
-      <c r="X24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>10</v>
-      </c>
-      <c r="L25">
-        <v>9</v>
-      </c>
-      <c r="O25">
-        <v>7</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="V25">
-        <v>5</v>
-      </c>
-      <c r="W25">
-        <v>11</v>
-      </c>
-      <c r="X25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>9</v>
-      </c>
-      <c r="O26">
-        <v>7</v>
-      </c>
-      <c r="R26">
-        <v>10</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="V26">
-        <v>5</v>
-      </c>
-      <c r="W26">
-        <v>11</v>
-      </c>
-      <c r="X26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>9</v>
-      </c>
-      <c r="O27">
-        <v>7</v>
-      </c>
-      <c r="R27">
-        <v>10</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="V27">
-        <v>5</v>
-      </c>
-      <c r="W27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>9</v>
-      </c>
-      <c r="O28">
-        <v>7</v>
-      </c>
-      <c r="R28">
-        <v>10</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="V28">
-        <v>5</v>
-      </c>
-      <c r="W28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>11</v>
-      </c>
-      <c r="L29">
-        <v>9</v>
-      </c>
-      <c r="O29" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29">
-        <v>14</v>
-      </c>
-      <c r="R29">
-        <v>10</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="V29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>11</v>
-      </c>
-      <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="O30">
-        <v>7</v>
-      </c>
-      <c r="R30">
-        <v>10</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="V30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>9</v>
-      </c>
-      <c r="O31">
-        <v>7</v>
-      </c>
-      <c r="R31">
-        <v>10</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="V31">
-        <v>5</v>
-      </c>
-      <c r="W31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>9</v>
-      </c>
-      <c r="O32">
-        <v>7</v>
-      </c>
-      <c r="R32">
-        <v>10</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="V32">
-        <v>5</v>
-      </c>
-      <c r="W32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>12</v>
-      </c>
-      <c r="K33">
-        <v>14</v>
-      </c>
-      <c r="L33">
-        <v>9</v>
-      </c>
-      <c r="O33">
-        <v>7</v>
-      </c>
-      <c r="R33">
-        <v>10</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="V33" t="s">
-        <v>4</v>
-      </c>
-      <c r="W33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>8</v>
-      </c>
-      <c r="L34">
-        <v>9</v>
-      </c>
-      <c r="O34">
-        <v>7</v>
-      </c>
-      <c r="R34">
-        <v>10</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <v>3</v>
-      </c>
-      <c r="V34" t="s">
-        <v>4</v>
-      </c>
-      <c r="W34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35">
-        <v>11</v>
-      </c>
-      <c r="L35">
-        <v>9</v>
-      </c>
-      <c r="M35">
-        <v>12</v>
-      </c>
-      <c r="N35">
-        <v>14</v>
-      </c>
-      <c r="O35">
-        <v>7</v>
-      </c>
-      <c r="Q35">
-        <v>5</v>
-      </c>
-      <c r="R35">
-        <v>10</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>12</v>
-      </c>
-      <c r="L36">
-        <v>9</v>
-      </c>
-      <c r="N36">
-        <v>6</v>
-      </c>
-      <c r="O36">
-        <v>7</v>
-      </c>
-      <c r="Q36">
-        <v>5</v>
-      </c>
-      <c r="R36">
-        <v>11</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-      <c r="T36" t="s">
-        <v>10</v>
-      </c>
-      <c r="U36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37">
-        <v>12</v>
-      </c>
-      <c r="L37">
-        <v>9</v>
-      </c>
-      <c r="O37">
-        <v>7</v>
-      </c>
-      <c r="R37" t="s">
-        <v>16</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>6</v>
-      </c>
-      <c r="W37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-      <c r="H38">
-        <v>12</v>
-      </c>
-      <c r="L38">
-        <v>9</v>
-      </c>
-      <c r="O38">
-        <v>7</v>
-      </c>
-      <c r="Q38">
-        <v>14</v>
-      </c>
-      <c r="R38">
-        <v>10</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
-      <c r="T38" t="s">
-        <v>10</v>
-      </c>
-      <c r="U38">
-        <v>6</v>
-      </c>
-      <c r="W38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>8</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>14</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>5</v>
-      </c>
-      <c r="L39">
-        <v>9</v>
-      </c>
-      <c r="O39">
-        <v>7</v>
-      </c>
-      <c r="Q39">
-        <v>3</v>
-      </c>
-      <c r="R39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="U39">
-        <v>6</v>
-      </c>
-      <c r="W39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>8</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="G40">
-        <v>5</v>
-      </c>
-      <c r="H40">
-        <v>7</v>
-      </c>
-      <c r="L40">
-        <v>9</v>
-      </c>
-      <c r="N40">
-        <v>2</v>
-      </c>
-      <c r="R40">
-        <v>10</v>
-      </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-      <c r="T40">
-        <v>3</v>
-      </c>
-      <c r="U40">
-        <v>6</v>
-      </c>
-      <c r="W40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>11</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
-      </c>
-      <c r="H41">
-        <v>7</v>
-      </c>
-      <c r="L41">
-        <v>9</v>
-      </c>
-      <c r="N41">
-        <v>2</v>
-      </c>
-      <c r="R41">
-        <v>10</v>
-      </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-      <c r="T41">
-        <v>3</v>
-      </c>
-      <c r="U41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>5</v>
-      </c>
-      <c r="H42">
-        <v>7</v>
-      </c>
-      <c r="L42">
-        <v>9</v>
-      </c>
-      <c r="N42">
-        <v>11</v>
-      </c>
-      <c r="Q42">
-        <v>14</v>
-      </c>
-      <c r="R42">
-        <v>10</v>
-      </c>
-      <c r="T42">
-        <v>3</v>
-      </c>
-      <c r="U42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>7</v>
-      </c>
-      <c r="L43">
-        <v>9</v>
-      </c>
-      <c r="N43">
-        <v>11</v>
-      </c>
-      <c r="O43">
-        <v>12</v>
-      </c>
-      <c r="R43" t="s">
-        <v>16</v>
-      </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-      <c r="T43">
-        <v>3</v>
-      </c>
-      <c r="U43">
-        <v>6</v>
-      </c>
-      <c r="W43">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44">
-        <v>14</v>
-      </c>
-      <c r="L44" t="s">
-        <v>11</v>
-      </c>
-      <c r="N44">
-        <v>7</v>
-      </c>
-      <c r="O44">
-        <v>12</v>
-      </c>
-      <c r="R44">
-        <v>10</v>
-      </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
-      <c r="T44">
-        <v>3</v>
-      </c>
-      <c r="U44">
-        <v>6</v>
-      </c>
-      <c r="W44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>8</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <v>7</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45">
-        <v>12</v>
-      </c>
-      <c r="O45">
-        <v>14</v>
-      </c>
-      <c r="R45">
-        <v>10</v>
-      </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <v>6</v>
-      </c>
-      <c r="W45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <v>9</v>
-      </c>
-      <c r="O46">
-        <v>7</v>
-      </c>
-      <c r="R46">
-        <v>10</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
-      <c r="U46">
-        <v>6</v>
-      </c>
-      <c r="W46">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>8</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>9</v>
-      </c>
-      <c r="O47">
-        <v>7</v>
-      </c>
-      <c r="P47">
-        <v>12</v>
-      </c>
-      <c r="R47" t="s">
-        <v>16</v>
-      </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
-      <c r="T47">
-        <v>3</v>
-      </c>
-      <c r="U47">
-        <v>6</v>
-      </c>
-      <c r="W47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>8</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>9</v>
-      </c>
-      <c r="O48">
-        <v>7</v>
-      </c>
-      <c r="Q48">
-        <v>14</v>
-      </c>
-      <c r="R48">
-        <v>10</v>
-      </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
-      <c r="T48">
-        <v>3</v>
-      </c>
-      <c r="U48">
-        <v>6</v>
-      </c>
-      <c r="W48">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>8</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
-      <c r="N49">
-        <v>5</v>
-      </c>
-      <c r="O49">
-        <v>7</v>
-      </c>
-      <c r="Q49">
-        <v>14</v>
-      </c>
-      <c r="R49">
-        <v>10</v>
-      </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
-      <c r="T49">
-        <v>3</v>
-      </c>
-      <c r="U49">
-        <v>6</v>
-      </c>
-      <c r="W49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>8</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>9</v>
-      </c>
-      <c r="N50">
-        <v>5</v>
-      </c>
-      <c r="O50">
-        <v>7</v>
-      </c>
-      <c r="R50">
-        <v>10</v>
-      </c>
-      <c r="S50">
-        <v>1</v>
-      </c>
-      <c r="T50">
-        <v>3</v>
-      </c>
-      <c r="U50">
-        <v>6</v>
-      </c>
-      <c r="W50">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="H51">
-        <v>9</v>
-      </c>
-      <c r="I51">
-        <v>12</v>
-      </c>
-      <c r="N51">
-        <v>2</v>
-      </c>
-      <c r="O51">
-        <v>7</v>
-      </c>
-      <c r="R51">
-        <v>10</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-      <c r="T51">
-        <v>3</v>
-      </c>
-      <c r="U51">
-        <v>6</v>
-      </c>
-      <c r="W51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="E52">
-        <v>5</v>
-      </c>
-      <c r="H52">
-        <v>9</v>
-      </c>
-      <c r="I52">
-        <v>12</v>
-      </c>
-      <c r="N52">
-        <v>2</v>
-      </c>
-      <c r="O52">
-        <v>7</v>
-      </c>
-      <c r="R52">
-        <v>10</v>
-      </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
-      <c r="T52">
-        <v>3</v>
-      </c>
-      <c r="U52">
-        <v>6</v>
-      </c>
-      <c r="W52">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
-      <c r="H53">
-        <v>9</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-      <c r="O53">
-        <v>7</v>
-      </c>
-      <c r="P53">
-        <v>8</v>
-      </c>
-      <c r="R53">
-        <v>10</v>
-      </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
-      <c r="T53">
-        <v>3</v>
-      </c>
-      <c r="V53">
-        <v>6</v>
-      </c>
-      <c r="W53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
-      <c r="H54">
-        <v>9</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <v>7</v>
-      </c>
-      <c r="P54">
-        <v>12</v>
-      </c>
-      <c r="R54">
-        <v>10</v>
-      </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
-      <c r="T54">
-        <v>3</v>
-      </c>
-      <c r="V54">
-        <v>6</v>
-      </c>
-      <c r="W54">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>8</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="E55">
-        <v>5</v>
-      </c>
-      <c r="H55">
-        <v>9</v>
-      </c>
-      <c r="N55">
-        <v>2</v>
-      </c>
-      <c r="O55">
-        <v>7</v>
-      </c>
-      <c r="R55">
-        <v>10</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>3</v>
-      </c>
-      <c r="U55">
-        <v>6</v>
-      </c>
-      <c r="W55">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="E56">
-        <v>5</v>
-      </c>
-      <c r="H56">
-        <v>9</v>
-      </c>
-      <c r="N56">
-        <v>2</v>
-      </c>
-      <c r="P56">
-        <v>12</v>
-      </c>
-      <c r="R56">
-        <v>10</v>
-      </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
-      <c r="T56">
-        <v>3</v>
-      </c>
-      <c r="U56">
-        <v>6</v>
-      </c>
-      <c r="W56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>8</v>
-      </c>
-      <c r="B57">
-        <v>7</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="E57">
-        <v>5</v>
-      </c>
-      <c r="H57">
-        <v>9</v>
-      </c>
-      <c r="N57">
-        <v>2</v>
-      </c>
-      <c r="P57">
-        <v>12</v>
-      </c>
-      <c r="Q57">
-        <v>11</v>
-      </c>
-      <c r="R57">
-        <v>10</v>
-      </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
-      <c r="T57">
-        <v>3</v>
-      </c>
-      <c r="U57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <v>5</v>
-      </c>
-      <c r="H58">
-        <v>9</v>
-      </c>
-      <c r="N58">
-        <v>2</v>
-      </c>
-      <c r="P58">
-        <v>14</v>
-      </c>
-      <c r="R58">
-        <v>10</v>
-      </c>
-      <c r="S58">
-        <v>1</v>
-      </c>
-      <c r="T58">
-        <v>3</v>
-      </c>
-      <c r="U58">
-        <v>6</v>
-      </c>
-      <c r="W58">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>8</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="E59">
-        <v>5</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-      <c r="N59">
-        <v>2</v>
-      </c>
-      <c r="O59">
-        <v>7</v>
-      </c>
-      <c r="P59">
-        <v>14</v>
-      </c>
-      <c r="R59">
-        <v>10</v>
-      </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>6</v>
-      </c>
-      <c r="W59">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="E60">
-        <v>5</v>
-      </c>
-      <c r="H60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60">
-        <v>14</v>
-      </c>
-      <c r="N60">
-        <v>2</v>
-      </c>
-      <c r="O60">
-        <v>7</v>
-      </c>
-      <c r="P60">
-        <v>12</v>
-      </c>
-      <c r="R60" t="s">
-        <v>9</v>
-      </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
-      <c r="T60">
-        <v>3</v>
-      </c>
-      <c r="U60">
-        <v>6</v>
-      </c>
-      <c r="W60">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B6406BB4-08F0-F340-99CD-9148B634CC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7754C1A2-8E16-494D-9613-3C5937A23E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30180" windowHeight="28800" activeTab="4" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="8" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="1921-22" sheetId="19" r:id="rId1"/>
@@ -14807,7 +14807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0918A408-A8FE-FD46-B853-09BED4383EC7}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -26775,8 +26775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9AD14E-5C41-B640-841F-A02FBCF76B8F}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26880,7 +26880,7 @@
       <c r="S2">
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="T2">
         <v>3</v>
       </c>
       <c r="V2">
@@ -26921,7 +26921,7 @@
       <c r="S3">
         <v>1</v>
       </c>
-      <c r="U3">
+      <c r="T3">
         <v>3</v>
       </c>
       <c r="V3">
@@ -26959,7 +26959,7 @@
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="T4">
         <v>3</v>
       </c>
       <c r="V4">
@@ -27000,7 +27000,7 @@
       <c r="S5">
         <v>1</v>
       </c>
-      <c r="U5">
+      <c r="T5">
         <v>3</v>
       </c>
       <c r="V5">
@@ -27038,7 +27038,7 @@
       <c r="S6">
         <v>1</v>
       </c>
-      <c r="U6">
+      <c r="T6">
         <v>3</v>
       </c>
       <c r="V6">
@@ -27076,7 +27076,7 @@
       <c r="S7">
         <v>1</v>
       </c>
-      <c r="U7">
+      <c r="T7">
         <v>3</v>
       </c>
       <c r="V7" t="s">
@@ -27111,7 +27111,7 @@
       <c r="S8">
         <v>1</v>
       </c>
-      <c r="U8">
+      <c r="T8">
         <v>3</v>
       </c>
       <c r="W8">
@@ -27152,7 +27152,7 @@
       <c r="S9">
         <v>1</v>
       </c>
-      <c r="U9" t="s">
+      <c r="T9" t="s">
         <v>12</v>
       </c>
       <c r="W9">

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7754C1A2-8E16-494D-9613-3C5937A23E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F20A0F2-1266-4A4F-B33E-6952F17EE402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="8" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="9" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="1921-22" sheetId="19" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="150">
   <si>
     <t>11+</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>Coyne T</t>
-  </si>
-  <si>
-    <t>trons</t>
   </si>
   <si>
     <t>Jones M</t>
@@ -899,97 +896,97 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -2401,7 +2398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B21AD3B-5CFD-9E48-9F5E-34B590DA3414}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X60"/>
     </sheetView>
   </sheetViews>
@@ -2436,7 +2433,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>31</v>
@@ -2641,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -9202,49 +9199,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -9454,43 +9451,43 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>63</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>34</v>
@@ -9505,22 +9502,22 @@
         <v>37</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>65</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -12042,7 +12039,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>60</v>
@@ -12063,10 +12060,10 @@
         <v>66</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>34</v>
@@ -12081,13 +12078,13 @@
         <v>37</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>69</v>
@@ -12099,7 +12096,7 @@
         <v>65</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -13814,7 +13811,7 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" s="4">
         <v>3</v>
@@ -13906,7 +13903,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" s="4">
         <v>3</v>
@@ -14815,25 +14812,25 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
@@ -14851,10 +14848,10 @@
         <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>34</v>
@@ -14869,25 +14866,25 @@
         <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -17505,13 +17502,13 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
@@ -17535,7 +17532,7 @@
         <v>66</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>68</v>
@@ -17553,7 +17550,7 @@
         <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>69</v>
@@ -17567,16 +17564,16 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4">
         <v>8</v>
@@ -17588,19 +17585,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="4">
         <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K2" s="4">
         <v>3</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M2" s="4">
         <v>7</v>
@@ -17609,13 +17606,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P2" s="4">
         <v>1</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>14</v>
@@ -17629,16 +17626,16 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4">
         <v>8</v>
@@ -17650,19 +17647,19 @@
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" s="4">
         <v>9</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="4">
         <v>3</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M3" s="4">
         <v>7</v>
@@ -17671,16 +17668,16 @@
         <v>10</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P3" s="4">
         <v>1</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S3" s="4">
         <v>11</v>
@@ -17695,10 +17692,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="4">
         <v>8</v>
@@ -17710,19 +17707,19 @@
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4" s="4">
         <v>9</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="4">
         <v>3</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M4" s="4">
         <v>7</v>
@@ -17731,16 +17728,16 @@
         <v>10</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P4" s="4">
         <v>1</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S4" s="4">
         <v>11</v>
@@ -17758,7 +17755,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4">
         <v>8</v>
@@ -17770,7 +17767,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="4">
         <v>9</v>
@@ -17782,7 +17779,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>17</v>
@@ -17791,16 +17788,16 @@
         <v>10</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P5" s="4">
         <v>1</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S5" s="4">
         <v>11</v>
@@ -17818,7 +17815,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4">
         <v>8</v>
@@ -17830,19 +17827,19 @@
         <v>4</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="4">
         <v>9</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" s="4">
         <v>3</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M6" s="4">
         <v>7</v>
@@ -17851,16 +17848,16 @@
         <v>10</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P6" s="4">
         <v>1</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S6" s="4">
         <v>11</v>
@@ -17878,7 +17875,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4">
         <v>8</v>
@@ -17890,19 +17887,19 @@
         <v>5</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="4">
         <v>9</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" s="4">
         <v>3</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>17</v>
@@ -17911,16 +17908,16 @@
         <v>10</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P7" s="4">
         <v>1</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S7" s="4">
         <v>11</v>
@@ -17938,7 +17935,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="4">
         <v>8</v>
@@ -17950,7 +17947,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" s="4">
         <v>9</v>
@@ -17962,7 +17959,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" s="4">
         <v>7</v>
@@ -17971,16 +17968,16 @@
         <v>10</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P8" s="4">
         <v>1</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S8" s="4">
         <v>11</v>
@@ -17995,7 +17992,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -18010,7 +18007,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="4">
         <v>9</v>
@@ -18022,7 +18019,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>17</v>
@@ -18031,13 +18028,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P9" s="4">
         <v>1</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R9" s="4">
         <v>12</v>
@@ -18046,7 +18043,7 @@
         <v>11</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -18055,10 +18052,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="4">
         <v>8</v>
@@ -18070,7 +18067,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="4">
         <v>9</v>
@@ -18082,7 +18079,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M10" s="4">
         <v>7</v>
@@ -18091,16 +18088,16 @@
         <v>10</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P10" s="4">
         <v>1</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S10" s="4">
         <v>11</v>
@@ -18115,10 +18112,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="4">
         <v>8</v>
@@ -18130,7 +18127,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="4">
         <v>9</v>
@@ -18142,7 +18139,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>17</v>
@@ -18151,13 +18148,13 @@
         <v>10</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P11" s="4">
         <v>1</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R11" s="4">
         <v>12</v>
@@ -18175,10 +18172,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4">
         <v>8</v>
@@ -18190,7 +18187,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" s="4">
         <v>9</v>
@@ -18202,7 +18199,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M12" s="4">
         <v>7</v>
@@ -18211,16 +18208,16 @@
         <v>10</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P12" s="4">
         <v>1</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S12" s="4">
         <v>11</v>
@@ -18235,10 +18232,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4">
         <v>8</v>
@@ -18250,7 +18247,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" s="4">
         <v>9</v>
@@ -18262,7 +18259,7 @@
         <v>3</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>5</v>
@@ -18271,13 +18268,13 @@
         <v>10</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P13" s="4">
         <v>1</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R13" s="4">
         <v>14</v>
@@ -18292,13 +18289,13 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="4">
         <v>8</v>
@@ -18310,7 +18307,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" s="4">
         <v>9</v>
@@ -18322,7 +18319,7 @@
         <v>3</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" s="4">
         <v>7</v>
@@ -18331,16 +18328,16 @@
         <v>10</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P14" s="4">
         <v>1</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S14" s="4">
         <v>11</v>
@@ -18355,10 +18352,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="4">
         <v>8</v>
@@ -18370,7 +18367,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15" s="4">
         <v>9</v>
@@ -18382,7 +18379,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M15" s="4">
         <v>7</v>
@@ -18391,16 +18388,16 @@
         <v>10</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P15" s="4">
         <v>1</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S15" s="4">
         <v>11</v>
@@ -18415,10 +18412,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4">
         <v>8</v>
@@ -18430,7 +18427,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="4">
         <v>9</v>
@@ -18442,7 +18439,7 @@
         <v>3</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M16" s="4">
         <v>7</v>
@@ -18451,13 +18448,13 @@
         <v>10</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P16" s="4">
         <v>1</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R16" s="4">
         <v>14</v>
@@ -18475,7 +18472,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4">
         <v>6</v>
@@ -18490,7 +18487,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>11</v>
@@ -18502,7 +18499,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M17" s="4">
         <v>7</v>
@@ -18511,13 +18508,13 @@
         <v>10</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P17" s="4">
         <v>1</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R17" s="4">
         <v>14</v>
@@ -18526,7 +18523,7 @@
         <v>11</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -18538,7 +18535,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4">
         <v>8</v>
@@ -18550,7 +18547,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="4">
         <v>9</v>
@@ -18562,7 +18559,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>17</v>
@@ -18571,13 +18568,13 @@
         <v>10</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P18" s="4">
         <v>1</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R18" s="4">
         <v>6</v>
@@ -18586,7 +18583,7 @@
         <v>11</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -18595,10 +18592,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="4">
         <v>8</v>
@@ -18610,19 +18607,19 @@
         <v>5</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="4">
         <v>9</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="4">
         <v>3</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M19" s="4">
         <v>7</v>
@@ -18631,16 +18628,16 @@
         <v>10</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P19" s="4">
         <v>1</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S19" s="4">
         <v>11</v>
@@ -18655,10 +18652,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4">
         <v>8</v>
@@ -18670,19 +18667,19 @@
         <v>5</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="4">
         <v>9</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M20" s="4">
         <v>7</v>
@@ -18691,13 +18688,13 @@
         <v>10</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P20" s="4">
         <v>1</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R20" s="4">
         <v>14</v>
@@ -18715,7 +18712,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
@@ -18730,19 +18727,19 @@
         <v>5</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="4">
         <v>3</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M21" s="4">
         <v>7</v>
@@ -18757,16 +18754,16 @@
         <v>1</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R21" s="4">
         <v>9</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -18781,7 +18778,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -18790,7 +18787,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" s="4">
         <v>12</v>
@@ -18802,7 +18799,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>17</v>
@@ -18817,16 +18814,16 @@
         <v>1</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R22" s="4">
         <v>9</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -18835,10 +18832,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>21</v>
@@ -18850,10 +18847,10 @@
         <v>5</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J23" s="4">
         <v>12</v>
@@ -18862,7 +18859,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M23" s="4">
         <v>7</v>
@@ -18877,13 +18874,13 @@
         <v>1</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R23" s="4">
         <v>9</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T23" s="4">
         <v>6</v>
@@ -18895,10 +18892,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4">
         <v>8</v>
@@ -18910,19 +18907,19 @@
         <v>5</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="4">
         <v>14</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>5</v>
@@ -18943,7 +18940,7 @@
         <v>9</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T24" s="4">
         <v>6</v>
@@ -18955,10 +18952,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4">
         <v>8</v>
@@ -18970,7 +18967,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="4">
         <v>14</v>
@@ -18979,10 +18976,10 @@
         <v>12</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>5</v>
@@ -19003,7 +19000,7 @@
         <v>9</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T25" s="4">
         <v>6</v>
@@ -19012,13 +19009,13 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="4">
         <v>14</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="4">
         <v>8</v>
@@ -19030,7 +19027,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="4">
         <v>7</v>
@@ -19039,13 +19036,13 @@
         <v>6</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N26" s="4">
         <v>10</v>
@@ -19078,7 +19075,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="4">
         <v>8</v>
@@ -19090,7 +19087,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>17</v>
@@ -19099,13 +19096,13 @@
         <v>6</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N27" s="4">
         <v>10</v>
@@ -19123,7 +19120,7 @@
         <v>9</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T27" s="4">
         <v>6</v>
@@ -19138,7 +19135,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="4">
         <v>8</v>
@@ -19159,13 +19156,13 @@
         <v>6</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N28" s="4">
         <v>10</v>
@@ -19180,10 +19177,10 @@
         <v>3</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T28" s="4">
         <v>6</v>
@@ -19192,10 +19189,10 @@
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="4">
         <v>14</v>
@@ -19210,7 +19207,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="4">
         <v>7</v>
@@ -19222,22 +19219,22 @@
         <v>3</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N29" s="4">
         <v>10</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P29" s="4">
         <v>1</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R29" s="4">
         <v>9</v>
@@ -19252,13 +19249,13 @@
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="4">
         <v>12</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4">
         <v>8</v>
@@ -19270,7 +19267,7 @@
         <v>5</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="4">
         <v>7</v>
@@ -19282,22 +19279,22 @@
         <v>3</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N30" s="4">
         <v>10</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P30" s="4">
         <v>1</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R30" s="4">
         <v>9</v>
@@ -19318,7 +19315,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>21</v>
@@ -19330,7 +19327,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="4">
         <v>12</v>
@@ -19342,28 +19339,28 @@
         <v>3</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N31" s="4">
         <v>10</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P31" s="4">
         <v>1</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R31" s="4">
         <v>9</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T31" s="4">
         <v>6</v>
@@ -19378,7 +19375,7 @@
         <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>8</v>
@@ -19390,7 +19387,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" s="4">
         <v>12</v>
@@ -19402,22 +19399,22 @@
         <v>3</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N32" s="4">
         <v>10</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P32" s="4">
         <v>1</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R32" s="4">
         <v>9</v>
@@ -19432,13 +19429,13 @@
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4">
         <v>8</v>
@@ -19450,13 +19447,13 @@
         <v>4</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I33" s="4">
         <v>9</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K33" s="4">
         <v>3</v>
@@ -19471,13 +19468,13 @@
         <v>10</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P33" s="4">
         <v>1</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R33" s="4">
         <v>12</v>
@@ -19492,13 +19489,13 @@
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4">
         <v>8</v>
@@ -19510,13 +19507,13 @@
         <v>5</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I34" s="4">
         <v>9</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K34" s="4">
         <v>3</v>
@@ -19531,16 +19528,16 @@
         <v>10</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P34" s="4">
         <v>1</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S34" s="4">
         <v>11</v>
@@ -19552,13 +19549,13 @@
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="4">
         <v>8</v>
@@ -19570,13 +19567,13 @@
         <v>5</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K35" s="4">
         <v>3</v>
@@ -19591,13 +19588,13 @@
         <v>10</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P35" s="4">
         <v>1</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R35" s="4">
         <v>12</v>
@@ -19615,10 +19612,10 @@
         <v>14</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>8</v>
@@ -19630,13 +19627,13 @@
         <v>5</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K36" s="4">
         <v>3</v>
@@ -19651,13 +19648,13 @@
         <v>10</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P36" s="4">
         <v>1</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R36" s="4">
         <v>12</v>
@@ -19672,13 +19669,13 @@
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="4">
         <v>8</v>
@@ -19690,13 +19687,13 @@
         <v>5</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K37" s="4">
         <v>3</v>
@@ -19711,13 +19708,13 @@
         <v>10</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P37" s="4">
         <v>1</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R37" s="4">
         <v>9</v>
@@ -19735,10 +19732,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
@@ -19753,10 +19750,10 @@
         <v>14</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K38" s="4">
         <v>3</v>
@@ -19771,13 +19768,13 @@
         <v>10</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P38" s="4">
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R38" s="4">
         <v>9</v>
@@ -19795,10 +19792,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>21</v>
@@ -19810,13 +19807,13 @@
         <v>5</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K39" s="4">
         <v>3</v>
@@ -19831,13 +19828,13 @@
         <v>10</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P39" s="4">
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R39" s="4">
         <v>9</v>
@@ -19852,13 +19849,13 @@
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" s="4">
         <v>8</v>
@@ -19870,13 +19867,13 @@
         <v>5</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I40" s="4">
         <v>14</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K40" s="4">
         <v>3</v>
@@ -19891,13 +19888,13 @@
         <v>10</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P40" s="4">
         <v>1</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R40" s="4">
         <v>9</v>
@@ -19912,13 +19909,13 @@
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="4">
         <v>8</v>
@@ -19930,13 +19927,13 @@
         <v>5</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I41" s="4">
         <v>7</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K41" s="4">
         <v>3</v>
@@ -19945,19 +19942,19 @@
         <v>4</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N41" s="4">
         <v>10</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P41" s="4">
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R41" s="4">
         <v>9</v>
@@ -19975,10 +19972,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
@@ -19990,13 +19987,13 @@
         <v>4</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I42" s="4">
         <v>7</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K42" s="4">
         <v>3</v>
@@ -20005,19 +20002,19 @@
         <v>4</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N42" s="4">
         <v>10</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P42" s="4">
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R42" s="4">
         <v>9</v>
@@ -20032,31 +20029,31 @@
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="4">
         <v>8</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="4">
         <v>5</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I43" s="4">
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K43" s="4">
         <v>3</v>
@@ -20065,7 +20062,7 @@
         <v>4</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N43" s="4">
         <v>10</v>
@@ -20077,7 +20074,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R43" s="4">
         <v>9</v>
@@ -20092,25 +20089,25 @@
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" s="4">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="4">
         <v>5</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I44" s="4">
         <v>7</v>
@@ -20125,7 +20122,7 @@
         <v>4</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N44" s="4">
         <v>10</v>
@@ -20137,7 +20134,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R44" s="4">
         <v>9</v>
@@ -20155,10 +20152,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="4">
         <v>8</v>
@@ -20170,7 +20167,7 @@
         <v>5</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I45" s="4">
         <v>7</v>
@@ -20182,22 +20179,22 @@
         <v>3</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P45" s="4">
         <v>1</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R45" s="4">
         <v>9</v>
@@ -20215,10 +20212,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="4">
         <v>8</v>
@@ -20230,7 +20227,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="4">
         <v>7</v>
@@ -20242,22 +20239,22 @@
         <v>10</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N46" s="4">
         <v>10</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P46" s="4">
         <v>1</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R46" s="4">
         <v>9</v>
@@ -20275,55 +20272,55 @@
         <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="4">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4">
+        <v>5</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="4">
+        <v>7</v>
+      </c>
+      <c r="J47" s="4">
+        <v>12</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N47" s="4">
+        <v>10</v>
+      </c>
+      <c r="O47" s="4">
+        <v>3</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R47" s="4">
+        <v>9</v>
+      </c>
+      <c r="S47" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="4">
-        <v>8</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2</v>
-      </c>
-      <c r="G47" s="4">
-        <v>5</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" s="4">
-        <v>7</v>
-      </c>
-      <c r="J47" s="4">
-        <v>12</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N47" s="4">
-        <v>10</v>
-      </c>
-      <c r="O47" s="4">
-        <v>3</v>
-      </c>
-      <c r="P47" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R47" s="4">
-        <v>9</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="T47" s="4">
         <v>6</v>
@@ -20335,10 +20332,10 @@
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>8</v>
@@ -20350,16 +20347,16 @@
         <v>5</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I48" s="4">
         <v>7</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L48" s="4">
         <v>4</v>
@@ -20377,7 +20374,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R48" s="4">
         <v>9</v>
@@ -20395,7 +20392,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="4">
         <v>6</v>
@@ -20410,22 +20407,22 @@
         <v>5</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I49" s="4">
         <v>7</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L49" s="4">
         <v>4</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N49" s="4">
         <v>10</v>
@@ -20437,7 +20434,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R49" s="4">
         <v>9</v>
@@ -20446,16 +20443,16 @@
         <v>11</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D50" s="4">
         <v>6</v>
@@ -20470,22 +20467,22 @@
         <v>5</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I50" s="4">
         <v>7</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L50" s="4">
         <v>4</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N50" s="4">
         <v>10</v>
@@ -20497,7 +20494,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R50" s="4">
         <v>9</v>
@@ -20506,19 +20503,19 @@
         <v>11</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" s="4">
         <v>8</v>
@@ -20530,16 +20527,16 @@
         <v>3</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I51" s="4">
         <v>7</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L51" s="4">
         <v>4</v>
@@ -20557,7 +20554,7 @@
         <v>1</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R51" s="4">
         <v>9</v>
@@ -20571,16 +20568,16 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" s="4">
         <v>8</v>
@@ -20592,16 +20589,16 @@
         <v>5</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L52" s="4">
         <v>4</v>
@@ -20619,7 +20616,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R52" s="4">
         <v>9</v>
@@ -20633,16 +20630,16 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53" s="4">
         <v>8</v>
@@ -20654,16 +20651,16 @@
         <v>5</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L53" s="4">
         <v>4</v>
@@ -20681,7 +20678,7 @@
         <v>1</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R53" s="4">
         <v>9</v>
@@ -20695,7 +20692,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="4">
         <v>12</v>
@@ -20704,7 +20701,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54" s="4">
         <v>8</v>
@@ -20716,16 +20713,16 @@
         <v>5</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L54" s="4">
         <v>4</v>
@@ -20743,7 +20740,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R54" s="4">
         <v>9</v>
@@ -20757,16 +20754,16 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="4">
         <v>12</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" s="4">
         <v>8</v>
@@ -20778,22 +20775,22 @@
         <v>5</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L55" s="4">
         <v>4</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N55" s="4">
         <v>10</v>
@@ -20805,7 +20802,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R55" s="4">
         <v>9</v>
@@ -20819,16 +20816,16 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="4">
         <v>12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>21</v>
@@ -20840,22 +20837,22 @@
         <v>5</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I56" s="4">
         <v>7</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L56" s="4">
         <v>4</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N56" s="4">
         <v>10</v>
@@ -20867,7 +20864,7 @@
         <v>1</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R56" s="4">
         <v>9</v>
@@ -20881,16 +20878,16 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E57" s="4">
         <v>8</v>
@@ -20902,22 +20899,22 @@
         <v>5</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I57" s="4">
         <v>7</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L57" s="4">
         <v>4</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N57" s="4">
         <v>10</v>
@@ -20929,7 +20926,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R57" s="4">
         <v>9</v>
@@ -20943,16 +20940,16 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="4">
         <v>14</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E58" s="4">
         <v>8</v>
@@ -20964,22 +20961,22 @@
         <v>5</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I58" s="4">
         <v>7</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L58" s="4">
         <v>4</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N58" s="4">
         <v>10</v>
@@ -20991,7 +20988,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R58" s="4">
         <v>9</v>
@@ -21005,7 +21002,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" s="4">
         <v>12</v>
@@ -21014,7 +21011,7 @@
         <v>14</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>21</v>
@@ -21026,22 +21023,22 @@
         <v>3</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I59" s="4">
         <v>7</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L59" s="4">
         <v>4</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N59" s="4">
         <v>10</v>
@@ -21053,7 +21050,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R59" s="4">
         <v>9</v>
@@ -21067,16 +21064,16 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="4">
         <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E60" s="4">
         <v>8</v>
@@ -21088,7 +21085,7 @@
         <v>3</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I60" s="4">
         <v>7</v>
@@ -21100,22 +21097,22 @@
         <v>3</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N60" s="4">
         <v>10</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P60" s="4">
         <v>1</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R60" s="4">
         <v>9</v>
@@ -21129,16 +21126,16 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="4">
         <v>14</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E61" s="4">
         <v>12</v>
@@ -21150,10 +21147,10 @@
         <v>5</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J61" s="4">
         <v>8</v>
@@ -21171,13 +21168,13 @@
         <v>10</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P61" s="4">
         <v>1</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R61" s="4">
         <v>9</v>
@@ -21194,13 +21191,13 @@
         <v>5</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E62" s="4">
         <v>8</v>
@@ -21209,19 +21206,19 @@
         <v>2</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I62" s="4">
         <v>7</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L62" s="4">
         <v>4</v>
@@ -21239,7 +21236,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R62" s="4">
         <v>9</v>
@@ -21253,16 +21250,16 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63" s="4">
         <v>8</v>
@@ -21274,22 +21271,22 @@
         <v>5</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I63" s="4">
         <v>7</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L63" s="4">
         <v>4</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N63" s="4">
         <v>10</v>
@@ -21301,7 +21298,7 @@
         <v>1</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R63" s="4">
         <v>9</v>
@@ -21315,16 +21312,16 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E64" s="4">
         <v>8</v>
@@ -21336,22 +21333,22 @@
         <v>5</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I64" s="4">
         <v>7</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L64" s="4">
         <v>4</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N64" s="4">
         <v>10</v>
@@ -21363,7 +21360,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R64" s="4">
         <v>9</v>
@@ -21377,13 +21374,13 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D65" s="4">
         <v>2</v>
@@ -21392,28 +21389,28 @@
         <v>8</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="4">
         <v>5</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I65" s="4">
         <v>7</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L65" s="4">
         <v>4</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N65" s="4">
         <v>10</v>
@@ -21425,7 +21422,7 @@
         <v>1</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R65" s="4">
         <v>9</v>
@@ -21439,7 +21436,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="4">
         <v>12</v>
@@ -21454,28 +21451,28 @@
         <v>21</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="4">
         <v>5</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I66" s="4">
         <v>7</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L66" s="4">
         <v>4</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N66" s="4">
         <v>10</v>
@@ -21487,7 +21484,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R66" s="4">
         <v>9</v>
@@ -21516,7 +21513,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>24</v>
@@ -21549,10 +21546,10 @@
         <v>66</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>56</v>
@@ -26775,8 +26772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9AD14E-5C41-B640-841F-A02FBCF76B8F}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26810,7 +26807,7 @@
         <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
         <v>32</v>

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F20A0F2-1266-4A4F-B33E-6952F17EE402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6F78F47F-2FBC-2C47-AD65-25B72E88A98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="9" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="1921-22" sheetId="19" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>Lloyd</t>
   </si>
   <si>
-    <t>Phiipotts</t>
-  </si>
-  <si>
     <t>Richards</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>Thorpe</t>
+  </si>
+  <si>
+    <t>Philpotts</t>
   </si>
 </sst>
 </file>
@@ -896,97 +896,97 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -2398,7 +2398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B21AD3B-5CFD-9E48-9F5E-34B590DA3414}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:X60"/>
     </sheetView>
   </sheetViews>
@@ -9191,8 +9191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77E507-ADE4-EC47-A9C7-E6FD7EAE7A4E}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9226,22 +9226,22 @@
         <v>91</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -9457,37 +9457,37 @@
         <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>63</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>34</v>
@@ -9502,22 +9502,22 @@
         <v>37</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>65</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -12063,7 +12063,7 @@
         <v>75</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>34</v>
@@ -12078,13 +12078,13 @@
         <v>37</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>69</v>
@@ -12096,7 +12096,7 @@
         <v>65</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -13903,7 +13903,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H41" s="4">
         <v>3</v>
@@ -14812,25 +14812,25 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
@@ -14851,7 +14851,7 @@
         <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>34</v>
@@ -14866,25 +14866,25 @@
         <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6F78F47F-2FBC-2C47-AD65-25B72E88A98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B1678-19E1-544C-AF8C-5115FCFB4EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="13" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="1921-22" sheetId="19" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="1993-94" sheetId="14" r:id="rId10"/>
     <sheet name="1994-95" sheetId="1" r:id="rId11"/>
     <sheet name="1995-96" sheetId="4" r:id="rId12"/>
+    <sheet name="1996-97" sheetId="23" r:id="rId13"/>
+    <sheet name="1998-99" sheetId="24" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="180">
   <si>
     <t>11+</t>
   </si>
@@ -498,6 +500,96 @@
   <si>
     <t>Philpotts</t>
   </si>
+  <si>
+    <t>Bonetti</t>
+  </si>
+  <si>
+    <t>Challinor</t>
+  </si>
+  <si>
+    <t>Jones L</t>
+  </si>
+  <si>
+    <t>Thorn</t>
+  </si>
+  <si>
+    <t>Woods</t>
+  </si>
+  <si>
+    <t>10#</t>
+  </si>
+  <si>
+    <t>6#</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>5#</t>
+  </si>
+  <si>
+    <t>13*</t>
+  </si>
+  <si>
+    <t>Achterberg</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Frail</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Hinds</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Koumas</t>
+  </si>
+  <si>
+    <t>Mellon</t>
+  </si>
+  <si>
+    <t>Parkinson</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Sharps</t>
+  </si>
+  <si>
+    <t>Shepherd</t>
+  </si>
+  <si>
+    <t>Simonsen</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>13+</t>
+  </si>
+  <si>
+    <t>2#</t>
+  </si>
 </sst>
 </file>
 
@@ -9187,11 +9279,4608 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D69175-2015-8C43-BCBA-332C8245AB32}">
+  <dimension ref="A1:Y52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="W50" sqref="W50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" s="4">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4">
+        <v>14</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4">
+        <v>6</v>
+      </c>
+      <c r="T2" s="4">
+        <v>3</v>
+      </c>
+      <c r="U2" s="4">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="4">
+        <v>4</v>
+      </c>
+      <c r="P3" s="4">
+        <v>7</v>
+      </c>
+      <c r="S3" s="4">
+        <v>6</v>
+      </c>
+      <c r="T3" s="4">
+        <v>3</v>
+      </c>
+      <c r="U3" s="4">
+        <v>2</v>
+      </c>
+      <c r="V3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="4">
+        <v>14</v>
+      </c>
+      <c r="P4" s="4">
+        <v>7</v>
+      </c>
+      <c r="S4" s="4">
+        <v>6</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="4">
+        <v>2</v>
+      </c>
+      <c r="V4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="4">
+        <v>12</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>13</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4">
+        <v>6</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>13</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="4">
+        <v>5</v>
+      </c>
+      <c r="W6" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4">
+        <v>12</v>
+      </c>
+      <c r="N7" s="4">
+        <v>13</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" s="4">
+        <v>5</v>
+      </c>
+      <c r="W7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="4">
+        <v>13</v>
+      </c>
+      <c r="N8" s="4">
+        <v>12</v>
+      </c>
+      <c r="P8" s="4">
+        <v>7</v>
+      </c>
+      <c r="S8" s="4">
+        <v>6</v>
+      </c>
+      <c r="U8" s="4">
+        <v>2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10</v>
+      </c>
+      <c r="N9" s="4">
+        <v>12</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="4">
+        <v>6</v>
+      </c>
+      <c r="U9" s="4">
+        <v>2</v>
+      </c>
+      <c r="V9" s="4">
+        <v>5</v>
+      </c>
+      <c r="W9" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
+        <v>13</v>
+      </c>
+      <c r="P10" s="4">
+        <v>7</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10" s="4">
+        <v>2</v>
+      </c>
+      <c r="V10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>10</v>
+      </c>
+      <c r="M11" s="4">
+        <v>12</v>
+      </c>
+      <c r="P11" s="4">
+        <v>7</v>
+      </c>
+      <c r="S11" s="4">
+        <v>6</v>
+      </c>
+      <c r="U11" s="4">
+        <v>2</v>
+      </c>
+      <c r="V11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4</v>
+      </c>
+      <c r="L12" s="4">
+        <v>12</v>
+      </c>
+      <c r="P12" s="4">
+        <v>7</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="4">
+        <v>2</v>
+      </c>
+      <c r="V12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4">
+        <v>12</v>
+      </c>
+      <c r="J13" s="4">
+        <v>13</v>
+      </c>
+      <c r="L13" s="4">
+        <v>14</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="4">
+        <v>6</v>
+      </c>
+      <c r="U13" s="4">
+        <v>2</v>
+      </c>
+      <c r="V13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4">
+        <v>13</v>
+      </c>
+      <c r="P14" s="4">
+        <v>12</v>
+      </c>
+      <c r="S14" s="4">
+        <v>6</v>
+      </c>
+      <c r="U14" s="4">
+        <v>2</v>
+      </c>
+      <c r="V14" s="4">
+        <v>5</v>
+      </c>
+      <c r="X14" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4">
+        <v>13</v>
+      </c>
+      <c r="P15" s="4">
+        <v>12</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="U15" s="4">
+        <v>2</v>
+      </c>
+      <c r="V15" s="4">
+        <v>5</v>
+      </c>
+      <c r="X15" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7</v>
+      </c>
+      <c r="J16" s="4">
+        <v>13</v>
+      </c>
+      <c r="S16" s="4">
+        <v>6</v>
+      </c>
+      <c r="T16" s="4">
+        <v>3</v>
+      </c>
+      <c r="U16" s="4">
+        <v>2</v>
+      </c>
+      <c r="V16" s="4">
+        <v>5</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4">
+        <v>13</v>
+      </c>
+      <c r="P17" s="4">
+        <v>12</v>
+      </c>
+      <c r="S17" s="4">
+        <v>6</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U17" s="4">
+        <v>2</v>
+      </c>
+      <c r="V17" s="4">
+        <v>5</v>
+      </c>
+      <c r="X17" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4">
+        <v>13</v>
+      </c>
+      <c r="L18" s="4">
+        <v>14</v>
+      </c>
+      <c r="P18" s="4">
+        <v>12</v>
+      </c>
+      <c r="S18" s="4">
+        <v>6</v>
+      </c>
+      <c r="U18" s="4">
+        <v>2</v>
+      </c>
+      <c r="V18" s="4">
+        <v>5</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="4">
+        <v>14</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>13</v>
+      </c>
+      <c r="S19" s="4">
+        <v>6</v>
+      </c>
+      <c r="U19" s="4">
+        <v>2</v>
+      </c>
+      <c r="V19" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="4">
+        <v>11</v>
+      </c>
+      <c r="N20" s="4">
+        <v>8</v>
+      </c>
+      <c r="S20" s="4">
+        <v>6</v>
+      </c>
+      <c r="T20" s="4">
+        <v>3</v>
+      </c>
+      <c r="U20" s="4">
+        <v>2</v>
+      </c>
+      <c r="V20" s="4">
+        <v>5</v>
+      </c>
+      <c r="X20" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>8</v>
+      </c>
+      <c r="S21" s="4">
+        <v>6</v>
+      </c>
+      <c r="T21" s="4">
+        <v>3</v>
+      </c>
+      <c r="U21" s="4">
+        <v>2</v>
+      </c>
+      <c r="V21" s="4">
+        <v>5</v>
+      </c>
+      <c r="X21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4">
+        <v>9</v>
+      </c>
+      <c r="L22" s="4">
+        <v>11</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="4">
+        <v>3</v>
+      </c>
+      <c r="U22" s="4">
+        <v>2</v>
+      </c>
+      <c r="V22" s="4">
+        <v>5</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>4</v>
+      </c>
+      <c r="I23" s="4">
+        <v>13</v>
+      </c>
+      <c r="J23" s="4">
+        <v>9</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" s="4">
+        <v>6</v>
+      </c>
+      <c r="T23" s="4">
+        <v>3</v>
+      </c>
+      <c r="U23" s="4">
+        <v>2</v>
+      </c>
+      <c r="V23" s="4">
+        <v>5</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="4">
+        <v>11</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4</v>
+      </c>
+      <c r="I24" s="4">
+        <v>12</v>
+      </c>
+      <c r="J24" s="4">
+        <v>14</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>13</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4">
+        <v>6</v>
+      </c>
+      <c r="T24" s="4">
+        <v>3</v>
+      </c>
+      <c r="U24" s="4">
+        <v>2</v>
+      </c>
+      <c r="V24" s="4">
+        <v>5</v>
+      </c>
+      <c r="W24" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>4</v>
+      </c>
+      <c r="I25" s="4">
+        <v>12</v>
+      </c>
+      <c r="L25" s="4">
+        <v>14</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>13</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
+        <v>6</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U25" s="4">
+        <v>2</v>
+      </c>
+      <c r="V25" s="4">
+        <v>5</v>
+      </c>
+      <c r="W25" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7</v>
+      </c>
+      <c r="F26" s="4">
+        <v>14</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4</v>
+      </c>
+      <c r="I26" s="4">
+        <v>12</v>
+      </c>
+      <c r="J26" s="4">
+        <v>13</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="S26" s="4">
+        <v>6</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U26" s="4">
+        <v>2</v>
+      </c>
+      <c r="V26" s="4">
+        <v>5</v>
+      </c>
+      <c r="W26" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7</v>
+      </c>
+      <c r="F27" s="4">
+        <v>11</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="4">
+        <v>13</v>
+      </c>
+      <c r="P27" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4">
+        <v>6</v>
+      </c>
+      <c r="U27" s="4">
+        <v>2</v>
+      </c>
+      <c r="V27" s="4">
+        <v>5</v>
+      </c>
+      <c r="W27" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="4">
+        <v>12</v>
+      </c>
+      <c r="L28" s="4">
+        <v>14</v>
+      </c>
+      <c r="M28" s="4">
+        <v>4</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>13</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>6</v>
+      </c>
+      <c r="U28" s="4">
+        <v>2</v>
+      </c>
+      <c r="V28" s="4">
+        <v>5</v>
+      </c>
+      <c r="W28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4">
+        <v>7</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>14</v>
+      </c>
+      <c r="L29" s="4">
+        <v>11</v>
+      </c>
+      <c r="M29" s="4">
+        <v>4</v>
+      </c>
+      <c r="N29" s="4">
+        <v>10</v>
+      </c>
+      <c r="P29" s="4">
+        <v>12</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" s="4">
+        <v>3</v>
+      </c>
+      <c r="U29" s="4">
+        <v>2</v>
+      </c>
+      <c r="V29" s="4">
+        <v>5</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>9</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="4">
+        <v>4</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>13</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T30" s="4">
+        <v>3</v>
+      </c>
+      <c r="U30" s="4">
+        <v>2</v>
+      </c>
+      <c r="V30" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="4">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4">
+        <v>7</v>
+      </c>
+      <c r="F31" s="4">
+        <v>9</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="4">
+        <v>5</v>
+      </c>
+      <c r="L31" s="4">
+        <v>14</v>
+      </c>
+      <c r="M31" s="4">
+        <v>4</v>
+      </c>
+      <c r="N31" s="4">
+        <v>13</v>
+      </c>
+      <c r="P31" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>11</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U31" s="4">
+        <v>2</v>
+      </c>
+      <c r="W31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="4">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4">
+        <v>7</v>
+      </c>
+      <c r="F32" s="4">
+        <v>9</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
+        <v>14</v>
+      </c>
+      <c r="M32" s="4">
+        <v>4</v>
+      </c>
+      <c r="N32" s="4">
+        <v>13</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>11</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U32" s="4">
+        <v>2</v>
+      </c>
+      <c r="W32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4">
+        <v>12</v>
+      </c>
+      <c r="D33" s="4">
+        <v>7</v>
+      </c>
+      <c r="F33" s="4">
+        <v>9</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5</v>
+      </c>
+      <c r="I33" s="4">
+        <v>14</v>
+      </c>
+      <c r="M33" s="4">
+        <v>4</v>
+      </c>
+      <c r="N33" s="4">
+        <v>13</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>11</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="U33" s="4">
+        <v>2</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4">
+        <v>9</v>
+      </c>
+      <c r="H34" s="4">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4">
+        <v>14</v>
+      </c>
+      <c r="M34" s="4">
+        <v>4</v>
+      </c>
+      <c r="N34" s="4">
+        <v>13</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34" s="4">
+        <v>12</v>
+      </c>
+      <c r="U34" s="4">
+        <v>2</v>
+      </c>
+      <c r="W34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B35" s="4">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="4">
+        <v>9</v>
+      </c>
+      <c r="I35" s="4">
+        <v>6</v>
+      </c>
+      <c r="J35" s="4">
+        <v>13</v>
+      </c>
+      <c r="M35" s="4">
+        <v>4</v>
+      </c>
+      <c r="N35" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="4">
+        <v>1</v>
+      </c>
+      <c r="T35" s="4">
+        <v>12</v>
+      </c>
+      <c r="U35" s="4">
+        <v>2</v>
+      </c>
+      <c r="W35" s="4">
+        <v>3</v>
+      </c>
+      <c r="X35" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C36" s="4">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4">
+        <v>9</v>
+      </c>
+      <c r="I36" s="4">
+        <v>6</v>
+      </c>
+      <c r="J36" s="4">
+        <v>13</v>
+      </c>
+      <c r="L36" s="4">
+        <v>7</v>
+      </c>
+      <c r="M36" s="4">
+        <v>4</v>
+      </c>
+      <c r="N36" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R36" s="4">
+        <v>1</v>
+      </c>
+      <c r="T36" s="4">
+        <v>12</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W36" s="4">
+        <v>3</v>
+      </c>
+      <c r="X36" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="4">
+        <v>12</v>
+      </c>
+      <c r="F37" s="4">
+        <v>9</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="4">
+        <v>13</v>
+      </c>
+      <c r="L37" s="4">
+        <v>7</v>
+      </c>
+      <c r="M37" s="4">
+        <v>4</v>
+      </c>
+      <c r="N37" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>14</v>
+      </c>
+      <c r="R37" s="4">
+        <v>1</v>
+      </c>
+      <c r="T37" s="4">
+        <v>11</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W37" s="4">
+        <v>3</v>
+      </c>
+      <c r="X37" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="4">
+        <v>7</v>
+      </c>
+      <c r="H38" s="4">
+        <v>5</v>
+      </c>
+      <c r="I38" s="4">
+        <v>10</v>
+      </c>
+      <c r="J38" s="4">
+        <v>13</v>
+      </c>
+      <c r="L38" s="4">
+        <v>14</v>
+      </c>
+      <c r="M38" s="4">
+        <v>4</v>
+      </c>
+      <c r="N38" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" s="4">
+        <v>1</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="4">
+        <v>3</v>
+      </c>
+      <c r="W38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4">
+        <v>7</v>
+      </c>
+      <c r="E39" s="4">
+        <v>4</v>
+      </c>
+      <c r="H39" s="4">
+        <v>5</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="4">
+        <v>14</v>
+      </c>
+      <c r="N39" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>11</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+      <c r="S39" s="4">
+        <v>6</v>
+      </c>
+      <c r="T39" s="4">
+        <v>3</v>
+      </c>
+      <c r="W39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="4">
+        <v>12</v>
+      </c>
+      <c r="D40" s="4">
+        <v>7</v>
+      </c>
+      <c r="H40" s="4">
+        <v>4</v>
+      </c>
+      <c r="I40" s="4">
+        <v>10</v>
+      </c>
+      <c r="J40" s="4">
+        <v>13</v>
+      </c>
+      <c r="N40" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1</v>
+      </c>
+      <c r="S40" s="4">
+        <v>6</v>
+      </c>
+      <c r="T40" s="4">
+        <v>3</v>
+      </c>
+      <c r="W40" s="4">
+        <v>2</v>
+      </c>
+      <c r="X40" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4">
+        <v>12</v>
+      </c>
+      <c r="D41" s="4">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4">
+        <v>14</v>
+      </c>
+      <c r="H41" s="4">
+        <v>11</v>
+      </c>
+      <c r="I41" s="4">
+        <v>10</v>
+      </c>
+      <c r="J41" s="4">
+        <v>13</v>
+      </c>
+      <c r="M41" s="4">
+        <v>4</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4">
+        <v>6</v>
+      </c>
+      <c r="T41" s="4">
+        <v>3</v>
+      </c>
+      <c r="W41" s="4">
+        <v>2</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="4">
+        <v>9</v>
+      </c>
+      <c r="H42" s="4">
+        <v>5</v>
+      </c>
+      <c r="I42" s="4">
+        <v>10</v>
+      </c>
+      <c r="L42" s="4">
+        <v>11</v>
+      </c>
+      <c r="M42" s="4">
+        <v>4</v>
+      </c>
+      <c r="P42" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="R42" s="4">
+        <v>1</v>
+      </c>
+      <c r="S42" s="4">
+        <v>6</v>
+      </c>
+      <c r="T42" s="4">
+        <v>3</v>
+      </c>
+      <c r="W42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="4">
+        <v>14</v>
+      </c>
+      <c r="F43" s="4">
+        <v>9</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="4">
+        <v>10</v>
+      </c>
+      <c r="J43" s="4">
+        <v>8</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" s="4">
+        <v>4</v>
+      </c>
+      <c r="P43" s="4">
+        <v>13</v>
+      </c>
+      <c r="R43" s="4">
+        <v>1</v>
+      </c>
+      <c r="S43" s="4">
+        <v>6</v>
+      </c>
+      <c r="T43" s="4">
+        <v>3</v>
+      </c>
+      <c r="W43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4">
+        <v>5</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="4">
+        <v>10</v>
+      </c>
+      <c r="J44" s="4">
+        <v>9</v>
+      </c>
+      <c r="L44" s="4">
+        <v>13</v>
+      </c>
+      <c r="M44" s="4">
+        <v>4</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R44" s="4">
+        <v>1</v>
+      </c>
+      <c r="S44" s="4">
+        <v>6</v>
+      </c>
+      <c r="T44" s="4">
+        <v>3</v>
+      </c>
+      <c r="W44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="4">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4">
+        <v>5</v>
+      </c>
+      <c r="F45" s="4">
+        <v>13</v>
+      </c>
+      <c r="I45" s="4">
+        <v>10</v>
+      </c>
+      <c r="J45" s="4">
+        <v>9</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="4">
+        <v>4</v>
+      </c>
+      <c r="P45" s="4">
+        <v>7</v>
+      </c>
+      <c r="R45" s="4">
+        <v>1</v>
+      </c>
+      <c r="S45" s="4">
+        <v>6</v>
+      </c>
+      <c r="T45" s="4">
+        <v>3</v>
+      </c>
+      <c r="W45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>14</v>
+      </c>
+      <c r="C46" s="4">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4">
+        <v>8</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="4">
+        <v>9</v>
+      </c>
+      <c r="K46" s="4">
+        <v>11</v>
+      </c>
+      <c r="M46" s="4">
+        <v>4</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46" s="4">
+        <v>1</v>
+      </c>
+      <c r="S46" s="4">
+        <v>6</v>
+      </c>
+      <c r="W46" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="4">
+        <v>12</v>
+      </c>
+      <c r="F47" s="4">
+        <v>13</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="4">
+        <v>9</v>
+      </c>
+      <c r="K47" s="4">
+        <v>11</v>
+      </c>
+      <c r="L47" s="4">
+        <v>14</v>
+      </c>
+      <c r="M47" s="4">
+        <v>4</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R47" s="4">
+        <v>1</v>
+      </c>
+      <c r="S47" s="4">
+        <v>6</v>
+      </c>
+      <c r="T47" s="4">
+        <v>3</v>
+      </c>
+      <c r="W47" s="4">
+        <v>2</v>
+      </c>
+      <c r="X47" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4">
+        <v>14</v>
+      </c>
+      <c r="F48" s="4">
+        <v>8</v>
+      </c>
+      <c r="I48" s="4">
+        <v>10</v>
+      </c>
+      <c r="J48" s="4">
+        <v>9</v>
+      </c>
+      <c r="K48" s="4">
+        <v>11</v>
+      </c>
+      <c r="L48" s="4">
+        <v>13</v>
+      </c>
+      <c r="M48" s="4">
+        <v>4</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="4">
+        <v>1</v>
+      </c>
+      <c r="S48" s="4">
+        <v>6</v>
+      </c>
+      <c r="T48" s="4">
+        <v>3</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>12</v>
+      </c>
+      <c r="F49" s="4">
+        <v>8</v>
+      </c>
+      <c r="I49" s="4">
+        <v>10</v>
+      </c>
+      <c r="J49" s="4">
+        <v>9</v>
+      </c>
+      <c r="K49" s="4">
+        <v>11</v>
+      </c>
+      <c r="M49" s="4">
+        <v>4</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49" s="4">
+        <v>1</v>
+      </c>
+      <c r="S49" s="4">
+        <v>6</v>
+      </c>
+      <c r="T49" s="4">
+        <v>3</v>
+      </c>
+      <c r="W49" s="4">
+        <v>2</v>
+      </c>
+      <c r="X49" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4">
+        <v>14</v>
+      </c>
+      <c r="F50" s="4">
+        <v>8</v>
+      </c>
+      <c r="I50" s="4">
+        <v>10</v>
+      </c>
+      <c r="J50" s="4">
+        <v>9</v>
+      </c>
+      <c r="K50" s="4">
+        <v>11</v>
+      </c>
+      <c r="M50" s="4">
+        <v>4</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R50" s="4">
+        <v>1</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T50" s="4">
+        <v>3</v>
+      </c>
+      <c r="W50" s="4">
+        <v>2</v>
+      </c>
+      <c r="X50" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>8</v>
+      </c>
+      <c r="I51" s="4">
+        <v>10</v>
+      </c>
+      <c r="J51" s="4">
+        <v>9</v>
+      </c>
+      <c r="K51" s="4">
+        <v>11</v>
+      </c>
+      <c r="M51" s="4">
+        <v>4</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>13</v>
+      </c>
+      <c r="R51" s="4">
+        <v>1</v>
+      </c>
+      <c r="S51" s="4">
+        <v>6</v>
+      </c>
+      <c r="T51" s="4">
+        <v>3</v>
+      </c>
+      <c r="W51" s="4">
+        <v>2</v>
+      </c>
+      <c r="X51" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4">
+        <v>7</v>
+      </c>
+      <c r="I52" s="4">
+        <v>10</v>
+      </c>
+      <c r="K52" s="4">
+        <v>11</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" s="4">
+        <v>4</v>
+      </c>
+      <c r="P52" s="4">
+        <v>12</v>
+      </c>
+      <c r="R52" s="4">
+        <v>1</v>
+      </c>
+      <c r="S52" s="4">
+        <v>6</v>
+      </c>
+      <c r="T52" s="4">
+        <v>3</v>
+      </c>
+      <c r="W52" s="4">
+        <v>2</v>
+      </c>
+      <c r="X52" s="4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93365371-A62D-3C43-8BC3-6C95C3C5319E}">
+  <dimension ref="A1:AB53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
+        <v>9</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2">
+        <v>8</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4">
+        <v>12</v>
+      </c>
+      <c r="L3" s="4">
+        <v>9</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4">
+        <v>12</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>12</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6" s="4">
+        <v>11</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6">
+        <v>14</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>14</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>12</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4">
+        <v>11</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9" s="4">
+        <v>14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>13</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="V9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4">
+        <v>12</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="4">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10">
+        <v>14</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11" s="4">
+        <v>12</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>14</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="V11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12" s="4">
+        <v>12</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>9</v>
+      </c>
+      <c r="V12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13" s="4">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>14</v>
+      </c>
+      <c r="S13" t="s">
+        <v>155</v>
+      </c>
+      <c r="T13" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14" s="4">
+        <v>11</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="4">
+        <v>14</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>12</v>
+      </c>
+      <c r="V14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15" s="4">
+        <v>14</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="4">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16" s="4">
+        <v>12</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>8</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4">
+        <v>12</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="4">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>14</v>
+      </c>
+      <c r="V17">
+        <v>8</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="4">
+        <v>12</v>
+      </c>
+      <c r="L18" s="4">
+        <v>13</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>14</v>
+      </c>
+      <c r="V18">
+        <v>8</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>12</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>14</v>
+      </c>
+      <c r="V19">
+        <v>8</v>
+      </c>
+      <c r="Z19">
+        <v>11</v>
+      </c>
+      <c r="AA19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>11</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20">
+        <v>12</v>
+      </c>
+      <c r="T20">
+        <v>16</v>
+      </c>
+      <c r="V20">
+        <v>8</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>12</v>
+      </c>
+      <c r="N21" s="4">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21">
+        <v>14</v>
+      </c>
+      <c r="V21">
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <v>12</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>14</v>
+      </c>
+      <c r="V22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22">
+        <v>11</v>
+      </c>
+      <c r="AA22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <v>12</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="R23">
+        <v>14</v>
+      </c>
+      <c r="V23">
+        <v>8</v>
+      </c>
+      <c r="Z23">
+        <v>11</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
+        <v>12</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="R24">
+        <v>14</v>
+      </c>
+      <c r="V24">
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>11</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
+        <v>9</v>
+      </c>
+      <c r="N25" s="4">
+        <v>4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25">
+        <v>14</v>
+      </c>
+      <c r="V25">
+        <v>8</v>
+      </c>
+      <c r="Z25">
+        <v>11</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>13</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26">
+        <v>12</v>
+      </c>
+      <c r="T26">
+        <v>14</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27" s="4">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>155</v>
+      </c>
+      <c r="T27">
+        <v>11</v>
+      </c>
+      <c r="V27" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z27">
+        <v>14</v>
+      </c>
+      <c r="AA27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
+        <v>9</v>
+      </c>
+      <c r="M28" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>13</v>
+      </c>
+      <c r="R28">
+        <v>12</v>
+      </c>
+      <c r="T28" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>8</v>
+      </c>
+      <c r="Z28">
+        <v>14</v>
+      </c>
+      <c r="AA28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="4">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>13</v>
+      </c>
+      <c r="R29">
+        <v>12</v>
+      </c>
+      <c r="T29">
+        <v>14</v>
+      </c>
+      <c r="V29">
+        <v>8</v>
+      </c>
+      <c r="Z29">
+        <v>11</v>
+      </c>
+      <c r="AA29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>14</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" s="4">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>7</v>
+      </c>
+      <c r="V30">
+        <v>8</v>
+      </c>
+      <c r="Z30">
+        <v>11</v>
+      </c>
+      <c r="AA30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="N31" s="4">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>13</v>
+      </c>
+      <c r="V31">
+        <v>8</v>
+      </c>
+      <c r="Z31">
+        <v>11</v>
+      </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="N32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+      <c r="R32">
+        <v>12</v>
+      </c>
+      <c r="T32">
+        <v>13</v>
+      </c>
+      <c r="V32">
+        <v>8</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33" s="4">
+        <v>16</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="N33" s="4">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33" t="s">
+        <v>155</v>
+      </c>
+      <c r="R33">
+        <v>12</v>
+      </c>
+      <c r="T33">
+        <v>14</v>
+      </c>
+      <c r="V33">
+        <v>8</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="K34" s="4">
+        <v>14</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34">
+        <v>13</v>
+      </c>
+      <c r="N34" s="4">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>12</v>
+      </c>
+      <c r="S34" t="s">
+        <v>46</v>
+      </c>
+      <c r="T34" t="s">
+        <v>11</v>
+      </c>
+      <c r="V34">
+        <v>8</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="K35" s="4">
+        <v>13</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="N35" s="4">
+        <v>7</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z35">
+        <v>10</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>12</v>
+      </c>
+      <c r="K36" s="4">
+        <v>11</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36">
+        <v>14</v>
+      </c>
+      <c r="N36" s="4">
+        <v>7</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s">
+        <v>11</v>
+      </c>
+      <c r="T36" t="s">
+        <v>10</v>
+      </c>
+      <c r="V36">
+        <v>8</v>
+      </c>
+      <c r="Z36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="N37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>12</v>
+      </c>
+      <c r="T37">
+        <v>13</v>
+      </c>
+      <c r="V37">
+        <v>8</v>
+      </c>
+      <c r="Z37">
+        <v>10</v>
+      </c>
+      <c r="AA37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="4">
+        <v>11</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38">
+        <v>13</v>
+      </c>
+      <c r="N38" s="4">
+        <v>7</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>12</v>
+      </c>
+      <c r="T38" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38">
+        <v>8</v>
+      </c>
+      <c r="Z38">
+        <v>10</v>
+      </c>
+      <c r="AA38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="K39" s="4">
+        <v>11</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39">
+        <v>13</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <v>9</v>
+      </c>
+      <c r="V39">
+        <v>8</v>
+      </c>
+      <c r="Z39">
+        <v>10</v>
+      </c>
+      <c r="AA39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>14</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="4">
+        <v>12</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40" s="4">
+        <v>7</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s">
+        <v>11</v>
+      </c>
+      <c r="T40">
+        <v>8</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="4">
+        <v>12</v>
+      </c>
+      <c r="M41">
+        <v>13</v>
+      </c>
+      <c r="N41" s="4">
+        <v>7</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s">
+        <v>47</v>
+      </c>
+      <c r="T41">
+        <v>8</v>
+      </c>
+      <c r="Z41">
+        <v>10</v>
+      </c>
+      <c r="AA41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="4">
+        <v>12</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="N42" s="4">
+        <v>7</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T42">
+        <v>8</v>
+      </c>
+      <c r="Z42">
+        <v>10</v>
+      </c>
+      <c r="AA42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" s="4">
+        <v>12</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43" s="4">
+        <v>7</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s">
+        <v>11</v>
+      </c>
+      <c r="T43">
+        <v>8</v>
+      </c>
+      <c r="Z43">
+        <v>10</v>
+      </c>
+      <c r="AA43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="K44" s="4">
+        <v>14</v>
+      </c>
+      <c r="L44" s="4">
+        <v>12</v>
+      </c>
+      <c r="M44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>7</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>9</v>
+      </c>
+      <c r="V44">
+        <v>8</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L45" s="4">
+        <v>9</v>
+      </c>
+      <c r="N45" s="4">
+        <v>7</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="S45">
+        <v>6</v>
+      </c>
+      <c r="T45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V45">
+        <v>8</v>
+      </c>
+      <c r="X45">
+        <v>12</v>
+      </c>
+      <c r="Z45">
+        <v>10</v>
+      </c>
+      <c r="AA45">
+        <v>3</v>
+      </c>
+      <c r="AB45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="K46" s="4">
+        <v>13</v>
+      </c>
+      <c r="L46" s="4">
+        <v>9</v>
+      </c>
+      <c r="N46" s="4">
+        <v>7</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>11</v>
+      </c>
+      <c r="V46" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z46">
+        <v>10</v>
+      </c>
+      <c r="AA46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
+        <v>9</v>
+      </c>
+      <c r="N47" s="4">
+        <v>7</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="V47">
+        <v>8</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA47">
+        <v>3</v>
+      </c>
+      <c r="AB47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <v>14</v>
+      </c>
+      <c r="K48" s="4">
+        <v>12</v>
+      </c>
+      <c r="L48" s="4">
+        <v>9</v>
+      </c>
+      <c r="N48" s="4">
+        <v>7</v>
+      </c>
+      <c r="O48">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>8</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>11</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49" s="4">
+        <v>7</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <v>13</v>
+      </c>
+      <c r="V49">
+        <v>8</v>
+      </c>
+      <c r="Z49">
+        <v>14</v>
+      </c>
+      <c r="AA49">
+        <v>3</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="K50" s="4">
+        <v>12</v>
+      </c>
+      <c r="L50" s="4">
+        <v>9</v>
+      </c>
+      <c r="M50" t="s">
+        <v>46</v>
+      </c>
+      <c r="N50" s="4">
+        <v>7</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>13</v>
+      </c>
+      <c r="V50">
+        <v>8</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51" s="4">
+        <v>11</v>
+      </c>
+      <c r="L51" s="4">
+        <v>9</v>
+      </c>
+      <c r="N51" s="4">
+        <v>7</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>13</v>
+      </c>
+      <c r="V51">
+        <v>8</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>9</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>12</v>
+      </c>
+      <c r="T52">
+        <v>13</v>
+      </c>
+      <c r="V52">
+        <v>8</v>
+      </c>
+      <c r="Z52">
+        <v>14</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>9</v>
+      </c>
+      <c r="N53" s="4"/>
+      <c r="Q53" t="s">
+        <v>44</v>
+      </c>
+      <c r="R53">
+        <v>12</v>
+      </c>
+      <c r="S53">
+        <v>7</v>
+      </c>
+      <c r="T53">
+        <v>10</v>
+      </c>
+      <c r="V53">
+        <v>8</v>
+      </c>
+      <c r="Z53">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77E507-ADE4-EC47-A9C7-E6FD7EAE7A4E}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B1678-19E1-544C-AF8C-5115FCFB4EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AE6E66-2A13-3D43-9BE9-8F821FA39BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="13" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
@@ -26,7 +26,8 @@
     <sheet name="1994-95" sheetId="1" r:id="rId11"/>
     <sheet name="1995-96" sheetId="4" r:id="rId12"/>
     <sheet name="1996-97" sheetId="23" r:id="rId13"/>
-    <sheet name="1998-99" sheetId="24" r:id="rId14"/>
+    <sheet name="1997-98" sheetId="25" r:id="rId14"/>
+    <sheet name="1998-99" sheetId="24" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="183">
   <si>
     <t>11+</t>
   </si>
@@ -590,12 +591,21 @@
   <si>
     <t>2#</t>
   </si>
+  <si>
+    <t>Kubicki</t>
+  </si>
+  <si>
+    <t>McIntyre</t>
+  </si>
+  <si>
+    <t>14#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -628,6 +638,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="HelveticaNeue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -649,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -662,6 +678,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -984,9 +1006,9 @@
       <selection sqref="A1:AE41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -1081,7 +1103,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1116,7 +1138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1151,7 +1173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1186,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1221,7 +1243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1256,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1291,7 +1313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31">
       <c r="B8">
         <v>1</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="B9">
         <v>1</v>
       </c>
@@ -1361,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31">
       <c r="B10">
         <v>1</v>
       </c>
@@ -1396,7 +1418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1431,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1466,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31">
       <c r="B13">
         <v>1</v>
       </c>
@@ -1501,7 +1523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31">
       <c r="B14">
         <v>1</v>
       </c>
@@ -1536,7 +1558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31">
       <c r="B15">
         <v>1</v>
       </c>
@@ -1571,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31">
       <c r="B16">
         <v>1</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31">
       <c r="B17">
         <v>1</v>
       </c>
@@ -1641,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1676,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31">
       <c r="B19">
         <v>1</v>
       </c>
@@ -1711,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31">
       <c r="B20">
         <v>1</v>
       </c>
@@ -1746,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31">
       <c r="B21">
         <v>1</v>
       </c>
@@ -1781,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31">
       <c r="B22">
         <v>1</v>
       </c>
@@ -1816,7 +1838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31">
       <c r="B23">
         <v>1</v>
       </c>
@@ -1851,7 +1873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1886,7 +1908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31">
       <c r="A25">
         <v>9</v>
       </c>
@@ -1921,7 +1943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1956,7 +1978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31">
       <c r="B27">
         <v>1</v>
       </c>
@@ -1991,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31">
       <c r="B28">
         <v>1</v>
       </c>
@@ -2026,7 +2048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31">
       <c r="B29">
         <v>1</v>
       </c>
@@ -2061,7 +2083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31">
       <c r="B30">
         <v>1</v>
       </c>
@@ -2096,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31">
       <c r="B31">
         <v>1</v>
       </c>
@@ -2131,7 +2153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31">
       <c r="B32">
         <v>1</v>
       </c>
@@ -2166,7 +2188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29">
       <c r="B33">
         <v>1</v>
       </c>
@@ -2201,7 +2223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29">
       <c r="B34">
         <v>1</v>
       </c>
@@ -2236,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29">
       <c r="B35">
         <v>1</v>
       </c>
@@ -2271,7 +2293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29">
       <c r="B36">
         <v>1</v>
       </c>
@@ -2306,7 +2328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29">
       <c r="B37">
         <v>1</v>
       </c>
@@ -2341,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29">
       <c r="B38">
         <v>1</v>
       </c>
@@ -2376,7 +2398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29">
       <c r="B39">
         <v>1</v>
       </c>
@@ -2411,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29">
       <c r="B40">
         <v>1</v>
       </c>
@@ -2446,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29">
       <c r="B41">
         <v>1</v>
       </c>
@@ -2494,9 +2516,9 @@
       <selection sqref="A1:X60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2570,7 +2592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>8</v>
       </c>
@@ -2605,7 +2627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>8</v>
       </c>
@@ -2640,7 +2662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>8</v>
       </c>
@@ -2681,7 +2703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2716,7 +2738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>8</v>
       </c>
@@ -2757,7 +2779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2798,7 +2820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="B8">
         <v>11</v>
       </c>
@@ -2833,7 +2855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2868,7 +2890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2909,7 +2931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2947,7 +2969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2982,7 +3004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3023,7 +3045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="C14">
         <v>4</v>
       </c>
@@ -3058,7 +3080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="B15">
         <v>12</v>
       </c>
@@ -3096,7 +3118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="B16">
         <v>12</v>
       </c>
@@ -3134,7 +3156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="B17">
         <v>12</v>
       </c>
@@ -3172,7 +3194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="B18">
         <v>12</v>
       </c>
@@ -3210,7 +3232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -3251,7 +3273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="B20">
         <v>14</v>
       </c>
@@ -3289,7 +3311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="C21">
         <v>4</v>
       </c>
@@ -3324,7 +3346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="B22">
         <v>12</v>
       </c>
@@ -3365,7 +3387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>8</v>
       </c>
@@ -3403,7 +3425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="C24">
         <v>4</v>
       </c>
@@ -3441,7 +3463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>8</v>
       </c>
@@ -3476,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>8</v>
       </c>
@@ -3511,7 +3533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>8</v>
       </c>
@@ -3546,7 +3568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>8</v>
       </c>
@@ -3581,7 +3603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>8</v>
       </c>
@@ -3622,7 +3644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -3660,7 +3682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="B31">
         <v>8</v>
       </c>
@@ -3695,7 +3717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="B32">
         <v>8</v>
       </c>
@@ -3730,7 +3752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="B33" t="s">
         <v>8</v>
       </c>
@@ -3771,7 +3793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="B34">
         <v>12</v>
       </c>
@@ -3809,7 +3831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>8</v>
       </c>
@@ -3850,7 +3872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>8</v>
       </c>
@@ -3888,7 +3910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>8</v>
       </c>
@@ -3926,7 +3948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>8</v>
       </c>
@@ -3967,7 +3989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>8</v>
       </c>
@@ -4005,7 +4027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>8</v>
       </c>
@@ -4040,7 +4062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>8</v>
       </c>
@@ -4075,7 +4097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>8</v>
       </c>
@@ -4113,7 +4135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>8</v>
       </c>
@@ -4154,7 +4176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>8</v>
       </c>
@@ -4195,7 +4217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>8</v>
       </c>
@@ -4236,7 +4258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>8</v>
       </c>
@@ -4271,7 +4293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>8</v>
       </c>
@@ -4309,7 +4331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>8</v>
       </c>
@@ -4347,7 +4369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>8</v>
       </c>
@@ -4385,7 +4407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>8</v>
       </c>
@@ -4420,7 +4442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -4458,7 +4480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -4496,7 +4518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="C53">
         <v>4</v>
       </c>
@@ -4531,7 +4553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -4569,7 +4591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23">
       <c r="A55">
         <v>8</v>
       </c>
@@ -4604,7 +4626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23">
       <c r="A56">
         <v>8</v>
       </c>
@@ -4642,7 +4664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57">
         <v>8</v>
       </c>
@@ -4680,7 +4702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>8</v>
       </c>
@@ -4718,7 +4740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23">
       <c r="A59">
         <v>8</v>
       </c>
@@ -4756,7 +4778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23">
       <c r="A60">
         <v>8</v>
       </c>
@@ -4811,7 +4833,7 @@
       <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
@@ -4836,7 +4858,7 @@
     <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4904,7 +4926,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>8</v>
       </c>
@@ -4942,7 +4964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>8</v>
       </c>
@@ -4983,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>8</v>
       </c>
@@ -5027,7 +5049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>8</v>
       </c>
@@ -5068,7 +5090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>8</v>
       </c>
@@ -5103,7 +5125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>8</v>
       </c>
@@ -5144,7 +5166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="B8">
         <v>10</v>
       </c>
@@ -5182,7 +5204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5220,7 +5242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5258,7 +5280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5299,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>8</v>
       </c>
@@ -5340,7 +5362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>8</v>
       </c>
@@ -5375,7 +5397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>8</v>
       </c>
@@ -5413,7 +5435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>8</v>
       </c>
@@ -5448,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>8</v>
       </c>
@@ -5483,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>8</v>
       </c>
@@ -5518,7 +5540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>8</v>
       </c>
@@ -5553,7 +5575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>8</v>
       </c>
@@ -5591,7 +5613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>8</v>
       </c>
@@ -5629,7 +5651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>8</v>
       </c>
@@ -5664,7 +5686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>8</v>
       </c>
@@ -5699,7 +5721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="C23">
         <v>10</v>
       </c>
@@ -5737,7 +5759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>8</v>
       </c>
@@ -5772,7 +5794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="E25">
         <v>11</v>
       </c>
@@ -5813,7 +5835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="C26">
         <v>10</v>
       </c>
@@ -5848,7 +5870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="C27">
         <v>10</v>
       </c>
@@ -5883,7 +5905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>8</v>
       </c>
@@ -5918,7 +5940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>8</v>
       </c>
@@ -5959,7 +5981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>8</v>
       </c>
@@ -5997,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>8</v>
       </c>
@@ -6035,7 +6057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="G32" t="s">
         <v>4</v>
       </c>
@@ -6073,7 +6095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="H33">
         <v>3</v>
       </c>
@@ -6108,7 +6130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22">
       <c r="G34">
         <v>5</v>
       </c>
@@ -6143,7 +6165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="C35">
         <v>3</v>
       </c>
@@ -6181,7 +6203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22">
       <c r="C36">
         <v>3</v>
       </c>
@@ -6219,7 +6241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="C37">
         <v>12</v>
       </c>
@@ -6257,7 +6279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="C38">
         <v>5</v>
       </c>
@@ -6295,7 +6317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22">
       <c r="C39">
         <v>5</v>
       </c>
@@ -6333,7 +6355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>12</v>
       </c>
@@ -6374,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22">
       <c r="C41">
         <v>10</v>
       </c>
@@ -6409,7 +6431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22">
       <c r="C42">
         <v>10</v>
       </c>
@@ -6447,7 +6469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="C43">
         <v>10</v>
       </c>
@@ -6482,7 +6504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="C44">
         <v>10</v>
       </c>
@@ -6523,7 +6545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>14</v>
       </c>
@@ -6561,7 +6583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>14</v>
       </c>
@@ -6602,7 +6624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>8</v>
       </c>
@@ -6643,7 +6665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>8</v>
       </c>
@@ -6681,7 +6703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22">
       <c r="A49">
         <v>8</v>
       </c>
@@ -6722,7 +6744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22">
       <c r="A50">
         <v>8</v>
       </c>
@@ -6760,7 +6782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22">
       <c r="A51">
         <v>8</v>
       </c>
@@ -6801,7 +6823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22">
       <c r="A52">
         <v>8</v>
       </c>
@@ -6836,7 +6858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22">
       <c r="A53">
         <v>8</v>
       </c>
@@ -6877,7 +6899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22">
       <c r="A54">
         <v>8</v>
       </c>
@@ -6915,7 +6937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22">
       <c r="A55">
         <v>8</v>
       </c>
@@ -6956,7 +6978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22">
       <c r="A56">
         <v>8</v>
       </c>
@@ -6997,7 +7019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22">
       <c r="A57">
         <v>8</v>
       </c>
@@ -7032,7 +7054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22">
       <c r="A58">
         <v>8</v>
       </c>
@@ -7073,7 +7095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22">
       <c r="A59">
         <v>8</v>
       </c>
@@ -7111,7 +7133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22">
       <c r="A60">
         <v>8</v>
       </c>
@@ -7165,7 +7187,7 @@
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -7184,7 +7206,7 @@
     <col min="23" max="23" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -7255,7 +7277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>8</v>
       </c>
@@ -7296,7 +7318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>8</v>
       </c>
@@ -7331,7 +7353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>8</v>
       </c>
@@ -7369,7 +7391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>8</v>
       </c>
@@ -7404,7 +7426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>8</v>
       </c>
@@ -7442,7 +7464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>8</v>
       </c>
@@ -7477,7 +7499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>8</v>
       </c>
@@ -7519,7 +7541,7 @@
       </c>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7558,7 +7580,7 @@
       </c>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7600,7 +7622,7 @@
       </c>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7642,7 +7664,7 @@
       </c>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="B12">
         <v>9</v>
       </c>
@@ -7678,7 +7700,7 @@
       </c>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>8</v>
       </c>
@@ -7717,7 +7739,7 @@
       </c>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -7756,7 +7778,7 @@
       </c>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>8</v>
       </c>
@@ -7792,7 +7814,7 @@
       </c>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>8</v>
       </c>
@@ -7831,7 +7853,7 @@
       </c>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>8</v>
       </c>
@@ -7867,7 +7889,7 @@
       </c>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>8</v>
       </c>
@@ -7903,7 +7925,7 @@
       </c>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>8</v>
       </c>
@@ -7942,7 +7964,7 @@
       </c>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>8</v>
       </c>
@@ -7981,7 +8003,7 @@
       </c>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>8</v>
       </c>
@@ -8020,7 +8042,7 @@
       </c>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>8</v>
       </c>
@@ -8062,7 +8084,7 @@
       </c>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>8</v>
       </c>
@@ -8104,7 +8126,7 @@
       </c>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29">
       <c r="B24">
         <v>9</v>
       </c>
@@ -8146,7 +8168,7 @@
       </c>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>8</v>
       </c>
@@ -8188,7 +8210,7 @@
       </c>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29">
       <c r="A26">
         <v>8</v>
       </c>
@@ -8224,7 +8246,7 @@
       </c>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29">
       <c r="A27">
         <v>8</v>
       </c>
@@ -8263,7 +8285,7 @@
       </c>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29">
       <c r="A28">
         <v>8</v>
       </c>
@@ -8302,7 +8324,7 @@
       </c>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29">
       <c r="A29">
         <v>8</v>
       </c>
@@ -8341,7 +8363,7 @@
       </c>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29">
       <c r="A30">
         <v>8</v>
       </c>
@@ -8383,7 +8405,7 @@
       </c>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29">
       <c r="A31">
         <v>8</v>
       </c>
@@ -8421,7 +8443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29">
       <c r="A32">
         <v>8</v>
       </c>
@@ -8462,7 +8484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>8</v>
       </c>
@@ -8503,7 +8525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>8</v>
       </c>
@@ -8547,7 +8569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>8</v>
       </c>
@@ -8585,7 +8607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>8</v>
       </c>
@@ -8623,7 +8645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>8</v>
       </c>
@@ -8667,7 +8689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>8</v>
       </c>
@@ -8711,7 +8733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>8</v>
       </c>
@@ -8752,7 +8774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>8</v>
       </c>
@@ -8790,7 +8812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>8</v>
       </c>
@@ -8831,7 +8853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>8</v>
       </c>
@@ -8872,7 +8894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>8</v>
       </c>
@@ -8910,7 +8932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>8</v>
       </c>
@@ -8951,7 +8973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>8</v>
       </c>
@@ -8989,7 +9011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>8</v>
       </c>
@@ -9027,7 +9049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -9071,7 +9093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>8</v>
       </c>
@@ -9112,7 +9134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -9153,7 +9175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -9194,7 +9216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -9235,7 +9257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21">
       <c r="A52">
         <v>8</v>
       </c>
@@ -9287,7 +9309,7 @@
       <selection activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -9316,7 +9338,7 @@
     <col min="26" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -9393,7 +9415,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -9437,7 +9459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="4">
         <v>8</v>
       </c>
@@ -9478,7 +9500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="4">
         <v>8</v>
       </c>
@@ -9522,7 +9544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="4">
         <v>8</v>
       </c>
@@ -9563,7 +9585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="4">
         <v>8</v>
       </c>
@@ -9604,7 +9626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="4">
         <v>8</v>
       </c>
@@ -9645,7 +9667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9686,7 +9708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -9727,7 +9749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -9768,7 +9790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -9806,7 +9828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -9844,7 +9866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -9888,7 +9910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -9929,7 +9951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="4">
         <v>8</v>
       </c>
@@ -9970,7 +9992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="4">
         <v>8</v>
       </c>
@@ -10008,7 +10030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -10052,7 +10074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18" s="4">
         <v>8</v>
       </c>
@@ -10096,7 +10118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -10140,7 +10162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20" s="4">
         <v>12</v>
       </c>
@@ -10178,7 +10200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21" s="4">
         <v>12</v>
       </c>
@@ -10219,7 +10241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22" s="4">
         <v>12</v>
       </c>
@@ -10263,7 +10285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23" s="4">
         <v>8</v>
       </c>
@@ -10304,7 +10326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -10348,7 +10370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25" s="4">
         <v>8</v>
       </c>
@@ -10392,7 +10414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26" s="4">
         <v>8</v>
       </c>
@@ -10436,7 +10458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="A27" s="4">
         <v>8</v>
       </c>
@@ -10477,7 +10499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="A28" s="4">
         <v>8</v>
       </c>
@@ -10521,7 +10543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -10565,7 +10587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="A30" s="4">
         <v>8</v>
       </c>
@@ -10609,7 +10631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="A31" s="4" t="s">
         <v>50</v>
       </c>
@@ -10653,7 +10675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
@@ -10697,7 +10719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25">
       <c r="A33" s="4">
         <v>8</v>
       </c>
@@ -10741,7 +10763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25">
       <c r="A34" s="4">
         <v>8</v>
       </c>
@@ -10785,7 +10807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25">
       <c r="B35" s="4">
         <v>14</v>
       </c>
@@ -10829,7 +10851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25">
       <c r="C36" s="4">
         <v>10</v>
       </c>
@@ -10870,7 +10892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25">
       <c r="C37" s="4" t="s">
         <v>155</v>
       </c>
@@ -10914,7 +10936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25">
       <c r="A38" s="4">
         <v>12</v>
       </c>
@@ -10958,7 +10980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25">
       <c r="A39" s="4">
         <v>12</v>
       </c>
@@ -10999,7 +11021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25">
       <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
@@ -11040,7 +11062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
@@ -11084,7 +11106,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25">
       <c r="A42" s="4">
         <v>8</v>
       </c>
@@ -11125,7 +11147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25">
       <c r="A43" s="4">
         <v>12</v>
       </c>
@@ -11169,7 +11191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25">
       <c r="A44" s="4">
         <v>8</v>
       </c>
@@ -11210,7 +11232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25">
       <c r="A45" s="4" t="s">
         <v>50</v>
       </c>
@@ -11251,7 +11273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25">
       <c r="A46" s="4">
         <v>14</v>
       </c>
@@ -11292,7 +11314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25">
       <c r="A47" s="4" t="s">
         <v>21</v>
       </c>
@@ -11336,7 +11358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25">
       <c r="A48" s="4">
         <v>12</v>
       </c>
@@ -11380,7 +11402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24">
       <c r="A49" s="4">
         <v>12</v>
       </c>
@@ -11418,7 +11440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24">
       <c r="A50" s="4">
         <v>12</v>
       </c>
@@ -11459,7 +11481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24">
       <c r="A51" s="4">
         <v>8</v>
       </c>
@@ -11497,7 +11519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24">
       <c r="A52" s="4">
         <v>8</v>
       </c>
@@ -11541,16 +11563,2925 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA8A803-06B5-C64E-AE57-47F1F715888D}">
+  <dimension ref="A1:X55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:X55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="8">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8">
+        <v>13</v>
+      </c>
+      <c r="I2" s="8">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8">
+        <v>4</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8">
+        <v>14</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8">
+        <v>2</v>
+      </c>
+      <c r="W2" s="8">
+        <v>3</v>
+      </c>
+      <c r="X2" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
+        <v>14</v>
+      </c>
+      <c r="I3" s="8">
+        <v>10</v>
+      </c>
+      <c r="J3" s="8">
+        <v>11</v>
+      </c>
+      <c r="K3" s="8">
+        <v>9</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8">
+        <v>4</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8">
+        <v>13</v>
+      </c>
+      <c r="R3" s="8">
+        <v>7</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8">
+        <v>2</v>
+      </c>
+      <c r="W3" s="8">
+        <v>3</v>
+      </c>
+      <c r="X3" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="8">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
+        <v>14</v>
+      </c>
+      <c r="I4" s="8">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8">
+        <v>11</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8">
+        <v>4</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8">
+        <v>2</v>
+      </c>
+      <c r="W4" s="8">
+        <v>3</v>
+      </c>
+      <c r="X4" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
+        <v>14</v>
+      </c>
+      <c r="I5" s="8">
+        <v>10</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="8">
+        <v>9</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8">
+        <v>4</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="8">
+        <v>6</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8">
+        <v>2</v>
+      </c>
+      <c r="W5" s="8">
+        <v>3</v>
+      </c>
+      <c r="X5" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>14</v>
+      </c>
+      <c r="I6" s="8">
+        <v>10</v>
+      </c>
+      <c r="J6" s="8">
+        <v>11</v>
+      </c>
+      <c r="K6" s="8">
+        <v>9</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8">
+        <v>4</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="8">
+        <v>6</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8">
+        <v>2</v>
+      </c>
+      <c r="W6" s="8">
+        <v>3</v>
+      </c>
+      <c r="X6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="8">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8">
+        <v>11</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8">
+        <v>4</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="8">
+        <v>6</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8">
+        <v>2</v>
+      </c>
+      <c r="W7" s="8">
+        <v>3</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
+        <v>13</v>
+      </c>
+      <c r="I8" s="8">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8">
+        <v>11</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8">
+        <v>10</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W8" s="8">
+        <v>3</v>
+      </c>
+      <c r="X8" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8">
+        <v>9</v>
+      </c>
+      <c r="J9" s="8">
+        <v>11</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8">
+        <v>4</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="8">
+        <v>14</v>
+      </c>
+      <c r="S9" s="8">
+        <v>12</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="W9" s="8">
+        <v>3</v>
+      </c>
+      <c r="X9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8">
+        <v>10</v>
+      </c>
+      <c r="J10" s="8">
+        <v>11</v>
+      </c>
+      <c r="K10" s="8">
+        <v>9</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8">
+        <v>4</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="8">
+        <v>6</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8">
+        <v>2</v>
+      </c>
+      <c r="W10" s="8">
+        <v>3</v>
+      </c>
+      <c r="X10" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <v>14</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="8">
+        <v>11</v>
+      </c>
+      <c r="K11" s="8">
+        <v>9</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8">
+        <v>12</v>
+      </c>
+      <c r="N11" s="8">
+        <v>4</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8">
+        <v>2</v>
+      </c>
+      <c r="W11" s="8">
+        <v>3</v>
+      </c>
+      <c r="X11" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8">
+        <v>10</v>
+      </c>
+      <c r="J12" s="8">
+        <v>11</v>
+      </c>
+      <c r="K12" s="8">
+        <v>9</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8">
+        <v>12</v>
+      </c>
+      <c r="N12" s="8">
+        <v>4</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8">
+        <v>14</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="8">
+        <v>6</v>
+      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="8">
+        <v>3</v>
+      </c>
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8">
+        <v>10</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="8">
+        <v>9</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8">
+        <v>12</v>
+      </c>
+      <c r="N13" s="8">
+        <v>4</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8">
+        <v>14</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8">
+        <v>2</v>
+      </c>
+      <c r="W13" s="8">
+        <v>3</v>
+      </c>
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
+        <v>14</v>
+      </c>
+      <c r="I14" s="8">
+        <v>10</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8">
+        <v>9</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8">
+        <v>13</v>
+      </c>
+      <c r="N14" s="8">
+        <v>4</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8">
+        <v>7</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="W14" s="8">
+        <v>3</v>
+      </c>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8">
+        <v>10</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="8">
+        <v>9</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8">
+        <v>14</v>
+      </c>
+      <c r="N15" s="8">
+        <v>4</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8">
+        <v>13</v>
+      </c>
+      <c r="R15" s="8">
+        <v>7</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8">
+        <v>2</v>
+      </c>
+      <c r="W15" s="8">
+        <v>3</v>
+      </c>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8">
+        <v>6</v>
+      </c>
+      <c r="I16" s="8">
+        <v>10</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>9</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8">
+        <v>14</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8">
+        <v>7</v>
+      </c>
+      <c r="S16" s="8">
+        <v>12</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8">
+        <v>2</v>
+      </c>
+      <c r="W16" s="8">
+        <v>3</v>
+      </c>
+      <c r="X16" s="8"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8">
+        <v>6</v>
+      </c>
+      <c r="I17" s="8">
+        <v>10</v>
+      </c>
+      <c r="J17" s="8">
+        <v>11</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8">
+        <v>13</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8">
+        <v>7</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8">
+        <v>2</v>
+      </c>
+      <c r="W17" s="8">
+        <v>3</v>
+      </c>
+      <c r="X17" s="8"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <v>6</v>
+      </c>
+      <c r="I18" s="8">
+        <v>10</v>
+      </c>
+      <c r="J18" s="8">
+        <v>11</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8">
+        <v>4</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="8">
+        <v>12</v>
+      </c>
+      <c r="T18" s="8">
+        <v>14</v>
+      </c>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8">
+        <v>2</v>
+      </c>
+      <c r="W18" s="8">
+        <v>3</v>
+      </c>
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <v>6</v>
+      </c>
+      <c r="I19" s="8">
+        <v>10</v>
+      </c>
+      <c r="J19" s="8">
+        <v>11</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8">
+        <v>14</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8">
+        <v>13</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8">
+        <v>4</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="8">
+        <v>8</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8">
+        <v>2</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="8">
+        <v>10</v>
+      </c>
+      <c r="J20" s="8">
+        <v>11</v>
+      </c>
+      <c r="K20" s="8">
+        <v>9</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8">
+        <v>4</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8">
+        <v>2</v>
+      </c>
+      <c r="W20" s="8">
+        <v>3</v>
+      </c>
+      <c r="X20" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8">
+        <v>8</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <v>6</v>
+      </c>
+      <c r="I21" s="8">
+        <v>10</v>
+      </c>
+      <c r="J21" s="8">
+        <v>11</v>
+      </c>
+      <c r="K21" s="8">
+        <v>9</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8">
+        <v>4</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8">
+        <v>2</v>
+      </c>
+      <c r="W21" s="8">
+        <v>3</v>
+      </c>
+      <c r="X21" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>13</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
+        <v>6</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="8">
+        <v>11</v>
+      </c>
+      <c r="K22" s="8">
+        <v>9</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8">
+        <v>14</v>
+      </c>
+      <c r="N22" s="8">
+        <v>4</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8">
+        <v>12</v>
+      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8">
+        <v>2</v>
+      </c>
+      <c r="W22" s="8">
+        <v>3</v>
+      </c>
+      <c r="X22" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8">
+        <v>9</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
+        <v>11</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8">
+        <v>14</v>
+      </c>
+      <c r="N23" s="8">
+        <v>4</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8">
+        <v>12</v>
+      </c>
+      <c r="S23" s="8">
+        <v>10</v>
+      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8">
+        <v>1</v>
+      </c>
+      <c r="V23" s="8">
+        <v>2</v>
+      </c>
+      <c r="W23" s="8">
+        <v>3</v>
+      </c>
+      <c r="X23" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
+        <v>6</v>
+      </c>
+      <c r="I24" s="8">
+        <v>14</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="8">
+        <v>9</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8">
+        <v>13</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8">
+        <v>12</v>
+      </c>
+      <c r="S24" s="8">
+        <v>10</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8">
+        <v>1</v>
+      </c>
+      <c r="V24" s="8">
+        <v>2</v>
+      </c>
+      <c r="W24" s="8">
+        <v>3</v>
+      </c>
+      <c r="X24" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8">
+        <v>13</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="8">
+        <v>14</v>
+      </c>
+      <c r="J25" s="8">
+        <v>11</v>
+      </c>
+      <c r="K25" s="8">
+        <v>9</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8">
+        <v>4</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8">
+        <v>12</v>
+      </c>
+      <c r="S25" s="8">
+        <v>10</v>
+      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8">
+        <v>1</v>
+      </c>
+      <c r="V25" s="8">
+        <v>2</v>
+      </c>
+      <c r="W25" s="8">
+        <v>3</v>
+      </c>
+      <c r="X25" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="8">
+        <v>12</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8">
+        <v>5</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8">
+        <v>6</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="8">
+        <v>9</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8">
+        <v>13</v>
+      </c>
+      <c r="N26" s="8">
+        <v>4</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>3</v>
+      </c>
+      <c r="R26" s="8">
+        <v>7</v>
+      </c>
+      <c r="S26" s="8">
+        <v>10</v>
+      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8">
+        <v>1</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="8">
+        <v>8</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8">
+        <v>5</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
+        <v>6</v>
+      </c>
+      <c r="I27" s="8">
+        <v>9</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8">
+        <v>4</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>3</v>
+      </c>
+      <c r="R27" s="8">
+        <v>7</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" s="8">
+        <v>12</v>
+      </c>
+      <c r="U27" s="8">
+        <v>1</v>
+      </c>
+      <c r="V27" s="8">
+        <v>2</v>
+      </c>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="8">
+        <v>12</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8">
+        <v>13</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8">
+        <v>6</v>
+      </c>
+      <c r="I28" s="8">
+        <v>8</v>
+      </c>
+      <c r="J28" s="8">
+        <v>11</v>
+      </c>
+      <c r="K28" s="8">
+        <v>9</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8">
+        <v>4</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>2</v>
+      </c>
+      <c r="R28" s="8">
+        <v>7</v>
+      </c>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8">
+        <v>1</v>
+      </c>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8">
+        <v>3</v>
+      </c>
+      <c r="X28" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="8">
+        <v>8</v>
+      </c>
+      <c r="J29" s="8">
+        <v>11</v>
+      </c>
+      <c r="K29" s="8">
+        <v>9</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8">
+        <v>4</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8">
+        <v>12</v>
+      </c>
+      <c r="S29" s="8">
+        <v>10</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8">
+        <v>1</v>
+      </c>
+      <c r="V29" s="8">
+        <v>2</v>
+      </c>
+      <c r="W29" s="8">
+        <v>3</v>
+      </c>
+      <c r="X29" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8">
+        <v>6</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8">
+        <v>11</v>
+      </c>
+      <c r="K30" s="8">
+        <v>9</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8">
+        <v>4</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>8</v>
+      </c>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8">
+        <v>10</v>
+      </c>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8">
+        <v>1</v>
+      </c>
+      <c r="V30" s="8">
+        <v>2</v>
+      </c>
+      <c r="W30" s="8">
+        <v>3</v>
+      </c>
+      <c r="X30" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8">
+        <v>6</v>
+      </c>
+      <c r="I31" s="8">
+        <v>14</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8">
+        <v>9</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8">
+        <v>4</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>7</v>
+      </c>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8">
+        <v>10</v>
+      </c>
+      <c r="T31" s="8">
+        <v>13</v>
+      </c>
+      <c r="U31" s="8">
+        <v>1</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="8">
+        <v>3</v>
+      </c>
+      <c r="X31" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8">
+        <v>13</v>
+      </c>
+      <c r="H32" s="8">
+        <v>6</v>
+      </c>
+      <c r="I32" s="8">
+        <v>7</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8">
+        <v>9</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8">
+        <v>12</v>
+      </c>
+      <c r="N32" s="8">
+        <v>4</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8">
+        <v>14</v>
+      </c>
+      <c r="S32" s="8">
+        <v>10</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="8">
+        <v>1</v>
+      </c>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8">
+        <v>3</v>
+      </c>
+      <c r="X32" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8">
+        <v>9</v>
+      </c>
+      <c r="H33" s="8">
+        <v>6</v>
+      </c>
+      <c r="I33" s="8">
+        <v>7</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8">
+        <v>4</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8">
+        <v>10</v>
+      </c>
+      <c r="T33" s="8">
+        <v>14</v>
+      </c>
+      <c r="U33" s="8">
+        <v>1</v>
+      </c>
+      <c r="V33" s="8">
+        <v>2</v>
+      </c>
+      <c r="W33" s="8">
+        <v>3</v>
+      </c>
+      <c r="X33" s="8"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8">
+        <v>5</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8">
+        <v>6</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8">
+        <v>7</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8">
+        <v>9</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8">
+        <v>4</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>2</v>
+      </c>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8">
+        <v>10</v>
+      </c>
+      <c r="T34" s="8">
+        <v>8</v>
+      </c>
+      <c r="U34" s="8">
+        <v>1</v>
+      </c>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8">
+        <v>3</v>
+      </c>
+      <c r="X34" s="8"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8">
+        <v>14</v>
+      </c>
+      <c r="C35" s="8">
+        <v>5</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8">
+        <v>6</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8">
+        <v>7</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8">
+        <v>13</v>
+      </c>
+      <c r="N35" s="8">
+        <v>4</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="8">
+        <v>12</v>
+      </c>
+      <c r="S35" s="8">
+        <v>10</v>
+      </c>
+      <c r="T35" s="8">
+        <v>9</v>
+      </c>
+      <c r="U35" s="8">
+        <v>1</v>
+      </c>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8">
+        <v>3</v>
+      </c>
+      <c r="X35" s="8"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8">
+        <v>14</v>
+      </c>
+      <c r="C36" s="8">
+        <v>5</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8">
+        <v>6</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8">
+        <v>9</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8">
+        <v>4</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>13</v>
+      </c>
+      <c r="R36" s="8">
+        <v>12</v>
+      </c>
+      <c r="S36" s="8">
+        <v>10</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U36" s="8">
+        <v>1</v>
+      </c>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8">
+        <v>3</v>
+      </c>
+      <c r="X36" s="8"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8">
+        <v>11</v>
+      </c>
+      <c r="C37" s="8">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8">
+        <v>2</v>
+      </c>
+      <c r="G37" s="8">
+        <v>8</v>
+      </c>
+      <c r="H37" s="8">
+        <v>6</v>
+      </c>
+      <c r="I37" s="8">
+        <v>12</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8">
+        <v>9</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8">
+        <v>7</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8">
+        <v>1</v>
+      </c>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8">
+        <v>3</v>
+      </c>
+      <c r="X37" s="8"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="8">
+        <v>5</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="8">
+        <v>8</v>
+      </c>
+      <c r="H38" s="8">
+        <v>6</v>
+      </c>
+      <c r="I38" s="8">
+        <v>12</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8">
+        <v>9</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8">
+        <v>4</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8">
+        <v>7</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T38" s="8">
+        <v>13</v>
+      </c>
+      <c r="U38" s="8">
+        <v>1</v>
+      </c>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8">
+        <v>3</v>
+      </c>
+      <c r="X38" s="8"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8">
+        <v>5</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8">
+        <v>8</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" s="8">
+        <v>12</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8">
+        <v>9</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8">
+        <v>4</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8">
+        <v>13</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>2</v>
+      </c>
+      <c r="R39" s="8">
+        <v>7</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T39" s="8">
+        <v>14</v>
+      </c>
+      <c r="U39" s="8">
+        <v>1</v>
+      </c>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8">
+        <v>3</v>
+      </c>
+      <c r="X39" s="8"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8">
+        <v>5</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8">
+        <v>8</v>
+      </c>
+      <c r="H40" s="8">
+        <v>6</v>
+      </c>
+      <c r="I40" s="8">
+        <v>14</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8">
+        <v>9</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8">
+        <v>4</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R40" s="8">
+        <v>7</v>
+      </c>
+      <c r="S40" s="8">
+        <v>10</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U40" s="8">
+        <v>1</v>
+      </c>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8">
+        <v>3</v>
+      </c>
+      <c r="X40" s="8"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8">
+        <v>5</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8">
+        <v>2</v>
+      </c>
+      <c r="H41" s="8">
+        <v>6</v>
+      </c>
+      <c r="I41" s="8">
+        <v>7</v>
+      </c>
+      <c r="J41" s="8">
+        <v>12</v>
+      </c>
+      <c r="K41" s="8">
+        <v>9</v>
+      </c>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8">
+        <v>4</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8">
+        <v>10</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U41" s="8">
+        <v>1</v>
+      </c>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8">
+        <v>3</v>
+      </c>
+      <c r="X41" s="8"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8">
+        <v>12</v>
+      </c>
+      <c r="C42" s="8">
+        <v>5</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8">
+        <v>8</v>
+      </c>
+      <c r="H42" s="8">
+        <v>6</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="8">
+        <v>11</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8">
+        <v>4</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>2</v>
+      </c>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8">
+        <v>10</v>
+      </c>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8">
+        <v>1</v>
+      </c>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8">
+        <v>3</v>
+      </c>
+      <c r="X42" s="8"/>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8">
+        <v>11</v>
+      </c>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="8">
+        <v>9</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8">
+        <v>12</v>
+      </c>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8">
+        <v>13</v>
+      </c>
+      <c r="N43" s="8">
+        <v>4</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R43" s="8">
+        <v>7</v>
+      </c>
+      <c r="S43" s="8">
+        <v>10</v>
+      </c>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8">
+        <v>1</v>
+      </c>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8">
+        <v>3</v>
+      </c>
+      <c r="X43" s="8"/>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="8">
+        <v>5</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8">
+        <v>6</v>
+      </c>
+      <c r="I44" s="8">
+        <v>8</v>
+      </c>
+      <c r="J44" s="8">
+        <v>13</v>
+      </c>
+      <c r="K44" s="8">
+        <v>9</v>
+      </c>
+      <c r="L44" s="8">
+        <v>2</v>
+      </c>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8">
+        <v>4</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="8">
+        <v>10</v>
+      </c>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8">
+        <v>1</v>
+      </c>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8">
+        <v>3</v>
+      </c>
+      <c r="X44" s="8"/>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8">
+        <v>11</v>
+      </c>
+      <c r="C45" s="8">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8">
+        <v>8</v>
+      </c>
+      <c r="H45" s="8">
+        <v>6</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8">
+        <v>2</v>
+      </c>
+      <c r="M45" s="8">
+        <v>14</v>
+      </c>
+      <c r="N45" s="8">
+        <v>4</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="T45" s="8">
+        <v>13</v>
+      </c>
+      <c r="U45" s="8">
+        <v>1</v>
+      </c>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8">
+        <v>3</v>
+      </c>
+      <c r="X45" s="8"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8">
+        <v>5</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8">
+        <v>6</v>
+      </c>
+      <c r="I46" s="8">
+        <v>8</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="8">
+        <v>9</v>
+      </c>
+      <c r="L46" s="8">
+        <v>2</v>
+      </c>
+      <c r="M46" s="8">
+        <v>14</v>
+      </c>
+      <c r="N46" s="8">
+        <v>4</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T46" s="8">
+        <v>13</v>
+      </c>
+      <c r="U46" s="8">
+        <v>1</v>
+      </c>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8">
+        <v>3</v>
+      </c>
+      <c r="X46" s="8"/>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8">
+        <v>5</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8">
+        <v>6</v>
+      </c>
+      <c r="I47" s="8">
+        <v>8</v>
+      </c>
+      <c r="J47" s="8">
+        <v>11</v>
+      </c>
+      <c r="K47" s="8">
+        <v>9</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8">
+        <v>4</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8">
+        <v>7</v>
+      </c>
+      <c r="S47" s="8">
+        <v>10</v>
+      </c>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8">
+        <v>1</v>
+      </c>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8">
+        <v>3</v>
+      </c>
+      <c r="X47" s="8"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8">
+        <v>5</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="8">
+        <v>8</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" s="8">
+        <v>9</v>
+      </c>
+      <c r="L48" s="8">
+        <v>2</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8">
+        <v>4</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8">
+        <v>7</v>
+      </c>
+      <c r="S48" s="8">
+        <v>10</v>
+      </c>
+      <c r="T48" s="8">
+        <v>13</v>
+      </c>
+      <c r="U48" s="8">
+        <v>1</v>
+      </c>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8">
+        <v>3</v>
+      </c>
+      <c r="X48" s="8"/>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8">
+        <v>5</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8">
+        <v>14</v>
+      </c>
+      <c r="H49" s="8">
+        <v>6</v>
+      </c>
+      <c r="I49" s="8">
+        <v>9</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8">
+        <v>2</v>
+      </c>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8">
+        <v>4</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="8">
+        <v>10</v>
+      </c>
+      <c r="T49" s="8">
+        <v>13</v>
+      </c>
+      <c r="U49" s="8">
+        <v>1</v>
+      </c>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8">
+        <v>3</v>
+      </c>
+      <c r="X49" s="8"/>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8">
+        <v>5</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8">
+        <v>11</v>
+      </c>
+      <c r="H50" s="8">
+        <v>6</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="8">
+        <v>12</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8">
+        <v>2</v>
+      </c>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8">
+        <v>4</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>14</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S50" s="8">
+        <v>10</v>
+      </c>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8">
+        <v>1</v>
+      </c>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8">
+        <v>3</v>
+      </c>
+      <c r="X50" s="8"/>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8">
+        <v>5</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8">
+        <v>6</v>
+      </c>
+      <c r="I51" s="8">
+        <v>9</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8">
+        <v>2</v>
+      </c>
+      <c r="M51" s="8">
+        <v>13</v>
+      </c>
+      <c r="N51" s="8">
+        <v>4</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>14</v>
+      </c>
+      <c r="R51" s="8">
+        <v>7</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="T51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U51" s="8">
+        <v>1</v>
+      </c>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8">
+        <v>3</v>
+      </c>
+      <c r="X51" s="8"/>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8">
+        <v>5</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="8">
+        <v>6</v>
+      </c>
+      <c r="I52" s="8">
+        <v>9</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8">
+        <v>2</v>
+      </c>
+      <c r="M52" s="8">
+        <v>13</v>
+      </c>
+      <c r="N52" s="8">
+        <v>4</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S52" s="8">
+        <v>10</v>
+      </c>
+      <c r="T52" s="8">
+        <v>12</v>
+      </c>
+      <c r="U52" s="8">
+        <v>1</v>
+      </c>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8">
+        <v>3</v>
+      </c>
+      <c r="X52" s="8"/>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8">
+        <v>5</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="8">
+        <v>9</v>
+      </c>
+      <c r="J53" s="8">
+        <v>14</v>
+      </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8">
+        <v>2</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N53" s="8">
+        <v>4</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8">
+        <v>12</v>
+      </c>
+      <c r="S53" s="8">
+        <v>10</v>
+      </c>
+      <c r="T53" s="8">
+        <v>11</v>
+      </c>
+      <c r="U53" s="8">
+        <v>1</v>
+      </c>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8">
+        <v>3</v>
+      </c>
+      <c r="X53" s="8"/>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H54" s="8">
+        <v>12</v>
+      </c>
+      <c r="I54" s="8">
+        <v>9</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8">
+        <v>2</v>
+      </c>
+      <c r="M54" s="8">
+        <v>13</v>
+      </c>
+      <c r="N54" s="8">
+        <v>4</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8">
+        <v>7</v>
+      </c>
+      <c r="S54" s="8">
+        <v>10</v>
+      </c>
+      <c r="T54" s="8">
+        <v>6</v>
+      </c>
+      <c r="U54" s="8">
+        <v>1</v>
+      </c>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8">
+        <v>3</v>
+      </c>
+      <c r="X54" s="8"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="8">
+        <v>8</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8">
+        <v>13</v>
+      </c>
+      <c r="G55" s="8">
+        <v>5</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="8">
+        <v>9</v>
+      </c>
+      <c r="J55" s="8">
+        <v>14</v>
+      </c>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8">
+        <v>4</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S55" s="8">
+        <v>12</v>
+      </c>
+      <c r="T55" s="8">
+        <v>11</v>
+      </c>
+      <c r="U55" s="8">
+        <v>1</v>
+      </c>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8">
+        <v>3</v>
+      </c>
+      <c r="X55" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93365371-A62D-3C43-8BC3-6C95C3C5319E}">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -11636,7 +14567,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="E2">
         <v>2</v>
       </c>
@@ -11679,7 +14610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="E3">
         <v>2</v>
       </c>
@@ -11721,7 +14652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="E4">
         <v>2</v>
       </c>
@@ -11764,7 +14695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="G5">
         <v>5</v>
       </c>
@@ -11806,7 +14737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="E6">
         <v>2</v>
       </c>
@@ -11852,7 +14783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="B7">
         <v>4</v>
       </c>
@@ -11898,7 +14829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="B8">
         <v>2</v>
       </c>
@@ -11938,7 +14869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28">
       <c r="B9">
         <v>2</v>
       </c>
@@ -11983,7 +14914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="G10">
         <v>5</v>
       </c>
@@ -12028,7 +14959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="B11">
         <v>2</v>
       </c>
@@ -12073,7 +15004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="B12">
         <v>2</v>
       </c>
@@ -12115,7 +15046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>1</v>
       </c>
@@ -12160,7 +15091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>1</v>
       </c>
@@ -12205,7 +15136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>1</v>
       </c>
@@ -12247,7 +15178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>1</v>
       </c>
@@ -12287,7 +15218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>1</v>
       </c>
@@ -12332,7 +15263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>1</v>
       </c>
@@ -12376,7 +15307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>1</v>
       </c>
@@ -12418,7 +15349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>1</v>
       </c>
@@ -12464,7 +15395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>1</v>
       </c>
@@ -12509,7 +15440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>1</v>
       </c>
@@ -12554,7 +15485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>1</v>
       </c>
@@ -12596,7 +15527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>1</v>
       </c>
@@ -12638,7 +15569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>1</v>
       </c>
@@ -12680,7 +15611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>1</v>
       </c>
@@ -12725,7 +15656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>1</v>
       </c>
@@ -12767,7 +15698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="B28">
         <v>2</v>
       </c>
@@ -12812,7 +15743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="C29">
         <v>5</v>
       </c>
@@ -12857,7 +15788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="B30">
         <v>2</v>
       </c>
@@ -12896,7 +15827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="B31">
         <v>2</v>
       </c>
@@ -12936,7 +15867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="B32">
         <v>2</v>
       </c>
@@ -12982,7 +15913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28">
       <c r="B33">
         <v>2</v>
       </c>
@@ -13027,7 +15958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28">
       <c r="B34">
         <v>2</v>
       </c>
@@ -13072,7 +16003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28">
       <c r="B35">
         <v>2</v>
       </c>
@@ -13114,7 +16045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28">
       <c r="B36">
         <v>2</v>
       </c>
@@ -13156,7 +16087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28">
       <c r="B37">
         <v>2</v>
       </c>
@@ -13201,7 +16132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28">
       <c r="B38">
         <v>2</v>
       </c>
@@ -13243,7 +16174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28">
       <c r="B39">
         <v>2</v>
       </c>
@@ -13282,7 +16213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28">
       <c r="B40">
         <v>2</v>
       </c>
@@ -13326,7 +16257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28">
       <c r="B41">
         <v>2</v>
       </c>
@@ -13370,7 +16301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28">
       <c r="B42">
         <v>2</v>
       </c>
@@ -13414,7 +16345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28">
       <c r="B43">
         <v>2</v>
       </c>
@@ -13458,7 +16389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>1</v>
       </c>
@@ -13499,7 +16430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>1</v>
       </c>
@@ -13540,7 +16471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>1</v>
       </c>
@@ -13578,7 +16509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>1</v>
       </c>
@@ -13617,7 +16548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>1</v>
       </c>
@@ -13658,7 +16589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>1</v>
       </c>
@@ -13700,7 +16631,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>1</v>
       </c>
@@ -13741,7 +16672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>1</v>
       </c>
@@ -13782,7 +16713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>1</v>
       </c>
@@ -13826,7 +16757,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>1</v>
       </c>
@@ -13884,9 +16815,9 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
@@ -13933,7 +16864,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="5">
         <v>2</v>
       </c>
@@ -13972,7 +16903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -14011,7 +16942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -14050,7 +16981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -14089,7 +17020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -14106,7 +17037,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -14136,9 +17067,9 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
@@ -14209,7 +17140,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="5">
         <v>11</v>
       </c>
@@ -14258,7 +17189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="5">
         <v>11</v>
       </c>
@@ -14305,7 +17236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="5">
         <v>11</v>
       </c>
@@ -14352,7 +17283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="5">
         <v>11</v>
       </c>
@@ -14401,7 +17332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="5">
         <v>11</v>
       </c>
@@ -14448,7 +17379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="5">
         <v>11</v>
       </c>
@@ -14495,7 +17426,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="5">
         <v>11</v>
       </c>
@@ -14542,7 +17473,7 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="5">
         <v>11</v>
       </c>
@@ -14589,7 +17520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -14638,7 +17569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="5">
         <v>11</v>
       </c>
@@ -14685,7 +17616,7 @@
       </c>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -14732,7 +17663,7 @@
       </c>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -14781,7 +17712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -14828,7 +17759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="5"/>
       <c r="B15" s="5">
         <v>8</v>
@@ -14875,7 +17806,7 @@
       </c>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="5"/>
       <c r="B16" s="5">
         <v>8</v>
@@ -14924,7 +17855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="5"/>
       <c r="B17" s="5">
         <v>8</v>
@@ -14973,7 +17904,7 @@
       </c>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>21</v>
@@ -15022,7 +17953,7 @@
       </c>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" s="5"/>
       <c r="B19" s="5">
         <v>8</v>
@@ -15069,7 +18000,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -15120,7 +18051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="5">
         <v>11</v>
       </c>
@@ -15169,7 +18100,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" s="5">
         <v>11</v>
       </c>
@@ -15220,7 +18151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -15269,7 +18200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="5"/>
       <c r="B24" s="5">
         <v>8</v>
@@ -15318,7 +18249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="5"/>
       <c r="B25" s="5">
         <v>8</v>
@@ -15367,7 +18298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="5"/>
       <c r="B26" s="5">
         <v>8</v>
@@ -15414,7 +18345,7 @@
       </c>
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" s="5"/>
       <c r="B27" s="5">
         <v>8</v>
@@ -15463,7 +18394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" s="5"/>
       <c r="B28" s="5">
         <v>8</v>
@@ -15512,7 +18443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" s="5"/>
       <c r="B29" s="5">
         <v>8</v>
@@ -15559,7 +18490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" s="5">
         <v>11</v>
       </c>
@@ -15606,7 +18537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" s="5">
         <v>11</v>
       </c>
@@ -15653,7 +18584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" s="5">
         <v>11</v>
       </c>
@@ -15702,7 +18633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="5">
         <v>11</v>
       </c>
@@ -15751,7 +18682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="5">
         <v>11</v>
       </c>
@@ -15800,7 +18731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="5">
         <v>9</v>
       </c>
@@ -15847,7 +18778,7 @@
       </c>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" s="5">
         <v>9</v>
       </c>
@@ -15894,7 +18825,7 @@
       </c>
       <c r="W36" s="5"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" s="5">
         <v>9</v>
       </c>
@@ -15941,7 +18872,7 @@
       </c>
       <c r="W37" s="5"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" s="5">
         <v>9</v>
       </c>
@@ -15988,7 +18919,7 @@
       </c>
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" s="5">
         <v>11</v>
       </c>
@@ -16037,7 +18968,7 @@
       </c>
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" s="5">
         <v>11</v>
       </c>
@@ -16086,7 +19017,7 @@
       </c>
       <c r="W40" s="5"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" s="5">
         <v>11</v>
       </c>
@@ -16133,7 +19064,7 @@
       </c>
       <c r="W41" s="5"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" s="5">
         <v>11</v>
       </c>
@@ -16182,7 +19113,7 @@
       </c>
       <c r="W42" s="5"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" s="5"/>
       <c r="B43" s="5">
         <v>8</v>
@@ -16229,7 +19160,7 @@
       </c>
       <c r="W43" s="5"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44" s="5">
         <v>12</v>
       </c>
@@ -16278,7 +19209,7 @@
       </c>
       <c r="W44" s="5"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45" s="5">
         <v>11</v>
       </c>
@@ -16325,7 +19256,7 @@
       </c>
       <c r="W45" s="5"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46" s="5">
         <v>11</v>
       </c>
@@ -16372,7 +19303,7 @@
       </c>
       <c r="W46" s="5"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47" s="5" t="s">
         <v>19</v>
       </c>
@@ -16421,7 +19352,7 @@
       </c>
       <c r="W47" s="5"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48" s="5" t="s">
         <v>19</v>
       </c>
@@ -16470,7 +19401,7 @@
       </c>
       <c r="W48" s="5"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49" s="5">
         <v>11</v>
       </c>
@@ -16517,7 +19448,7 @@
       </c>
       <c r="W49" s="5"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="A50" s="5">
         <v>11</v>
       </c>
@@ -16566,7 +19497,7 @@
       </c>
       <c r="W50" s="5"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51" s="5">
         <v>11</v>
       </c>
@@ -16615,7 +19546,7 @@
       </c>
       <c r="W51" s="5"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="A52" s="5">
         <v>11</v>
       </c>
@@ -16662,7 +19593,7 @@
       </c>
       <c r="W52" s="5"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="A53" s="5">
         <v>11</v>
       </c>
@@ -16724,9 +19655,9 @@
       <selection sqref="A1:T61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
@@ -16788,7 +19719,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -16832,7 +19763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -16878,7 +19809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -16922,7 +19853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
@@ -16970,7 +19901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
@@ -17014,7 +19945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
@@ -17062,7 +19993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -17108,7 +20039,7 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -17154,7 +20085,7 @@
       </c>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -17198,7 +20129,7 @@
       </c>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -17242,7 +20173,7 @@
       </c>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -17288,7 +20219,7 @@
       </c>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -17336,7 +20267,7 @@
       </c>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>4</v>
       </c>
@@ -17380,7 +20311,7 @@
       </c>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -17426,7 +20357,7 @@
       </c>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -17470,7 +20401,7 @@
       </c>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="4">
         <v>4</v>
       </c>
@@ -17514,7 +20445,7 @@
       </c>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -17562,7 +20493,7 @@
       </c>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="4">
         <v>4</v>
       </c>
@@ -17606,7 +20537,7 @@
       </c>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -17652,7 +20583,7 @@
       </c>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -17698,7 +20629,7 @@
       </c>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -17742,7 +20673,7 @@
       </c>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -17788,7 +20719,7 @@
       </c>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -17832,7 +20763,7 @@
       </c>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4">
         <v>1</v>
@@ -17880,7 +20811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="4">
         <v>8</v>
       </c>
@@ -17928,7 +20859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="4">
         <v>8</v>
       </c>
@@ -17974,7 +20905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="4">
         <v>8</v>
       </c>
@@ -18020,7 +20951,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -18066,7 +20997,7 @@
       </c>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -18112,7 +21043,7 @@
       </c>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="4">
         <v>12</v>
       </c>
@@ -18158,7 +21089,7 @@
       </c>
       <c r="T31" s="4"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="4">
         <v>12</v>
       </c>
@@ -18206,7 +21137,7 @@
       </c>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -18252,7 +21183,7 @@
       </c>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -18296,7 +21227,7 @@
       </c>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -18342,7 +21273,7 @@
       </c>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="4">
         <v>12</v>
       </c>
@@ -18390,7 +21321,7 @@
       </c>
       <c r="T36" s="4"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" s="4">
         <v>12</v>
       </c>
@@ -18436,7 +21367,7 @@
       </c>
       <c r="T37" s="4"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="4">
         <v>12</v>
       </c>
@@ -18484,7 +21415,7 @@
       </c>
       <c r="T38" s="4"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="4">
         <v>12</v>
       </c>
@@ -18530,7 +21461,7 @@
       </c>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -18576,7 +21507,7 @@
       </c>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="4">
         <v>12</v>
       </c>
@@ -18624,7 +21555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="4">
         <v>4</v>
       </c>
@@ -18670,7 +21601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" s="4">
         <v>4</v>
       </c>
@@ -18716,7 +21647,7 @@
       </c>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="4">
         <v>4</v>
       </c>
@@ -18762,7 +21693,7 @@
       </c>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" s="4">
         <v>4</v>
       </c>
@@ -18808,7 +21739,7 @@
       </c>
       <c r="T45" s="4"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" s="4">
         <v>4</v>
       </c>
@@ -18852,7 +21783,7 @@
       </c>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
@@ -18900,7 +21831,7 @@
       </c>
       <c r="T47" s="4"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" s="4">
         <v>4</v>
       </c>
@@ -18944,7 +21875,7 @@
       </c>
       <c r="T48" s="4"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="4">
         <v>4</v>
       </c>
@@ -18990,7 +21921,7 @@
       </c>
       <c r="T49" s="4"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="4">
         <v>12</v>
       </c>
@@ -19038,7 +21969,7 @@
       </c>
       <c r="T50" s="4"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="4">
         <v>4</v>
       </c>
@@ -19082,7 +22013,7 @@
       </c>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="C52">
         <v>8</v>
       </c>
@@ -19118,7 +22049,7 @@
       </c>
       <c r="T52" s="4"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="C53">
         <v>8</v>
       </c>
@@ -19157,7 +22088,7 @@
       </c>
       <c r="T53" s="4"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="C54">
         <v>8</v>
       </c>
@@ -19196,7 +22127,7 @@
       </c>
       <c r="T54" s="4"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>12</v>
       </c>
@@ -19238,7 +22169,7 @@
       </c>
       <c r="T55" s="6"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>8</v>
       </c>
@@ -19280,7 +22211,7 @@
       </c>
       <c r="T56" s="4"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>4</v>
       </c>
@@ -19319,7 +22250,7 @@
       </c>
       <c r="T57" s="4"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -19361,7 +22292,7 @@
       </c>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>4</v>
       </c>
@@ -19403,7 +22334,7 @@
       </c>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>12</v>
       </c>
@@ -19445,7 +22376,7 @@
       </c>
       <c r="T60" s="4"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>12</v>
       </c>
@@ -19497,9 +22428,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
@@ -19576,7 +22507,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -19627,7 +22558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -19677,7 +22608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -19727,7 +22658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -19775,7 +22706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -19823,7 +22754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="4">
         <v>12</v>
       </c>
@@ -19875,7 +22806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -19925,7 +22856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="4">
         <v>11</v>
       </c>
@@ -19975,7 +22906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="4">
         <v>11</v>
       </c>
@@ -20023,7 +22954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -20071,7 +23002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -20121,7 +23052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -20173,7 +23104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -20223,7 +23154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -20273,7 +23204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -20325,7 +23256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -20373,7 +23304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="4">
         <v>11</v>
       </c>
@@ -20421,7 +23352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -20469,7 +23400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -20522,7 +23453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -20575,7 +23506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -20624,7 +23555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -20673,7 +23604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -20722,7 +23653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -20773,7 +23704,7 @@
       </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -20822,7 +23753,7 @@
       </c>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -20873,7 +23804,7 @@
       </c>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -20926,7 +23857,7 @@
       </c>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -20979,7 +23910,7 @@
       </c>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -21030,7 +23961,7 @@
       </c>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -21081,7 +24012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -21132,7 +24063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -21181,7 +24112,7 @@
       </c>
       <c r="Y33" s="4"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -21230,7 +24161,7 @@
       </c>
       <c r="Y34" s="4"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -21279,7 +24210,7 @@
       </c>
       <c r="Y35" s="4"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -21328,7 +24259,7 @@
       </c>
       <c r="Y36" s="4"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -21379,7 +24310,7 @@
       </c>
       <c r="Y37" s="4"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -21428,7 +24359,7 @@
       </c>
       <c r="Y38" s="4"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -21479,7 +24410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -21529,7 +24460,7 @@
       </c>
       <c r="Y40" s="4"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -21581,7 +24512,7 @@
       </c>
       <c r="Y41" s="4"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -21629,7 +24560,7 @@
       </c>
       <c r="Y42" s="4"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -21679,7 +24610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -21727,7 +24658,7 @@
       </c>
       <c r="Y44" s="4"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -21778,7 +24709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25">
       <c r="A46" s="4"/>
       <c r="B46" s="4">
         <v>14</v>
@@ -21831,7 +24762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -21882,7 +24813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -21928,7 +24859,7 @@
       </c>
       <c r="Y48" s="4"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -21974,7 +24905,7 @@
       </c>
       <c r="Y49" s="4"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25">
       <c r="A50" s="4"/>
       <c r="B50" s="4">
         <v>14</v>
@@ -22025,7 +24956,7 @@
       </c>
       <c r="Y50" s="4"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25">
       <c r="A51" s="4"/>
       <c r="B51" s="4">
         <v>8</v>
@@ -22076,7 +25007,7 @@
       </c>
       <c r="Y51" s="4"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25">
       <c r="A52" s="4"/>
       <c r="B52" s="4">
         <v>12</v>
@@ -22125,7 +25056,7 @@
       </c>
       <c r="Y52" s="4"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25">
       <c r="A53" s="4"/>
       <c r="B53" s="4">
         <v>8</v>
@@ -22187,9 +25118,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -22251,7 +25182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
@@ -22313,7 +25244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>80</v>
       </c>
@@ -22375,7 +25306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>4</v>
@@ -22435,7 +25366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>4</v>
@@ -22495,7 +25426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>4</v>
@@ -22555,7 +25486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>4</v>
@@ -22615,7 +25546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -22675,7 +25606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>14</v>
@@ -22735,7 +25666,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>14</v>
@@ -22795,7 +25726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>14</v>
@@ -22855,7 +25786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>12</v>
@@ -22915,7 +25846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>12</v>
@@ -22975,7 +25906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>80</v>
@@ -23035,7 +25966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>12</v>
@@ -23095,7 +26026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <v>12</v>
@@ -23155,7 +26086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
         <v>12</v>
@@ -23215,7 +26146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
         <v>4</v>
@@ -23275,7 +26206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
         <v>4</v>
@@ -23335,7 +26266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <v>4</v>
@@ -23395,7 +26326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="4"/>
       <c r="B21" s="4">
         <v>4</v>
@@ -23455,7 +26386,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4">
         <v>4</v>
@@ -23515,7 +26446,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4">
         <v>4</v>
@@ -23575,7 +26506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="4"/>
       <c r="B24" s="4">
         <v>4</v>
@@ -23635,7 +26566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>20</v>
@@ -23695,7 +26626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>80</v>
@@ -23755,7 +26686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4">
         <v>12</v>
@@ -23815,7 +26746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4">
         <v>12</v>
@@ -23875,7 +26806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>80</v>
@@ -23935,7 +26866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>80</v>
@@ -23995,7 +26926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4">
         <v>11</v>
@@ -24055,7 +26986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4">
         <v>14</v>
@@ -24115,7 +27046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>80</v>
@@ -24175,7 +27106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>80</v>
@@ -24235,7 +27166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>80</v>
@@ -24295,7 +27226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4">
         <v>14</v>
@@ -24355,7 +27286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>80</v>
@@ -24415,7 +27346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <v>12</v>
@@ -24475,7 +27406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4">
         <v>12</v>
@@ -24535,7 +27466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>80</v>
@@ -24595,7 +27526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>80</v>
@@ -24655,7 +27586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="4"/>
       <c r="B42" s="4">
         <v>12</v>
@@ -24715,7 +27646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>80</v>
@@ -24775,7 +27706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>80</v>
@@ -24835,7 +27766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" s="4"/>
       <c r="B45" s="4">
         <v>4</v>
@@ -24895,7 +27826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" s="4"/>
       <c r="B46" s="4">
         <v>4</v>
@@ -24955,7 +27886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" s="4"/>
       <c r="B47" s="4">
         <v>4</v>
@@ -25015,7 +27946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" s="4"/>
       <c r="B48" s="4">
         <v>12</v>
@@ -25075,7 +28006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="4"/>
       <c r="B49" s="4">
         <v>12</v>
@@ -25135,7 +28066,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="4" t="s">
         <v>80</v>
       </c>
@@ -25195,7 +28126,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="4" t="s">
         <v>80</v>
       </c>
@@ -25255,7 +28186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" s="4" t="s">
         <v>80</v>
       </c>
@@ -25317,7 +28248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" s="4" t="s">
         <v>80</v>
       </c>
@@ -25379,7 +28310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="4" t="s">
         <v>80</v>
       </c>
@@ -25441,7 +28372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" s="4" t="s">
         <v>80</v>
       </c>
@@ -25503,7 +28434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" s="4" t="s">
         <v>80</v>
       </c>
@@ -25565,7 +28496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" s="4" t="s">
         <v>80</v>
       </c>
@@ -25627,7 +28558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" s="4" t="s">
         <v>80</v>
       </c>
@@ -25689,7 +28620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" s="4" t="s">
         <v>80</v>
       </c>
@@ -25751,7 +28682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" s="4" t="s">
         <v>80</v>
       </c>
@@ -25813,7 +28744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" s="4" t="s">
         <v>80</v>
       </c>
@@ -25875,7 +28806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" s="4">
         <v>5</v>
       </c>
@@ -25937,7 +28868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" s="4" t="s">
         <v>80</v>
       </c>
@@ -25999,7 +28930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64" s="4" t="s">
         <v>80</v>
       </c>
@@ -26061,7 +28992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" s="4" t="s">
         <v>80</v>
       </c>
@@ -26123,7 +29054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" s="4" t="s">
         <v>80</v>
       </c>
@@ -26198,9 +29129,9 @@
       <selection sqref="A1:T62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -26262,7 +29193,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -26308,7 +29239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -26352,7 +29283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -26400,7 +29331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -26446,7 +29377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -26492,7 +29423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -26538,7 +29469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -26584,7 +29515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -26630,7 +29561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -26676,7 +29607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -26724,7 +29655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -26770,7 +29701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -26816,7 +29747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>4</v>
       </c>
@@ -26862,7 +29793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -26906,7 +29837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -26954,7 +29885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="3">
         <v>5</v>
       </c>
@@ -27002,7 +29933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>2</v>
@@ -27046,7 +29977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="3">
         <v>12</v>
       </c>
@@ -27094,7 +30025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>11</v>
@@ -27138,7 +30069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>3</v>
@@ -27182,7 +30113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>3</v>
@@ -27230,7 +30161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="3">
         <v>12</v>
       </c>
@@ -27278,7 +30209,7 @@
       </c>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="3">
         <v>8</v>
       </c>
@@ -27326,7 +30257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="3">
         <v>8</v>
       </c>
@@ -27374,7 +30305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>3</v>
@@ -27418,7 +30349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>3</v>
@@ -27464,7 +30395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="3"/>
       <c r="B28" s="3">
         <v>3</v>
@@ -27512,7 +30443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>3</v>
@@ -27558,7 +30489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="3"/>
       <c r="B30" s="3">
         <v>3</v>
@@ -27602,7 +30533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>3</v>
@@ -27648,7 +30579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="3"/>
       <c r="B32" s="3">
         <v>3</v>
@@ -27692,7 +30623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="3"/>
       <c r="B33" s="3">
         <v>3</v>
@@ -27736,7 +30667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="3"/>
       <c r="B34" s="3">
         <v>3</v>
@@ -27780,7 +30711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -27828,7 +30759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -27872,7 +30803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -27920,7 +30851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -27968,7 +30899,7 @@
       </c>
       <c r="T38" s="3"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -28014,7 +30945,7 @@
       </c>
       <c r="T39" s="3"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -28062,7 +30993,7 @@
       </c>
       <c r="T40" s="3"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -28110,7 +31041,7 @@
       </c>
       <c r="T41" s="3"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -28158,7 +31089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -28206,7 +31137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3">
@@ -28252,7 +31183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3">
@@ -28300,7 +31231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3">
@@ -28346,7 +31277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -28392,7 +31323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -28440,7 +31371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -28484,7 +31415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -28532,7 +31463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -28580,7 +31511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -28628,7 +31559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" s="3"/>
       <c r="B53" s="3">
         <v>14</v>
@@ -28676,7 +31607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -28722,7 +31653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -28768,7 +31699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -28816,7 +31747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -28862,7 +31793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" s="3"/>
       <c r="B58" s="3">
         <v>14</v>
@@ -28910,7 +31841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -28956,7 +31887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" s="3"/>
       <c r="B60" s="3">
         <v>3</v>
@@ -29004,7 +31935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" s="3"/>
       <c r="B61" s="3">
         <v>3</v>
@@ -29052,7 +31983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" s="3"/>
       <c r="B62" s="3">
         <v>3</v>
@@ -29113,9 +32044,9 @@
       <selection sqref="A1:W60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -29186,7 +32117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>8</v>
       </c>
@@ -29227,7 +32158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>8</v>
       </c>
@@ -29265,7 +32196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>8</v>
       </c>
@@ -29300,7 +32231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>8</v>
       </c>
@@ -29338,7 +32269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>8</v>
       </c>
@@ -29376,7 +32307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>8</v>
       </c>
@@ -29417,7 +32348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>8</v>
       </c>
@@ -29458,7 +32389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>8</v>
       </c>
@@ -29499,7 +32430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>8</v>
       </c>
@@ -29540,7 +32471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>8</v>
       </c>
@@ -29578,7 +32509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>8</v>
       </c>
@@ -29613,7 +32544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>8</v>
       </c>
@@ -29654,7 +32585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>8</v>
       </c>
@@ -29695,7 +32626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>8</v>
       </c>
@@ -29733,7 +32664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>8</v>
       </c>
@@ -29774,7 +32705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>8</v>
       </c>
@@ -29815,7 +32746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>8</v>
       </c>
@@ -29853,7 +32784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>8</v>
       </c>
@@ -29891,7 +32822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>8</v>
       </c>
@@ -29929,7 +32860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>8</v>
       </c>
@@ -29970,7 +32901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>8</v>
       </c>
@@ -30005,7 +32936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>8</v>
       </c>
@@ -30043,7 +32974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>8</v>
       </c>
@@ -30081,7 +33012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>8</v>
       </c>
@@ -30122,7 +33053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>8</v>
       </c>
@@ -30163,7 +33094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>8</v>
       </c>
@@ -30201,7 +33132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>8</v>
       </c>
@@ -30242,7 +33173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>8</v>
       </c>
@@ -30277,7 +33208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>8</v>
       </c>
@@ -30315,7 +33246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>8</v>
       </c>
@@ -30353,7 +33284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>8</v>
       </c>
@@ -30394,7 +33325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>8</v>
       </c>
@@ -30429,7 +33360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>8</v>
       </c>
@@ -30467,7 +33398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>8</v>
       </c>
@@ -30505,7 +33436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>8</v>
       </c>
@@ -30546,7 +33477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="G37">
         <v>8</v>
       </c>
@@ -30584,7 +33515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="G38">
         <v>8</v>
       </c>
@@ -30625,7 +33556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="F39">
         <v>2</v>
       </c>
@@ -30660,7 +33591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>8</v>
       </c>
@@ -30695,7 +33626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>8</v>
       </c>
@@ -30733,7 +33664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>8</v>
       </c>
@@ -30771,7 +33702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>8</v>
       </c>
@@ -30812,7 +33743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>8</v>
       </c>
@@ -30853,7 +33784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>8</v>
       </c>
@@ -30891,7 +33822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>8</v>
       </c>
@@ -30926,7 +33857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>8</v>
       </c>
@@ -30961,7 +33892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>8</v>
       </c>
@@ -31002,7 +33933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>8</v>
       </c>
@@ -31037,7 +33968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>8</v>
       </c>
@@ -31075,7 +34006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51">
         <v>8</v>
       </c>
@@ -31113,7 +34044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="A52">
         <v>8</v>
       </c>
@@ -31151,7 +34082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="A53">
         <v>8</v>
       </c>
@@ -31186,7 +34117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="A54">
         <v>8</v>
       </c>
@@ -31227,7 +34158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23">
       <c r="A55">
         <v>8</v>
       </c>
@@ -31265,7 +34196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23">
       <c r="A56">
         <v>8</v>
       </c>
@@ -31303,7 +34234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57">
         <v>8</v>
       </c>
@@ -31341,7 +34272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>8</v>
       </c>
@@ -31379,7 +34310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23">
       <c r="A59">
         <v>8</v>
       </c>
@@ -31414,7 +34345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23">
       <c r="A60">
         <v>8</v>
       </c>
@@ -31465,9 +34396,9 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -31538,7 +34469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>8</v>
       </c>
@@ -31573,7 +34504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>8</v>
       </c>
@@ -31614,7 +34545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>8</v>
       </c>
@@ -31652,7 +34583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>8</v>
       </c>
@@ -31693,7 +34624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>8</v>
       </c>
@@ -31731,7 +34662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>8</v>
       </c>
@@ -31769,7 +34700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>8</v>
       </c>
@@ -31804,7 +34735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>8</v>
       </c>
@@ -31845,7 +34776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>8</v>
       </c>
@@ -31883,7 +34814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>8</v>
       </c>
@@ -31921,7 +34852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>8</v>
       </c>
@@ -31956,7 +34887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>8</v>
       </c>
@@ -31991,7 +34922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>8</v>
       </c>
@@ -32026,7 +34957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>8</v>
       </c>
@@ -32067,7 +34998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>8</v>
       </c>
@@ -32102,7 +35033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>8</v>
       </c>
@@ -32140,7 +35071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>8</v>
       </c>
@@ -32175,7 +35106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>8</v>
       </c>
@@ -32210,7 +35141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>8</v>
       </c>
@@ -32245,7 +35176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>8</v>
       </c>
@@ -32283,7 +35214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>8</v>
       </c>
@@ -32321,7 +35252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>8</v>
       </c>
@@ -32356,7 +35287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>8</v>
       </c>
@@ -32397,7 +35328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>8</v>
       </c>
@@ -32432,7 +35363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>8</v>
       </c>
@@ -32470,7 +35401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="C27">
         <v>3</v>
       </c>
@@ -32511,7 +35442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>8</v>
       </c>
@@ -32546,7 +35477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>8</v>
       </c>
@@ -32581,7 +35512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>8</v>
       </c>
@@ -32619,7 +35550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>8</v>
       </c>
@@ -32654,7 +35585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>8</v>
       </c>
@@ -32692,7 +35623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>8</v>
       </c>
@@ -32730,7 +35661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>8</v>
       </c>
@@ -32765,7 +35696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>8</v>
       </c>
@@ -32803,7 +35734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="H36">
         <v>2</v>
       </c>
@@ -32844,7 +35775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="D37">
         <v>12</v>
       </c>
@@ -32885,7 +35816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="H38">
         <v>2</v>
       </c>
@@ -32923,7 +35854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>8</v>
       </c>
@@ -32964,7 +35895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>8</v>
       </c>
@@ -33005,7 +35936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="H41">
         <v>2</v>
       </c>
@@ -33043,7 +35974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="C42">
         <v>3</v>
       </c>
@@ -33084,7 +36015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="C43">
         <v>3</v>
       </c>
@@ -33122,7 +36053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="C44">
         <v>3</v>
       </c>
@@ -33157,7 +36088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="B45">
         <v>14</v>
       </c>
@@ -33195,7 +36126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="C46">
         <v>3</v>
       </c>
@@ -33230,7 +36161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="B47">
         <v>14</v>
       </c>
@@ -33268,7 +36199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="B48">
         <v>14</v>
       </c>
@@ -33309,7 +36240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="C49">
         <v>3</v>
       </c>
@@ -33344,7 +36275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="C50">
         <v>3</v>
       </c>
@@ -33382,7 +36313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="C51">
         <v>3</v>
       </c>
@@ -33420,7 +36351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="C52">
         <v>3</v>
       </c>
@@ -33455,7 +36386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="C53">
         <v>3</v>
       </c>
@@ -33496,7 +36427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="C54">
         <v>3</v>
       </c>
@@ -33531,7 +36462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23">
       <c r="A55">
         <v>12</v>
       </c>
@@ -33569,7 +36500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23">
       <c r="A56">
         <v>8</v>
       </c>
@@ -33610,7 +36541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57">
         <v>8</v>
       </c>
@@ -33651,7 +36582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>8</v>
       </c>
@@ -33686,7 +36617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23">
       <c r="A59">
         <v>8</v>
       </c>
@@ -33724,7 +36655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23">
       <c r="A60">
         <v>8</v>
       </c>

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AE6E66-2A13-3D43-9BE9-8F821FA39BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B0D90B-0130-1042-98EF-4D7B16803C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="13" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="11" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="1921-22" sheetId="19" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="182">
   <si>
     <t>11+</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>9#</t>
-  </si>
-  <si>
-    <t>6'</t>
   </si>
   <si>
     <t>7#</t>
@@ -1010,97 +1007,97 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -2529,7 +2526,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -2538,7 +2535,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
@@ -2547,7 +2544,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>31</v>
@@ -2556,13 +2553,13 @@
         <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>36</v>
@@ -2577,7 +2574,7 @@
         <v>39</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>40</v>
@@ -2589,7 +2586,7 @@
         <v>43</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -2752,7 +2749,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -7183,8 +7180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AACCB4-B063-5940-B7D8-989E5CF6472C}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7211,7 +7208,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -7220,10 +7217,10 @@
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>27</v>
@@ -7241,7 +7238,7 @@
         <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>33</v>
@@ -7250,10 +7247,10 @@
         <v>34</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>37</v>
@@ -7265,13 +7262,13 @@
         <v>40</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>43</v>
@@ -8703,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -9078,7 +9075,7 @@
         <v>4</v>
       </c>
       <c r="P47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R47">
         <v>9</v>
@@ -9119,7 +9116,7 @@
         <v>14</v>
       </c>
       <c r="P48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R48">
         <v>13</v>
@@ -9136,7 +9133,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -9177,7 +9174,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -9218,7 +9215,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51">
         <v>9</v>
@@ -9343,7 +9340,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -9352,10 +9349,10 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
@@ -9370,10 +9367,10 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M1" t="s">
         <v>33</v>
@@ -9382,10 +9379,10 @@
         <v>34</v>
       </c>
       <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
         <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>56</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -9397,22 +9394,22 @@
         <v>40</v>
       </c>
       <c r="T1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s">
         <v>42</v>
       </c>
       <c r="V1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s">
         <v>43</v>
       </c>
       <c r="X1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y1" t="s">
         <v>153</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -9432,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M2" s="4">
         <v>4</v>
@@ -9479,7 +9476,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M3" s="4">
         <v>4</v>
@@ -9573,7 +9570,7 @@
         <v>12</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="4">
         <v>13</v>
@@ -9611,7 +9608,7 @@
         <v>6</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="4">
         <v>13</v>
@@ -9646,7 +9643,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J7" s="4">
         <v>7</v>
@@ -9687,7 +9684,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" s="4">
         <v>13</v>
@@ -9912,7 +9909,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4">
         <v>11</v>
@@ -9980,7 +9977,7 @@
         <v>12</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U15" s="4">
         <v>2</v>
@@ -10346,7 +10343,7 @@
         <v>14</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="4">
         <v>13</v>
@@ -10390,7 +10387,7 @@
         <v>14</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="4">
         <v>13</v>
@@ -10437,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R26" s="4">
         <v>1</v>
@@ -10481,7 +10478,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R27" s="4">
         <v>1</v>
@@ -10548,7 +10545,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="4">
         <v>7</v>
@@ -10633,7 +10630,7 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="4">
         <v>12</v>
@@ -10645,7 +10642,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H31" s="4">
         <v>5</v>
@@ -10677,7 +10674,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="4">
         <v>12</v>
@@ -10754,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U33" s="4">
         <v>2</v>
@@ -10786,7 +10783,7 @@
         <v>13</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>19</v>
@@ -10815,7 +10812,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="4">
         <v>9</v>
@@ -10894,7 +10891,7 @@
     </row>
     <row r="37" spans="1:25">
       <c r="C37" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" s="4">
         <v>12</v>
@@ -11023,7 +11020,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4">
         <v>12</v>
@@ -11103,7 +11100,7 @@
         <v>2</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -11111,7 +11108,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="4">
         <v>9</v>
@@ -11132,7 +11129,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R42" s="4">
         <v>1</v>
@@ -11234,7 +11231,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="4">
         <v>12</v>
@@ -11340,7 +11337,7 @@
         <v>4</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R47" s="4">
         <v>1</v>
@@ -11396,7 +11393,7 @@
         <v>3</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X48" s="4" t="s">
         <v>4</v>
@@ -11498,7 +11495,7 @@
         <v>4</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q51" s="4">
         <v>13</v>
@@ -11566,7 +11563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA8A803-06B5-C64E-AE57-47F1F715888D}">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:X55"/>
     </sheetView>
   </sheetViews>
@@ -11580,19 +11577,19 @@
         <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>29</v>
@@ -11601,49 +11598,49 @@
         <v>30</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>33</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="S1" s="8" t="s">
         <v>40</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -11655,7 +11652,7 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -11705,7 +11702,7 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -11789,7 +11786,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>13</v>
@@ -11893,7 +11890,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S6" s="8">
         <v>6</v>
@@ -11947,7 +11944,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S7" s="8">
         <v>6</v>
@@ -12002,7 +11999,7 @@
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
@@ -12061,7 +12058,7 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W9" s="8">
         <v>3</v>
@@ -12103,7 +12100,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S10" s="8">
         <v>6</v>
@@ -12157,7 +12154,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>18</v>
@@ -12213,7 +12210,7 @@
         <v>14</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S12" s="8">
         <v>6</v>
@@ -12327,7 +12324,7 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W14" s="8">
         <v>3</v>
@@ -12342,7 +12339,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8">
@@ -12470,7 +12467,7 @@
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8">
@@ -12745,7 +12742,7 @@
         <v>3</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -12905,7 +12902,7 @@
         <v>3</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -13059,7 +13056,7 @@
         <v>3</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -13162,7 +13159,7 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -13263,7 +13260,7 @@
         <v>3</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -13395,7 +13392,7 @@
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q35" s="8" t="s">
         <v>15</v>
@@ -13429,7 +13426,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8">
@@ -13593,7 +13590,7 @@
         <v>8</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I39" s="8">
         <v>12</v>
@@ -13795,7 +13792,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
@@ -13930,7 +13927,7 @@
         <v>17</v>
       </c>
       <c r="S45" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T45" s="8">
         <v>13</v>
@@ -14242,7 +14239,7 @@
         <v>7</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>0</v>
@@ -14291,7 +14288,7 @@
       </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S52" s="8">
         <v>10</v>
@@ -14368,7 +14365,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H54" s="8">
         <v>12</v>
@@ -14437,7 +14434,7 @@
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M55" s="8"/>
       <c r="N55" s="8">
@@ -14483,28 +14480,28 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>164</v>
-      </c>
-      <c r="H1" t="s">
-        <v>165</v>
       </c>
       <c r="I1" t="s">
         <v>29</v>
@@ -14513,58 +14510,58 @@
         <v>30</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" t="s">
         <v>166</v>
       </c>
-      <c r="M1" t="s">
-        <v>167</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s">
         <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
         <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>56</v>
       </c>
       <c r="S1" t="s">
         <v>40</v>
       </c>
       <c r="T1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" t="s">
         <v>169</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>170</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>171</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>172</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>173</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>175</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>176</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -14713,7 +14710,7 @@
         <v>15</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -14774,7 +14771,7 @@
         <v>14</v>
       </c>
       <c r="W6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -14814,7 +14811,7 @@
         <v>15</v>
       </c>
       <c r="R7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S7">
         <v>8</v>
@@ -14905,7 +14902,7 @@
         <v>9</v>
       </c>
       <c r="V9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -14998,7 +14995,7 @@
         <v>9</v>
       </c>
       <c r="V11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -15040,7 +15037,7 @@
         <v>9</v>
       </c>
       <c r="V12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -15082,7 +15079,7 @@
         <v>14</v>
       </c>
       <c r="S13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T13" t="s">
         <v>11</v>
@@ -15130,7 +15127,7 @@
         <v>12</v>
       </c>
       <c r="V14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA14">
         <v>3</v>
@@ -15242,7 +15239,7 @@
       </c>
       <c r="L17" s="4"/>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N17" s="4">
         <v>13</v>
@@ -15406,7 +15403,7 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -15451,7 +15448,7 @@
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I22">
         <v>6</v>
@@ -15596,7 +15593,7 @@
         <v>9</v>
       </c>
       <c r="R25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T25">
         <v>14</v>
@@ -15635,7 +15632,7 @@
         <v>13</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P26">
         <v>10</v>
@@ -15683,7 +15680,7 @@
         <v>13</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T27">
         <v>11</v>
@@ -15716,7 +15713,7 @@
         <v>9</v>
       </c>
       <c r="M28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>16</v>
@@ -15751,7 +15748,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -15886,7 +15883,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O32">
         <v>4</v>
@@ -15940,7 +15937,7 @@
         <v>4</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R33">
         <v>12</v>
@@ -16195,7 +16192,7 @@
         <v>13</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O39">
         <v>4</v>
@@ -16500,7 +16497,7 @@
         <v>11</v>
       </c>
       <c r="V46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z46">
         <v>10</v>
@@ -16539,7 +16536,7 @@
         <v>8</v>
       </c>
       <c r="Z47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA47">
         <v>3</v>
@@ -16628,7 +16625,7 @@
         <v>3</v>
       </c>
       <c r="AB49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -16754,7 +16751,7 @@
         <v>14</v>
       </c>
       <c r="AB52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -16819,49 +16816,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -17071,49 +17068,49 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>34</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>36</v>
@@ -17122,22 +17119,22 @@
         <v>37</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -19659,37 +19656,37 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>36</v>
@@ -19698,25 +19695,25 @@
         <v>37</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -21431,7 +21428,7 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" s="4">
         <v>3</v>
@@ -21523,7 +21520,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H41" s="4">
         <v>3</v>
@@ -22432,52 +22429,52 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>36</v>
@@ -22486,25 +22483,25 @@
         <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -25122,25 +25119,25 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
@@ -25149,16 +25146,16 @@
         <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>36</v>
@@ -25170,30 +25167,30 @@
         <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="4">
         <v>8</v>
@@ -25205,19 +25202,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="4">
         <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="4">
         <v>3</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M2" s="4">
         <v>7</v>
@@ -25226,13 +25223,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P2" s="4">
         <v>1</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>14</v>
@@ -25246,16 +25243,16 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="4">
         <v>8</v>
@@ -25267,19 +25264,19 @@
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="4">
         <v>9</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="4">
         <v>3</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="4">
         <v>7</v>
@@ -25288,16 +25285,16 @@
         <v>10</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P3" s="4">
         <v>1</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S3" s="4">
         <v>11</v>
@@ -25312,10 +25309,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="4">
         <v>8</v>
@@ -25327,19 +25324,19 @@
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="4">
         <v>9</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K4" s="4">
         <v>3</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" s="4">
         <v>7</v>
@@ -25348,16 +25345,16 @@
         <v>10</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P4" s="4">
         <v>1</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S4" s="4">
         <v>11</v>
@@ -25375,7 +25372,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="4">
         <v>8</v>
@@ -25387,7 +25384,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="4">
         <v>9</v>
@@ -25399,7 +25396,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>17</v>
@@ -25408,16 +25405,16 @@
         <v>10</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P5" s="4">
         <v>1</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S5" s="4">
         <v>11</v>
@@ -25435,7 +25432,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="4">
         <v>8</v>
@@ -25447,19 +25444,19 @@
         <v>4</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="4">
         <v>9</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" s="4">
         <v>3</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M6" s="4">
         <v>7</v>
@@ -25468,16 +25465,16 @@
         <v>10</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P6" s="4">
         <v>1</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S6" s="4">
         <v>11</v>
@@ -25495,7 +25492,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="4">
         <v>8</v>
@@ -25507,19 +25504,19 @@
         <v>5</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="4">
         <v>9</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" s="4">
         <v>3</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>17</v>
@@ -25528,16 +25525,16 @@
         <v>10</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P7" s="4">
         <v>1</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S7" s="4">
         <v>11</v>
@@ -25555,7 +25552,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="4">
         <v>8</v>
@@ -25567,7 +25564,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="4">
         <v>9</v>
@@ -25579,7 +25576,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M8" s="4">
         <v>7</v>
@@ -25588,16 +25585,16 @@
         <v>10</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" s="4">
         <v>1</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S8" s="4">
         <v>11</v>
@@ -25612,7 +25609,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -25627,7 +25624,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="4">
         <v>9</v>
@@ -25639,7 +25636,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>17</v>
@@ -25648,13 +25645,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P9" s="4">
         <v>1</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R9" s="4">
         <v>12</v>
@@ -25663,7 +25660,7 @@
         <v>11</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -25672,10 +25669,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="4">
         <v>8</v>
@@ -25687,7 +25684,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" s="4">
         <v>9</v>
@@ -25699,7 +25696,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M10" s="4">
         <v>7</v>
@@ -25708,16 +25705,16 @@
         <v>10</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P10" s="4">
         <v>1</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S10" s="4">
         <v>11</v>
@@ -25732,10 +25729,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="4">
         <v>8</v>
@@ -25747,7 +25744,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" s="4">
         <v>9</v>
@@ -25759,7 +25756,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>17</v>
@@ -25768,13 +25765,13 @@
         <v>10</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P11" s="4">
         <v>1</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R11" s="4">
         <v>12</v>
@@ -25792,10 +25789,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="4">
         <v>8</v>
@@ -25807,7 +25804,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I12" s="4">
         <v>9</v>
@@ -25819,7 +25816,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M12" s="4">
         <v>7</v>
@@ -25828,16 +25825,16 @@
         <v>10</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P12" s="4">
         <v>1</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S12" s="4">
         <v>11</v>
@@ -25852,10 +25849,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="4">
         <v>8</v>
@@ -25867,7 +25864,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I13" s="4">
         <v>9</v>
@@ -25879,7 +25876,7 @@
         <v>3</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>5</v>
@@ -25888,13 +25885,13 @@
         <v>10</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P13" s="4">
         <v>1</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R13" s="4">
         <v>14</v>
@@ -25909,13 +25906,13 @@
     <row r="14" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="4">
         <v>8</v>
@@ -25927,7 +25924,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14" s="4">
         <v>9</v>
@@ -25939,7 +25936,7 @@
         <v>3</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" s="4">
         <v>7</v>
@@ -25948,16 +25945,16 @@
         <v>10</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P14" s="4">
         <v>1</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S14" s="4">
         <v>11</v>
@@ -25972,10 +25969,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="4">
         <v>8</v>
@@ -25987,7 +25984,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="4">
         <v>9</v>
@@ -25999,7 +25996,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M15" s="4">
         <v>7</v>
@@ -26008,16 +26005,16 @@
         <v>10</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P15" s="4">
         <v>1</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S15" s="4">
         <v>11</v>
@@ -26032,10 +26029,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="4">
         <v>8</v>
@@ -26047,7 +26044,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="4">
         <v>9</v>
@@ -26059,7 +26056,7 @@
         <v>3</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="4">
         <v>7</v>
@@ -26068,13 +26065,13 @@
         <v>10</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P16" s="4">
         <v>1</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R16" s="4">
         <v>14</v>
@@ -26092,7 +26089,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="4">
         <v>6</v>
@@ -26107,7 +26104,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>11</v>
@@ -26119,7 +26116,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M17" s="4">
         <v>7</v>
@@ -26128,13 +26125,13 @@
         <v>10</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P17" s="4">
         <v>1</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R17" s="4">
         <v>14</v>
@@ -26143,7 +26140,7 @@
         <v>11</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -26155,7 +26152,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="4">
         <v>8</v>
@@ -26167,7 +26164,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="4">
         <v>9</v>
@@ -26179,7 +26176,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>17</v>
@@ -26188,13 +26185,13 @@
         <v>10</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P18" s="4">
         <v>1</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R18" s="4">
         <v>6</v>
@@ -26203,7 +26200,7 @@
         <v>11</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -26212,10 +26209,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="4">
         <v>8</v>
@@ -26227,19 +26224,19 @@
         <v>5</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="4">
         <v>9</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K19" s="4">
         <v>3</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M19" s="4">
         <v>7</v>
@@ -26248,16 +26245,16 @@
         <v>10</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P19" s="4">
         <v>1</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S19" s="4">
         <v>11</v>
@@ -26272,10 +26269,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="4">
         <v>8</v>
@@ -26287,19 +26284,19 @@
         <v>5</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I20" s="4">
         <v>9</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" s="4">
         <v>7</v>
@@ -26308,13 +26305,13 @@
         <v>10</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P20" s="4">
         <v>1</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R20" s="4">
         <v>14</v>
@@ -26332,7 +26329,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
@@ -26347,19 +26344,19 @@
         <v>5</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K21" s="4">
         <v>3</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M21" s="4">
         <v>7</v>
@@ -26374,16 +26371,16 @@
         <v>1</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R21" s="4">
         <v>9</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -26398,7 +26395,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -26407,7 +26404,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I22" s="4">
         <v>12</v>
@@ -26419,7 +26416,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>17</v>
@@ -26434,16 +26431,16 @@
         <v>1</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R22" s="4">
         <v>9</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -26452,10 +26449,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>21</v>
@@ -26467,10 +26464,10 @@
         <v>5</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J23" s="4">
         <v>12</v>
@@ -26479,7 +26476,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M23" s="4">
         <v>7</v>
@@ -26494,13 +26491,13 @@
         <v>1</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R23" s="4">
         <v>9</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T23" s="4">
         <v>6</v>
@@ -26512,10 +26509,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4">
         <v>8</v>
@@ -26527,19 +26524,19 @@
         <v>5</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="4">
         <v>14</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>5</v>
@@ -26560,7 +26557,7 @@
         <v>9</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T24" s="4">
         <v>6</v>
@@ -26572,10 +26569,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4">
         <v>8</v>
@@ -26587,7 +26584,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="4">
         <v>14</v>
@@ -26596,10 +26593,10 @@
         <v>12</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>5</v>
@@ -26620,7 +26617,7 @@
         <v>9</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T25" s="4">
         <v>6</v>
@@ -26629,13 +26626,13 @@
     <row r="26" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="4">
         <v>14</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4">
         <v>8</v>
@@ -26647,7 +26644,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="4">
         <v>7</v>
@@ -26656,13 +26653,13 @@
         <v>6</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N26" s="4">
         <v>10</v>
@@ -26695,7 +26692,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="4">
         <v>8</v>
@@ -26707,7 +26704,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>17</v>
@@ -26716,13 +26713,13 @@
         <v>6</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N27" s="4">
         <v>10</v>
@@ -26740,7 +26737,7 @@
         <v>9</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T27" s="4">
         <v>6</v>
@@ -26755,7 +26752,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4">
         <v>8</v>
@@ -26776,13 +26773,13 @@
         <v>6</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N28" s="4">
         <v>10</v>
@@ -26797,10 +26794,10 @@
         <v>3</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T28" s="4">
         <v>6</v>
@@ -26809,10 +26806,10 @@
     <row r="29" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="4">
         <v>14</v>
@@ -26827,7 +26824,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I29" s="4">
         <v>7</v>
@@ -26839,22 +26836,22 @@
         <v>3</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N29" s="4">
         <v>10</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P29" s="4">
         <v>1</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R29" s="4">
         <v>9</v>
@@ -26869,13 +26866,13 @@
     <row r="30" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="4">
         <v>12</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" s="4">
         <v>8</v>
@@ -26887,7 +26884,7 @@
         <v>5</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I30" s="4">
         <v>7</v>
@@ -26899,22 +26896,22 @@
         <v>3</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N30" s="4">
         <v>10</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P30" s="4">
         <v>1</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R30" s="4">
         <v>9</v>
@@ -26935,7 +26932,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>21</v>
@@ -26947,7 +26944,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I31" s="4">
         <v>12</v>
@@ -26959,28 +26956,28 @@
         <v>3</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N31" s="4">
         <v>10</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P31" s="4">
         <v>1</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R31" s="4">
         <v>9</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T31" s="4">
         <v>6</v>
@@ -26995,7 +26992,7 @@
         <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>8</v>
@@ -27007,7 +27004,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I32" s="4">
         <v>12</v>
@@ -27019,22 +27016,22 @@
         <v>3</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N32" s="4">
         <v>10</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P32" s="4">
         <v>1</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R32" s="4">
         <v>9</v>
@@ -27049,13 +27046,13 @@
     <row r="33" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="4">
         <v>8</v>
@@ -27067,13 +27064,13 @@
         <v>4</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I33" s="4">
         <v>9</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K33" s="4">
         <v>3</v>
@@ -27088,13 +27085,13 @@
         <v>10</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P33" s="4">
         <v>1</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R33" s="4">
         <v>12</v>
@@ -27109,13 +27106,13 @@
     <row r="34" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="4">
         <v>8</v>
@@ -27127,13 +27124,13 @@
         <v>5</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I34" s="4">
         <v>9</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K34" s="4">
         <v>3</v>
@@ -27148,16 +27145,16 @@
         <v>10</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P34" s="4">
         <v>1</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S34" s="4">
         <v>11</v>
@@ -27169,13 +27166,13 @@
     <row r="35" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="4">
         <v>8</v>
@@ -27187,13 +27184,13 @@
         <v>5</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K35" s="4">
         <v>3</v>
@@ -27208,13 +27205,13 @@
         <v>10</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P35" s="4">
         <v>1</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R35" s="4">
         <v>12</v>
@@ -27232,10 +27229,10 @@
         <v>14</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>8</v>
@@ -27247,13 +27244,13 @@
         <v>5</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K36" s="4">
         <v>3</v>
@@ -27268,13 +27265,13 @@
         <v>10</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P36" s="4">
         <v>1</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R36" s="4">
         <v>12</v>
@@ -27289,13 +27286,13 @@
     <row r="37" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="4">
         <v>8</v>
@@ -27307,13 +27304,13 @@
         <v>5</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K37" s="4">
         <v>3</v>
@@ -27328,13 +27325,13 @@
         <v>10</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P37" s="4">
         <v>1</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R37" s="4">
         <v>9</v>
@@ -27352,10 +27349,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
@@ -27370,10 +27367,10 @@
         <v>14</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K38" s="4">
         <v>3</v>
@@ -27388,13 +27385,13 @@
         <v>10</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P38" s="4">
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R38" s="4">
         <v>9</v>
@@ -27412,10 +27409,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>21</v>
@@ -27427,13 +27424,13 @@
         <v>5</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39" s="4">
         <v>3</v>
@@ -27448,13 +27445,13 @@
         <v>10</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P39" s="4">
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R39" s="4">
         <v>9</v>
@@ -27469,13 +27466,13 @@
     <row r="40" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="4">
         <v>8</v>
@@ -27487,13 +27484,13 @@
         <v>5</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I40" s="4">
         <v>14</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K40" s="4">
         <v>3</v>
@@ -27508,13 +27505,13 @@
         <v>10</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P40" s="4">
         <v>1</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R40" s="4">
         <v>9</v>
@@ -27529,13 +27526,13 @@
     <row r="41" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="4">
         <v>8</v>
@@ -27547,13 +27544,13 @@
         <v>5</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I41" s="4">
         <v>7</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K41" s="4">
         <v>3</v>
@@ -27562,19 +27559,19 @@
         <v>4</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N41" s="4">
         <v>10</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P41" s="4">
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R41" s="4">
         <v>9</v>
@@ -27592,10 +27589,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
@@ -27607,13 +27604,13 @@
         <v>4</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I42" s="4">
         <v>7</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K42" s="4">
         <v>3</v>
@@ -27622,19 +27619,19 @@
         <v>4</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N42" s="4">
         <v>10</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P42" s="4">
         <v>1</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R42" s="4">
         <v>9</v>
@@ -27649,31 +27646,31 @@
     <row r="43" spans="1:20">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" s="4">
         <v>8</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="4">
         <v>5</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I43" s="4">
         <v>7</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K43" s="4">
         <v>3</v>
@@ -27682,7 +27679,7 @@
         <v>4</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N43" s="4">
         <v>10</v>
@@ -27694,7 +27691,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R43" s="4">
         <v>9</v>
@@ -27709,25 +27706,25 @@
     <row r="44" spans="1:20">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="4">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" s="4">
         <v>5</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I44" s="4">
         <v>7</v>
@@ -27742,7 +27739,7 @@
         <v>4</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N44" s="4">
         <v>10</v>
@@ -27754,7 +27751,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R44" s="4">
         <v>9</v>
@@ -27772,10 +27769,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="4">
         <v>8</v>
@@ -27787,7 +27784,7 @@
         <v>5</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I45" s="4">
         <v>7</v>
@@ -27799,22 +27796,22 @@
         <v>3</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P45" s="4">
         <v>1</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R45" s="4">
         <v>9</v>
@@ -27832,10 +27829,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="4">
         <v>8</v>
@@ -27847,7 +27844,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I46" s="4">
         <v>7</v>
@@ -27859,22 +27856,22 @@
         <v>10</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N46" s="4">
         <v>10</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P46" s="4">
         <v>1</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R46" s="4">
         <v>9</v>
@@ -27892,55 +27889,55 @@
         <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="4">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4">
+        <v>5</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="4">
+        <v>7</v>
+      </c>
+      <c r="J47" s="4">
+        <v>12</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N47" s="4">
+        <v>10</v>
+      </c>
+      <c r="O47" s="4">
+        <v>3</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R47" s="4">
+        <v>9</v>
+      </c>
+      <c r="S47" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="4">
-        <v>8</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2</v>
-      </c>
-      <c r="G47" s="4">
-        <v>5</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="4">
-        <v>7</v>
-      </c>
-      <c r="J47" s="4">
-        <v>12</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N47" s="4">
-        <v>10</v>
-      </c>
-      <c r="O47" s="4">
-        <v>3</v>
-      </c>
-      <c r="P47" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R47" s="4">
-        <v>9</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="T47" s="4">
         <v>6</v>
@@ -27952,10 +27949,10 @@
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>8</v>
@@ -27967,16 +27964,16 @@
         <v>5</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I48" s="4">
         <v>7</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L48" s="4">
         <v>4</v>
@@ -27994,7 +27991,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R48" s="4">
         <v>9</v>
@@ -28012,7 +28009,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="4">
         <v>6</v>
@@ -28027,22 +28024,22 @@
         <v>5</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I49" s="4">
         <v>7</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L49" s="4">
         <v>4</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N49" s="4">
         <v>10</v>
@@ -28054,7 +28051,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R49" s="4">
         <v>9</v>
@@ -28063,16 +28060,16 @@
         <v>11</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="4">
         <v>6</v>
@@ -28087,22 +28084,22 @@
         <v>5</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I50" s="4">
         <v>7</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L50" s="4">
         <v>4</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N50" s="4">
         <v>10</v>
@@ -28114,7 +28111,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R50" s="4">
         <v>9</v>
@@ -28123,19 +28120,19 @@
         <v>11</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E51" s="4">
         <v>8</v>
@@ -28147,16 +28144,16 @@
         <v>3</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I51" s="4">
         <v>7</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L51" s="4">
         <v>4</v>
@@ -28174,7 +28171,7 @@
         <v>1</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R51" s="4">
         <v>9</v>
@@ -28188,16 +28185,16 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E52" s="4">
         <v>8</v>
@@ -28209,16 +28206,16 @@
         <v>5</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L52" s="4">
         <v>4</v>
@@ -28236,7 +28233,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R52" s="4">
         <v>9</v>
@@ -28250,16 +28247,16 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" s="4">
         <v>8</v>
@@ -28271,16 +28268,16 @@
         <v>5</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L53" s="4">
         <v>4</v>
@@ -28298,7 +28295,7 @@
         <v>1</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R53" s="4">
         <v>9</v>
@@ -28312,7 +28309,7 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="4">
         <v>12</v>
@@ -28321,7 +28318,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E54" s="4">
         <v>8</v>
@@ -28333,16 +28330,16 @@
         <v>5</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L54" s="4">
         <v>4</v>
@@ -28360,7 +28357,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R54" s="4">
         <v>9</v>
@@ -28374,16 +28371,16 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="4">
         <v>12</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" s="4">
         <v>8</v>
@@ -28395,22 +28392,22 @@
         <v>5</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L55" s="4">
         <v>4</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N55" s="4">
         <v>10</v>
@@ -28422,7 +28419,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R55" s="4">
         <v>9</v>
@@ -28436,16 +28433,16 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="4">
         <v>12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>21</v>
@@ -28457,22 +28454,22 @@
         <v>5</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I56" s="4">
         <v>7</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L56" s="4">
         <v>4</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N56" s="4">
         <v>10</v>
@@ -28484,7 +28481,7 @@
         <v>1</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R56" s="4">
         <v>9</v>
@@ -28498,16 +28495,16 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E57" s="4">
         <v>8</v>
@@ -28519,22 +28516,22 @@
         <v>5</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I57" s="4">
         <v>7</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L57" s="4">
         <v>4</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N57" s="4">
         <v>10</v>
@@ -28546,7 +28543,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R57" s="4">
         <v>9</v>
@@ -28560,16 +28557,16 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="4">
         <v>14</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E58" s="4">
         <v>8</v>
@@ -28581,22 +28578,22 @@
         <v>5</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I58" s="4">
         <v>7</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L58" s="4">
         <v>4</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N58" s="4">
         <v>10</v>
@@ -28608,7 +28605,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R58" s="4">
         <v>9</v>
@@ -28622,7 +28619,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" s="4">
         <v>12</v>
@@ -28631,7 +28628,7 @@
         <v>14</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>21</v>
@@ -28643,22 +28640,22 @@
         <v>3</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I59" s="4">
         <v>7</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L59" s="4">
         <v>4</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N59" s="4">
         <v>10</v>
@@ -28670,7 +28667,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R59" s="4">
         <v>9</v>
@@ -28684,16 +28681,16 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" s="4">
         <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E60" s="4">
         <v>8</v>
@@ -28705,7 +28702,7 @@
         <v>3</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I60" s="4">
         <v>7</v>
@@ -28717,22 +28714,22 @@
         <v>3</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N60" s="4">
         <v>10</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P60" s="4">
         <v>1</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R60" s="4">
         <v>9</v>
@@ -28746,16 +28743,16 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="4">
         <v>14</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E61" s="4">
         <v>12</v>
@@ -28767,10 +28764,10 @@
         <v>5</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J61" s="4">
         <v>8</v>
@@ -28788,13 +28785,13 @@
         <v>10</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P61" s="4">
         <v>1</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R61" s="4">
         <v>9</v>
@@ -28811,13 +28808,13 @@
         <v>5</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" s="4">
         <v>8</v>
@@ -28826,19 +28823,19 @@
         <v>2</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I62" s="4">
         <v>7</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L62" s="4">
         <v>4</v>
@@ -28856,7 +28853,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R62" s="4">
         <v>9</v>
@@ -28870,16 +28867,16 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E63" s="4">
         <v>8</v>
@@ -28891,22 +28888,22 @@
         <v>5</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I63" s="4">
         <v>7</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L63" s="4">
         <v>4</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N63" s="4">
         <v>10</v>
@@ -28918,7 +28915,7 @@
         <v>1</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R63" s="4">
         <v>9</v>
@@ -28932,16 +28929,16 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64" s="4">
         <v>8</v>
@@ -28953,22 +28950,22 @@
         <v>5</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I64" s="4">
         <v>7</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L64" s="4">
         <v>4</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N64" s="4">
         <v>10</v>
@@ -28980,7 +28977,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R64" s="4">
         <v>9</v>
@@ -28994,13 +28991,13 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="4">
         <v>2</v>
@@ -29009,28 +29006,28 @@
         <v>8</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G65" s="4">
         <v>5</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I65" s="4">
         <v>7</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L65" s="4">
         <v>4</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N65" s="4">
         <v>10</v>
@@ -29042,7 +29039,7 @@
         <v>1</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R65" s="4">
         <v>9</v>
@@ -29056,7 +29053,7 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="4">
         <v>12</v>
@@ -29071,28 +29068,28 @@
         <v>21</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G66" s="4">
         <v>5</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I66" s="4">
         <v>7</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L66" s="4">
         <v>4</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N66" s="4">
         <v>10</v>
@@ -29104,7 +29101,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R66" s="4">
         <v>9</v>
@@ -29133,28 +29130,28 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>29</v>
@@ -29163,16 +29160,16 @@
         <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>36</v>
@@ -29184,13 +29181,13 @@
         <v>39</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -32057,22 +32054,22 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
@@ -32081,16 +32078,16 @@
         <v>32</v>
       </c>
       <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P1" t="s">
         <v>36</v>
@@ -32105,16 +32102,16 @@
         <v>39</v>
       </c>
       <c r="T1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V1" t="s">
         <v>43</v>
       </c>
       <c r="W1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -32397,7 +32394,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -34409,13 +34406,13 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
       </c>
       <c r="G1" t="s">
         <v>27</v>
@@ -34424,7 +34421,7 @@
         <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
@@ -34433,16 +34430,16 @@
         <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
         <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P1" t="s">
         <v>36</v>
@@ -34457,7 +34454,7 @@
         <v>39</v>
       </c>
       <c r="T1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U1" t="s">
         <v>41</v>
@@ -34466,7 +34463,7 @@
         <v>43</v>
       </c>
       <c r="W1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:23">

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC5698F-7045-4745-8BBE-77CDB416BB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6991550-E198-7145-AC68-2BB5B0AFC2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="1921-22" sheetId="19" r:id="rId1"/>
@@ -24863,7 +24863,7 @@
     <col min="1" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1">
+    <row r="1" spans="1:24">
       <c r="A1" s="11" t="s">
         <v>84</v>
       </c>
@@ -24937,7 +24937,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="10" customFormat="1">
+    <row r="2" spans="1:24">
       <c r="B2" s="10" t="s">
         <v>192</v>
       </c>
@@ -24969,7 +24969,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="10" customFormat="1">
+    <row r="3" spans="1:24">
       <c r="A3" s="10" t="s">
         <v>190</v>
       </c>
@@ -25004,7 +25004,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="10" customFormat="1">
+    <row r="4" spans="1:24">
       <c r="A4" s="11" t="s">
         <v>190</v>
       </c>
@@ -25039,7 +25039,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="10" customFormat="1">
+    <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
         <v>190</v>
       </c>
@@ -25074,7 +25074,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="10" customFormat="1">
+    <row r="6" spans="1:24">
       <c r="A6" s="11" t="s">
         <v>190</v>
       </c>
@@ -25109,7 +25109,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="10" customFormat="1">
+    <row r="7" spans="1:24">
       <c r="A7" s="11" t="s">
         <v>190</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="10" customFormat="1">
+    <row r="8" spans="1:24">
       <c r="A8" s="11"/>
       <c r="B8" s="10" t="s">
         <v>192</v>
@@ -25180,7 +25180,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="10" customFormat="1">
+    <row r="9" spans="1:24">
       <c r="A9" s="11"/>
       <c r="B9" s="10" t="s">
         <v>192</v>
@@ -25216,7 +25216,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="10" customFormat="1">
+    <row r="10" spans="1:24">
       <c r="A10" s="11"/>
       <c r="C10" s="10" t="s">
         <v>191</v>
@@ -25252,7 +25252,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="10" customFormat="1">
+    <row r="11" spans="1:24">
       <c r="A11" s="11"/>
       <c r="B11" s="10" t="s">
         <v>192</v>
@@ -25288,7 +25288,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="10" customFormat="1">
+    <row r="12" spans="1:24">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
         <v>192</v>
@@ -25324,7 +25324,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="10" customFormat="1">
+    <row r="13" spans="1:24">
       <c r="A13" s="11"/>
       <c r="B13" s="10" t="s">
         <v>192</v>
@@ -25360,7 +25360,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="10" customFormat="1">
+    <row r="14" spans="1:24">
       <c r="A14" s="11"/>
       <c r="C14" s="10" t="s">
         <v>191</v>
@@ -25396,7 +25396,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="10" customFormat="1">
+    <row r="15" spans="1:24">
       <c r="A15" s="11" t="s">
         <v>190</v>
       </c>
@@ -25431,7 +25431,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="10" customFormat="1">
+    <row r="16" spans="1:24">
       <c r="A16" s="11"/>
       <c r="C16" s="10" t="s">
         <v>191</v>
@@ -25467,7 +25467,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="10" customFormat="1">
+    <row r="17" spans="1:22">
       <c r="A17" s="11"/>
       <c r="C17" s="10" t="s">
         <v>191</v>
@@ -25503,7 +25503,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="10" customFormat="1">
+    <row r="18" spans="1:22">
       <c r="A18" s="11" t="s">
         <v>190</v>
       </c>
@@ -25538,7 +25538,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="10" customFormat="1">
+    <row r="19" spans="1:22">
       <c r="A19" s="11" t="s">
         <v>190</v>
       </c>
@@ -25573,7 +25573,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="10" customFormat="1">
+    <row r="20" spans="1:22">
       <c r="A20" s="11" t="s">
         <v>190</v>
       </c>
@@ -25608,7 +25608,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="10" customFormat="1">
+    <row r="21" spans="1:22">
       <c r="A21" s="11"/>
       <c r="C21" s="10" t="s">
         <v>191</v>
@@ -25644,7 +25644,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="10" customFormat="1">
+    <row r="22" spans="1:22">
       <c r="A22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>191</v>
@@ -25680,7 +25680,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="10" customFormat="1">
+    <row r="23" spans="1:22">
       <c r="A23" s="11"/>
       <c r="C23" s="10" t="s">
         <v>191</v>
@@ -25716,7 +25716,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="10" customFormat="1">
+    <row r="24" spans="1:22">
       <c r="A24" s="11"/>
       <c r="C24" s="10" t="s">
         <v>191</v>
@@ -25752,7 +25752,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="10" customFormat="1">
+    <row r="25" spans="1:22">
       <c r="A25" s="11"/>
       <c r="C25" s="10" t="s">
         <v>191</v>
@@ -25788,7 +25788,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="10" customFormat="1">
+    <row r="26" spans="1:22">
       <c r="A26" s="11" t="s">
         <v>190</v>
       </c>
@@ -25823,7 +25823,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="10" customFormat="1">
+    <row r="27" spans="1:22">
       <c r="A27" s="11"/>
       <c r="B27" s="10" t="s">
         <v>186</v>
@@ -25859,7 +25859,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="10" customFormat="1">
+    <row r="28" spans="1:22">
       <c r="C28" s="10" t="s">
         <v>191</v>
       </c>
@@ -25894,7 +25894,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="10" customFormat="1">
+    <row r="29" spans="1:22">
       <c r="A29" s="10" t="s">
         <v>190</v>
       </c>
@@ -25929,7 +25929,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="10" customFormat="1">
+    <row r="30" spans="1:22">
       <c r="B30" s="10" t="s">
         <v>192</v>
       </c>
@@ -25964,7 +25964,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="10" customFormat="1">
+    <row r="31" spans="1:22">
       <c r="B31" s="10" t="s">
         <v>192</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="10" customFormat="1">
+    <row r="32" spans="1:22">
       <c r="A32" s="10" t="s">
         <v>190</v>
       </c>
@@ -26034,7 +26034,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="10" customFormat="1">
+    <row r="33" spans="1:24">
       <c r="A33" s="10" t="s">
         <v>190</v>
       </c>
@@ -26069,7 +26069,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="10" customFormat="1">
+    <row r="34" spans="1:24">
       <c r="C34" s="10" t="s">
         <v>191</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="10" customFormat="1">
+    <row r="35" spans="1:24">
       <c r="B35" s="10" t="s">
         <v>192</v>
       </c>
@@ -26139,7 +26139,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="10" customFormat="1">
+    <row r="36" spans="1:24">
       <c r="A36" s="10" t="s">
         <v>190</v>
       </c>
@@ -26174,7 +26174,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="10" customFormat="1">
+    <row r="37" spans="1:24">
       <c r="A37" s="10" t="s">
         <v>190</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="10" customFormat="1">
+    <row r="38" spans="1:24">
       <c r="A38" s="10" t="s">
         <v>190</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="10" customFormat="1">
+    <row r="39" spans="1:24">
       <c r="A39" s="10" t="s">
         <v>190</v>
       </c>
@@ -26279,7 +26279,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="10" customFormat="1">
+    <row r="40" spans="1:24">
       <c r="A40" s="10" t="s">
         <v>190</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="10" customFormat="1">
+    <row r="41" spans="1:24">
       <c r="A41" s="10" t="s">
         <v>190</v>
       </c>
@@ -26349,7 +26349,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="10" customFormat="1">
+    <row r="42" spans="1:24">
       <c r="A42" s="10" t="s">
         <v>190</v>
       </c>
@@ -26384,7 +26384,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="10" customFormat="1">
+    <row r="43" spans="1:24">
       <c r="A43" s="10" t="s">
         <v>190</v>
       </c>
@@ -26419,7 +26419,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="10" customFormat="1">
+    <row r="44" spans="1:24">
       <c r="A44" s="10" t="s">
         <v>190</v>
       </c>
@@ -26454,7 +26454,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="10" customFormat="1">
+    <row r="45" spans="1:24">
       <c r="B45" s="10" t="s">
         <v>192</v>
       </c>
@@ -26489,7 +26489,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="10" customFormat="1">
+    <row r="46" spans="1:24">
       <c r="A46" s="10" t="s">
         <v>190</v>
       </c>
@@ -26524,7 +26524,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="10" customFormat="1">
+    <row r="47" spans="1:24">
       <c r="B47" s="10" t="s">
         <v>192</v>
       </c>
@@ -26559,7 +26559,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="10" customFormat="1">
+    <row r="48" spans="1:24">
       <c r="A48" s="10" t="s">
         <v>190</v>
       </c>
@@ -26594,7 +26594,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="2:24" s="10" customFormat="1">
+    <row r="49" spans="2:24">
       <c r="B49" s="10" t="s">
         <v>192</v>
       </c>
@@ -26629,7 +26629,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="2:24" s="10" customFormat="1">
+    <row r="50" spans="2:24">
       <c r="B50" s="10" t="s">
         <v>192</v>
       </c>
@@ -26664,7 +26664,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:24" s="10" customFormat="1">
+    <row r="51" spans="2:24">
       <c r="B51" s="10" t="s">
         <v>192</v>
       </c>
@@ -26699,7 +26699,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="2:24" s="10" customFormat="1">
+    <row r="52" spans="2:24">
       <c r="B52" s="10" t="s">
         <v>192</v>
       </c>
@@ -26744,7 +26744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0237522-A5C1-7243-B6B0-8B1A1A6C7327}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="bottomLeft" sqref="A1:A1048576"/>
@@ -26755,7 +26755,7 @@
     <col min="1" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1">
+    <row r="1" spans="1:24">
       <c r="A1" s="11" t="s">
         <v>234</v>
       </c>
@@ -26829,7 +26829,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="10" customFormat="1">
+    <row r="2" spans="1:24">
       <c r="C2" s="10">
         <v>4</v>
       </c>
@@ -26864,7 +26864,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="10" customFormat="1">
+    <row r="3" spans="1:24">
       <c r="C3" s="10">
         <v>4</v>
       </c>
@@ -26899,7 +26899,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="10" customFormat="1">
+    <row r="4" spans="1:24">
       <c r="A4" s="11"/>
       <c r="C4" s="10">
         <v>4</v>
@@ -26935,7 +26935,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="10" customFormat="1">
+    <row r="5" spans="1:24">
       <c r="A5" s="11">
         <v>12</v>
       </c>
@@ -26973,7 +26973,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="10" customFormat="1">
+    <row r="6" spans="1:24">
       <c r="A6" s="11">
         <v>7</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="10" customFormat="1">
+    <row r="7" spans="1:24">
       <c r="A7" s="11">
         <v>7</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="10" customFormat="1">
+    <row r="8" spans="1:24">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -27081,7 +27081,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="10" customFormat="1">
+    <row r="9" spans="1:24">
       <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
@@ -27119,7 +27119,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="10" customFormat="1">
+    <row r="10" spans="1:24">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -27157,7 +27157,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="10" customFormat="1">
+    <row r="11" spans="1:24">
       <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
@@ -27195,7 +27195,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="10" customFormat="1">
+    <row r="12" spans="1:24">
       <c r="A12" s="11"/>
       <c r="C12" s="10">
         <v>6</v>
@@ -27231,7 +27231,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="10" customFormat="1">
+    <row r="13" spans="1:24">
       <c r="A13" s="11"/>
       <c r="C13" s="10">
         <v>4</v>
@@ -27267,7 +27267,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="10" customFormat="1">
+    <row r="14" spans="1:24">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -27302,7 +27302,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="10" customFormat="1">
+    <row r="15" spans="1:24">
       <c r="A15" s="11">
         <v>7</v>
       </c>
@@ -27340,7 +27340,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="10" customFormat="1">
+    <row r="16" spans="1:24">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -27375,7 +27375,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="10" customFormat="1">
+    <row r="17" spans="1:24">
       <c r="A17" s="11">
         <v>7</v>
       </c>
@@ -27410,7 +27410,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="10" customFormat="1">
+    <row r="18" spans="1:24">
       <c r="A18" s="11">
         <v>7</v>
       </c>
@@ -27445,7 +27445,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="10" customFormat="1">
+    <row r="19" spans="1:24">
       <c r="A19" s="11">
         <v>7</v>
       </c>
@@ -27483,7 +27483,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="10" customFormat="1">
+    <row r="20" spans="1:24">
       <c r="A20" s="11"/>
       <c r="C20" s="10">
         <v>6</v>
@@ -27522,7 +27522,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="10" customFormat="1">
+    <row r="21" spans="1:24">
       <c r="A21" s="11"/>
       <c r="C21" s="10">
         <v>6</v>
@@ -27561,7 +27561,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="10" customFormat="1">
+    <row r="22" spans="1:24">
       <c r="A22" s="11">
         <v>7</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="10" customFormat="1">
+    <row r="23" spans="1:24">
       <c r="A23" s="11">
         <v>7</v>
       </c>
@@ -27634,7 +27634,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="10" customFormat="1">
+    <row r="24" spans="1:24">
       <c r="A24" s="11">
         <v>7</v>
       </c>
@@ -27669,7 +27669,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="10" customFormat="1">
+    <row r="25" spans="1:24">
       <c r="A25" s="11">
         <v>7</v>
       </c>
@@ -27704,7 +27704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="10" customFormat="1">
+    <row r="26" spans="1:24">
       <c r="A26" s="11">
         <v>7</v>
       </c>
@@ -27739,7 +27739,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="10" customFormat="1">
+    <row r="27" spans="1:24">
       <c r="A27" s="11">
         <v>7</v>
       </c>
@@ -27777,7 +27777,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="10" customFormat="1">
+    <row r="28" spans="1:24">
       <c r="A28" s="11">
         <v>7</v>
       </c>
@@ -27812,7 +27812,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="10" customFormat="1">
+    <row r="29" spans="1:24">
       <c r="A29" s="11">
         <v>10</v>
       </c>
@@ -27847,7 +27847,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="10" customFormat="1">
+    <row r="30" spans="1:24">
       <c r="A30" s="11">
         <v>10</v>
       </c>
@@ -27882,7 +27882,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="10" customFormat="1">
+    <row r="31" spans="1:24">
       <c r="A31" s="11">
         <v>10</v>
       </c>
@@ -27917,7 +27917,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="10" customFormat="1">
+    <row r="32" spans="1:24">
       <c r="C32" s="10">
         <v>6</v>
       </c>
@@ -27952,7 +27952,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="10" customFormat="1">
+    <row r="33" spans="1:23">
       <c r="C33" s="10">
         <v>6</v>
       </c>
@@ -27987,7 +27987,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="10" customFormat="1">
+    <row r="34" spans="1:23">
       <c r="C34" s="10">
         <v>6</v>
       </c>
@@ -28022,7 +28022,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="10" customFormat="1">
+    <row r="35" spans="1:23">
       <c r="A35" s="10">
         <v>9</v>
       </c>
@@ -28057,7 +28057,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="10" customFormat="1">
+    <row r="36" spans="1:23">
       <c r="A36" s="10">
         <v>7</v>
       </c>
@@ -28092,7 +28092,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="10" customFormat="1">
+    <row r="37" spans="1:23">
       <c r="A37" s="10">
         <v>7</v>
       </c>
@@ -28127,7 +28127,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="10" customFormat="1">
+    <row r="38" spans="1:23">
       <c r="A38" s="10">
         <v>10</v>
       </c>
@@ -28162,7 +28162,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="10" customFormat="1">
+    <row r="39" spans="1:23">
       <c r="A39" s="10">
         <v>10</v>
       </c>
@@ -28197,7 +28197,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="10" customFormat="1">
+    <row r="40" spans="1:23">
       <c r="A40" s="10">
         <v>10</v>
       </c>
@@ -28235,7 +28235,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="10" customFormat="1">
+    <row r="41" spans="1:23">
       <c r="A41" s="10">
         <v>10</v>
       </c>
@@ -28270,7 +28270,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="10" customFormat="1">
+    <row r="42" spans="1:23">
       <c r="A42" s="10">
         <v>10</v>
       </c>
@@ -28305,7 +28305,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="10" customFormat="1">
+    <row r="43" spans="1:23">
       <c r="A43" s="10">
         <v>9</v>
       </c>
@@ -28343,7 +28343,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="10" customFormat="1">
+    <row r="44" spans="1:23">
       <c r="A44" s="10">
         <v>10</v>
       </c>
@@ -28378,7 +28378,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="10" customFormat="1">
+    <row r="45" spans="1:23">
       <c r="A45" s="10">
         <v>10</v>
       </c>
@@ -28413,7 +28413,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="10" customFormat="1">
+    <row r="46" spans="1:23">
       <c r="A46" s="10" t="s">
         <v>16</v>
       </c>
@@ -28451,7 +28451,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="10" customFormat="1">
+    <row r="47" spans="1:23">
       <c r="A47" s="10">
         <v>10</v>
       </c>
@@ -28486,7 +28486,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="10" customFormat="1">
+    <row r="48" spans="1:23">
       <c r="A48" s="10">
         <v>10</v>
       </c>
@@ -28521,7 +28521,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="10" customFormat="1">
+    <row r="49" spans="1:23">
       <c r="A49" s="10">
         <v>10</v>
       </c>
@@ -28559,7 +28559,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="10" customFormat="1">
+    <row r="50" spans="1:23">
       <c r="A50" s="10">
         <v>10</v>
       </c>
@@ -28594,7 +28594,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="10" customFormat="1">
+    <row r="51" spans="1:23">
       <c r="A51" s="10">
         <v>10</v>
       </c>
@@ -28629,7 +28629,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="10" customFormat="1">
+    <row r="52" spans="1:23">
       <c r="A52" s="10" t="s">
         <v>16</v>
       </c>
@@ -28667,7 +28667,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="10" customFormat="1">
+    <row r="53" spans="1:23">
       <c r="E53" s="10">
         <v>3</v>
       </c>
@@ -28723,7 +28723,7 @@
     <col min="1" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="12" customFormat="1">
+    <row r="1" spans="1:22">
       <c r="A1" s="12" t="s">
         <v>245</v>
       </c>
@@ -28791,7 +28791,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="12" customFormat="1">
+    <row r="2" spans="1:22">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -28829,7 +28829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="12" customFormat="1">
+    <row r="3" spans="1:22">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -28867,7 +28867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="12" customFormat="1">
+    <row r="4" spans="1:22">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -28905,7 +28905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="12" customFormat="1">
+    <row r="5" spans="1:22">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -28943,7 +28943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="12" customFormat="1">
+    <row r="6" spans="1:22">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -28981,7 +28981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="12" customFormat="1">
+    <row r="7" spans="1:22">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -29016,7 +29016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="12" customFormat="1">
+    <row r="8" spans="1:22">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -29051,7 +29051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="12" customFormat="1">
+    <row r="9" spans="1:22">
       <c r="A9" s="12">
         <v>1</v>
       </c>
@@ -29089,7 +29089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="12" customFormat="1">
+    <row r="10" spans="1:22">
       <c r="A10" s="12">
         <v>1</v>
       </c>
@@ -29127,7 +29127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="12" customFormat="1">
+    <row r="11" spans="1:22">
       <c r="A11" s="12">
         <v>1</v>
       </c>
@@ -29162,7 +29162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="12" customFormat="1">
+    <row r="12" spans="1:22">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -29200,7 +29200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="12" customFormat="1">
+    <row r="13" spans="1:22">
       <c r="A13" s="12">
         <v>1</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="12" customFormat="1">
+    <row r="14" spans="1:22">
       <c r="A14" s="13"/>
       <c r="B14" s="12">
         <v>11</v>
@@ -29271,7 +29271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="12" customFormat="1">
+    <row r="15" spans="1:22">
       <c r="A15" s="13"/>
       <c r="B15" s="12">
         <v>11</v>
@@ -29307,7 +29307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="12" customFormat="1">
+    <row r="16" spans="1:22">
       <c r="A16" s="13"/>
       <c r="B16" s="12">
         <v>11</v>
@@ -29343,7 +29343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="12" customFormat="1">
+    <row r="17" spans="1:22">
       <c r="A17" s="13"/>
       <c r="B17" s="12">
         <v>11</v>
@@ -29382,7 +29382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="12" customFormat="1">
+    <row r="18" spans="1:22">
       <c r="A18" s="13"/>
       <c r="B18" s="12">
         <v>11</v>
@@ -29418,7 +29418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="12" customFormat="1">
+    <row r="19" spans="1:22">
       <c r="A19" s="13"/>
       <c r="B19" s="12">
         <v>11</v>
@@ -29457,7 +29457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="12" customFormat="1">
+    <row r="20" spans="1:22">
       <c r="A20" s="13"/>
       <c r="B20" s="12">
         <v>11</v>
@@ -29496,7 +29496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="12" customFormat="1">
+    <row r="21" spans="1:22">
       <c r="A21" s="13"/>
       <c r="B21" s="12">
         <v>11</v>
@@ -29532,7 +29532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="12" customFormat="1">
+    <row r="22" spans="1:22">
       <c r="A22" s="13"/>
       <c r="B22" s="12">
         <v>11</v>
@@ -29568,7 +29568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="12" customFormat="1">
+    <row r="23" spans="1:22">
       <c r="A23" s="13"/>
       <c r="B23" s="12">
         <v>11</v>
@@ -29604,7 +29604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="12" customFormat="1">
+    <row r="24" spans="1:22">
       <c r="A24" s="13"/>
       <c r="B24" s="12">
         <v>11</v>
@@ -29643,7 +29643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="12" customFormat="1">
+    <row r="25" spans="1:22">
       <c r="B25" s="12">
         <v>11</v>
       </c>
@@ -29678,7 +29678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="12" customFormat="1">
+    <row r="26" spans="1:22">
       <c r="B26" s="12">
         <v>11</v>
       </c>
@@ -29716,7 +29716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="12" customFormat="1">
+    <row r="27" spans="1:22">
       <c r="B27" s="12">
         <v>11</v>
       </c>
@@ -29751,7 +29751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="12" customFormat="1">
+    <row r="28" spans="1:22">
       <c r="B28" s="12">
         <v>11</v>
       </c>
@@ -29789,7 +29789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="12" customFormat="1">
+    <row r="29" spans="1:22">
       <c r="B29" s="12">
         <v>11</v>
       </c>
@@ -29824,7 +29824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="12" customFormat="1">
+    <row r="30" spans="1:22">
       <c r="A30" s="12">
         <v>1</v>
       </c>
@@ -29862,7 +29862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="12" customFormat="1">
+    <row r="31" spans="1:22">
       <c r="A31" s="12">
         <v>1</v>
       </c>
@@ -29897,7 +29897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="12" customFormat="1">
+    <row r="32" spans="1:22">
       <c r="A32" s="12">
         <v>1</v>
       </c>
@@ -29935,7 +29935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="12" customFormat="1">
+    <row r="33" spans="1:22">
       <c r="A33" s="12">
         <v>1</v>
       </c>
@@ -29973,7 +29973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="12" customFormat="1">
+    <row r="34" spans="1:22">
       <c r="A34" s="12">
         <v>1</v>
       </c>
@@ -30011,7 +30011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="12" customFormat="1">
+    <row r="35" spans="1:22">
       <c r="A35" s="12">
         <v>1</v>
       </c>
@@ -30046,7 +30046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="12" customFormat="1">
+    <row r="36" spans="1:22">
       <c r="A36" s="12">
         <v>1</v>
       </c>
@@ -30084,7 +30084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="12" customFormat="1">
+    <row r="37" spans="1:22">
       <c r="A37" s="12">
         <v>1</v>
       </c>
@@ -30122,7 +30122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="12" customFormat="1">
+    <row r="38" spans="1:22">
       <c r="A38" s="12">
         <v>1</v>
       </c>
@@ -30160,7 +30160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="12" customFormat="1">
+    <row r="39" spans="1:22">
       <c r="A39" s="12">
         <v>1</v>
       </c>
@@ -30198,7 +30198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="12" customFormat="1">
+    <row r="40" spans="1:22">
       <c r="A40" s="12">
         <v>1</v>
       </c>
@@ -30233,7 +30233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="12" customFormat="1">
+    <row r="41" spans="1:22">
       <c r="A41" s="12">
         <v>1</v>
       </c>
@@ -30268,7 +30268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="12" customFormat="1">
+    <row r="42" spans="1:22">
       <c r="A42" s="12">
         <v>1</v>
       </c>
@@ -30306,7 +30306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="12" customFormat="1">
+    <row r="43" spans="1:22">
       <c r="A43" s="12">
         <v>1</v>
       </c>
@@ -30344,7 +30344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="12" customFormat="1">
+    <row r="44" spans="1:22">
       <c r="A44" s="12">
         <v>1</v>
       </c>
@@ -30382,7 +30382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="12" customFormat="1">
+    <row r="45" spans="1:22">
       <c r="A45" s="12">
         <v>1</v>
       </c>
@@ -30420,7 +30420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="12" customFormat="1">
+    <row r="46" spans="1:22">
       <c r="A46" s="12">
         <v>1</v>
       </c>
@@ -30455,7 +30455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="12" customFormat="1">
+    <row r="47" spans="1:22">
       <c r="A47" s="12">
         <v>1</v>
       </c>
@@ -30496,7 +30496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="12" customFormat="1">
+    <row r="48" spans="1:22">
       <c r="A48" s="12">
         <v>1</v>
       </c>
@@ -30531,7 +30531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="12" customFormat="1">
+    <row r="49" spans="1:22">
       <c r="A49" s="12">
         <v>1</v>
       </c>
@@ -30569,7 +30569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="12" customFormat="1">
+    <row r="50" spans="1:22">
       <c r="A50" s="12">
         <v>1</v>
       </c>
@@ -30610,7 +30610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="12" customFormat="1">
+    <row r="51" spans="1:22">
       <c r="A51" s="12">
         <v>1</v>
       </c>
@@ -30645,7 +30645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="12" customFormat="1">
+    <row r="52" spans="1:22">
       <c r="A52" s="12">
         <v>1</v>
       </c>
@@ -30683,7 +30683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="12" customFormat="1">
+    <row r="53" spans="1:22">
       <c r="A53" s="12">
         <v>1</v>
       </c>
@@ -30718,7 +30718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="12" customFormat="1">
+    <row r="54" spans="1:22">
       <c r="A54" s="12">
         <v>1</v>
       </c>
@@ -30756,7 +30756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="12" customFormat="1">
+    <row r="55" spans="1:22">
       <c r="A55" s="12">
         <v>1</v>
       </c>
@@ -30794,7 +30794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:22" s="12" customFormat="1">
+    <row r="56" spans="1:22">
       <c r="A56" s="12">
         <v>1</v>
       </c>
@@ -30840,7 +30840,7 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -32922,7 +32922,7 @@
         <v>2</v>
       </c>
       <c r="R43" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5">
@@ -33427,8 +33427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B88713-6708-F945-9EF9-BFF9276193B0}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34470,7 +34470,7 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" s="4">
         <v>7</v>

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6991550-E198-7145-AC68-2BB5B0AFC2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E106B-CE87-8741-BC86-DDC23844C94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="1921-22" sheetId="19" r:id="rId1"/>
@@ -797,13 +797,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="HelveticaNeue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -862,39 +868,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -916,9 +925,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -956,7 +965,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1062,7 +1071,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1204,7 +1213,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -28712,10 +28721,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7BF1B0-6259-C248-A6FC-5199EE644BE5}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30492,8 +30501,8 @@
       <c r="U47" s="12">
         <v>6</v>
       </c>
-      <c r="V47" s="12" t="s">
-        <v>14</v>
+      <c r="V47" s="12">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -30527,8 +30536,8 @@
       <c r="U48" s="12">
         <v>6</v>
       </c>
-      <c r="V48" s="12">
-        <v>9</v>
+      <c r="V48" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -33427,8 +33436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B88713-6708-F945-9EF9-BFF9276193B0}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/seasons/excel/scanning-seasons.xlsx
+++ b/seasons/excel/scanning-seasons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petebrown/Developer/complete-record/seasons/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E106B-CE87-8741-BC86-DDC23844C94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74201820-394E-354F-BB8B-7F7F1CFB5704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{47A77848-AA47-9549-8C92-1FFE5C0D5E8C}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="246">
   <si>
     <t>11+</t>
   </si>
@@ -797,19 +797,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="HelveticaNeue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -868,43 +862,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -28724,7 +28715,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="V49" sqref="V49"/>
+      <selection pane="bottomLeft" sqref="A1:V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28733,2108 +28724,2664 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12">
-        <v>10</v>
-      </c>
-      <c r="F2" s="12">
-        <v>4</v>
-      </c>
-      <c r="J2" s="12">
-        <v>6</v>
-      </c>
-      <c r="K2" s="12">
-        <v>7</v>
-      </c>
-      <c r="M2" s="12">
-        <v>12</v>
-      </c>
-      <c r="N2" s="12">
-        <v>2</v>
-      </c>
-      <c r="P2" s="12">
-        <v>5</v>
-      </c>
-      <c r="S2" s="12">
-        <v>8</v>
-      </c>
-      <c r="V2" s="12">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>10</v>
+      </c>
+      <c r="F2" s="13">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13">
+        <v>6</v>
+      </c>
+      <c r="K2" s="13">
+        <v>7</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13">
+        <v>12</v>
+      </c>
+      <c r="N2" s="13">
+        <v>2</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13">
+        <v>8</v>
+      </c>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12">
-        <v>3</v>
-      </c>
-      <c r="E3" s="12">
-        <v>10</v>
-      </c>
-      <c r="F3" s="12">
-        <v>4</v>
-      </c>
-      <c r="J3" s="12">
-        <v>6</v>
-      </c>
-      <c r="K3" s="12">
-        <v>7</v>
-      </c>
-      <c r="M3" s="12">
-        <v>12</v>
-      </c>
-      <c r="N3" s="12">
-        <v>2</v>
-      </c>
-      <c r="P3" s="12">
-        <v>5</v>
-      </c>
-      <c r="S3" s="12">
-        <v>8</v>
-      </c>
-      <c r="V3" s="12" t="s">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13">
+        <v>10</v>
+      </c>
+      <c r="F3" s="13">
+        <v>4</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13">
+        <v>6</v>
+      </c>
+      <c r="K3" s="13">
+        <v>7</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13">
+        <v>12</v>
+      </c>
+      <c r="N3" s="13">
+        <v>2</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13">
+        <v>8</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="J4" s="12" t="s">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13">
+        <v>4</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="12">
-        <v>7</v>
-      </c>
-      <c r="N4" s="12">
-        <v>2</v>
-      </c>
-      <c r="P4" s="12">
-        <v>5</v>
-      </c>
-      <c r="S4" s="12">
-        <v>8</v>
-      </c>
-      <c r="V4" s="12">
+      <c r="K4" s="13">
+        <v>7</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13">
+        <v>2</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13">
+        <v>8</v>
+      </c>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12">
-        <v>11</v>
-      </c>
-      <c r="C5" s="12">
-        <v>6</v>
-      </c>
-      <c r="D5" s="12">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="12">
-        <v>10</v>
-      </c>
-      <c r="N5" s="12">
-        <v>2</v>
-      </c>
-      <c r="P5" s="12">
-        <v>5</v>
-      </c>
-      <c r="R5" s="12">
-        <v>12</v>
-      </c>
-      <c r="S5" s="12">
-        <v>8</v>
-      </c>
-      <c r="V5" s="12">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13">
+        <v>10</v>
+      </c>
+      <c r="N5" s="13">
+        <v>2</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13">
+        <v>12</v>
+      </c>
+      <c r="S5" s="13">
+        <v>8</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12">
-        <v>10</v>
-      </c>
-      <c r="D6" s="12">
-        <v>3</v>
-      </c>
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="K6" s="12">
-        <v>12</v>
-      </c>
-      <c r="M6" s="12">
-        <v>7</v>
-      </c>
-      <c r="N6" s="12">
-        <v>6</v>
-      </c>
-      <c r="P6" s="12">
-        <v>5</v>
-      </c>
-      <c r="R6" s="12">
-        <v>2</v>
-      </c>
-      <c r="S6" s="12">
-        <v>8</v>
-      </c>
-      <c r="V6" s="12">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
+        <v>4</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13">
+        <v>12</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>7</v>
+      </c>
+      <c r="N6" s="13">
+        <v>6</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13">
+        <v>2</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12">
-        <v>11</v>
-      </c>
-      <c r="C7" s="12">
-        <v>10</v>
-      </c>
-      <c r="D7" s="12">
-        <v>3</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="J7" s="12">
-        <v>6</v>
-      </c>
-      <c r="M7" s="12">
-        <v>7</v>
-      </c>
-      <c r="N7" s="12">
-        <v>5</v>
-      </c>
-      <c r="R7" s="12">
-        <v>2</v>
-      </c>
-      <c r="S7" s="12">
-        <v>8</v>
-      </c>
-      <c r="V7" s="12">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
+        <v>4</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13">
+        <v>6</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13">
+        <v>7</v>
+      </c>
+      <c r="N7" s="13">
+        <v>5</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13">
+        <v>2</v>
+      </c>
+      <c r="S7" s="13">
+        <v>8</v>
+      </c>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12">
-        <v>4</v>
-      </c>
-      <c r="J8" s="12">
-        <v>6</v>
-      </c>
-      <c r="K8" s="12">
-        <v>10</v>
-      </c>
-      <c r="M8" s="12">
-        <v>7</v>
-      </c>
-      <c r="N8" s="12">
-        <v>5</v>
-      </c>
-      <c r="R8" s="12">
-        <v>2</v>
-      </c>
-      <c r="S8" s="12">
-        <v>8</v>
-      </c>
-      <c r="V8" s="12">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
+        <v>4</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
+        <v>6</v>
+      </c>
+      <c r="K8" s="13">
+        <v>10</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13">
+        <v>7</v>
+      </c>
+      <c r="N8" s="13">
+        <v>5</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13">
+        <v>2</v>
+      </c>
+      <c r="S8" s="13">
+        <v>8</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="12">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12">
-        <v>12</v>
-      </c>
-      <c r="D9" s="12">
-        <v>3</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
+        <v>4</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="12">
-        <v>10</v>
-      </c>
-      <c r="M9" s="12">
-        <v>7</v>
-      </c>
-      <c r="N9" s="12">
-        <v>5</v>
-      </c>
-      <c r="R9" s="12">
-        <v>2</v>
-      </c>
-      <c r="S9" s="12">
-        <v>8</v>
-      </c>
-      <c r="V9" s="12">
+      <c r="K9" s="13">
+        <v>10</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13">
+        <v>7</v>
+      </c>
+      <c r="N9" s="13">
+        <v>5</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13">
+        <v>2</v>
+      </c>
+      <c r="S9" s="13">
+        <v>8</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="12">
-        <v>1</v>
-      </c>
-      <c r="B10" s="12">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12">
-        <v>5</v>
-      </c>
-      <c r="D10" s="12">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="12">
-        <v>6</v>
-      </c>
-      <c r="M10" s="12">
-        <v>10</v>
-      </c>
-      <c r="N10" s="12">
-        <v>2</v>
-      </c>
-      <c r="P10" s="12">
-        <v>12</v>
-      </c>
-      <c r="R10" s="12">
-        <v>7</v>
-      </c>
-      <c r="S10" s="12">
-        <v>8</v>
-      </c>
-      <c r="V10" s="12">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13">
+        <v>6</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13">
+        <v>10</v>
+      </c>
+      <c r="N10" s="13">
+        <v>2</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13">
+        <v>7</v>
+      </c>
+      <c r="S10" s="13">
+        <v>8</v>
+      </c>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="12">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12">
-        <v>5</v>
-      </c>
-      <c r="D11" s="12">
-        <v>3</v>
-      </c>
-      <c r="I11" s="12">
-        <v>4</v>
-      </c>
-      <c r="J11" s="12">
-        <v>6</v>
-      </c>
-      <c r="M11" s="12">
-        <v>10</v>
-      </c>
-      <c r="N11" s="12">
-        <v>2</v>
-      </c>
-      <c r="R11" s="12">
-        <v>7</v>
-      </c>
-      <c r="S11" s="12">
-        <v>8</v>
-      </c>
-      <c r="V11" s="12">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13">
+        <v>5</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
+        <v>4</v>
+      </c>
+      <c r="J11" s="13">
+        <v>6</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13">
+        <v>10</v>
+      </c>
+      <c r="N11" s="13">
+        <v>2</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13">
+        <v>7</v>
+      </c>
+      <c r="S11" s="13">
+        <v>8</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12">
-        <v>6</v>
-      </c>
-      <c r="I12" s="12">
-        <v>4</v>
-      </c>
-      <c r="K12" s="12">
-        <v>12</v>
-      </c>
-      <c r="M12" s="12">
-        <v>10</v>
-      </c>
-      <c r="N12" s="12">
-        <v>2</v>
-      </c>
-      <c r="R12" s="12" t="s">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13">
+        <v>11</v>
+      </c>
+      <c r="C12" s="13">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13">
+        <v>4</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13">
+        <v>12</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13">
+        <v>10</v>
+      </c>
+      <c r="N12" s="13">
+        <v>2</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="12">
-        <v>8</v>
-      </c>
-      <c r="V12" s="12">
+      <c r="S12" s="13">
+        <v>8</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="12">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12">
-        <v>11</v>
-      </c>
-      <c r="D13" s="12">
-        <v>3</v>
-      </c>
-      <c r="F13" s="12">
-        <v>6</v>
-      </c>
-      <c r="I13" s="12">
-        <v>4</v>
-      </c>
-      <c r="K13" s="12">
-        <v>5</v>
-      </c>
-      <c r="L13" s="12">
-        <v>7</v>
-      </c>
-      <c r="M13" s="12">
-        <v>10</v>
-      </c>
-      <c r="N13" s="12">
-        <v>2</v>
-      </c>
-      <c r="S13" s="12">
-        <v>8</v>
-      </c>
-      <c r="V13" s="12">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13">
+        <v>6</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
+        <v>4</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13">
+        <v>5</v>
+      </c>
+      <c r="L13" s="13">
+        <v>7</v>
+      </c>
+      <c r="M13" s="13">
+        <v>10</v>
+      </c>
+      <c r="N13" s="13">
+        <v>2</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13">
+        <v>8</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="13"/>
-      <c r="B14" s="12">
-        <v>11</v>
-      </c>
-      <c r="D14" s="12">
-        <v>3</v>
-      </c>
-      <c r="F14" s="12">
-        <v>6</v>
-      </c>
-      <c r="I14" s="12">
-        <v>4</v>
-      </c>
-      <c r="K14" s="12">
-        <v>5</v>
-      </c>
-      <c r="L14" s="12">
-        <v>7</v>
-      </c>
-      <c r="M14" s="12">
-        <v>10</v>
-      </c>
-      <c r="N14" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>1</v>
-      </c>
-      <c r="S14" s="12">
-        <v>8</v>
-      </c>
-      <c r="V14" s="12">
+      <c r="B14" s="13">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13">
+        <v>6</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13">
+        <v>4</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13">
+        <v>5</v>
+      </c>
+      <c r="L14" s="13">
+        <v>7</v>
+      </c>
+      <c r="M14" s="13">
+        <v>10</v>
+      </c>
+      <c r="N14" s="13">
+        <v>2</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13">
+        <v>1</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13">
+        <v>8</v>
+      </c>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="13"/>
-      <c r="B15" s="12">
-        <v>11</v>
-      </c>
-      <c r="D15" s="12">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12">
-        <v>6</v>
-      </c>
-      <c r="I15" s="12">
-        <v>4</v>
-      </c>
-      <c r="K15" s="12">
-        <v>5</v>
-      </c>
-      <c r="L15" s="12">
-        <v>7</v>
-      </c>
-      <c r="M15" s="12">
-        <v>10</v>
-      </c>
-      <c r="N15" s="12">
-        <v>2</v>
-      </c>
-      <c r="P15" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>1</v>
-      </c>
-      <c r="V15" s="12">
+      <c r="B15" s="13">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13">
+        <v>6</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13">
+        <v>4</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13">
+        <v>5</v>
+      </c>
+      <c r="L15" s="13">
+        <v>7</v>
+      </c>
+      <c r="M15" s="13">
+        <v>10</v>
+      </c>
+      <c r="N15" s="13">
+        <v>2</v>
+      </c>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>1</v>
+      </c>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="13"/>
-      <c r="B16" s="12">
-        <v>11</v>
-      </c>
-      <c r="D16" s="12">
-        <v>3</v>
-      </c>
-      <c r="F16" s="12">
-        <v>6</v>
-      </c>
-      <c r="I16" s="12">
-        <v>4</v>
-      </c>
-      <c r="K16" s="12">
-        <v>5</v>
-      </c>
-      <c r="L16" s="12">
-        <v>7</v>
-      </c>
-      <c r="M16" s="12">
-        <v>10</v>
-      </c>
-      <c r="N16" s="12">
-        <v>2</v>
-      </c>
-      <c r="P16" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>1</v>
-      </c>
-      <c r="V16" s="12">
+      <c r="B16" s="13">
+        <v>11</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13">
+        <v>4</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13">
+        <v>5</v>
+      </c>
+      <c r="L16" s="13">
+        <v>7</v>
+      </c>
+      <c r="M16" s="13">
+        <v>10</v>
+      </c>
+      <c r="N16" s="13">
+        <v>2</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>1</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="13"/>
-      <c r="B17" s="12">
-        <v>11</v>
-      </c>
-      <c r="C17" s="12">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12">
-        <v>3</v>
-      </c>
-      <c r="F17" s="12">
-        <v>6</v>
-      </c>
-      <c r="I17" s="12">
-        <v>4</v>
-      </c>
-      <c r="K17" s="12">
-        <v>5</v>
-      </c>
-      <c r="L17" s="12">
-        <v>7</v>
-      </c>
-      <c r="M17" s="12">
-        <v>10</v>
-      </c>
-      <c r="N17" s="12" t="s">
+      <c r="B17" s="13">
+        <v>11</v>
+      </c>
+      <c r="C17" s="13">
+        <v>12</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13">
+        <v>4</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13">
+        <v>5</v>
+      </c>
+      <c r="L17" s="13">
+        <v>7</v>
+      </c>
+      <c r="M17" s="13">
+        <v>10</v>
+      </c>
+      <c r="N17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>1</v>
-      </c>
-      <c r="V17" s="12">
+      <c r="O17" s="13"/>
+      <c r="P17" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1</v>
+      </c>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="13"/>
-      <c r="B18" s="12">
-        <v>11</v>
-      </c>
-      <c r="D18" s="12">
-        <v>3</v>
-      </c>
-      <c r="F18" s="12">
-        <v>6</v>
-      </c>
-      <c r="I18" s="12">
-        <v>4</v>
-      </c>
-      <c r="K18" s="12">
-        <v>5</v>
-      </c>
-      <c r="L18" s="12">
-        <v>7</v>
-      </c>
-      <c r="M18" s="12">
-        <v>10</v>
-      </c>
-      <c r="N18" s="12">
-        <v>2</v>
-      </c>
-      <c r="P18" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>1</v>
-      </c>
-      <c r="V18" s="12">
+      <c r="B18" s="13">
+        <v>11</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13">
+        <v>3</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13">
+        <v>4</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13">
+        <v>5</v>
+      </c>
+      <c r="L18" s="13">
+        <v>7</v>
+      </c>
+      <c r="M18" s="13">
+        <v>10</v>
+      </c>
+      <c r="N18" s="13">
+        <v>2</v>
+      </c>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>1</v>
+      </c>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="13"/>
-      <c r="B19" s="12">
-        <v>11</v>
-      </c>
-      <c r="C19" s="12">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12">
-        <v>3</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="12">
-        <v>4</v>
-      </c>
-      <c r="K19" s="12">
-        <v>5</v>
-      </c>
-      <c r="L19" s="12">
-        <v>7</v>
-      </c>
-      <c r="M19" s="12">
-        <v>10</v>
-      </c>
-      <c r="N19" s="12">
-        <v>2</v>
-      </c>
-      <c r="P19" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>1</v>
-      </c>
-      <c r="V19" s="12">
+      <c r="B19" s="13">
+        <v>11</v>
+      </c>
+      <c r="C19" s="13">
+        <v>12</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13">
+        <v>4</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13">
+        <v>5</v>
+      </c>
+      <c r="L19" s="13">
+        <v>7</v>
+      </c>
+      <c r="M19" s="13">
+        <v>10</v>
+      </c>
+      <c r="N19" s="13">
+        <v>2</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>1</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="13"/>
-      <c r="B20" s="12">
-        <v>11</v>
-      </c>
-      <c r="C20" s="12">
-        <v>12</v>
-      </c>
-      <c r="D20" s="12">
-        <v>3</v>
-      </c>
-      <c r="F20" s="12">
-        <v>6</v>
-      </c>
-      <c r="I20" s="12">
-        <v>4</v>
-      </c>
-      <c r="K20" s="12">
-        <v>5</v>
-      </c>
-      <c r="L20" s="12" t="s">
+      <c r="B20" s="13">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13">
+        <v>12</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13">
+        <v>4</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13">
+        <v>5</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="12">
-        <v>10</v>
-      </c>
-      <c r="N20" s="12">
-        <v>2</v>
-      </c>
-      <c r="P20" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>1</v>
-      </c>
-      <c r="V20" s="12">
+      <c r="M20" s="13">
+        <v>10</v>
+      </c>
+      <c r="N20" s="13">
+        <v>2</v>
+      </c>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>1</v>
+      </c>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="13"/>
-      <c r="B21" s="12">
-        <v>11</v>
-      </c>
-      <c r="C21" s="12">
-        <v>5</v>
-      </c>
-      <c r="D21" s="12">
-        <v>3</v>
-      </c>
-      <c r="I21" s="12">
-        <v>4</v>
-      </c>
-      <c r="L21" s="12">
-        <v>7</v>
-      </c>
-      <c r="M21" s="12">
-        <v>10</v>
-      </c>
-      <c r="N21" s="12">
-        <v>2</v>
-      </c>
-      <c r="P21" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>1</v>
-      </c>
-      <c r="S21" s="12">
-        <v>6</v>
-      </c>
-      <c r="V21" s="12">
+      <c r="B21" s="13">
+        <v>11</v>
+      </c>
+      <c r="C21" s="13">
+        <v>5</v>
+      </c>
+      <c r="D21" s="13">
+        <v>3</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13">
+        <v>6</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13">
+        <v>4</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13">
+        <v>7</v>
+      </c>
+      <c r="M21" s="13">
+        <v>10</v>
+      </c>
+      <c r="N21" s="13">
+        <v>2</v>
+      </c>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>1</v>
+      </c>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13">
+        <v>6</v>
+      </c>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="13"/>
-      <c r="B22" s="12">
-        <v>11</v>
-      </c>
-      <c r="C22" s="12">
-        <v>5</v>
-      </c>
-      <c r="D22" s="12">
-        <v>3</v>
-      </c>
-      <c r="F22" s="12">
-        <v>6</v>
-      </c>
-      <c r="K22" s="12">
-        <v>4</v>
-      </c>
-      <c r="L22" s="12">
-        <v>7</v>
-      </c>
-      <c r="M22" s="12">
-        <v>10</v>
-      </c>
-      <c r="N22" s="12">
-        <v>2</v>
-      </c>
-      <c r="P22" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>1</v>
-      </c>
-      <c r="V22" s="12">
+      <c r="B22" s="13">
+        <v>11</v>
+      </c>
+      <c r="C22" s="13">
+        <v>5</v>
+      </c>
+      <c r="D22" s="13">
+        <v>3</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13">
+        <v>6</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13">
+        <v>4</v>
+      </c>
+      <c r="L22" s="13">
+        <v>7</v>
+      </c>
+      <c r="M22" s="13">
+        <v>10</v>
+      </c>
+      <c r="N22" s="13">
+        <v>2</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>1</v>
+      </c>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="13"/>
-      <c r="B23" s="12">
-        <v>11</v>
-      </c>
-      <c r="C23" s="12">
-        <v>5</v>
-      </c>
-      <c r="D23" s="12">
-        <v>3</v>
-      </c>
-      <c r="F23" s="12">
-        <v>6</v>
-      </c>
-      <c r="K23" s="12">
-        <v>4</v>
-      </c>
-      <c r="L23" s="12">
-        <v>7</v>
-      </c>
-      <c r="M23" s="12">
-        <v>10</v>
-      </c>
-      <c r="N23" s="12">
-        <v>2</v>
-      </c>
-      <c r="P23" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>1</v>
-      </c>
-      <c r="V23" s="12">
+      <c r="B23" s="13">
+        <v>11</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5</v>
+      </c>
+      <c r="D23" s="13">
+        <v>3</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13">
+        <v>6</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13">
+        <v>4</v>
+      </c>
+      <c r="L23" s="13">
+        <v>7</v>
+      </c>
+      <c r="M23" s="13">
+        <v>10</v>
+      </c>
+      <c r="N23" s="13">
+        <v>2</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>1</v>
+      </c>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="13"/>
-      <c r="B24" s="12">
-        <v>11</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="12">
-        <v>3</v>
-      </c>
-      <c r="F24" s="12">
-        <v>6</v>
-      </c>
-      <c r="I24" s="12">
-        <v>12</v>
-      </c>
-      <c r="K24" s="12">
-        <v>4</v>
-      </c>
-      <c r="L24" s="12">
-        <v>7</v>
-      </c>
-      <c r="M24" s="12">
-        <v>10</v>
-      </c>
-      <c r="N24" s="12">
-        <v>2</v>
-      </c>
-      <c r="P24" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="12">
-        <v>1</v>
-      </c>
-      <c r="V24" s="12">
+      <c r="B24" s="13">
+        <v>11</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13">
+        <v>3</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13">
+        <v>12</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13">
+        <v>4</v>
+      </c>
+      <c r="L24" s="13">
+        <v>7</v>
+      </c>
+      <c r="M24" s="13">
+        <v>10</v>
+      </c>
+      <c r="N24" s="13">
+        <v>2</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>1</v>
+      </c>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="B25" s="12">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12">
-        <v>9</v>
-      </c>
-      <c r="D25" s="12">
-        <v>3</v>
-      </c>
-      <c r="I25" s="12">
-        <v>5</v>
-      </c>
-      <c r="K25" s="12">
-        <v>4</v>
-      </c>
-      <c r="L25" s="12">
-        <v>7</v>
-      </c>
-      <c r="N25" s="12">
-        <v>2</v>
-      </c>
-      <c r="P25" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q25" s="12">
-        <v>1</v>
-      </c>
-      <c r="U25" s="12">
-        <v>6</v>
-      </c>
-      <c r="V25" s="12">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13">
+        <v>11</v>
+      </c>
+      <c r="C25" s="13">
+        <v>9</v>
+      </c>
+      <c r="D25" s="13">
+        <v>3</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13">
+        <v>5</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13">
+        <v>4</v>
+      </c>
+      <c r="L25" s="13">
+        <v>7</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13">
+        <v>2</v>
+      </c>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>1</v>
+      </c>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13">
+        <v>6</v>
+      </c>
+      <c r="V25" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="B26" s="12">
-        <v>11</v>
-      </c>
-      <c r="C26" s="12">
-        <v>12</v>
-      </c>
-      <c r="D26" s="12">
-        <v>3</v>
-      </c>
-      <c r="I26" s="12">
-        <v>5</v>
-      </c>
-      <c r="K26" s="12">
-        <v>4</v>
-      </c>
-      <c r="L26" s="12">
-        <v>7</v>
-      </c>
-      <c r="N26" s="12" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13">
+        <v>11</v>
+      </c>
+      <c r="C26" s="13">
+        <v>12</v>
+      </c>
+      <c r="D26" s="13">
+        <v>3</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13">
+        <v>5</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13">
+        <v>4</v>
+      </c>
+      <c r="L26" s="13">
+        <v>7</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="12">
-        <v>1</v>
-      </c>
-      <c r="S26" s="12">
-        <v>10</v>
-      </c>
-      <c r="U26" s="12">
-        <v>6</v>
-      </c>
-      <c r="V26" s="12">
+      <c r="O26" s="13"/>
+      <c r="P26" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>1</v>
+      </c>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13">
+        <v>10</v>
+      </c>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13">
+        <v>6</v>
+      </c>
+      <c r="V26" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="B27" s="12">
-        <v>11</v>
-      </c>
-      <c r="D27" s="12">
-        <v>3</v>
-      </c>
-      <c r="I27" s="12">
-        <v>5</v>
-      </c>
-      <c r="K27" s="12">
-        <v>4</v>
-      </c>
-      <c r="L27" s="12">
-        <v>7</v>
-      </c>
-      <c r="N27" s="12">
-        <v>2</v>
-      </c>
-      <c r="P27" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>1</v>
-      </c>
-      <c r="S27" s="12">
-        <v>10</v>
-      </c>
-      <c r="U27" s="12">
-        <v>6</v>
-      </c>
-      <c r="V27" s="12">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13">
+        <v>11</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13">
+        <v>3</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13">
+        <v>5</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13">
+        <v>4</v>
+      </c>
+      <c r="L27" s="13">
+        <v>7</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13">
+        <v>2</v>
+      </c>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>1</v>
+      </c>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13">
+        <v>10</v>
+      </c>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13">
+        <v>6</v>
+      </c>
+      <c r="V27" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="B28" s="12">
-        <v>11</v>
-      </c>
-      <c r="C28" s="12">
-        <v>12</v>
-      </c>
-      <c r="D28" s="12">
-        <v>3</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13">
+        <v>11</v>
+      </c>
+      <c r="C28" s="13">
+        <v>12</v>
+      </c>
+      <c r="D28" s="13">
+        <v>3</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13">
+        <v>5</v>
+      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13">
+        <v>7</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13">
+        <v>2</v>
+      </c>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>1</v>
+      </c>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13">
+        <v>10</v>
+      </c>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13">
+        <v>6</v>
+      </c>
+      <c r="V28" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13">
+        <v>11</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13">
+        <v>3</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13">
+        <v>9</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13">
+        <v>5</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13">
+        <v>7</v>
+      </c>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13">
+        <v>2</v>
+      </c>
+      <c r="O29" s="13">
+        <v>10</v>
+      </c>
+      <c r="P29" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>1</v>
+      </c>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13">
+        <v>4</v>
+      </c>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13">
+        <v>6</v>
+      </c>
+      <c r="V29" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="13">
+        <v>1</v>
+      </c>
+      <c r="B30" s="13">
+        <v>11</v>
+      </c>
+      <c r="C30" s="13">
+        <v>12</v>
+      </c>
+      <c r="D30" s="13">
+        <v>3</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13">
+        <v>9</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13">
+        <v>5</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13">
+        <v>7</v>
+      </c>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13">
+        <v>2</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13">
+        <v>4</v>
+      </c>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13">
+        <v>6</v>
+      </c>
+      <c r="V30" s="13"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="13">
+        <v>1</v>
+      </c>
+      <c r="B31" s="13">
+        <v>11</v>
+      </c>
+      <c r="C31" s="13">
+        <v>5</v>
+      </c>
+      <c r="D31" s="13">
+        <v>3</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13">
+        <v>3</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13">
+        <v>7</v>
+      </c>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13">
+        <v>2</v>
+      </c>
+      <c r="O31" s="13">
+        <v>10</v>
+      </c>
+      <c r="P31" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13">
+        <v>4</v>
+      </c>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13">
+        <v>6</v>
+      </c>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="13">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13">
+        <v>11</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13">
+        <v>3</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13">
+        <v>12</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13">
+        <v>7</v>
+      </c>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13">
+        <v>2</v>
+      </c>
+      <c r="O32" s="13">
+        <v>10</v>
+      </c>
+      <c r="P32" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13">
+        <v>4</v>
+      </c>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13">
+        <v>6</v>
+      </c>
+      <c r="V32" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="13">
+        <v>1</v>
+      </c>
+      <c r="B33" s="13">
+        <v>11</v>
+      </c>
+      <c r="C33" s="13">
+        <v>5</v>
+      </c>
+      <c r="D33" s="13">
+        <v>12</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13">
+        <v>6</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13">
+        <v>4</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13">
+        <v>7</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13">
+        <v>2</v>
+      </c>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13">
+        <v>10</v>
+      </c>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="V33" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="13">
+        <v>1</v>
+      </c>
+      <c r="B34" s="13">
+        <v>11</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="13">
+        <v>3</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13">
+        <v>6</v>
+      </c>
+      <c r="G34" s="13">
+        <v>12</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13">
+        <v>4</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13">
+        <v>7</v>
+      </c>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13">
+        <v>2</v>
+      </c>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13">
+        <v>10</v>
+      </c>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="13">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13">
+        <v>11</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13">
+        <v>3</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13">
+        <v>6</v>
+      </c>
+      <c r="G35" s="13">
+        <v>9</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13">
+        <v>4</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13">
+        <v>7</v>
+      </c>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13">
+        <v>2</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13">
+        <v>8</v>
+      </c>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="13">
+        <v>1</v>
+      </c>
+      <c r="B36" s="13">
+        <v>11</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13">
+        <v>3</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13">
+        <v>6</v>
+      </c>
+      <c r="G36" s="13">
+        <v>9</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="12">
-        <v>5</v>
-      </c>
-      <c r="L28" s="12">
-        <v>7</v>
-      </c>
-      <c r="N28" s="12">
-        <v>2</v>
-      </c>
-      <c r="P28" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>1</v>
-      </c>
-      <c r="S28" s="12">
-        <v>10</v>
-      </c>
-      <c r="U28" s="12">
-        <v>6</v>
-      </c>
-      <c r="V28" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="B29" s="12">
-        <v>11</v>
-      </c>
-      <c r="D29" s="12">
-        <v>3</v>
-      </c>
-      <c r="I29" s="12">
-        <v>5</v>
-      </c>
-      <c r="L29" s="12">
-        <v>7</v>
-      </c>
-      <c r="N29" s="12">
-        <v>2</v>
-      </c>
-      <c r="O29" s="12">
-        <v>10</v>
-      </c>
-      <c r="P29" s="12">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>1</v>
-      </c>
-      <c r="S29" s="12">
-        <v>4</v>
-      </c>
-      <c r="U29" s="12">
-        <v>6</v>
-      </c>
-      <c r="V29" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="12">
-        <v>1</v>
-      </c>
-      <c r="B30" s="12">
-        <v>11</v>
-      </c>
-      <c r="C30" s="12">
-        <v>12</v>
-      </c>
-      <c r="D30" s="12">
-        <v>3</v>
-      </c>
-      <c r="F30" s="12">
-        <v>9</v>
-      </c>
-      <c r="I30" s="12">
-        <v>5</v>
-      </c>
-      <c r="L30" s="12">
-        <v>7</v>
-      </c>
-      <c r="N30" s="12">
-        <v>2</v>
-      </c>
-      <c r="O30" s="12" t="s">
+      <c r="J36" s="13"/>
+      <c r="K36" s="13">
+        <v>12</v>
+      </c>
+      <c r="L36" s="13">
+        <v>7</v>
+      </c>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13">
+        <v>2</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13">
+        <v>8</v>
+      </c>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="13">
+        <v>1</v>
+      </c>
+      <c r="B37" s="13">
+        <v>11</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13">
+        <v>6</v>
+      </c>
+      <c r="G37" s="13">
+        <v>9</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13">
+        <v>4</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13">
+        <v>7</v>
+      </c>
+      <c r="M37" s="13">
+        <v>10</v>
+      </c>
+      <c r="N37" s="13">
+        <v>2</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13">
+        <v>3</v>
+      </c>
+      <c r="V37" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="13">
+        <v>1</v>
+      </c>
+      <c r="B38" s="13">
+        <v>11</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13">
+        <v>6</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13">
+        <v>4</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13">
+        <v>12</v>
+      </c>
+      <c r="L38" s="13">
+        <v>7</v>
+      </c>
+      <c r="M38" s="13">
+        <v>10</v>
+      </c>
+      <c r="N38" s="13">
+        <v>2</v>
+      </c>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13">
+        <v>3</v>
+      </c>
+      <c r="V38" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="13">
+        <v>1</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13">
+        <v>5</v>
+      </c>
+      <c r="D39" s="13">
+        <v>3</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13">
+        <v>6</v>
+      </c>
+      <c r="G39" s="13">
+        <v>9</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13">
+        <v>7</v>
+      </c>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13">
+        <v>10</v>
+      </c>
+      <c r="N39" s="13">
+        <v>2</v>
+      </c>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13">
+        <v>4</v>
+      </c>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13">
+        <v>8</v>
+      </c>
+      <c r="V39" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="13">
+        <v>1</v>
+      </c>
+      <c r="B40" s="13">
+        <v>11</v>
+      </c>
+      <c r="C40" s="13">
+        <v>5</v>
+      </c>
+      <c r="D40" s="13">
+        <v>3</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13">
+        <v>7</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13">
+        <v>10</v>
+      </c>
+      <c r="N40" s="13">
+        <v>2</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13">
+        <v>4</v>
+      </c>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13">
+        <v>8</v>
+      </c>
+      <c r="V40" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="13">
+        <v>1</v>
+      </c>
+      <c r="B41" s="13">
+        <v>11</v>
+      </c>
+      <c r="C41" s="13">
+        <v>9</v>
+      </c>
+      <c r="D41" s="13">
+        <v>3</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13">
+        <v>4</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13">
+        <v>7</v>
+      </c>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13">
+        <v>10</v>
+      </c>
+      <c r="N41" s="13">
+        <v>2</v>
+      </c>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13">
+        <v>8</v>
+      </c>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13">
+        <v>6</v>
+      </c>
+      <c r="V41" s="13"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="13">
+        <v>1</v>
+      </c>
+      <c r="B42" s="13">
+        <v>11</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="13">
+        <v>3</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13">
+        <v>4</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13">
+        <v>7</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13">
+        <v>10</v>
+      </c>
+      <c r="N42" s="13">
+        <v>2</v>
+      </c>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13">
+        <v>8</v>
+      </c>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13">
+        <v>6</v>
+      </c>
+      <c r="V42" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="13">
+        <v>1</v>
+      </c>
+      <c r="B43" s="13">
+        <v>11</v>
+      </c>
+      <c r="C43" s="13">
+        <v>14</v>
+      </c>
+      <c r="D43" s="13">
+        <v>3</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13">
+        <v>4</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13">
+        <v>7</v>
+      </c>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13">
+        <v>10</v>
+      </c>
+      <c r="N43" s="13">
+        <v>2</v>
+      </c>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13">
+        <v>8</v>
+      </c>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="V43" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="13">
+        <v>1</v>
+      </c>
+      <c r="B44" s="13">
+        <v>11</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13">
+        <v>3</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13">
+        <v>4</v>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13">
+        <v>7</v>
+      </c>
+      <c r="L44" s="13">
+        <v>12</v>
+      </c>
+      <c r="M44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="12">
-        <v>8</v>
-      </c>
-      <c r="S30" s="12">
-        <v>4</v>
-      </c>
-      <c r="U30" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="12">
-        <v>1</v>
-      </c>
-      <c r="B31" s="12">
-        <v>11</v>
-      </c>
-      <c r="C31" s="12">
-        <v>5</v>
-      </c>
-      <c r="D31" s="12">
-        <v>3</v>
-      </c>
-      <c r="F31" s="12">
-        <v>9</v>
-      </c>
-      <c r="L31" s="12">
-        <v>7</v>
-      </c>
-      <c r="N31" s="12">
-        <v>2</v>
-      </c>
-      <c r="O31" s="12">
-        <v>10</v>
-      </c>
-      <c r="P31" s="12">
-        <v>8</v>
-      </c>
-      <c r="S31" s="12">
-        <v>4</v>
-      </c>
-      <c r="U31" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="12">
-        <v>1</v>
-      </c>
-      <c r="B32" s="12">
-        <v>11</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="12">
-        <v>3</v>
-      </c>
-      <c r="H32" s="12">
-        <v>12</v>
-      </c>
-      <c r="L32" s="12">
-        <v>7</v>
-      </c>
-      <c r="N32" s="12">
-        <v>2</v>
-      </c>
-      <c r="O32" s="12">
-        <v>10</v>
-      </c>
-      <c r="P32" s="12">
-        <v>8</v>
-      </c>
-      <c r="S32" s="12">
-        <v>4</v>
-      </c>
-      <c r="U32" s="12">
-        <v>6</v>
-      </c>
-      <c r="V32" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="12">
-        <v>1</v>
-      </c>
-      <c r="B33" s="12">
-        <v>11</v>
-      </c>
-      <c r="C33" s="12">
-        <v>5</v>
-      </c>
-      <c r="D33" s="12">
-        <v>12</v>
-      </c>
-      <c r="F33" s="12">
-        <v>3</v>
-      </c>
-      <c r="I33" s="12">
-        <v>4</v>
-      </c>
-      <c r="L33" s="12">
-        <v>7</v>
-      </c>
-      <c r="N33" s="12">
-        <v>2</v>
-      </c>
-      <c r="P33" s="12">
-        <v>8</v>
-      </c>
-      <c r="S33" s="12">
-        <v>10</v>
-      </c>
-      <c r="U33" s="12" t="s">
+      <c r="N44" s="13">
+        <v>2</v>
+      </c>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13">
+        <v>8</v>
+      </c>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13">
+        <v>6</v>
+      </c>
+      <c r="V44" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="13">
+        <v>1</v>
+      </c>
+      <c r="B45" s="13">
+        <v>11</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13">
+        <v>3</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13">
+        <v>4</v>
+      </c>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13">
+        <v>7</v>
+      </c>
+      <c r="L45" s="13">
+        <v>12</v>
+      </c>
+      <c r="M45" s="13">
+        <v>10</v>
+      </c>
+      <c r="N45" s="13">
+        <v>2</v>
+      </c>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13">
+        <v>6</v>
+      </c>
+      <c r="V45" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="13">
+        <v>1</v>
+      </c>
+      <c r="B46" s="13">
+        <v>11</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13">
+        <v>3</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13">
+        <v>4</v>
+      </c>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13">
+        <v>7</v>
+      </c>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13">
+        <v>10</v>
+      </c>
+      <c r="N46" s="13">
+        <v>2</v>
+      </c>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13">
+        <v>8</v>
+      </c>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13">
+        <v>6</v>
+      </c>
+      <c r="V46" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="13">
+        <v>1</v>
+      </c>
+      <c r="B47" s="13">
+        <v>11</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13">
+        <v>3</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13">
+        <v>7</v>
+      </c>
+      <c r="L47" s="13">
+        <v>12</v>
+      </c>
+      <c r="M47" s="13">
+        <v>10</v>
+      </c>
+      <c r="N47" s="13">
+        <v>2</v>
+      </c>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13">
+        <v>8</v>
+      </c>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13">
+        <v>6</v>
+      </c>
+      <c r="V47" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="13">
+        <v>1</v>
+      </c>
+      <c r="B48" s="13">
+        <v>11</v>
+      </c>
+      <c r="C48" s="13">
+        <v>5</v>
+      </c>
+      <c r="D48" s="13">
+        <v>3</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13">
+        <v>12</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13">
+        <v>8</v>
+      </c>
+      <c r="L48" s="13">
+        <v>7</v>
+      </c>
+      <c r="M48" s="13">
+        <v>10</v>
+      </c>
+      <c r="N48" s="13">
+        <v>2</v>
+      </c>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13">
+        <v>6</v>
+      </c>
+      <c r="V48" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="13">
+        <v>1</v>
+      </c>
+      <c r="B49" s="13">
+        <v>11</v>
+      </c>
+      <c r="C49" s="13">
+        <v>5</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="V33" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="12">
-        <v>1</v>
-      </c>
-      <c r="B34" s="12">
-        <v>11</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="12">
-        <v>3</v>
-      </c>
-      <c r="F34" s="12">
-        <v>6</v>
-      </c>
-      <c r="G34" s="12">
-        <v>12</v>
-      </c>
-      <c r="I34" s="12">
-        <v>4</v>
-      </c>
-      <c r="L34" s="12">
-        <v>7</v>
-      </c>
-      <c r="N34" s="12">
-        <v>2</v>
-      </c>
-      <c r="P34" s="12">
-        <v>8</v>
-      </c>
-      <c r="S34" s="12">
-        <v>10</v>
-      </c>
-      <c r="V34" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="12">
-        <v>1</v>
-      </c>
-      <c r="B35" s="12">
-        <v>11</v>
-      </c>
-      <c r="D35" s="12">
-        <v>3</v>
-      </c>
-      <c r="F35" s="12">
-        <v>6</v>
-      </c>
-      <c r="G35" s="12">
-        <v>9</v>
-      </c>
-      <c r="I35" s="12">
-        <v>4</v>
-      </c>
-      <c r="L35" s="12">
-        <v>7</v>
-      </c>
-      <c r="N35" s="12">
-        <v>2</v>
-      </c>
-      <c r="P35" s="12">
-        <v>5</v>
-      </c>
-      <c r="S35" s="12">
-        <v>8</v>
-      </c>
-      <c r="V35" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="12">
-        <v>1</v>
-      </c>
-      <c r="B36" s="12">
-        <v>11</v>
-      </c>
-      <c r="D36" s="12">
-        <v>3</v>
-      </c>
-      <c r="F36" s="12">
-        <v>6</v>
-      </c>
-      <c r="G36" s="12">
-        <v>9</v>
-      </c>
-      <c r="I36" s="12" t="s">
+      <c r="J49" s="13"/>
+      <c r="K49" s="13">
+        <v>7</v>
+      </c>
+      <c r="L49" s="13">
+        <v>12</v>
+      </c>
+      <c r="M49" s="13">
+        <v>10</v>
+      </c>
+      <c r="N49" s="13">
+        <v>2</v>
+      </c>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13">
+        <v>8</v>
+      </c>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13">
+        <v>3</v>
+      </c>
+      <c r="V49" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="13">
+        <v>1</v>
+      </c>
+      <c r="B50" s="13">
+        <v>11</v>
+      </c>
+      <c r="C50" s="13">
+        <v>5</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13">
+        <v>8</v>
+      </c>
+      <c r="G50" s="13">
+        <v>9</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13">
+        <v>12</v>
+      </c>
+      <c r="M50" s="13">
+        <v>10</v>
+      </c>
+      <c r="N50" s="13">
+        <v>2</v>
+      </c>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T50" s="13">
+        <v>6</v>
+      </c>
+      <c r="U50" s="13">
+        <v>3</v>
+      </c>
+      <c r="V50" s="13"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="13">
+        <v>1</v>
+      </c>
+      <c r="B51" s="13">
+        <v>11</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13">
+        <v>3</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13">
+        <v>8</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13">
+        <v>7</v>
+      </c>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13">
+        <v>2</v>
+      </c>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13">
+        <v>10</v>
+      </c>
+      <c r="T51" s="13">
+        <v>4</v>
+      </c>
+      <c r="U51" s="13">
+        <v>6</v>
+      </c>
+      <c r="V51" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="13">
+        <v>1</v>
+      </c>
+      <c r="B52" s="13">
+        <v>11</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13">
+        <v>3</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13">
+        <v>4</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="13">
+        <v>7</v>
+      </c>
+      <c r="M52" s="13">
+        <v>12</v>
+      </c>
+      <c r="N52" s="13">
+        <v>2</v>
+      </c>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13">
+        <v>10</v>
+      </c>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13">
+        <v>6</v>
+      </c>
+      <c r="V52" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="13">
+        <v>1</v>
+      </c>
+      <c r="B53" s="13">
+        <v>11</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13">
+        <v>3</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13">
+        <v>8</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13">
+        <v>4</v>
+      </c>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13">
+        <v>7</v>
+      </c>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13">
+        <v>2</v>
+      </c>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13">
+        <v>10</v>
+      </c>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13">
+        <v>6</v>
+      </c>
+      <c r="V53" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="13">
+        <v>1</v>
+      </c>
+      <c r="B54" s="13">
+        <v>11</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13">
+        <v>3</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13">
+        <v>8</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13">
+        <v>4</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="13">
+        <v>12</v>
+      </c>
+      <c r="N54" s="13">
+        <v>2</v>
+      </c>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13">
+        <v>10</v>
+      </c>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13">
+        <v>6</v>
+      </c>
+      <c r="V54" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="13">
+        <v>1</v>
+      </c>
+      <c r="B55" s="13">
+        <v>11</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13">
+        <v>3</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13">
+        <v>8</v>
+      </c>
+      <c r="G55" s="13">
+        <v>12</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13">
+        <v>7</v>
+      </c>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13">
+        <v>2</v>
+      </c>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13">
+        <v>10</v>
+      </c>
+      <c r="T55" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="12">
-        <v>12</v>
-      </c>
-      <c r="L36" s="12">
-        <v>7</v>
-      </c>
-      <c r="N36" s="12">
-        <v>2</v>
-      </c>
-      <c r="P36" s="12">
-        <v>5</v>
-      </c>
-      <c r="S36" s="12">
-        <v>8</v>
-      </c>
-      <c r="V36" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="12">
-        <v>1</v>
-      </c>
-      <c r="B37" s="12">
-        <v>11</v>
-      </c>
-      <c r="F37" s="12">
-        <v>6</v>
-      </c>
-      <c r="G37" s="12">
-        <v>9</v>
-      </c>
-      <c r="I37" s="12">
-        <v>4</v>
-      </c>
-      <c r="L37" s="12">
-        <v>7</v>
-      </c>
-      <c r="M37" s="12">
-        <v>10</v>
-      </c>
-      <c r="N37" s="12">
-        <v>2</v>
-      </c>
-      <c r="P37" s="12">
-        <v>5</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U37" s="12">
-        <v>3</v>
-      </c>
-      <c r="V37" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="12">
-        <v>1</v>
-      </c>
-      <c r="C38" s="12">
-        <v>5</v>
-      </c>
-      <c r="F38" s="12">
-        <v>6</v>
-      </c>
-      <c r="I38" s="12">
-        <v>4</v>
-      </c>
-      <c r="K38" s="12">
-        <v>12</v>
-      </c>
-      <c r="L38" s="12">
-        <v>7</v>
-      </c>
-      <c r="M38" s="12">
-        <v>10</v>
-      </c>
-      <c r="N38" s="12">
-        <v>2</v>
-      </c>
-      <c r="P38" s="12">
-        <v>5</v>
-      </c>
-      <c r="S38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U38" s="12">
-        <v>3</v>
-      </c>
-      <c r="V38" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="12">
-        <v>1</v>
-      </c>
-      <c r="B39" s="12">
-        <v>11</v>
-      </c>
-      <c r="C39" s="12">
-        <v>5</v>
-      </c>
-      <c r="D39" s="12">
-        <v>3</v>
-      </c>
-      <c r="F39" s="12">
-        <v>6</v>
-      </c>
-      <c r="G39" s="12">
-        <v>9</v>
-      </c>
-      <c r="K39" s="12">
-        <v>7</v>
-      </c>
-      <c r="M39" s="12">
-        <v>10</v>
-      </c>
-      <c r="N39" s="12">
-        <v>2</v>
-      </c>
-      <c r="S39" s="12">
-        <v>4</v>
-      </c>
-      <c r="U39" s="12">
-        <v>8</v>
-      </c>
-      <c r="V39" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="12">
-        <v>1</v>
-      </c>
-      <c r="B40" s="12">
-        <v>11</v>
-      </c>
-      <c r="C40" s="12">
-        <v>9</v>
-      </c>
-      <c r="D40" s="12">
-        <v>3</v>
-      </c>
-      <c r="F40" s="12">
-        <v>6</v>
-      </c>
-      <c r="I40" s="12">
-        <v>7</v>
-      </c>
-      <c r="M40" s="12">
-        <v>10</v>
-      </c>
-      <c r="N40" s="12">
-        <v>2</v>
-      </c>
-      <c r="S40" s="12">
-        <v>4</v>
-      </c>
-      <c r="U40" s="12">
-        <v>8</v>
-      </c>
-      <c r="V40" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="12">
-        <v>1</v>
-      </c>
-      <c r="B41" s="12">
-        <v>11</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="12">
-        <v>3</v>
-      </c>
-      <c r="I41" s="12">
-        <v>4</v>
-      </c>
-      <c r="K41" s="12">
-        <v>7</v>
-      </c>
-      <c r="M41" s="12">
-        <v>10</v>
-      </c>
-      <c r="N41" s="12">
-        <v>2</v>
-      </c>
-      <c r="P41" s="12">
-        <v>5</v>
-      </c>
-      <c r="S41" s="12">
-        <v>8</v>
-      </c>
-      <c r="U41" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="12">
-        <v>1</v>
-      </c>
-      <c r="B42" s="12">
-        <v>11</v>
-      </c>
-      <c r="C42" s="12">
-        <v>14</v>
-      </c>
-      <c r="D42" s="12">
-        <v>3</v>
-      </c>
-      <c r="I42" s="12">
-        <v>4</v>
-      </c>
-      <c r="K42" s="12">
-        <v>7</v>
-      </c>
-      <c r="M42" s="12">
-        <v>10</v>
-      </c>
-      <c r="N42" s="12">
-        <v>2</v>
-      </c>
-      <c r="P42" s="12">
-        <v>5</v>
-      </c>
-      <c r="S42" s="12">
-        <v>8</v>
-      </c>
-      <c r="U42" s="12">
-        <v>6</v>
-      </c>
-      <c r="V42" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="12">
-        <v>1</v>
-      </c>
-      <c r="B43" s="12">
-        <v>11</v>
-      </c>
-      <c r="D43" s="12">
-        <v>3</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="12">
-        <v>4</v>
-      </c>
-      <c r="K43" s="12">
-        <v>7</v>
-      </c>
-      <c r="M43" s="12">
-        <v>10</v>
-      </c>
-      <c r="N43" s="12">
-        <v>2</v>
-      </c>
-      <c r="P43" s="12">
-        <v>5</v>
-      </c>
-      <c r="S43" s="12">
-        <v>8</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="V43" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="12">
-        <v>1</v>
-      </c>
-      <c r="B44" s="12">
-        <v>11</v>
-      </c>
-      <c r="D44" s="12">
-        <v>3</v>
-      </c>
-      <c r="I44" s="12">
-        <v>4</v>
-      </c>
-      <c r="K44" s="12">
-        <v>7</v>
-      </c>
-      <c r="L44" s="12">
-        <v>12</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="12">
-        <v>2</v>
-      </c>
-      <c r="P44" s="12">
-        <v>5</v>
-      </c>
-      <c r="S44" s="12">
-        <v>8</v>
-      </c>
-      <c r="U44" s="12">
-        <v>6</v>
-      </c>
-      <c r="V44" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="12">
-        <v>1</v>
-      </c>
-      <c r="B45" s="12">
-        <v>11</v>
-      </c>
-      <c r="D45" s="12">
-        <v>3</v>
-      </c>
-      <c r="I45" s="12">
-        <v>4</v>
-      </c>
-      <c r="K45" s="12">
-        <v>7</v>
-      </c>
-      <c r="L45" s="12">
-        <v>12</v>
-      </c>
-      <c r="M45" s="12">
-        <v>10</v>
-      </c>
-      <c r="N45" s="12">
-        <v>2</v>
-      </c>
-      <c r="P45" s="12">
-        <v>5</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="U45" s="12">
-        <v>6</v>
-      </c>
-      <c r="V45" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="12">
-        <v>1</v>
-      </c>
-      <c r="B46" s="12">
-        <v>11</v>
-      </c>
-      <c r="D46" s="12">
-        <v>3</v>
-      </c>
-      <c r="I46" s="12">
-        <v>4</v>
-      </c>
-      <c r="K46" s="12">
-        <v>7</v>
-      </c>
-      <c r="M46" s="12">
-        <v>10</v>
-      </c>
-      <c r="N46" s="12">
-        <v>2</v>
-      </c>
-      <c r="P46" s="12">
-        <v>5</v>
-      </c>
-      <c r="S46" s="12">
-        <v>8</v>
-      </c>
-      <c r="U46" s="12">
-        <v>6</v>
-      </c>
-      <c r="V46" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="12">
-        <v>1</v>
-      </c>
-      <c r="B47" s="12">
-        <v>11</v>
-      </c>
-      <c r="C47" s="12">
-        <v>5</v>
-      </c>
-      <c r="D47" s="12">
-        <v>3</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="12">
-        <v>7</v>
-      </c>
-      <c r="L47" s="12">
-        <v>12</v>
-      </c>
-      <c r="M47" s="12">
-        <v>10</v>
-      </c>
-      <c r="N47" s="12">
-        <v>2</v>
-      </c>
-      <c r="P47" s="12">
-        <v>5</v>
-      </c>
-      <c r="S47" s="12">
-        <v>8</v>
-      </c>
-      <c r="U47" s="12">
-        <v>6</v>
-      </c>
-      <c r="V47" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="12">
-        <v>1</v>
-      </c>
-      <c r="B48" s="12">
-        <v>11</v>
-      </c>
-      <c r="C48" s="12">
-        <v>5</v>
-      </c>
-      <c r="G48" s="12">
-        <v>12</v>
-      </c>
-      <c r="K48" s="12">
-        <v>8</v>
-      </c>
-      <c r="L48" s="12">
-        <v>7</v>
-      </c>
-      <c r="M48" s="12">
-        <v>10</v>
-      </c>
-      <c r="N48" s="12">
-        <v>2</v>
-      </c>
-      <c r="P48" s="12">
-        <v>4</v>
-      </c>
-      <c r="U48" s="12">
-        <v>6</v>
-      </c>
-      <c r="V48" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
-      <c r="A49" s="12">
-        <v>1</v>
-      </c>
-      <c r="B49" s="12">
-        <v>11</v>
-      </c>
-      <c r="C49" s="12">
-        <v>5</v>
-      </c>
-      <c r="F49" s="12">
-        <v>8</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="12">
-        <v>7</v>
-      </c>
-      <c r="L49" s="12">
-        <v>12</v>
-      </c>
-      <c r="M49" s="12">
-        <v>10</v>
-      </c>
-      <c r="N49" s="12">
-        <v>2</v>
-      </c>
-      <c r="P49" s="12">
-        <v>4</v>
-      </c>
-      <c r="S49" s="12">
-        <v>8</v>
-      </c>
-      <c r="U49" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="A50" s="12">
-        <v>1</v>
-      </c>
-      <c r="B50" s="12">
-        <v>11</v>
-      </c>
-      <c r="D50" s="12">
-        <v>3</v>
-      </c>
-      <c r="F50" s="12">
-        <v>8</v>
-      </c>
-      <c r="G50" s="12">
-        <v>9</v>
-      </c>
-      <c r="L50" s="12">
-        <v>12</v>
-      </c>
-      <c r="M50" s="12">
-        <v>10</v>
-      </c>
-      <c r="N50" s="12">
-        <v>2</v>
-      </c>
-      <c r="P50" s="12">
-        <v>4</v>
-      </c>
-      <c r="S50" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="T50" s="12">
-        <v>6</v>
-      </c>
-      <c r="U50" s="12">
-        <v>3</v>
-      </c>
-      <c r="V50" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
-      <c r="A51" s="12">
-        <v>1</v>
-      </c>
-      <c r="B51" s="12">
-        <v>11</v>
-      </c>
-      <c r="D51" s="12">
-        <v>3</v>
-      </c>
-      <c r="F51" s="12">
-        <v>4</v>
-      </c>
-      <c r="L51" s="12">
-        <v>7</v>
-      </c>
-      <c r="N51" s="12">
-        <v>2</v>
-      </c>
-      <c r="P51" s="12">
-        <v>5</v>
-      </c>
-      <c r="S51" s="12">
-        <v>10</v>
-      </c>
-      <c r="T51" s="12">
-        <v>4</v>
-      </c>
-      <c r="U51" s="12">
-        <v>6</v>
-      </c>
-      <c r="V51" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="A52" s="12">
-        <v>1</v>
-      </c>
-      <c r="B52" s="12">
-        <v>11</v>
-      </c>
-      <c r="D52" s="12">
-        <v>3</v>
-      </c>
-      <c r="F52" s="12">
-        <v>8</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="12">
-        <v>7</v>
-      </c>
-      <c r="M52" s="12">
-        <v>12</v>
-      </c>
-      <c r="N52" s="12">
-        <v>2</v>
-      </c>
-      <c r="P52" s="12">
-        <v>5</v>
-      </c>
-      <c r="S52" s="12">
-        <v>10</v>
-      </c>
-      <c r="U52" s="12">
-        <v>6</v>
-      </c>
-      <c r="V52" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
-      <c r="A53" s="12">
-        <v>1</v>
-      </c>
-      <c r="B53" s="12">
-        <v>11</v>
-      </c>
-      <c r="D53" s="12">
-        <v>3</v>
-      </c>
-      <c r="F53" s="12">
-        <v>8</v>
-      </c>
-      <c r="I53" s="12">
-        <v>4</v>
-      </c>
-      <c r="L53" s="12">
-        <v>7</v>
-      </c>
-      <c r="N53" s="12">
-        <v>2</v>
-      </c>
-      <c r="P53" s="12">
-        <v>5</v>
-      </c>
-      <c r="S53" s="12">
-        <v>10</v>
-      </c>
-      <c r="U53" s="12">
-        <v>6</v>
-      </c>
-      <c r="V53" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
-      <c r="A54" s="12">
-        <v>1</v>
-      </c>
-      <c r="B54" s="12">
-        <v>11</v>
-      </c>
-      <c r="D54" s="12">
-        <v>3</v>
-      </c>
-      <c r="F54" s="12">
-        <v>8</v>
-      </c>
-      <c r="I54" s="12">
-        <v>4</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M54" s="12">
-        <v>12</v>
-      </c>
-      <c r="N54" s="12">
-        <v>2</v>
-      </c>
-      <c r="P54" s="12">
-        <v>5</v>
-      </c>
-      <c r="S54" s="12">
-        <v>10</v>
-      </c>
-      <c r="U54" s="12">
-        <v>6</v>
-      </c>
-      <c r="V54" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
-      <c r="A55" s="12">
-        <v>1</v>
-      </c>
-      <c r="B55" s="12">
-        <v>11</v>
-      </c>
-      <c r="D55" s="12">
-        <v>3</v>
-      </c>
-      <c r="F55" s="12">
-        <v>8</v>
-      </c>
-      <c r="G55" s="12">
-        <v>12</v>
-      </c>
-      <c r="K55" s="12">
-        <v>7</v>
-      </c>
-      <c r="N55" s="12">
-        <v>2</v>
-      </c>
-      <c r="P55" s="12">
-        <v>5</v>
-      </c>
-      <c r="S55" s="12">
-        <v>10</v>
-      </c>
-      <c r="T55" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U55" s="12">
-        <v>6</v>
-      </c>
-      <c r="V55" s="12">
+      <c r="U55" s="13">
+        <v>6</v>
+      </c>
+      <c r="V55" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="12">
-        <v>1</v>
-      </c>
-      <c r="B56" s="12">
-        <v>11</v>
-      </c>
-      <c r="D56" s="12">
-        <v>3</v>
-      </c>
-      <c r="F56" s="12">
-        <v>8</v>
-      </c>
-      <c r="G56" s="12">
-        <v>10</v>
-      </c>
-      <c r="I56" s="12">
-        <v>4</v>
-      </c>
-      <c r="L56" s="12">
-        <v>7</v>
-      </c>
-      <c r="N56" s="12">
-        <v>2</v>
-      </c>
-      <c r="P56" s="12">
-        <v>5</v>
-      </c>
-      <c r="U56" s="12">
-        <v>6</v>
-      </c>
-      <c r="V56" s="12">
+      <c r="A56" s="13">
+        <v>1</v>
+      </c>
+      <c r="B56" s="13">
+        <v>11</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13">
+        <v>3</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13">
+        <v>8</v>
+      </c>
+      <c r="G56" s="13">
+        <v>10</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13">
+        <v>4</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13">
+        <v>7</v>
+      </c>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13">
+        <v>2</v>
+      </c>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13">
+        <v>6</v>
+      </c>
+      <c r="V56" s="13">
         <v>9</v>
       </c>
     </row>
